--- a/1-SystemDocs/System_spec_v4.xlsx
+++ b/1-SystemDocs/System_spec_v4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-120" windowWidth="12960" windowHeight="11760" firstSheet="6" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="-120" windowWidth="12960" windowHeight="11760" firstSheet="10" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="13" r:id="rId1"/>
@@ -3895,11 +3895,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="404551768"/>
-        <c:axId val="385268864"/>
+        <c:axId val="343293592"/>
+        <c:axId val="343353544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="404551768"/>
+        <c:axId val="343293592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25"/>
@@ -3944,12 +3944,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="385268864"/>
+        <c:crossAx val="343353544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="385268864"/>
+        <c:axId val="343353544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1400"/>
@@ -4008,7 +4008,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="404551768"/>
+        <c:crossAx val="343293592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4724,7 +4724,7 @@
         <xdr:cNvPr id="2" name="Obrázok 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5667,7 +5667,7 @@
   <dimension ref="B1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8812,7 +8812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
@@ -12381,7 +12381,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/1-SystemDocs/System_spec_v4.xlsx
+++ b/1-SystemDocs/System_spec_v4.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1676" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="781">
   <si>
     <t>ETH*</t>
   </si>
@@ -2429,6 +2429,18 @@
   </si>
   <si>
     <t>Electrochemical sensor configuration readback failed at A3.2</t>
+  </si>
+  <si>
+    <t>Fan control - implement control from Labview for Fan header</t>
+  </si>
+  <si>
+    <t>Create high level system document, documenting the project</t>
+  </si>
+  <si>
+    <t>add configutaion set to log</t>
+  </si>
+  <si>
+    <t>array for unit selection, switch for single and multiple config</t>
   </si>
 </sst>
 </file>
@@ -3895,11 +3907,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="343293592"/>
-        <c:axId val="343353544"/>
+        <c:axId val="372743552"/>
+        <c:axId val="372743936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="343293592"/>
+        <c:axId val="372743552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25"/>
@@ -3944,12 +3956,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343353544"/>
+        <c:crossAx val="372743936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="343353544"/>
+        <c:axId val="372743936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1400"/>
@@ -4008,7 +4020,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343293592"/>
+        <c:crossAx val="372743552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4724,7 +4736,7 @@
         <xdr:cNvPr id="2" name="Obrázok 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12379,10 +12391,10 @@
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12878,6 +12890,26 @@
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>740</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>780</v>
       </c>
     </row>
   </sheetData>

--- a/1-SystemDocs/System_spec_v4.xlsx
+++ b/1-SystemDocs/System_spec_v4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-120" windowWidth="12960" windowHeight="11760" firstSheet="10" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="-120" windowWidth="12960" windowHeight="11760" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="13" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="777">
   <si>
     <t>ETH*</t>
   </si>
@@ -2389,18 +2389,6 @@
     <t>NO-AE plugged</t>
   </si>
   <si>
-    <t>0b00010000</t>
-  </si>
-  <si>
-    <t>0b00100000</t>
-  </si>
-  <si>
-    <t>0b00100001</t>
-  </si>
-  <si>
-    <t>0b00110001</t>
-  </si>
-  <si>
     <t>Electrochemical sensor configuration readback failed at A1.0</t>
   </si>
   <si>
@@ -2447,7 +2435,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2585,6 +2573,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="17">
@@ -3021,7 +3015,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="224">
+  <cellXfs count="223">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3344,11 +3338,7 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3356,6 +3346,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3403,6 +3397,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3418,29 +3436,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3907,11 +3904,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="372743552"/>
-        <c:axId val="372743936"/>
+        <c:axId val="366050544"/>
+        <c:axId val="329149320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="372743552"/>
+        <c:axId val="366050544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25"/>
@@ -3956,12 +3953,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="372743936"/>
+        <c:crossAx val="329149320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="372743936"/>
+        <c:axId val="329149320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1400"/>
@@ -4020,7 +4017,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="372743552"/>
+        <c:crossAx val="366050544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4736,7 +4733,7 @@
         <xdr:cNvPr id="2" name="Obrázok 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5679,7 +5676,7 @@
   <dimension ref="B1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8824,8 +8821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V63"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" topLeftCell="B34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8852,19 +8849,19 @@
       </c>
     </row>
     <row r="3" spans="2:22" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="219" t="s">
+      <c r="B3" s="209" t="s">
         <v>537</v>
       </c>
-      <c r="C3" s="219"/>
-      <c r="D3" s="219"/>
-      <c r="E3" s="219"/>
-      <c r="F3" s="219"/>
-      <c r="G3" s="219"/>
-      <c r="H3" s="219"/>
-      <c r="I3" s="219"/>
-      <c r="J3" s="219"/>
-      <c r="K3" s="219"/>
-      <c r="L3" s="219"/>
+      <c r="C3" s="209"/>
+      <c r="D3" s="209"/>
+      <c r="E3" s="209"/>
+      <c r="F3" s="209"/>
+      <c r="G3" s="209"/>
+      <c r="H3" s="209"/>
+      <c r="I3" s="209"/>
+      <c r="J3" s="209"/>
+      <c r="K3" s="209"/>
+      <c r="L3" s="209"/>
       <c r="M3" s="129"/>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
@@ -9003,16 +9000,16 @@
       <c r="B10" s="151" t="s">
         <v>636</v>
       </c>
-      <c r="C10" s="220" t="s">
+      <c r="C10" s="210" t="s">
         <v>643</v>
       </c>
-      <c r="D10" s="220"/>
-      <c r="E10" s="220"/>
-      <c r="F10" s="220"/>
-      <c r="G10" s="220"/>
-      <c r="H10" s="220"/>
-      <c r="I10" s="220"/>
-      <c r="J10" s="221"/>
+      <c r="D10" s="210"/>
+      <c r="E10" s="210"/>
+      <c r="F10" s="210"/>
+      <c r="G10" s="210"/>
+      <c r="H10" s="210"/>
+      <c r="I10" s="210"/>
+      <c r="J10" s="211"/>
       <c r="T10" s="22">
         <v>9</v>
       </c>
@@ -9027,16 +9024,16 @@
       <c r="B11" s="151" t="s">
         <v>642</v>
       </c>
-      <c r="C11" s="220" t="s">
+      <c r="C11" s="210" t="s">
         <v>645</v>
       </c>
-      <c r="D11" s="220"/>
-      <c r="E11" s="220"/>
-      <c r="F11" s="220"/>
-      <c r="G11" s="220"/>
-      <c r="H11" s="220"/>
-      <c r="I11" s="220"/>
-      <c r="J11" s="221"/>
+      <c r="D11" s="210"/>
+      <c r="E11" s="210"/>
+      <c r="F11" s="210"/>
+      <c r="G11" s="210"/>
+      <c r="H11" s="210"/>
+      <c r="I11" s="210"/>
+      <c r="J11" s="211"/>
       <c r="T11" s="24" t="s">
         <v>102</v>
       </c>
@@ -9051,16 +9048,16 @@
       <c r="B12" s="144" t="s">
         <v>641</v>
       </c>
-      <c r="C12" s="222" t="s">
+      <c r="C12" s="212" t="s">
         <v>644</v>
       </c>
-      <c r="D12" s="222"/>
-      <c r="E12" s="222"/>
-      <c r="F12" s="222"/>
-      <c r="G12" s="222"/>
-      <c r="H12" s="222"/>
-      <c r="I12" s="222"/>
-      <c r="J12" s="223"/>
+      <c r="D12" s="212"/>
+      <c r="E12" s="212"/>
+      <c r="F12" s="212"/>
+      <c r="G12" s="212"/>
+      <c r="H12" s="212"/>
+      <c r="I12" s="212"/>
+      <c r="J12" s="213"/>
     </row>
     <row r="14" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
@@ -9073,26 +9070,26 @@
       </c>
       <c r="C15" s="159"/>
       <c r="D15" s="159"/>
-      <c r="E15" s="212" t="s">
+      <c r="E15" s="218" t="s">
         <v>681</v>
       </c>
-      <c r="F15" s="213"/>
-      <c r="G15" s="214"/>
+      <c r="F15" s="219"/>
+      <c r="G15" s="220"/>
       <c r="H15" s="159"/>
       <c r="I15" s="159"/>
       <c r="J15" s="160"/>
-      <c r="L15" s="215" t="s">
+      <c r="L15" s="221" t="s">
         <v>706</v>
       </c>
-      <c r="M15" s="215"/>
-      <c r="N15" s="215"/>
-      <c r="O15" s="215"/>
-      <c r="P15" s="215"/>
-      <c r="Q15" s="215"/>
-      <c r="R15" s="215"/>
+      <c r="M15" s="221"/>
+      <c r="N15" s="221"/>
+      <c r="O15" s="221"/>
+      <c r="P15" s="221"/>
+      <c r="Q15" s="221"/>
+      <c r="R15" s="221"/>
     </row>
     <row r="16" spans="2:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="216">
+      <c r="B16" s="214">
         <v>1</v>
       </c>
       <c r="C16" s="28" t="s">
@@ -9143,13 +9140,13 @@
       <c r="S16" s="182" t="s">
         <v>758</v>
       </c>
-      <c r="U16" s="211" t="s">
+      <c r="U16" s="217" t="s">
         <v>659</v>
       </c>
-      <c r="V16" s="211"/>
+      <c r="V16" s="217"/>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B17" s="217"/>
+      <c r="B17" s="215"/>
       <c r="C17" s="31" t="s">
         <v>428</v>
       </c>
@@ -9211,7 +9208,7 @@
       </c>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B18" s="217"/>
+      <c r="B18" s="215"/>
       <c r="C18" s="31" t="s">
         <v>433</v>
       </c>
@@ -9232,7 +9229,7 @@
       </c>
     </row>
     <row r="19" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="218"/>
+      <c r="B19" s="216"/>
       <c r="C19" s="35" t="s">
         <v>648</v>
       </c>
@@ -9251,7 +9248,7 @@
       </c>
     </row>
     <row r="20" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="216">
+      <c r="B20" s="214">
         <v>2</v>
       </c>
       <c r="C20" s="28" t="s">
@@ -9286,7 +9283,7 @@
       </c>
     </row>
     <row r="21" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="217"/>
+      <c r="B21" s="215"/>
       <c r="C21" s="31" t="s">
         <v>424</v>
       </c>
@@ -9356,7 +9353,7 @@
       </c>
     </row>
     <row r="22" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="217"/>
+      <c r="B22" s="215"/>
       <c r="C22" s="31" t="s">
         <v>425</v>
       </c>
@@ -9426,7 +9423,7 @@
       </c>
     </row>
     <row r="23" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="217"/>
+      <c r="B23" s="215"/>
       <c r="C23" s="31" t="s">
         <v>426</v>
       </c>
@@ -9496,7 +9493,7 @@
       </c>
     </row>
     <row r="24" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="217"/>
+      <c r="B24" s="215"/>
       <c r="C24" s="81" t="s">
         <v>427</v>
       </c>
@@ -9566,7 +9563,7 @@
       </c>
     </row>
     <row r="25" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="217"/>
+      <c r="B25" s="215"/>
       <c r="C25" s="31" t="s">
         <v>428</v>
       </c>
@@ -9636,7 +9633,7 @@
       </c>
     </row>
     <row r="26" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="217"/>
+      <c r="B26" s="215"/>
       <c r="C26" s="31" t="s">
         <v>429</v>
       </c>
@@ -9703,7 +9700,7 @@
       </c>
     </row>
     <row r="27" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="217"/>
+      <c r="B27" s="215"/>
       <c r="C27" s="81" t="s">
         <v>430</v>
       </c>
@@ -9770,7 +9767,7 @@
       </c>
     </row>
     <row r="28" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="217"/>
+      <c r="B28" s="215"/>
       <c r="C28" s="31" t="s">
         <v>431</v>
       </c>
@@ -9799,7 +9796,7 @@
       </c>
     </row>
     <row r="29" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="217"/>
+      <c r="B29" s="215"/>
       <c r="C29" s="31" t="s">
         <v>433</v>
       </c>
@@ -9828,7 +9825,7 @@
       </c>
     </row>
     <row r="30" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="218"/>
+      <c r="B30" s="216"/>
       <c r="C30" s="35" t="s">
         <v>434</v>
       </c>
@@ -9857,81 +9854,82 @@
       </c>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="137"/>
-      <c r="H31" s="137"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
+      <c r="B31" s="214">
+        <v>3</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>650</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="E31" s="164" t="s">
+        <v>560</v>
+      </c>
+      <c r="F31" s="164" t="s">
+        <v>561</v>
+      </c>
+      <c r="G31" s="164" t="s">
+        <v>562</v>
+      </c>
+      <c r="H31" s="155" t="s">
+        <v>560</v>
+      </c>
+      <c r="I31" s="155" t="s">
+        <v>561</v>
+      </c>
+      <c r="J31" s="156" t="s">
+        <v>562</v>
+      </c>
       <c r="K31" s="10"/>
       <c r="L31" s="137"/>
       <c r="M31" s="137"/>
       <c r="N31" s="137"/>
       <c r="O31" s="137"/>
       <c r="P31" s="137"/>
-      <c r="Q31" s="195"/>
+      <c r="Q31" s="191"/>
       <c r="R31" s="137"/>
       <c r="U31" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
+      <c r="B32" s="215"/>
+      <c r="C32" s="31" t="s">
+        <v>424</v>
+      </c>
+      <c r="D32" s="81" t="s">
+        <v>651</v>
+      </c>
       <c r="E32" s="166" t="s">
-        <v>763</v>
+        <v>708</v>
       </c>
       <c r="F32" s="166" t="s">
-        <v>764</v>
+        <v>563</v>
       </c>
       <c r="G32" s="165" t="s">
         <v>583</v>
       </c>
       <c r="H32" s="157" t="str">
-        <f t="shared" ref="H32" si="13">CONCATENATE("0x",BIN2HEX(RIGHT(E32,LEN(E32)-2),2))</f>
-        <v>0x10</v>
+        <f>CONCATENATE("0x",BIN2HEX(RIGHT(E32,LEN(E32)-2),2))</f>
+        <v>0x18</v>
       </c>
       <c r="I32" s="157" t="str">
-        <f t="shared" ref="I32" si="14">CONCATENATE("0x",BIN2HEX(RIGHT(F32,LEN(F32)-2),2))</f>
-        <v>0x20</v>
+        <f>CONCATENATE("0x",BIN2HEX(RIGHT(F32,LEN(F32)-2),2))</f>
+        <v>0x00</v>
       </c>
       <c r="J32" s="158" t="str">
-        <f t="shared" ref="J32" si="15">CONCATENATE("0x",BIN2HEX(RIGHT(G32,LEN(G32)-2),2))</f>
+        <f>CONCATENATE("0x",BIN2HEX(RIGHT(G32,LEN(G32)-2),2))</f>
         <v>0x03</v>
       </c>
       <c r="K32" s="10"/>
-      <c r="L32" s="11" t="str">
-        <f t="shared" ref="L32" si="16">INDEX($V$18:$V$25,MATCH(LEFT(RIGHT(E32,LEN(E32)-2-3),3),$U$18:$U$25,0))</f>
-        <v>14k</v>
-      </c>
-      <c r="M32" s="11" t="str">
-        <f t="shared" ref="M32" si="17">INDEX($V$27:$V$30,MATCH(LEFT(RIGHT(E32,LEN(E32)-2-6),2),$U$27:$U$30,0))</f>
-        <v>10R</v>
-      </c>
-      <c r="N32" s="11" t="str">
-        <f t="shared" ref="N32" si="18">INDEX($V$32:$V$33,MATCH(LEFT(RIGHT(F32,LEN(F32)-2),1),$U$32:$U$33,0))</f>
-        <v>VDD</v>
-      </c>
-      <c r="O32" s="11" t="str">
-        <f t="shared" ref="O32" si="19">INDEX($V$35:$V$38,MATCH(LEFT(RIGHT(F32,LEN(F32)-2-1),2),$U$35:$U$38,0))</f>
-        <v>50%</v>
-      </c>
-      <c r="P32" s="11" t="str">
-        <f t="shared" ref="P32" si="20">INDEX($V$40:$V$41,MATCH(LEFT(RIGHT(F32,LEN(F32)-2-3),1),$U$40:$U$41,0))</f>
-        <v>NEG</v>
-      </c>
-      <c r="Q32" s="154">
-        <f t="shared" ref="Q32" si="21">INDEX($V$43:$V$56,MATCH(LEFT(RIGHT(F32,LEN(F32)-2-4),4),$U$43:$U$56,0))</f>
-        <v>0</v>
-      </c>
-      <c r="R32" s="11" t="str">
-        <f t="shared" ref="R32" si="22">INDEX($V$58:$V$63,MATCH(LEFT(RIGHT(G32,LEN(G32)-2-5),3),$U$58:$U$63,0))</f>
-        <v>3-lead amperometric</v>
-      </c>
+      <c r="L32" s="137"/>
+      <c r="M32" s="137"/>
+      <c r="N32" s="137"/>
+      <c r="O32" s="137"/>
+      <c r="P32" s="137"/>
+      <c r="Q32" s="191"/>
+      <c r="R32" s="137"/>
       <c r="U32" s="153" t="s">
         <v>677</v>
       </c>
@@ -9940,59 +9938,42 @@
       </c>
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
+      <c r="B33" s="215"/>
+      <c r="C33" s="31" t="s">
+        <v>425</v>
+      </c>
+      <c r="D33" s="87" t="s">
+        <v>223</v>
+      </c>
       <c r="E33" s="166" t="s">
-        <v>763</v>
+        <v>735</v>
       </c>
       <c r="F33" s="166" t="s">
-        <v>765</v>
+        <v>564</v>
       </c>
       <c r="G33" s="165" t="s">
         <v>583</v>
       </c>
       <c r="H33" s="157" t="str">
-        <f t="shared" ref="H33" si="23">CONCATENATE("0x",BIN2HEX(RIGHT(E33,LEN(E33)-2),2))</f>
-        <v>0x10</v>
+        <f t="shared" ref="H33:H37" si="13">CONCATENATE("0x",BIN2HEX(RIGHT(E33,LEN(E33)-2),2))</f>
+        <v>0x0E</v>
       </c>
       <c r="I33" s="157" t="str">
-        <f t="shared" ref="I33" si="24">CONCATENATE("0x",BIN2HEX(RIGHT(F33,LEN(F33)-2),2))</f>
-        <v>0x21</v>
+        <f t="shared" ref="I33:I37" si="14">CONCATENATE("0x",BIN2HEX(RIGHT(F33,LEN(F33)-2),2))</f>
+        <v>0x40</v>
       </c>
       <c r="J33" s="158" t="str">
-        <f t="shared" ref="J33" si="25">CONCATENATE("0x",BIN2HEX(RIGHT(G33,LEN(G33)-2),2))</f>
+        <f t="shared" ref="J33:J37" si="15">CONCATENATE("0x",BIN2HEX(RIGHT(G33,LEN(G33)-2),2))</f>
         <v>0x03</v>
       </c>
       <c r="K33" s="10"/>
-      <c r="L33" s="11" t="str">
-        <f t="shared" ref="L33" si="26">INDEX($V$18:$V$25,MATCH(LEFT(RIGHT(E33,LEN(E33)-2-3),3),$U$18:$U$25,0))</f>
-        <v>14k</v>
-      </c>
-      <c r="M33" s="11" t="str">
-        <f t="shared" ref="M33" si="27">INDEX($V$27:$V$30,MATCH(LEFT(RIGHT(E33,LEN(E33)-2-6),2),$U$27:$U$30,0))</f>
-        <v>10R</v>
-      </c>
-      <c r="N33" s="11" t="str">
-        <f t="shared" ref="N33" si="28">INDEX($V$32:$V$33,MATCH(LEFT(RIGHT(F33,LEN(F33)-2),1),$U$32:$U$33,0))</f>
-        <v>VDD</v>
-      </c>
-      <c r="O33" s="11" t="str">
-        <f t="shared" ref="O33" si="29">INDEX($V$35:$V$38,MATCH(LEFT(RIGHT(F33,LEN(F33)-2-1),2),$U$35:$U$38,0))</f>
-        <v>50%</v>
-      </c>
-      <c r="P33" s="11" t="str">
-        <f t="shared" ref="P33" si="30">INDEX($V$40:$V$41,MATCH(LEFT(RIGHT(F33,LEN(F33)-2-3),1),$U$40:$U$41,0))</f>
-        <v>NEG</v>
-      </c>
-      <c r="Q33" s="154">
-        <f t="shared" ref="Q33" si="31">INDEX($V$43:$V$56,MATCH(LEFT(RIGHT(F33,LEN(F33)-2-4),4),$U$43:$U$56,0))</f>
-        <v>0.01</v>
-      </c>
-      <c r="R33" s="11" t="str">
-        <f t="shared" ref="R33" si="32">INDEX($V$58:$V$63,MATCH(LEFT(RIGHT(G33,LEN(G33)-2-5),3),$U$58:$U$63,0))</f>
-        <v>3-lead amperometric</v>
-      </c>
+      <c r="L33" s="137"/>
+      <c r="M33" s="137"/>
+      <c r="N33" s="137"/>
+      <c r="O33" s="137"/>
+      <c r="P33" s="137"/>
+      <c r="Q33" s="191"/>
+      <c r="R33" s="137"/>
       <c r="U33" s="153" t="s">
         <v>678</v>
       </c>
@@ -10001,76 +9982,78 @@
       </c>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
+      <c r="B34" s="215"/>
+      <c r="C34" s="31" t="s">
+        <v>426</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>545</v>
+      </c>
       <c r="E34" s="166" t="s">
-        <v>763</v>
+        <v>709</v>
       </c>
       <c r="F34" s="166" t="s">
-        <v>766</v>
+        <v>564</v>
       </c>
       <c r="G34" s="165" t="s">
         <v>583</v>
       </c>
       <c r="H34" s="157" t="str">
-        <f t="shared" ref="H34" si="33">CONCATENATE("0x",BIN2HEX(RIGHT(E34,LEN(E34)-2),2))</f>
-        <v>0x10</v>
+        <f t="shared" si="13"/>
+        <v>0x15</v>
       </c>
       <c r="I34" s="157" t="str">
-        <f t="shared" ref="I34" si="34">CONCATENATE("0x",BIN2HEX(RIGHT(F34,LEN(F34)-2),2))</f>
-        <v>0x31</v>
+        <f t="shared" si="14"/>
+        <v>0x40</v>
       </c>
       <c r="J34" s="158" t="str">
-        <f t="shared" ref="J34" si="35">CONCATENATE("0x",BIN2HEX(RIGHT(G34,LEN(G34)-2),2))</f>
+        <f t="shared" si="15"/>
         <v>0x03</v>
       </c>
       <c r="K34" s="10"/>
-      <c r="L34" s="11" t="str">
-        <f t="shared" ref="L34" si="36">INDEX($V$18:$V$25,MATCH(LEFT(RIGHT(E34,LEN(E34)-2-3),3),$U$18:$U$25,0))</f>
-        <v>14k</v>
-      </c>
-      <c r="M34" s="11" t="str">
-        <f t="shared" ref="M34" si="37">INDEX($V$27:$V$30,MATCH(LEFT(RIGHT(E34,LEN(E34)-2-6),2),$U$27:$U$30,0))</f>
-        <v>10R</v>
-      </c>
-      <c r="N34" s="11" t="str">
-        <f t="shared" ref="N34" si="38">INDEX($V$32:$V$33,MATCH(LEFT(RIGHT(F34,LEN(F34)-2),1),$U$32:$U$33,0))</f>
-        <v>VDD</v>
-      </c>
-      <c r="O34" s="11" t="str">
-        <f t="shared" ref="O34" si="39">INDEX($V$35:$V$38,MATCH(LEFT(RIGHT(F34,LEN(F34)-2-1),2),$U$35:$U$38,0))</f>
-        <v>50%</v>
-      </c>
-      <c r="P34" s="11" t="str">
-        <f t="shared" ref="P34" si="40">INDEX($V$40:$V$41,MATCH(LEFT(RIGHT(F34,LEN(F34)-2-3),1),$U$40:$U$41,0))</f>
-        <v>POS</v>
-      </c>
-      <c r="Q34" s="154">
-        <f t="shared" ref="Q34" si="41">INDEX($V$43:$V$56,MATCH(LEFT(RIGHT(F34,LEN(F34)-2-4),4),$U$43:$U$56,0))</f>
-        <v>0.01</v>
-      </c>
-      <c r="R34" s="11" t="str">
-        <f t="shared" ref="R34" si="42">INDEX($V$58:$V$63,MATCH(LEFT(RIGHT(G34,LEN(G34)-2-5),3),$U$58:$U$63,0))</f>
-        <v>3-lead amperometric</v>
-      </c>
+      <c r="L34" s="137"/>
+      <c r="M34" s="137"/>
+      <c r="N34" s="137"/>
+      <c r="O34" s="137"/>
+      <c r="P34" s="137"/>
+      <c r="Q34" s="191"/>
+      <c r="R34" s="137"/>
       <c r="U34" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="195"/>
-      <c r="F35" s="195"/>
-      <c r="G35" s="194"/>
-      <c r="H35" s="194"/>
-      <c r="I35" s="194"/>
-      <c r="J35" s="194"/>
-      <c r="K35" s="194"/>
-      <c r="L35" s="194"/>
-      <c r="M35" s="194"/>
+      <c r="B35" s="215"/>
+      <c r="C35" s="81" t="s">
+        <v>427</v>
+      </c>
+      <c r="D35" s="87" t="s">
+        <v>542</v>
+      </c>
+      <c r="E35" s="168" t="s">
+        <v>750</v>
+      </c>
+      <c r="F35" s="168" t="s">
+        <v>710</v>
+      </c>
+      <c r="G35" s="176" t="s">
+        <v>583</v>
+      </c>
+      <c r="H35" s="177" t="str">
+        <f t="shared" si="13"/>
+        <v>0x11</v>
+      </c>
+      <c r="I35" s="177" t="str">
+        <f t="shared" si="14"/>
+        <v>0x14</v>
+      </c>
+      <c r="J35" s="178" t="str">
+        <f t="shared" si="15"/>
+        <v>0x03</v>
+      </c>
+      <c r="K35" s="190"/>
+      <c r="L35" s="190"/>
+      <c r="M35" s="190"/>
       <c r="N35" s="10"/>
       <c r="O35" s="10"/>
       <c r="P35" s="10"/>
@@ -10084,15 +10067,34 @@
       </c>
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="137"/>
-      <c r="F36" s="137"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
+      <c r="B36" s="215"/>
+      <c r="C36" s="31" t="s">
+        <v>428</v>
+      </c>
+      <c r="D36" s="87" t="s">
+        <v>548</v>
+      </c>
+      <c r="E36" s="166" t="s">
+        <v>753</v>
+      </c>
+      <c r="F36" s="166" t="s">
+        <v>563</v>
+      </c>
+      <c r="G36" s="165" t="s">
+        <v>583</v>
+      </c>
+      <c r="H36" s="157" t="str">
+        <f t="shared" si="13"/>
+        <v>0x19</v>
+      </c>
+      <c r="I36" s="157" t="str">
+        <f t="shared" si="14"/>
+        <v>0x00</v>
+      </c>
+      <c r="J36" s="158" t="str">
+        <f t="shared" si="15"/>
+        <v>0x03</v>
+      </c>
       <c r="K36" s="10"/>
       <c r="L36" s="10"/>
       <c r="M36" s="10"/>
@@ -10109,18 +10111,37 @@
       </c>
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
+      <c r="B37" s="215"/>
+      <c r="C37" s="31" t="s">
+        <v>429</v>
+      </c>
+      <c r="D37" s="87" t="s">
+        <v>547</v>
+      </c>
+      <c r="E37" s="166" t="s">
+        <v>753</v>
+      </c>
+      <c r="F37" s="166" t="s">
+        <v>563</v>
+      </c>
+      <c r="G37" s="165" t="s">
+        <v>583</v>
+      </c>
+      <c r="H37" s="157" t="str">
+        <f t="shared" si="13"/>
+        <v>0x19</v>
+      </c>
+      <c r="I37" s="157" t="str">
+        <f t="shared" si="14"/>
+        <v>0x00</v>
+      </c>
+      <c r="J37" s="158" t="str">
+        <f t="shared" si="15"/>
+        <v>0x03</v>
+      </c>
       <c r="K37" s="10"/>
       <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
+      <c r="M37" s="192"/>
       <c r="N37" s="10"/>
       <c r="O37" s="10"/>
       <c r="P37" s="10"/>
@@ -10134,15 +10155,21 @@
       </c>
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
+      <c r="B38" s="215"/>
+      <c r="C38" s="81" t="s">
+        <v>430</v>
+      </c>
+      <c r="D38" s="87" t="s">
+        <v>759</v>
+      </c>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
+      <c r="G38" s="165" t="s">
+        <v>563</v>
+      </c>
+      <c r="H38" s="157"/>
+      <c r="I38" s="157"/>
+      <c r="J38" s="158"/>
       <c r="K38" s="10"/>
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
@@ -10159,17 +10186,23 @@
       </c>
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
+      <c r="B39" s="215"/>
+      <c r="C39" s="31" t="s">
+        <v>431</v>
+      </c>
+      <c r="D39" s="87" t="s">
+        <v>759</v>
+      </c>
+      <c r="E39" s="137"/>
+      <c r="F39" s="137"/>
+      <c r="G39" s="165" t="s">
+        <v>563</v>
+      </c>
+      <c r="H39" s="157"/>
+      <c r="I39" s="157"/>
+      <c r="J39" s="158"/>
       <c r="K39" s="10"/>
-      <c r="L39" s="194"/>
+      <c r="L39" s="190"/>
       <c r="M39" s="10"/>
       <c r="N39" s="10"/>
       <c r="O39" s="10"/>
@@ -10181,17 +10214,21 @@
       </c>
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
+      <c r="B40" s="215"/>
+      <c r="C40" s="31" t="s">
+        <v>433</v>
+      </c>
+      <c r="D40" s="166" t="s">
+        <v>649</v>
+      </c>
+      <c r="E40" s="166"/>
+      <c r="F40" s="166"/>
+      <c r="G40" s="166"/>
+      <c r="H40" s="157"/>
+      <c r="I40" s="157"/>
+      <c r="J40" s="158"/>
       <c r="K40" s="10"/>
-      <c r="L40" s="194"/>
+      <c r="L40" s="190"/>
       <c r="M40" s="10"/>
       <c r="N40" s="10"/>
       <c r="O40" s="10"/>
@@ -10205,18 +10242,24 @@
         <v>687</v>
       </c>
     </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="193"/>
+    <row r="41" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="216"/>
+      <c r="C41" s="35" t="s">
+        <v>434</v>
+      </c>
+      <c r="D41" s="35" t="s">
+        <v>759</v>
+      </c>
       <c r="E41" s="193"/>
       <c r="F41" s="193"/>
-      <c r="G41" s="193"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="194"/>
-      <c r="L41" s="194"/>
+      <c r="G41" s="165" t="s">
+        <v>563</v>
+      </c>
+      <c r="H41" s="162"/>
+      <c r="I41" s="162"/>
+      <c r="J41" s="163"/>
+      <c r="K41" s="190"/>
+      <c r="L41" s="190"/>
       <c r="M41" s="10"/>
       <c r="N41" s="10"/>
       <c r="O41" s="10"/>
@@ -10231,17 +10274,35 @@
       </c>
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
+      <c r="B42" s="214">
+        <v>4</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>650</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="E42" s="164" t="s">
+        <v>560</v>
+      </c>
+      <c r="F42" s="164" t="s">
+        <v>561</v>
+      </c>
+      <c r="G42" s="164" t="s">
+        <v>562</v>
+      </c>
+      <c r="H42" s="155" t="s">
+        <v>560</v>
+      </c>
+      <c r="I42" s="155" t="s">
+        <v>561</v>
+      </c>
+      <c r="J42" s="156" t="s">
+        <v>562</v>
+      </c>
       <c r="K42" s="10"/>
-      <c r="L42" s="194"/>
+      <c r="L42" s="190"/>
       <c r="M42" s="10"/>
       <c r="N42" s="10"/>
       <c r="O42" s="10"/>
@@ -10253,15 +10314,34 @@
       </c>
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B43" s="183"/>
-      <c r="C43" s="183"/>
-      <c r="D43" s="183"/>
-      <c r="E43" s="183"/>
-      <c r="F43" s="183"/>
-      <c r="G43" s="183"/>
-      <c r="H43" s="183"/>
-      <c r="I43" s="183"/>
-      <c r="J43" s="183"/>
+      <c r="B43" s="215"/>
+      <c r="C43" s="31" t="s">
+        <v>424</v>
+      </c>
+      <c r="D43" s="31" t="s">
+        <v>651</v>
+      </c>
+      <c r="E43" s="166" t="s">
+        <v>708</v>
+      </c>
+      <c r="F43" s="166" t="s">
+        <v>563</v>
+      </c>
+      <c r="G43" s="165" t="s">
+        <v>583</v>
+      </c>
+      <c r="H43" s="157" t="str">
+        <f>CONCATENATE("0x",BIN2HEX(RIGHT(E43,LEN(E43)-2),2))</f>
+        <v>0x18</v>
+      </c>
+      <c r="I43" s="157" t="str">
+        <f>CONCATENATE("0x",BIN2HEX(RIGHT(F43,LEN(F43)-2),2))</f>
+        <v>0x00</v>
+      </c>
+      <c r="J43" s="158" t="str">
+        <f>CONCATENATE("0x",BIN2HEX(RIGHT(G43,LEN(G43)-2),2))</f>
+        <v>0x03</v>
+      </c>
       <c r="K43" s="183"/>
       <c r="L43" s="183"/>
       <c r="M43" s="183"/>
@@ -10278,15 +10358,34 @@
       </c>
     </row>
     <row r="44" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B44" s="183"/>
-      <c r="C44" s="183"/>
-      <c r="D44" s="183"/>
-      <c r="E44" s="183"/>
-      <c r="F44" s="183"/>
-      <c r="G44" s="183"/>
-      <c r="H44" s="183"/>
-      <c r="I44" s="183"/>
-      <c r="J44" s="183"/>
+      <c r="B44" s="215"/>
+      <c r="C44" s="31" t="s">
+        <v>425</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="E44" s="166" t="s">
+        <v>735</v>
+      </c>
+      <c r="F44" s="166" t="s">
+        <v>564</v>
+      </c>
+      <c r="G44" s="165" t="s">
+        <v>583</v>
+      </c>
+      <c r="H44" s="157" t="str">
+        <f t="shared" ref="H44" si="16">CONCATENATE("0x",BIN2HEX(RIGHT(E44,LEN(E44)-2),2))</f>
+        <v>0x0E</v>
+      </c>
+      <c r="I44" s="157" t="str">
+        <f t="shared" ref="I44" si="17">CONCATENATE("0x",BIN2HEX(RIGHT(F44,LEN(F44)-2),2))</f>
+        <v>0x40</v>
+      </c>
+      <c r="J44" s="158" t="str">
+        <f t="shared" ref="J44" si="18">CONCATENATE("0x",BIN2HEX(RIGHT(G44,LEN(G44)-2),2))</f>
+        <v>0x03</v>
+      </c>
       <c r="K44" s="183"/>
       <c r="L44" s="183"/>
       <c r="M44" s="183"/>
@@ -10303,15 +10402,21 @@
       </c>
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B45" s="183"/>
-      <c r="C45" s="183"/>
-      <c r="D45" s="183"/>
-      <c r="E45" s="183"/>
-      <c r="F45" s="183"/>
-      <c r="G45" s="183"/>
-      <c r="H45" s="183"/>
-      <c r="I45" s="183"/>
-      <c r="J45" s="183"/>
+      <c r="B45" s="215"/>
+      <c r="C45" s="31" t="s">
+        <v>426</v>
+      </c>
+      <c r="D45" s="87" t="s">
+        <v>759</v>
+      </c>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="165" t="s">
+        <v>563</v>
+      </c>
+      <c r="H45" s="157"/>
+      <c r="I45" s="157"/>
+      <c r="J45" s="158"/>
       <c r="K45" s="183"/>
       <c r="L45" s="183"/>
       <c r="M45" s="183"/>
@@ -10328,15 +10433,21 @@
       </c>
     </row>
     <row r="46" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B46" s="183"/>
-      <c r="C46" s="183"/>
-      <c r="D46" s="183"/>
-      <c r="E46" s="183"/>
-      <c r="F46" s="183"/>
-      <c r="G46" s="183"/>
-      <c r="H46" s="183"/>
-      <c r="I46" s="183"/>
-      <c r="J46" s="183"/>
+      <c r="B46" s="215"/>
+      <c r="C46" s="81" t="s">
+        <v>427</v>
+      </c>
+      <c r="D46" s="87" t="s">
+        <v>759</v>
+      </c>
+      <c r="E46" s="87"/>
+      <c r="F46" s="87"/>
+      <c r="G46" s="165" t="s">
+        <v>563</v>
+      </c>
+      <c r="H46" s="177"/>
+      <c r="I46" s="177"/>
+      <c r="J46" s="178"/>
       <c r="K46" s="183"/>
       <c r="L46" s="183"/>
       <c r="M46" s="183"/>
@@ -10353,15 +10464,21 @@
       </c>
     </row>
     <row r="47" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B47" s="183"/>
-      <c r="C47" s="183"/>
-      <c r="D47" s="183"/>
-      <c r="E47" s="183"/>
-      <c r="F47" s="183"/>
-      <c r="G47" s="183"/>
-      <c r="H47" s="183"/>
-      <c r="I47" s="183"/>
-      <c r="J47" s="183"/>
+      <c r="B47" s="215"/>
+      <c r="C47" s="31" t="s">
+        <v>428</v>
+      </c>
+      <c r="D47" s="87" t="s">
+        <v>759</v>
+      </c>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="165" t="s">
+        <v>563</v>
+      </c>
+      <c r="H47" s="157"/>
+      <c r="I47" s="157"/>
+      <c r="J47" s="158"/>
       <c r="K47" s="183"/>
       <c r="L47" s="183"/>
       <c r="M47" s="183"/>
@@ -10378,20 +10495,26 @@
       </c>
     </row>
     <row r="48" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B48" s="183"/>
-      <c r="C48" s="185"/>
-      <c r="D48" s="185"/>
-      <c r="E48" s="185"/>
-      <c r="F48" s="185"/>
-      <c r="G48" s="185"/>
-      <c r="H48" s="185"/>
-      <c r="I48" s="185"/>
-      <c r="J48" s="185"/>
-      <c r="K48" s="185"/>
-      <c r="L48" s="185"/>
-      <c r="M48" s="185"/>
-      <c r="N48" s="185"/>
-      <c r="O48" s="185"/>
+      <c r="B48" s="215"/>
+      <c r="C48" s="31" t="s">
+        <v>429</v>
+      </c>
+      <c r="D48" s="87" t="s">
+        <v>759</v>
+      </c>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="165" t="s">
+        <v>563</v>
+      </c>
+      <c r="H48" s="157"/>
+      <c r="I48" s="157"/>
+      <c r="J48" s="158"/>
+      <c r="K48" s="184"/>
+      <c r="L48" s="184"/>
+      <c r="M48" s="184"/>
+      <c r="N48" s="184"/>
+      <c r="O48" s="184"/>
       <c r="P48" s="183"/>
       <c r="Q48" s="183"/>
       <c r="R48" s="183"/>
@@ -10403,15 +10526,21 @@
       </c>
     </row>
     <row r="49" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B49" s="183"/>
-      <c r="C49" s="183"/>
-      <c r="D49" s="183"/>
-      <c r="E49" s="183"/>
-      <c r="F49" s="183"/>
-      <c r="G49" s="183"/>
-      <c r="H49" s="183"/>
-      <c r="I49" s="183"/>
-      <c r="J49" s="183"/>
+      <c r="B49" s="215"/>
+      <c r="C49" s="81" t="s">
+        <v>430</v>
+      </c>
+      <c r="D49" s="87" t="s">
+        <v>759</v>
+      </c>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="165" t="s">
+        <v>563</v>
+      </c>
+      <c r="H49" s="157"/>
+      <c r="I49" s="157"/>
+      <c r="J49" s="158"/>
       <c r="K49" s="183"/>
       <c r="L49" s="183"/>
       <c r="M49" s="183"/>
@@ -10428,15 +10557,21 @@
       </c>
     </row>
     <row r="50" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B50" s="183"/>
-      <c r="C50" s="183"/>
-      <c r="D50" s="183"/>
-      <c r="E50" s="183"/>
-      <c r="F50" s="183"/>
-      <c r="G50" s="183"/>
-      <c r="H50" s="183"/>
-      <c r="I50" s="183"/>
-      <c r="J50" s="183"/>
+      <c r="B50" s="215"/>
+      <c r="C50" s="31" t="s">
+        <v>431</v>
+      </c>
+      <c r="D50" s="87" t="s">
+        <v>759</v>
+      </c>
+      <c r="E50" s="137"/>
+      <c r="F50" s="137"/>
+      <c r="G50" s="165" t="s">
+        <v>563</v>
+      </c>
+      <c r="H50" s="157"/>
+      <c r="I50" s="157"/>
+      <c r="J50" s="158"/>
       <c r="K50" s="183"/>
       <c r="L50" s="183"/>
       <c r="M50" s="183"/>
@@ -10453,15 +10588,19 @@
       </c>
     </row>
     <row r="51" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B51" s="183"/>
-      <c r="C51" s="183"/>
-      <c r="D51" s="183"/>
-      <c r="E51" s="185"/>
-      <c r="F51" s="183"/>
-      <c r="G51" s="183"/>
-      <c r="H51" s="183"/>
-      <c r="I51" s="183"/>
-      <c r="J51" s="183"/>
+      <c r="B51" s="215"/>
+      <c r="C51" s="31" t="s">
+        <v>433</v>
+      </c>
+      <c r="D51" s="166" t="s">
+        <v>649</v>
+      </c>
+      <c r="E51" s="166"/>
+      <c r="F51" s="166"/>
+      <c r="G51" s="166"/>
+      <c r="H51" s="157"/>
+      <c r="I51" s="157"/>
+      <c r="J51" s="158"/>
       <c r="K51" s="183"/>
       <c r="L51" s="183"/>
       <c r="M51" s="183"/>
@@ -10477,16 +10616,22 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="52" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B52" s="183"/>
-      <c r="C52" s="183"/>
-      <c r="D52" s="183"/>
-      <c r="E52" s="183"/>
-      <c r="F52" s="183"/>
-      <c r="G52" s="183"/>
-      <c r="H52" s="183"/>
-      <c r="I52" s="183"/>
-      <c r="J52" s="183"/>
+    <row r="52" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="216"/>
+      <c r="C52" s="35" t="s">
+        <v>434</v>
+      </c>
+      <c r="D52" s="35" t="s">
+        <v>759</v>
+      </c>
+      <c r="E52" s="193"/>
+      <c r="F52" s="193"/>
+      <c r="G52" s="165" t="s">
+        <v>563</v>
+      </c>
+      <c r="H52" s="162"/>
+      <c r="I52" s="162"/>
+      <c r="J52" s="163"/>
       <c r="K52" s="183"/>
       <c r="L52" s="183"/>
       <c r="M52" s="183"/>
@@ -10503,15 +10648,33 @@
       </c>
     </row>
     <row r="53" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B53" s="183"/>
-      <c r="C53" s="183"/>
-      <c r="D53" s="183"/>
-      <c r="E53" s="183"/>
-      <c r="F53" s="183"/>
-      <c r="G53" s="183"/>
-      <c r="H53" s="183"/>
-      <c r="I53" s="183"/>
-      <c r="J53" s="183"/>
+      <c r="B53" s="214">
+        <v>5</v>
+      </c>
+      <c r="C53" s="28" t="s">
+        <v>650</v>
+      </c>
+      <c r="D53" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="E53" s="164" t="s">
+        <v>560</v>
+      </c>
+      <c r="F53" s="164" t="s">
+        <v>561</v>
+      </c>
+      <c r="G53" s="164" t="s">
+        <v>562</v>
+      </c>
+      <c r="H53" s="155" t="s">
+        <v>560</v>
+      </c>
+      <c r="I53" s="155" t="s">
+        <v>561</v>
+      </c>
+      <c r="J53" s="156" t="s">
+        <v>562</v>
+      </c>
       <c r="K53" s="183"/>
       <c r="L53" s="183"/>
       <c r="M53" s="183"/>
@@ -10528,15 +10691,34 @@
       </c>
     </row>
     <row r="54" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B54" s="183"/>
-      <c r="C54" s="183"/>
-      <c r="D54" s="185"/>
-      <c r="E54" s="186"/>
-      <c r="F54" s="184"/>
-      <c r="G54" s="183"/>
-      <c r="H54" s="183"/>
-      <c r="I54" s="183"/>
-      <c r="J54" s="183"/>
+      <c r="B54" s="215"/>
+      <c r="C54" s="31" t="s">
+        <v>424</v>
+      </c>
+      <c r="D54" s="31" t="s">
+        <v>651</v>
+      </c>
+      <c r="E54" s="166" t="s">
+        <v>708</v>
+      </c>
+      <c r="F54" s="166" t="s">
+        <v>563</v>
+      </c>
+      <c r="G54" s="165" t="s">
+        <v>583</v>
+      </c>
+      <c r="H54" s="157" t="str">
+        <f>CONCATENATE("0x",BIN2HEX(RIGHT(E54,LEN(E54)-2),2))</f>
+        <v>0x18</v>
+      </c>
+      <c r="I54" s="157" t="str">
+        <f>CONCATENATE("0x",BIN2HEX(RIGHT(F54,LEN(F54)-2),2))</f>
+        <v>0x00</v>
+      </c>
+      <c r="J54" s="158" t="str">
+        <f>CONCATENATE("0x",BIN2HEX(RIGHT(G54,LEN(G54)-2),2))</f>
+        <v>0x03</v>
+      </c>
       <c r="K54" s="183"/>
       <c r="L54" s="183"/>
       <c r="M54" s="183"/>
@@ -10553,15 +10735,34 @@
       </c>
     </row>
     <row r="55" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B55" s="183"/>
-      <c r="C55" s="183"/>
-      <c r="D55" s="187"/>
-      <c r="E55" s="188"/>
-      <c r="F55" s="184"/>
-      <c r="G55" s="183"/>
-      <c r="H55" s="183"/>
-      <c r="I55" s="183"/>
-      <c r="J55" s="183"/>
+      <c r="B55" s="215"/>
+      <c r="C55" s="31" t="s">
+        <v>425</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="E55" s="166" t="s">
+        <v>735</v>
+      </c>
+      <c r="F55" s="166" t="s">
+        <v>564</v>
+      </c>
+      <c r="G55" s="165" t="s">
+        <v>583</v>
+      </c>
+      <c r="H55" s="157" t="str">
+        <f t="shared" ref="H55" si="19">CONCATENATE("0x",BIN2HEX(RIGHT(E55,LEN(E55)-2),2))</f>
+        <v>0x0E</v>
+      </c>
+      <c r="I55" s="157" t="str">
+        <f t="shared" ref="I55" si="20">CONCATENATE("0x",BIN2HEX(RIGHT(F55,LEN(F55)-2),2))</f>
+        <v>0x40</v>
+      </c>
+      <c r="J55" s="158" t="str">
+        <f t="shared" ref="J55" si="21">CONCATENATE("0x",BIN2HEX(RIGHT(G55,LEN(G55)-2),2))</f>
+        <v>0x03</v>
+      </c>
       <c r="K55" s="183"/>
       <c r="L55" s="183"/>
       <c r="M55" s="183"/>
@@ -10578,15 +10779,34 @@
       </c>
     </row>
     <row r="56" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B56" s="183"/>
-      <c r="C56" s="183"/>
-      <c r="D56" s="187"/>
-      <c r="E56" s="188"/>
-      <c r="F56" s="184"/>
-      <c r="G56" s="183"/>
-      <c r="H56" s="183"/>
-      <c r="I56" s="183"/>
-      <c r="J56" s="183"/>
+      <c r="B56" s="215"/>
+      <c r="C56" s="31" t="s">
+        <v>426</v>
+      </c>
+      <c r="D56" s="31" t="s">
+        <v>651</v>
+      </c>
+      <c r="E56" s="166" t="s">
+        <v>708</v>
+      </c>
+      <c r="F56" s="166" t="s">
+        <v>563</v>
+      </c>
+      <c r="G56" s="165" t="s">
+        <v>583</v>
+      </c>
+      <c r="H56" s="157" t="str">
+        <f>CONCATENATE("0x",BIN2HEX(RIGHT(E56,LEN(E56)-2),2))</f>
+        <v>0x18</v>
+      </c>
+      <c r="I56" s="157" t="str">
+        <f>CONCATENATE("0x",BIN2HEX(RIGHT(F56,LEN(F56)-2),2))</f>
+        <v>0x00</v>
+      </c>
+      <c r="J56" s="158" t="str">
+        <f>CONCATENATE("0x",BIN2HEX(RIGHT(G56,LEN(G56)-2),2))</f>
+        <v>0x03</v>
+      </c>
       <c r="K56" s="183"/>
       <c r="L56" s="183"/>
       <c r="M56" s="183"/>
@@ -10603,15 +10823,34 @@
       </c>
     </row>
     <row r="57" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B57" s="183"/>
-      <c r="C57" s="183"/>
-      <c r="D57" s="185"/>
-      <c r="E57" s="186"/>
-      <c r="F57" s="184"/>
-      <c r="G57" s="183"/>
-      <c r="H57" s="183"/>
-      <c r="I57" s="183"/>
-      <c r="J57" s="183"/>
+      <c r="B57" s="215"/>
+      <c r="C57" s="81" t="s">
+        <v>427</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="E57" s="166" t="s">
+        <v>735</v>
+      </c>
+      <c r="F57" s="166" t="s">
+        <v>564</v>
+      </c>
+      <c r="G57" s="165" t="s">
+        <v>583</v>
+      </c>
+      <c r="H57" s="157" t="str">
+        <f t="shared" ref="H57" si="22">CONCATENATE("0x",BIN2HEX(RIGHT(E57,LEN(E57)-2),2))</f>
+        <v>0x0E</v>
+      </c>
+      <c r="I57" s="157" t="str">
+        <f t="shared" ref="I57" si="23">CONCATENATE("0x",BIN2HEX(RIGHT(F57,LEN(F57)-2),2))</f>
+        <v>0x40</v>
+      </c>
+      <c r="J57" s="158" t="str">
+        <f t="shared" ref="J57" si="24">CONCATENATE("0x",BIN2HEX(RIGHT(G57,LEN(G57)-2),2))</f>
+        <v>0x03</v>
+      </c>
       <c r="K57" s="183"/>
       <c r="L57" s="183"/>
       <c r="M57" s="183"/>
@@ -10625,15 +10864,21 @@
       </c>
     </row>
     <row r="58" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B58" s="183"/>
-      <c r="C58" s="183"/>
-      <c r="D58" s="183"/>
-      <c r="E58" s="183"/>
-      <c r="F58" s="183"/>
-      <c r="G58" s="183"/>
-      <c r="H58" s="183"/>
-      <c r="I58" s="183"/>
-      <c r="J58" s="183"/>
+      <c r="B58" s="215"/>
+      <c r="C58" s="31" t="s">
+        <v>428</v>
+      </c>
+      <c r="D58" s="87" t="s">
+        <v>759</v>
+      </c>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="165" t="s">
+        <v>563</v>
+      </c>
+      <c r="H58" s="157"/>
+      <c r="I58" s="157"/>
+      <c r="J58" s="158"/>
       <c r="K58" s="183"/>
       <c r="L58" s="183"/>
       <c r="M58" s="183"/>
@@ -10650,15 +10895,21 @@
       </c>
     </row>
     <row r="59" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B59" s="183"/>
-      <c r="C59" s="183"/>
-      <c r="D59" s="183"/>
-      <c r="E59" s="183"/>
-      <c r="F59" s="183"/>
-      <c r="G59" s="183"/>
-      <c r="H59" s="183"/>
-      <c r="I59" s="183"/>
-      <c r="J59" s="183"/>
+      <c r="B59" s="215"/>
+      <c r="C59" s="31" t="s">
+        <v>429</v>
+      </c>
+      <c r="D59" s="87" t="s">
+        <v>759</v>
+      </c>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="165" t="s">
+        <v>563</v>
+      </c>
+      <c r="H59" s="157"/>
+      <c r="I59" s="157"/>
+      <c r="J59" s="158"/>
       <c r="K59" s="183"/>
       <c r="L59" s="183"/>
       <c r="M59" s="183"/>
@@ -10675,6 +10926,21 @@
       </c>
     </row>
     <row r="60" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B60" s="215"/>
+      <c r="C60" s="81" t="s">
+        <v>430</v>
+      </c>
+      <c r="D60" s="87" t="s">
+        <v>759</v>
+      </c>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="165" t="s">
+        <v>563</v>
+      </c>
+      <c r="H60" s="157"/>
+      <c r="I60" s="157"/>
+      <c r="J60" s="158"/>
       <c r="U60" s="153" t="s">
         <v>663</v>
       </c>
@@ -10683,6 +10949,21 @@
       </c>
     </row>
     <row r="61" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B61" s="215"/>
+      <c r="C61" s="31" t="s">
+        <v>431</v>
+      </c>
+      <c r="D61" s="87" t="s">
+        <v>759</v>
+      </c>
+      <c r="E61" s="137"/>
+      <c r="F61" s="137"/>
+      <c r="G61" s="165" t="s">
+        <v>563</v>
+      </c>
+      <c r="H61" s="157"/>
+      <c r="I61" s="157"/>
+      <c r="J61" s="158"/>
       <c r="U61" s="153" t="s">
         <v>666</v>
       </c>
@@ -10691,6 +10972,19 @@
       </c>
     </row>
     <row r="62" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B62" s="215"/>
+      <c r="C62" s="31" t="s">
+        <v>433</v>
+      </c>
+      <c r="D62" s="166" t="s">
+        <v>649</v>
+      </c>
+      <c r="E62" s="166"/>
+      <c r="F62" s="166"/>
+      <c r="G62" s="166"/>
+      <c r="H62" s="157"/>
+      <c r="I62" s="157"/>
+      <c r="J62" s="158"/>
       <c r="U62" s="153" t="s">
         <v>670</v>
       </c>
@@ -10698,7 +10992,22 @@
         <v>704</v>
       </c>
     </row>
-    <row r="63" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="216"/>
+      <c r="C63" s="35" t="s">
+        <v>434</v>
+      </c>
+      <c r="D63" s="35" t="s">
+        <v>759</v>
+      </c>
+      <c r="E63" s="193"/>
+      <c r="F63" s="193"/>
+      <c r="G63" s="222" t="s">
+        <v>563</v>
+      </c>
+      <c r="H63" s="162"/>
+      <c r="I63" s="162"/>
+      <c r="J63" s="163"/>
       <c r="U63" s="153" t="s">
         <v>667</v>
       </c>
@@ -10707,7 +11016,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="12">
+    <mergeCell ref="B31:B41"/>
+    <mergeCell ref="B42:B52"/>
+    <mergeCell ref="B53:B63"/>
     <mergeCell ref="U16:V16"/>
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="L15:R15"/>
@@ -11611,28 +11923,28 @@
       <c r="A56" s="30"/>
       <c r="B56" s="31"/>
       <c r="C56" s="31"/>
-      <c r="D56" s="189" t="s">
+      <c r="D56" s="185" t="s">
         <v>741</v>
       </c>
-      <c r="E56" s="190"/>
-      <c r="F56" s="190"/>
-      <c r="G56" s="190"/>
-      <c r="H56" s="190">
+      <c r="E56" s="186"/>
+      <c r="F56" s="186"/>
+      <c r="G56" s="186"/>
+      <c r="H56" s="186">
         <v>-9.9000000000000005E-2</v>
       </c>
-      <c r="I56" s="190">
+      <c r="I56" s="186">
         <v>-9.9000000000000005E-2</v>
       </c>
-      <c r="J56" s="190">
+      <c r="J56" s="186">
         <v>0.1</v>
       </c>
-      <c r="K56" s="191">
+      <c r="K56" s="187">
         <v>0.498</v>
       </c>
-      <c r="L56" s="192">
+      <c r="L56" s="188">
         <v>0.29899999999999999</v>
       </c>
-      <c r="M56" s="193">
+      <c r="M56" s="189">
         <v>0.29899999999999999</v>
       </c>
       <c r="N56" s="31"/>
@@ -12114,7 +12426,7 @@
         <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -12122,7 +12434,7 @@
         <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -12130,7 +12442,7 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -12138,7 +12450,7 @@
         <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -12146,7 +12458,7 @@
         <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -12154,7 +12466,7 @@
         <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -12162,7 +12474,7 @@
         <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -12170,7 +12482,7 @@
         <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -12178,7 +12490,7 @@
         <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -12186,7 +12498,7 @@
         <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
     </row>
   </sheetData>
@@ -12393,9 +12705,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12892,24 +13202,30 @@
         <v>740</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+        <v>775</v>
+      </c>
+      <c r="B67" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>780</v>
+        <v>776</v>
+      </c>
+      <c r="B68" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -14591,16 +14907,16 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="196" t="s">
+      <c r="A4" s="194" t="s">
         <v>280</v>
       </c>
-      <c r="B4" s="196"/>
-      <c r="C4" s="196"/>
-      <c r="E4" s="196" t="s">
+      <c r="B4" s="194"/>
+      <c r="C4" s="194"/>
+      <c r="E4" s="194" t="s">
         <v>281</v>
       </c>
-      <c r="F4" s="196"/>
-      <c r="G4" s="196"/>
+      <c r="F4" s="194"/>
+      <c r="G4" s="194"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -14843,16 +15159,16 @@
       </c>
     </row>
     <row r="3" spans="2:10" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B3" s="196" t="s">
+      <c r="B3" s="194" t="s">
         <v>292</v>
       </c>
-      <c r="C3" s="196"/>
-      <c r="D3" s="196"/>
-      <c r="H3" s="196" t="s">
+      <c r="C3" s="194"/>
+      <c r="D3" s="194"/>
+      <c r="H3" s="194" t="s">
         <v>293</v>
       </c>
-      <c r="I3" s="196"/>
-      <c r="J3" s="196"/>
+      <c r="I3" s="194"/>
+      <c r="J3" s="194"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
@@ -15016,11 +15332,11 @@
       </c>
     </row>
     <row r="22" spans="2:10" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H22" s="197" t="s">
+      <c r="H22" s="195" t="s">
         <v>307</v>
       </c>
-      <c r="I22" s="198"/>
-      <c r="J22" s="199"/>
+      <c r="I22" s="196"/>
+      <c r="J22" s="197"/>
     </row>
     <row r="23" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="27" t="s">
@@ -15030,9 +15346,9 @@
         <v>106</v>
       </c>
       <c r="D23" s="29"/>
-      <c r="H23" s="200"/>
-      <c r="I23" s="201"/>
-      <c r="J23" s="202"/>
+      <c r="H23" s="198"/>
+      <c r="I23" s="199"/>
+      <c r="J23" s="200"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="30">
@@ -15753,11 +16069,11 @@
       <c r="B4" s="86" t="s">
         <v>383</v>
       </c>
-      <c r="I4" s="203" t="s">
+      <c r="I4" s="201" t="s">
         <v>394</v>
       </c>
-      <c r="J4" s="204"/>
-      <c r="K4" s="205"/>
+      <c r="J4" s="202"/>
+      <c r="K4" s="203"/>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
@@ -15858,12 +16174,12 @@
       <c r="B8" s="75" t="s">
         <v>384</v>
       </c>
-      <c r="C8" s="208" t="s">
+      <c r="C8" s="206" t="s">
         <v>387</v>
       </c>
-      <c r="D8" s="210"/>
-      <c r="E8" s="210"/>
-      <c r="F8" s="209"/>
+      <c r="D8" s="208"/>
+      <c r="E8" s="208"/>
+      <c r="F8" s="207"/>
       <c r="G8" s="94" t="s">
         <v>388</v>
       </c>
@@ -15873,17 +16189,17 @@
       <c r="I8" s="100" t="s">
         <v>403</v>
       </c>
-      <c r="J8" s="206" t="s">
+      <c r="J8" s="204" t="s">
         <v>397</v>
       </c>
-      <c r="K8" s="207"/>
+      <c r="K8" s="205"/>
       <c r="L8" s="94" t="s">
         <v>389</v>
       </c>
-      <c r="M8" s="206" t="s">
+      <c r="M8" s="204" t="s">
         <v>397</v>
       </c>
-      <c r="N8" s="207"/>
+      <c r="N8" s="205"/>
       <c r="O8" s="91" t="s">
         <v>129</v>
       </c>
@@ -15895,12 +16211,12 @@
       <c r="B9" s="75" t="s">
         <v>386</v>
       </c>
-      <c r="C9" s="208" t="s">
+      <c r="C9" s="206" t="s">
         <v>387</v>
       </c>
-      <c r="D9" s="210"/>
-      <c r="E9" s="210"/>
-      <c r="F9" s="209"/>
+      <c r="D9" s="208"/>
+      <c r="E9" s="208"/>
+      <c r="F9" s="207"/>
       <c r="G9" s="94" t="s">
         <v>393</v>
       </c>
@@ -15910,17 +16226,17 @@
       <c r="I9" s="94" t="s">
         <v>390</v>
       </c>
-      <c r="J9" s="208" t="s">
+      <c r="J9" s="206" t="s">
         <v>565</v>
       </c>
-      <c r="K9" s="209"/>
+      <c r="K9" s="207"/>
       <c r="L9" s="94" t="s">
         <v>398</v>
       </c>
-      <c r="M9" s="208" t="s">
+      <c r="M9" s="206" t="s">
         <v>566</v>
       </c>
-      <c r="N9" s="209"/>
+      <c r="N9" s="207"/>
       <c r="O9" s="91" t="s">
         <v>129</v>
       </c>

--- a/1-SystemDocs/System_spec_v4.xlsx
+++ b/1-SystemDocs/System_spec_v4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-120" windowWidth="12960" windowHeight="11760" firstSheet="5" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="-120" windowWidth="12960" windowHeight="11760" firstSheet="10" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="13" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <sheet name="Button and LED UI table" sheetId="21" r:id="rId22"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">'TO DO'!$A$2:$B$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">'TO DO'!$A$2:$B$68</definedName>
     <definedName name="error_codes" localSheetId="14">'Error Codes'!$A$4:$C$46</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1809" uniqueCount="778">
   <si>
     <t>ETH*</t>
   </si>
@@ -2429,6 +2429,9 @@
   </si>
   <si>
     <t>array for unit selection, switch for single and multiple config</t>
+  </si>
+  <si>
+    <t>Others&gt;</t>
   </si>
 </sst>
 </file>
@@ -3352,6 +3355,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3435,9 +3441,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3904,11 +3907,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="366050544"/>
-        <c:axId val="329149320"/>
+        <c:axId val="385728952"/>
+        <c:axId val="385730912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="366050544"/>
+        <c:axId val="385728952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25"/>
@@ -3953,12 +3956,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329149320"/>
+        <c:crossAx val="385730912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="329149320"/>
+        <c:axId val="385730912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1400"/>
@@ -4017,7 +4020,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="366050544"/>
+        <c:crossAx val="385728952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5676,7 +5679,7 @@
   <dimension ref="B1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8821,7 +8824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B34" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
@@ -8849,19 +8852,19 @@
       </c>
     </row>
     <row r="3" spans="2:22" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="209" t="s">
+      <c r="B3" s="210" t="s">
         <v>537</v>
       </c>
-      <c r="C3" s="209"/>
-      <c r="D3" s="209"/>
-      <c r="E3" s="209"/>
-      <c r="F3" s="209"/>
-      <c r="G3" s="209"/>
-      <c r="H3" s="209"/>
-      <c r="I3" s="209"/>
-      <c r="J3" s="209"/>
-      <c r="K3" s="209"/>
-      <c r="L3" s="209"/>
+      <c r="C3" s="210"/>
+      <c r="D3" s="210"/>
+      <c r="E3" s="210"/>
+      <c r="F3" s="210"/>
+      <c r="G3" s="210"/>
+      <c r="H3" s="210"/>
+      <c r="I3" s="210"/>
+      <c r="J3" s="210"/>
+      <c r="K3" s="210"/>
+      <c r="L3" s="210"/>
       <c r="M3" s="129"/>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
@@ -9000,16 +9003,16 @@
       <c r="B10" s="151" t="s">
         <v>636</v>
       </c>
-      <c r="C10" s="210" t="s">
+      <c r="C10" s="211" t="s">
         <v>643</v>
       </c>
-      <c r="D10" s="210"/>
-      <c r="E10" s="210"/>
-      <c r="F10" s="210"/>
-      <c r="G10" s="210"/>
-      <c r="H10" s="210"/>
-      <c r="I10" s="210"/>
-      <c r="J10" s="211"/>
+      <c r="D10" s="211"/>
+      <c r="E10" s="211"/>
+      <c r="F10" s="211"/>
+      <c r="G10" s="211"/>
+      <c r="H10" s="211"/>
+      <c r="I10" s="211"/>
+      <c r="J10" s="212"/>
       <c r="T10" s="22">
         <v>9</v>
       </c>
@@ -9024,16 +9027,16 @@
       <c r="B11" s="151" t="s">
         <v>642</v>
       </c>
-      <c r="C11" s="210" t="s">
+      <c r="C11" s="211" t="s">
         <v>645</v>
       </c>
-      <c r="D11" s="210"/>
-      <c r="E11" s="210"/>
-      <c r="F11" s="210"/>
-      <c r="G11" s="210"/>
-      <c r="H11" s="210"/>
-      <c r="I11" s="210"/>
-      <c r="J11" s="211"/>
+      <c r="D11" s="211"/>
+      <c r="E11" s="211"/>
+      <c r="F11" s="211"/>
+      <c r="G11" s="211"/>
+      <c r="H11" s="211"/>
+      <c r="I11" s="211"/>
+      <c r="J11" s="212"/>
       <c r="T11" s="24" t="s">
         <v>102</v>
       </c>
@@ -9048,16 +9051,16 @@
       <c r="B12" s="144" t="s">
         <v>641</v>
       </c>
-      <c r="C12" s="212" t="s">
+      <c r="C12" s="213" t="s">
         <v>644</v>
       </c>
-      <c r="D12" s="212"/>
-      <c r="E12" s="212"/>
-      <c r="F12" s="212"/>
-      <c r="G12" s="212"/>
-      <c r="H12" s="212"/>
-      <c r="I12" s="212"/>
-      <c r="J12" s="213"/>
+      <c r="D12" s="213"/>
+      <c r="E12" s="213"/>
+      <c r="F12" s="213"/>
+      <c r="G12" s="213"/>
+      <c r="H12" s="213"/>
+      <c r="I12" s="213"/>
+      <c r="J12" s="214"/>
     </row>
     <row r="14" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
@@ -9070,26 +9073,26 @@
       </c>
       <c r="C15" s="159"/>
       <c r="D15" s="159"/>
-      <c r="E15" s="218" t="s">
+      <c r="E15" s="219" t="s">
         <v>681</v>
       </c>
-      <c r="F15" s="219"/>
-      <c r="G15" s="220"/>
+      <c r="F15" s="220"/>
+      <c r="G15" s="221"/>
       <c r="H15" s="159"/>
       <c r="I15" s="159"/>
       <c r="J15" s="160"/>
-      <c r="L15" s="221" t="s">
+      <c r="L15" s="222" t="s">
         <v>706</v>
       </c>
-      <c r="M15" s="221"/>
-      <c r="N15" s="221"/>
-      <c r="O15" s="221"/>
-      <c r="P15" s="221"/>
-      <c r="Q15" s="221"/>
-      <c r="R15" s="221"/>
+      <c r="M15" s="222"/>
+      <c r="N15" s="222"/>
+      <c r="O15" s="222"/>
+      <c r="P15" s="222"/>
+      <c r="Q15" s="222"/>
+      <c r="R15" s="222"/>
     </row>
     <row r="16" spans="2:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="214">
+      <c r="B16" s="215">
         <v>1</v>
       </c>
       <c r="C16" s="28" t="s">
@@ -9140,13 +9143,13 @@
       <c r="S16" s="182" t="s">
         <v>758</v>
       </c>
-      <c r="U16" s="217" t="s">
+      <c r="U16" s="218" t="s">
         <v>659</v>
       </c>
-      <c r="V16" s="217"/>
+      <c r="V16" s="218"/>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B17" s="215"/>
+      <c r="B17" s="216"/>
       <c r="C17" s="31" t="s">
         <v>428</v>
       </c>
@@ -9208,7 +9211,7 @@
       </c>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B18" s="215"/>
+      <c r="B18" s="216"/>
       <c r="C18" s="31" t="s">
         <v>433</v>
       </c>
@@ -9229,7 +9232,7 @@
       </c>
     </row>
     <row r="19" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="216"/>
+      <c r="B19" s="217"/>
       <c r="C19" s="35" t="s">
         <v>648</v>
       </c>
@@ -9248,7 +9251,7 @@
       </c>
     </row>
     <row r="20" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="214">
+      <c r="B20" s="215">
         <v>2</v>
       </c>
       <c r="C20" s="28" t="s">
@@ -9283,7 +9286,7 @@
       </c>
     </row>
     <row r="21" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="215"/>
+      <c r="B21" s="216"/>
       <c r="C21" s="31" t="s">
         <v>424</v>
       </c>
@@ -9353,7 +9356,7 @@
       </c>
     </row>
     <row r="22" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="215"/>
+      <c r="B22" s="216"/>
       <c r="C22" s="31" t="s">
         <v>425</v>
       </c>
@@ -9423,7 +9426,7 @@
       </c>
     </row>
     <row r="23" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="215"/>
+      <c r="B23" s="216"/>
       <c r="C23" s="31" t="s">
         <v>426</v>
       </c>
@@ -9493,7 +9496,7 @@
       </c>
     </row>
     <row r="24" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="215"/>
+      <c r="B24" s="216"/>
       <c r="C24" s="81" t="s">
         <v>427</v>
       </c>
@@ -9563,7 +9566,7 @@
       </c>
     </row>
     <row r="25" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="215"/>
+      <c r="B25" s="216"/>
       <c r="C25" s="31" t="s">
         <v>428</v>
       </c>
@@ -9633,7 +9636,7 @@
       </c>
     </row>
     <row r="26" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="215"/>
+      <c r="B26" s="216"/>
       <c r="C26" s="31" t="s">
         <v>429</v>
       </c>
@@ -9700,7 +9703,7 @@
       </c>
     </row>
     <row r="27" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="215"/>
+      <c r="B27" s="216"/>
       <c r="C27" s="81" t="s">
         <v>430</v>
       </c>
@@ -9767,7 +9770,7 @@
       </c>
     </row>
     <row r="28" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="215"/>
+      <c r="B28" s="216"/>
       <c r="C28" s="31" t="s">
         <v>431</v>
       </c>
@@ -9796,7 +9799,7 @@
       </c>
     </row>
     <row r="29" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="215"/>
+      <c r="B29" s="216"/>
       <c r="C29" s="31" t="s">
         <v>433</v>
       </c>
@@ -9825,7 +9828,7 @@
       </c>
     </row>
     <row r="30" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="216"/>
+      <c r="B30" s="217"/>
       <c r="C30" s="35" t="s">
         <v>434</v>
       </c>
@@ -9854,7 +9857,7 @@
       </c>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B31" s="214">
+      <c r="B31" s="215">
         <v>3</v>
       </c>
       <c r="C31" s="28" t="s">
@@ -9894,7 +9897,7 @@
       </c>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B32" s="215"/>
+      <c r="B32" s="216"/>
       <c r="C32" s="31" t="s">
         <v>424</v>
       </c>
@@ -9938,7 +9941,7 @@
       </c>
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B33" s="215"/>
+      <c r="B33" s="216"/>
       <c r="C33" s="31" t="s">
         <v>425</v>
       </c>
@@ -9982,7 +9985,7 @@
       </c>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B34" s="215"/>
+      <c r="B34" s="216"/>
       <c r="C34" s="31" t="s">
         <v>426</v>
       </c>
@@ -10023,7 +10026,7 @@
       </c>
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B35" s="215"/>
+      <c r="B35" s="216"/>
       <c r="C35" s="81" t="s">
         <v>427</v>
       </c>
@@ -10067,7 +10070,7 @@
       </c>
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B36" s="215"/>
+      <c r="B36" s="216"/>
       <c r="C36" s="31" t="s">
         <v>428</v>
       </c>
@@ -10111,7 +10114,7 @@
       </c>
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B37" s="215"/>
+      <c r="B37" s="216"/>
       <c r="C37" s="31" t="s">
         <v>429</v>
       </c>
@@ -10155,7 +10158,7 @@
       </c>
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B38" s="215"/>
+      <c r="B38" s="216"/>
       <c r="C38" s="81" t="s">
         <v>430</v>
       </c>
@@ -10186,7 +10189,7 @@
       </c>
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B39" s="215"/>
+      <c r="B39" s="216"/>
       <c r="C39" s="31" t="s">
         <v>431</v>
       </c>
@@ -10214,7 +10217,7 @@
       </c>
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B40" s="215"/>
+      <c r="B40" s="216"/>
       <c r="C40" s="31" t="s">
         <v>433</v>
       </c>
@@ -10243,7 +10246,7 @@
       </c>
     </row>
     <row r="41" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="216"/>
+      <c r="B41" s="217"/>
       <c r="C41" s="35" t="s">
         <v>434</v>
       </c>
@@ -10274,7 +10277,7 @@
       </c>
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B42" s="214">
+      <c r="B42" s="215">
         <v>4</v>
       </c>
       <c r="C42" s="28" t="s">
@@ -10314,7 +10317,7 @@
       </c>
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B43" s="215"/>
+      <c r="B43" s="216"/>
       <c r="C43" s="31" t="s">
         <v>424</v>
       </c>
@@ -10358,7 +10361,7 @@
       </c>
     </row>
     <row r="44" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B44" s="215"/>
+      <c r="B44" s="216"/>
       <c r="C44" s="31" t="s">
         <v>425</v>
       </c>
@@ -10402,7 +10405,7 @@
       </c>
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B45" s="215"/>
+      <c r="B45" s="216"/>
       <c r="C45" s="31" t="s">
         <v>426</v>
       </c>
@@ -10433,7 +10436,7 @@
       </c>
     </row>
     <row r="46" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B46" s="215"/>
+      <c r="B46" s="216"/>
       <c r="C46" s="81" t="s">
         <v>427</v>
       </c>
@@ -10464,7 +10467,7 @@
       </c>
     </row>
     <row r="47" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B47" s="215"/>
+      <c r="B47" s="216"/>
       <c r="C47" s="31" t="s">
         <v>428</v>
       </c>
@@ -10495,7 +10498,7 @@
       </c>
     </row>
     <row r="48" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B48" s="215"/>
+      <c r="B48" s="216"/>
       <c r="C48" s="31" t="s">
         <v>429</v>
       </c>
@@ -10526,7 +10529,7 @@
       </c>
     </row>
     <row r="49" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B49" s="215"/>
+      <c r="B49" s="216"/>
       <c r="C49" s="81" t="s">
         <v>430</v>
       </c>
@@ -10557,7 +10560,7 @@
       </c>
     </row>
     <row r="50" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B50" s="215"/>
+      <c r="B50" s="216"/>
       <c r="C50" s="31" t="s">
         <v>431</v>
       </c>
@@ -10588,7 +10591,7 @@
       </c>
     </row>
     <row r="51" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B51" s="215"/>
+      <c r="B51" s="216"/>
       <c r="C51" s="31" t="s">
         <v>433</v>
       </c>
@@ -10617,7 +10620,7 @@
       </c>
     </row>
     <row r="52" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="216"/>
+      <c r="B52" s="217"/>
       <c r="C52" s="35" t="s">
         <v>434</v>
       </c>
@@ -10648,7 +10651,7 @@
       </c>
     </row>
     <row r="53" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B53" s="214">
+      <c r="B53" s="215">
         <v>5</v>
       </c>
       <c r="C53" s="28" t="s">
@@ -10691,7 +10694,7 @@
       </c>
     </row>
     <row r="54" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B54" s="215"/>
+      <c r="B54" s="216"/>
       <c r="C54" s="31" t="s">
         <v>424</v>
       </c>
@@ -10735,7 +10738,7 @@
       </c>
     </row>
     <row r="55" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B55" s="215"/>
+      <c r="B55" s="216"/>
       <c r="C55" s="31" t="s">
         <v>425</v>
       </c>
@@ -10779,7 +10782,7 @@
       </c>
     </row>
     <row r="56" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B56" s="215"/>
+      <c r="B56" s="216"/>
       <c r="C56" s="31" t="s">
         <v>426</v>
       </c>
@@ -10823,7 +10826,7 @@
       </c>
     </row>
     <row r="57" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B57" s="215"/>
+      <c r="B57" s="216"/>
       <c r="C57" s="81" t="s">
         <v>427</v>
       </c>
@@ -10864,7 +10867,7 @@
       </c>
     </row>
     <row r="58" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B58" s="215"/>
+      <c r="B58" s="216"/>
       <c r="C58" s="31" t="s">
         <v>428</v>
       </c>
@@ -10895,7 +10898,7 @@
       </c>
     </row>
     <row r="59" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B59" s="215"/>
+      <c r="B59" s="216"/>
       <c r="C59" s="31" t="s">
         <v>429</v>
       </c>
@@ -10926,7 +10929,7 @@
       </c>
     </row>
     <row r="60" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B60" s="215"/>
+      <c r="B60" s="216"/>
       <c r="C60" s="81" t="s">
         <v>430</v>
       </c>
@@ -10949,7 +10952,7 @@
       </c>
     </row>
     <row r="61" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B61" s="215"/>
+      <c r="B61" s="216"/>
       <c r="C61" s="31" t="s">
         <v>431</v>
       </c>
@@ -10972,7 +10975,7 @@
       </c>
     </row>
     <row r="62" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B62" s="215"/>
+      <c r="B62" s="216"/>
       <c r="C62" s="31" t="s">
         <v>433</v>
       </c>
@@ -10993,7 +10996,7 @@
       </c>
     </row>
     <row r="63" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="216"/>
+      <c r="B63" s="217"/>
       <c r="C63" s="35" t="s">
         <v>434</v>
       </c>
@@ -11002,7 +11005,7 @@
       </c>
       <c r="E63" s="193"/>
       <c r="F63" s="193"/>
-      <c r="G63" s="222" t="s">
+      <c r="G63" s="194" t="s">
         <v>563</v>
       </c>
       <c r="H63" s="162"/>
@@ -12095,8 +12098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12705,7 +12708,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13181,7 +13186,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="86" t="s">
         <v>733</v>
       </c>
@@ -13189,7 +13194,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>734</v>
       </c>
@@ -13202,6 +13207,11 @@
         <v>740</v>
       </c>
     </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="12" t="s">
+        <v>777</v>
+      </c>
+    </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>773</v>
@@ -13212,7 +13222,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>775</v>
       </c>
@@ -13220,7 +13230,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>776</v>
       </c>
@@ -13229,7 +13239,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:B60">
+  <autoFilter ref="A2:B68">
     <filterColumn colId="1">
       <filters blank="1"/>
     </filterColumn>
@@ -14907,16 +14917,16 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="194" t="s">
+      <c r="A4" s="195" t="s">
         <v>280</v>
       </c>
-      <c r="B4" s="194"/>
-      <c r="C4" s="194"/>
-      <c r="E4" s="194" t="s">
+      <c r="B4" s="195"/>
+      <c r="C4" s="195"/>
+      <c r="E4" s="195" t="s">
         <v>281</v>
       </c>
-      <c r="F4" s="194"/>
-      <c r="G4" s="194"/>
+      <c r="F4" s="195"/>
+      <c r="G4" s="195"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -15159,16 +15169,16 @@
       </c>
     </row>
     <row r="3" spans="2:10" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B3" s="194" t="s">
+      <c r="B3" s="195" t="s">
         <v>292</v>
       </c>
-      <c r="C3" s="194"/>
-      <c r="D3" s="194"/>
-      <c r="H3" s="194" t="s">
+      <c r="C3" s="195"/>
+      <c r="D3" s="195"/>
+      <c r="H3" s="195" t="s">
         <v>293</v>
       </c>
-      <c r="I3" s="194"/>
-      <c r="J3" s="194"/>
+      <c r="I3" s="195"/>
+      <c r="J3" s="195"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
@@ -15332,11 +15342,11 @@
       </c>
     </row>
     <row r="22" spans="2:10" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H22" s="195" t="s">
+      <c r="H22" s="196" t="s">
         <v>307</v>
       </c>
-      <c r="I22" s="196"/>
-      <c r="J22" s="197"/>
+      <c r="I22" s="197"/>
+      <c r="J22" s="198"/>
     </row>
     <row r="23" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="27" t="s">
@@ -15346,9 +15356,9 @@
         <v>106</v>
       </c>
       <c r="D23" s="29"/>
-      <c r="H23" s="198"/>
-      <c r="I23" s="199"/>
-      <c r="J23" s="200"/>
+      <c r="H23" s="199"/>
+      <c r="I23" s="200"/>
+      <c r="J23" s="201"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="30">
@@ -16069,11 +16079,11 @@
       <c r="B4" s="86" t="s">
         <v>383</v>
       </c>
-      <c r="I4" s="201" t="s">
+      <c r="I4" s="202" t="s">
         <v>394</v>
       </c>
-      <c r="J4" s="202"/>
-      <c r="K4" s="203"/>
+      <c r="J4" s="203"/>
+      <c r="K4" s="204"/>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
@@ -16174,12 +16184,12 @@
       <c r="B8" s="75" t="s">
         <v>384</v>
       </c>
-      <c r="C8" s="206" t="s">
+      <c r="C8" s="207" t="s">
         <v>387</v>
       </c>
-      <c r="D8" s="208"/>
-      <c r="E8" s="208"/>
-      <c r="F8" s="207"/>
+      <c r="D8" s="209"/>
+      <c r="E8" s="209"/>
+      <c r="F8" s="208"/>
       <c r="G8" s="94" t="s">
         <v>388</v>
       </c>
@@ -16189,17 +16199,17 @@
       <c r="I8" s="100" t="s">
         <v>403</v>
       </c>
-      <c r="J8" s="204" t="s">
+      <c r="J8" s="205" t="s">
         <v>397</v>
       </c>
-      <c r="K8" s="205"/>
+      <c r="K8" s="206"/>
       <c r="L8" s="94" t="s">
         <v>389</v>
       </c>
-      <c r="M8" s="204" t="s">
+      <c r="M8" s="205" t="s">
         <v>397</v>
       </c>
-      <c r="N8" s="205"/>
+      <c r="N8" s="206"/>
       <c r="O8" s="91" t="s">
         <v>129</v>
       </c>
@@ -16211,12 +16221,12 @@
       <c r="B9" s="75" t="s">
         <v>386</v>
       </c>
-      <c r="C9" s="206" t="s">
+      <c r="C9" s="207" t="s">
         <v>387</v>
       </c>
-      <c r="D9" s="208"/>
-      <c r="E9" s="208"/>
-      <c r="F9" s="207"/>
+      <c r="D9" s="209"/>
+      <c r="E9" s="209"/>
+      <c r="F9" s="208"/>
       <c r="G9" s="94" t="s">
         <v>393</v>
       </c>
@@ -16226,17 +16236,17 @@
       <c r="I9" s="94" t="s">
         <v>390</v>
       </c>
-      <c r="J9" s="206" t="s">
+      <c r="J9" s="207" t="s">
         <v>565</v>
       </c>
-      <c r="K9" s="207"/>
+      <c r="K9" s="208"/>
       <c r="L9" s="94" t="s">
         <v>398</v>
       </c>
-      <c r="M9" s="206" t="s">
+      <c r="M9" s="207" t="s">
         <v>566</v>
       </c>
-      <c r="N9" s="207"/>
+      <c r="N9" s="208"/>
       <c r="O9" s="91" t="s">
         <v>129</v>
       </c>

--- a/1-SystemDocs/System_spec_v4.xlsx
+++ b/1-SystemDocs/System_spec_v4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-120" windowWidth="12960" windowHeight="11760" firstSheet="10" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="-120" windowWidth="12960" windowHeight="11760" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="13" r:id="rId1"/>
@@ -3403,21 +3403,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3441,6 +3426,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3907,11 +3907,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="385728952"/>
-        <c:axId val="385730912"/>
+        <c:axId val="393190864"/>
+        <c:axId val="528020152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="385728952"/>
+        <c:axId val="393190864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25"/>
@@ -3956,12 +3956,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="385730912"/>
+        <c:crossAx val="528020152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="385730912"/>
+        <c:axId val="528020152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1400"/>
@@ -4020,7 +4020,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="385728952"/>
+        <c:crossAx val="393190864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4736,7 +4736,7 @@
         <xdr:cNvPr id="2" name="Obrázok 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5679,7 +5679,7 @@
   <dimension ref="B1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8824,8 +8824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V63"/>
   <sheetViews>
-    <sheetView topLeftCell="B34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" topLeftCell="C6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21:S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8852,19 +8852,19 @@
       </c>
     </row>
     <row r="3" spans="2:22" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="210" t="s">
+      <c r="B3" s="218" t="s">
         <v>537</v>
       </c>
-      <c r="C3" s="210"/>
-      <c r="D3" s="210"/>
-      <c r="E3" s="210"/>
-      <c r="F3" s="210"/>
-      <c r="G3" s="210"/>
-      <c r="H3" s="210"/>
-      <c r="I3" s="210"/>
-      <c r="J3" s="210"/>
-      <c r="K3" s="210"/>
-      <c r="L3" s="210"/>
+      <c r="C3" s="218"/>
+      <c r="D3" s="218"/>
+      <c r="E3" s="218"/>
+      <c r="F3" s="218"/>
+      <c r="G3" s="218"/>
+      <c r="H3" s="218"/>
+      <c r="I3" s="218"/>
+      <c r="J3" s="218"/>
+      <c r="K3" s="218"/>
+      <c r="L3" s="218"/>
       <c r="M3" s="129"/>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
@@ -9003,16 +9003,16 @@
       <c r="B10" s="151" t="s">
         <v>636</v>
       </c>
-      <c r="C10" s="211" t="s">
+      <c r="C10" s="219" t="s">
         <v>643</v>
       </c>
-      <c r="D10" s="211"/>
-      <c r="E10" s="211"/>
-      <c r="F10" s="211"/>
-      <c r="G10" s="211"/>
-      <c r="H10" s="211"/>
-      <c r="I10" s="211"/>
-      <c r="J10" s="212"/>
+      <c r="D10" s="219"/>
+      <c r="E10" s="219"/>
+      <c r="F10" s="219"/>
+      <c r="G10" s="219"/>
+      <c r="H10" s="219"/>
+      <c r="I10" s="219"/>
+      <c r="J10" s="220"/>
       <c r="T10" s="22">
         <v>9</v>
       </c>
@@ -9027,16 +9027,16 @@
       <c r="B11" s="151" t="s">
         <v>642</v>
       </c>
-      <c r="C11" s="211" t="s">
+      <c r="C11" s="219" t="s">
         <v>645</v>
       </c>
-      <c r="D11" s="211"/>
-      <c r="E11" s="211"/>
-      <c r="F11" s="211"/>
-      <c r="G11" s="211"/>
-      <c r="H11" s="211"/>
-      <c r="I11" s="211"/>
-      <c r="J11" s="212"/>
+      <c r="D11" s="219"/>
+      <c r="E11" s="219"/>
+      <c r="F11" s="219"/>
+      <c r="G11" s="219"/>
+      <c r="H11" s="219"/>
+      <c r="I11" s="219"/>
+      <c r="J11" s="220"/>
       <c r="T11" s="24" t="s">
         <v>102</v>
       </c>
@@ -9051,16 +9051,16 @@
       <c r="B12" s="144" t="s">
         <v>641</v>
       </c>
-      <c r="C12" s="213" t="s">
+      <c r="C12" s="221" t="s">
         <v>644</v>
       </c>
-      <c r="D12" s="213"/>
-      <c r="E12" s="213"/>
-      <c r="F12" s="213"/>
-      <c r="G12" s="213"/>
-      <c r="H12" s="213"/>
-      <c r="I12" s="213"/>
-      <c r="J12" s="214"/>
+      <c r="D12" s="221"/>
+      <c r="E12" s="221"/>
+      <c r="F12" s="221"/>
+      <c r="G12" s="221"/>
+      <c r="H12" s="221"/>
+      <c r="I12" s="221"/>
+      <c r="J12" s="222"/>
     </row>
     <row r="14" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
@@ -9073,26 +9073,26 @@
       </c>
       <c r="C15" s="159"/>
       <c r="D15" s="159"/>
-      <c r="E15" s="219" t="s">
+      <c r="E15" s="214" t="s">
         <v>681</v>
       </c>
-      <c r="F15" s="220"/>
-      <c r="G15" s="221"/>
+      <c r="F15" s="215"/>
+      <c r="G15" s="216"/>
       <c r="H15" s="159"/>
       <c r="I15" s="159"/>
       <c r="J15" s="160"/>
-      <c r="L15" s="222" t="s">
+      <c r="L15" s="217" t="s">
         <v>706</v>
       </c>
-      <c r="M15" s="222"/>
-      <c r="N15" s="222"/>
-      <c r="O15" s="222"/>
-      <c r="P15" s="222"/>
-      <c r="Q15" s="222"/>
-      <c r="R15" s="222"/>
+      <c r="M15" s="217"/>
+      <c r="N15" s="217"/>
+      <c r="O15" s="217"/>
+      <c r="P15" s="217"/>
+      <c r="Q15" s="217"/>
+      <c r="R15" s="217"/>
     </row>
     <row r="16" spans="2:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="215">
+      <c r="B16" s="210">
         <v>1</v>
       </c>
       <c r="C16" s="28" t="s">
@@ -9143,13 +9143,13 @@
       <c r="S16" s="182" t="s">
         <v>758</v>
       </c>
-      <c r="U16" s="218" t="s">
+      <c r="U16" s="213" t="s">
         <v>659</v>
       </c>
-      <c r="V16" s="218"/>
+      <c r="V16" s="213"/>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B17" s="216"/>
+      <c r="B17" s="211"/>
       <c r="C17" s="31" t="s">
         <v>428</v>
       </c>
@@ -9211,7 +9211,7 @@
       </c>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B18" s="216"/>
+      <c r="B18" s="211"/>
       <c r="C18" s="31" t="s">
         <v>433</v>
       </c>
@@ -9232,7 +9232,7 @@
       </c>
     </row>
     <row r="19" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="217"/>
+      <c r="B19" s="212"/>
       <c r="C19" s="35" t="s">
         <v>648</v>
       </c>
@@ -9251,7 +9251,7 @@
       </c>
     </row>
     <row r="20" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="215">
+      <c r="B20" s="210">
         <v>2</v>
       </c>
       <c r="C20" s="28" t="s">
@@ -9286,7 +9286,7 @@
       </c>
     </row>
     <row r="21" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="216"/>
+      <c r="B21" s="211"/>
       <c r="C21" s="31" t="s">
         <v>424</v>
       </c>
@@ -9356,7 +9356,7 @@
       </c>
     </row>
     <row r="22" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="216"/>
+      <c r="B22" s="211"/>
       <c r="C22" s="31" t="s">
         <v>425</v>
       </c>
@@ -9426,7 +9426,7 @@
       </c>
     </row>
     <row r="23" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="216"/>
+      <c r="B23" s="211"/>
       <c r="C23" s="31" t="s">
         <v>426</v>
       </c>
@@ -9496,7 +9496,7 @@
       </c>
     </row>
     <row r="24" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="216"/>
+      <c r="B24" s="211"/>
       <c r="C24" s="81" t="s">
         <v>427</v>
       </c>
@@ -9566,7 +9566,7 @@
       </c>
     </row>
     <row r="25" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="216"/>
+      <c r="B25" s="211"/>
       <c r="C25" s="31" t="s">
         <v>428</v>
       </c>
@@ -9636,7 +9636,7 @@
       </c>
     </row>
     <row r="26" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="216"/>
+      <c r="B26" s="211"/>
       <c r="C26" s="31" t="s">
         <v>429</v>
       </c>
@@ -9703,7 +9703,7 @@
       </c>
     </row>
     <row r="27" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="216"/>
+      <c r="B27" s="211"/>
       <c r="C27" s="81" t="s">
         <v>430</v>
       </c>
@@ -9770,7 +9770,7 @@
       </c>
     </row>
     <row r="28" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="216"/>
+      <c r="B28" s="211"/>
       <c r="C28" s="31" t="s">
         <v>431</v>
       </c>
@@ -9799,7 +9799,7 @@
       </c>
     </row>
     <row r="29" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="216"/>
+      <c r="B29" s="211"/>
       <c r="C29" s="31" t="s">
         <v>433</v>
       </c>
@@ -9828,7 +9828,7 @@
       </c>
     </row>
     <row r="30" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="217"/>
+      <c r="B30" s="212"/>
       <c r="C30" s="35" t="s">
         <v>434</v>
       </c>
@@ -9857,7 +9857,7 @@
       </c>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B31" s="215">
+      <c r="B31" s="210">
         <v>3</v>
       </c>
       <c r="C31" s="28" t="s">
@@ -9897,7 +9897,7 @@
       </c>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B32" s="216"/>
+      <c r="B32" s="211"/>
       <c r="C32" s="31" t="s">
         <v>424</v>
       </c>
@@ -9941,7 +9941,7 @@
       </c>
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B33" s="216"/>
+      <c r="B33" s="211"/>
       <c r="C33" s="31" t="s">
         <v>425</v>
       </c>
@@ -9985,7 +9985,7 @@
       </c>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B34" s="216"/>
+      <c r="B34" s="211"/>
       <c r="C34" s="31" t="s">
         <v>426</v>
       </c>
@@ -10026,7 +10026,7 @@
       </c>
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B35" s="216"/>
+      <c r="B35" s="211"/>
       <c r="C35" s="81" t="s">
         <v>427</v>
       </c>
@@ -10070,7 +10070,7 @@
       </c>
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B36" s="216"/>
+      <c r="B36" s="211"/>
       <c r="C36" s="31" t="s">
         <v>428</v>
       </c>
@@ -10114,7 +10114,7 @@
       </c>
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B37" s="216"/>
+      <c r="B37" s="211"/>
       <c r="C37" s="31" t="s">
         <v>429</v>
       </c>
@@ -10158,7 +10158,7 @@
       </c>
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B38" s="216"/>
+      <c r="B38" s="211"/>
       <c r="C38" s="81" t="s">
         <v>430</v>
       </c>
@@ -10189,7 +10189,7 @@
       </c>
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B39" s="216"/>
+      <c r="B39" s="211"/>
       <c r="C39" s="31" t="s">
         <v>431</v>
       </c>
@@ -10217,7 +10217,7 @@
       </c>
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B40" s="216"/>
+      <c r="B40" s="211"/>
       <c r="C40" s="31" t="s">
         <v>433</v>
       </c>
@@ -10246,7 +10246,7 @@
       </c>
     </row>
     <row r="41" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="217"/>
+      <c r="B41" s="212"/>
       <c r="C41" s="35" t="s">
         <v>434</v>
       </c>
@@ -10277,7 +10277,7 @@
       </c>
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B42" s="215">
+      <c r="B42" s="210">
         <v>4</v>
       </c>
       <c r="C42" s="28" t="s">
@@ -10317,7 +10317,7 @@
       </c>
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B43" s="216"/>
+      <c r="B43" s="211"/>
       <c r="C43" s="31" t="s">
         <v>424</v>
       </c>
@@ -10361,7 +10361,7 @@
       </c>
     </row>
     <row r="44" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B44" s="216"/>
+      <c r="B44" s="211"/>
       <c r="C44" s="31" t="s">
         <v>425</v>
       </c>
@@ -10405,7 +10405,7 @@
       </c>
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B45" s="216"/>
+      <c r="B45" s="211"/>
       <c r="C45" s="31" t="s">
         <v>426</v>
       </c>
@@ -10436,7 +10436,7 @@
       </c>
     </row>
     <row r="46" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B46" s="216"/>
+      <c r="B46" s="211"/>
       <c r="C46" s="81" t="s">
         <v>427</v>
       </c>
@@ -10467,7 +10467,7 @@
       </c>
     </row>
     <row r="47" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B47" s="216"/>
+      <c r="B47" s="211"/>
       <c r="C47" s="31" t="s">
         <v>428</v>
       </c>
@@ -10498,7 +10498,7 @@
       </c>
     </row>
     <row r="48" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B48" s="216"/>
+      <c r="B48" s="211"/>
       <c r="C48" s="31" t="s">
         <v>429</v>
       </c>
@@ -10529,7 +10529,7 @@
       </c>
     </row>
     <row r="49" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B49" s="216"/>
+      <c r="B49" s="211"/>
       <c r="C49" s="81" t="s">
         <v>430</v>
       </c>
@@ -10560,7 +10560,7 @@
       </c>
     </row>
     <row r="50" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B50" s="216"/>
+      <c r="B50" s="211"/>
       <c r="C50" s="31" t="s">
         <v>431</v>
       </c>
@@ -10591,7 +10591,7 @@
       </c>
     </row>
     <row r="51" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B51" s="216"/>
+      <c r="B51" s="211"/>
       <c r="C51" s="31" t="s">
         <v>433</v>
       </c>
@@ -10620,7 +10620,7 @@
       </c>
     </row>
     <row r="52" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="217"/>
+      <c r="B52" s="212"/>
       <c r="C52" s="35" t="s">
         <v>434</v>
       </c>
@@ -10651,7 +10651,7 @@
       </c>
     </row>
     <row r="53" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B53" s="215">
+      <c r="B53" s="210">
         <v>5</v>
       </c>
       <c r="C53" s="28" t="s">
@@ -10694,7 +10694,7 @@
       </c>
     </row>
     <row r="54" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B54" s="216"/>
+      <c r="B54" s="211"/>
       <c r="C54" s="31" t="s">
         <v>424</v>
       </c>
@@ -10738,7 +10738,7 @@
       </c>
     </row>
     <row r="55" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B55" s="216"/>
+      <c r="B55" s="211"/>
       <c r="C55" s="31" t="s">
         <v>425</v>
       </c>
@@ -10782,7 +10782,7 @@
       </c>
     </row>
     <row r="56" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B56" s="216"/>
+      <c r="B56" s="211"/>
       <c r="C56" s="31" t="s">
         <v>426</v>
       </c>
@@ -10826,7 +10826,7 @@
       </c>
     </row>
     <row r="57" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B57" s="216"/>
+      <c r="B57" s="211"/>
       <c r="C57" s="81" t="s">
         <v>427</v>
       </c>
@@ -10867,7 +10867,7 @@
       </c>
     </row>
     <row r="58" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B58" s="216"/>
+      <c r="B58" s="211"/>
       <c r="C58" s="31" t="s">
         <v>428</v>
       </c>
@@ -10898,7 +10898,7 @@
       </c>
     </row>
     <row r="59" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B59" s="216"/>
+      <c r="B59" s="211"/>
       <c r="C59" s="31" t="s">
         <v>429</v>
       </c>
@@ -10929,7 +10929,7 @@
       </c>
     </row>
     <row r="60" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B60" s="216"/>
+      <c r="B60" s="211"/>
       <c r="C60" s="81" t="s">
         <v>430</v>
       </c>
@@ -10952,7 +10952,7 @@
       </c>
     </row>
     <row r="61" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B61" s="216"/>
+      <c r="B61" s="211"/>
       <c r="C61" s="31" t="s">
         <v>431</v>
       </c>
@@ -10975,7 +10975,7 @@
       </c>
     </row>
     <row r="62" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B62" s="216"/>
+      <c r="B62" s="211"/>
       <c r="C62" s="31" t="s">
         <v>433</v>
       </c>
@@ -10996,7 +10996,7 @@
       </c>
     </row>
     <row r="63" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="217"/>
+      <c r="B63" s="212"/>
       <c r="C63" s="35" t="s">
         <v>434</v>
       </c>
@@ -11020,6 +11020,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="B16:B19"/>
     <mergeCell ref="B31:B41"/>
     <mergeCell ref="B42:B52"/>
     <mergeCell ref="B53:B63"/>
@@ -11027,11 +11032,6 @@
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="L15:R15"/>
     <mergeCell ref="B20:B30"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="B16:B19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Contents!A1" display="Contents!A1"/>
@@ -12098,8 +12098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/1-SystemDocs/System_spec_v4.xlsx
+++ b/1-SystemDocs/System_spec_v4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-120" windowWidth="12960" windowHeight="11760" firstSheet="5" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="-120" windowWidth="12960" windowHeight="11760" firstSheet="10" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="13" r:id="rId1"/>
@@ -3403,6 +3403,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3426,21 +3441,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3500,6 +3500,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3907,11 +3908,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="393190864"/>
-        <c:axId val="528020152"/>
+        <c:axId val="385340288"/>
+        <c:axId val="385340680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="393190864"/>
+        <c:axId val="385340288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25"/>
@@ -3956,12 +3957,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="528020152"/>
+        <c:crossAx val="385340680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="528020152"/>
+        <c:axId val="385340680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1400"/>
@@ -4020,7 +4021,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393190864"/>
+        <c:crossAx val="385340288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4034,6 +4035,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4736,7 +4738,7 @@
         <xdr:cNvPr id="2" name="Obrázok 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5679,7 +5681,7 @@
   <dimension ref="B1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8824,7 +8826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C6" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="S21" sqref="S21:S26"/>
     </sheetView>
   </sheetViews>
@@ -8852,19 +8854,19 @@
       </c>
     </row>
     <row r="3" spans="2:22" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="218" t="s">
+      <c r="B3" s="210" t="s">
         <v>537</v>
       </c>
-      <c r="C3" s="218"/>
-      <c r="D3" s="218"/>
-      <c r="E3" s="218"/>
-      <c r="F3" s="218"/>
-      <c r="G3" s="218"/>
-      <c r="H3" s="218"/>
-      <c r="I3" s="218"/>
-      <c r="J3" s="218"/>
-      <c r="K3" s="218"/>
-      <c r="L3" s="218"/>
+      <c r="C3" s="210"/>
+      <c r="D3" s="210"/>
+      <c r="E3" s="210"/>
+      <c r="F3" s="210"/>
+      <c r="G3" s="210"/>
+      <c r="H3" s="210"/>
+      <c r="I3" s="210"/>
+      <c r="J3" s="210"/>
+      <c r="K3" s="210"/>
+      <c r="L3" s="210"/>
       <c r="M3" s="129"/>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
@@ -9003,16 +9005,16 @@
       <c r="B10" s="151" t="s">
         <v>636</v>
       </c>
-      <c r="C10" s="219" t="s">
+      <c r="C10" s="211" t="s">
         <v>643</v>
       </c>
-      <c r="D10" s="219"/>
-      <c r="E10" s="219"/>
-      <c r="F10" s="219"/>
-      <c r="G10" s="219"/>
-      <c r="H10" s="219"/>
-      <c r="I10" s="219"/>
-      <c r="J10" s="220"/>
+      <c r="D10" s="211"/>
+      <c r="E10" s="211"/>
+      <c r="F10" s="211"/>
+      <c r="G10" s="211"/>
+      <c r="H10" s="211"/>
+      <c r="I10" s="211"/>
+      <c r="J10" s="212"/>
       <c r="T10" s="22">
         <v>9</v>
       </c>
@@ -9027,16 +9029,16 @@
       <c r="B11" s="151" t="s">
         <v>642</v>
       </c>
-      <c r="C11" s="219" t="s">
+      <c r="C11" s="211" t="s">
         <v>645</v>
       </c>
-      <c r="D11" s="219"/>
-      <c r="E11" s="219"/>
-      <c r="F11" s="219"/>
-      <c r="G11" s="219"/>
-      <c r="H11" s="219"/>
-      <c r="I11" s="219"/>
-      <c r="J11" s="220"/>
+      <c r="D11" s="211"/>
+      <c r="E11" s="211"/>
+      <c r="F11" s="211"/>
+      <c r="G11" s="211"/>
+      <c r="H11" s="211"/>
+      <c r="I11" s="211"/>
+      <c r="J11" s="212"/>
       <c r="T11" s="24" t="s">
         <v>102</v>
       </c>
@@ -9051,16 +9053,16 @@
       <c r="B12" s="144" t="s">
         <v>641</v>
       </c>
-      <c r="C12" s="221" t="s">
+      <c r="C12" s="213" t="s">
         <v>644</v>
       </c>
-      <c r="D12" s="221"/>
-      <c r="E12" s="221"/>
-      <c r="F12" s="221"/>
-      <c r="G12" s="221"/>
-      <c r="H12" s="221"/>
-      <c r="I12" s="221"/>
-      <c r="J12" s="222"/>
+      <c r="D12" s="213"/>
+      <c r="E12" s="213"/>
+      <c r="F12" s="213"/>
+      <c r="G12" s="213"/>
+      <c r="H12" s="213"/>
+      <c r="I12" s="213"/>
+      <c r="J12" s="214"/>
     </row>
     <row r="14" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
@@ -9073,26 +9075,26 @@
       </c>
       <c r="C15" s="159"/>
       <c r="D15" s="159"/>
-      <c r="E15" s="214" t="s">
+      <c r="E15" s="219" t="s">
         <v>681</v>
       </c>
-      <c r="F15" s="215"/>
-      <c r="G15" s="216"/>
+      <c r="F15" s="220"/>
+      <c r="G15" s="221"/>
       <c r="H15" s="159"/>
       <c r="I15" s="159"/>
       <c r="J15" s="160"/>
-      <c r="L15" s="217" t="s">
+      <c r="L15" s="222" t="s">
         <v>706</v>
       </c>
-      <c r="M15" s="217"/>
-      <c r="N15" s="217"/>
-      <c r="O15" s="217"/>
-      <c r="P15" s="217"/>
-      <c r="Q15" s="217"/>
-      <c r="R15" s="217"/>
+      <c r="M15" s="222"/>
+      <c r="N15" s="222"/>
+      <c r="O15" s="222"/>
+      <c r="P15" s="222"/>
+      <c r="Q15" s="222"/>
+      <c r="R15" s="222"/>
     </row>
     <row r="16" spans="2:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="210">
+      <c r="B16" s="215">
         <v>1</v>
       </c>
       <c r="C16" s="28" t="s">
@@ -9143,13 +9145,13 @@
       <c r="S16" s="182" t="s">
         <v>758</v>
       </c>
-      <c r="U16" s="213" t="s">
+      <c r="U16" s="218" t="s">
         <v>659</v>
       </c>
-      <c r="V16" s="213"/>
+      <c r="V16" s="218"/>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B17" s="211"/>
+      <c r="B17" s="216"/>
       <c r="C17" s="31" t="s">
         <v>428</v>
       </c>
@@ -9211,7 +9213,7 @@
       </c>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B18" s="211"/>
+      <c r="B18" s="216"/>
       <c r="C18" s="31" t="s">
         <v>433</v>
       </c>
@@ -9232,7 +9234,7 @@
       </c>
     </row>
     <row r="19" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="212"/>
+      <c r="B19" s="217"/>
       <c r="C19" s="35" t="s">
         <v>648</v>
       </c>
@@ -9251,7 +9253,7 @@
       </c>
     </row>
     <row r="20" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="210">
+      <c r="B20" s="215">
         <v>2</v>
       </c>
       <c r="C20" s="28" t="s">
@@ -9286,7 +9288,7 @@
       </c>
     </row>
     <row r="21" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="211"/>
+      <c r="B21" s="216"/>
       <c r="C21" s="31" t="s">
         <v>424</v>
       </c>
@@ -9356,7 +9358,7 @@
       </c>
     </row>
     <row r="22" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="211"/>
+      <c r="B22" s="216"/>
       <c r="C22" s="31" t="s">
         <v>425</v>
       </c>
@@ -9426,7 +9428,7 @@
       </c>
     </row>
     <row r="23" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="211"/>
+      <c r="B23" s="216"/>
       <c r="C23" s="31" t="s">
         <v>426</v>
       </c>
@@ -9496,7 +9498,7 @@
       </c>
     </row>
     <row r="24" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="211"/>
+      <c r="B24" s="216"/>
       <c r="C24" s="81" t="s">
         <v>427</v>
       </c>
@@ -9566,7 +9568,7 @@
       </c>
     </row>
     <row r="25" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="211"/>
+      <c r="B25" s="216"/>
       <c r="C25" s="31" t="s">
         <v>428</v>
       </c>
@@ -9636,7 +9638,7 @@
       </c>
     </row>
     <row r="26" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="211"/>
+      <c r="B26" s="216"/>
       <c r="C26" s="31" t="s">
         <v>429</v>
       </c>
@@ -9703,7 +9705,7 @@
       </c>
     </row>
     <row r="27" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="211"/>
+      <c r="B27" s="216"/>
       <c r="C27" s="81" t="s">
         <v>430</v>
       </c>
@@ -9770,7 +9772,7 @@
       </c>
     </row>
     <row r="28" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="211"/>
+      <c r="B28" s="216"/>
       <c r="C28" s="31" t="s">
         <v>431</v>
       </c>
@@ -9799,7 +9801,7 @@
       </c>
     </row>
     <row r="29" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="211"/>
+      <c r="B29" s="216"/>
       <c r="C29" s="31" t="s">
         <v>433</v>
       </c>
@@ -9828,7 +9830,7 @@
       </c>
     </row>
     <row r="30" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="212"/>
+      <c r="B30" s="217"/>
       <c r="C30" s="35" t="s">
         <v>434</v>
       </c>
@@ -9857,7 +9859,7 @@
       </c>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B31" s="210">
+      <c r="B31" s="215">
         <v>3</v>
       </c>
       <c r="C31" s="28" t="s">
@@ -9897,7 +9899,7 @@
       </c>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B32" s="211"/>
+      <c r="B32" s="216"/>
       <c r="C32" s="31" t="s">
         <v>424</v>
       </c>
@@ -9941,7 +9943,7 @@
       </c>
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B33" s="211"/>
+      <c r="B33" s="216"/>
       <c r="C33" s="31" t="s">
         <v>425</v>
       </c>
@@ -9985,7 +9987,7 @@
       </c>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B34" s="211"/>
+      <c r="B34" s="216"/>
       <c r="C34" s="31" t="s">
         <v>426</v>
       </c>
@@ -10026,7 +10028,7 @@
       </c>
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B35" s="211"/>
+      <c r="B35" s="216"/>
       <c r="C35" s="81" t="s">
         <v>427</v>
       </c>
@@ -10070,7 +10072,7 @@
       </c>
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B36" s="211"/>
+      <c r="B36" s="216"/>
       <c r="C36" s="31" t="s">
         <v>428</v>
       </c>
@@ -10114,7 +10116,7 @@
       </c>
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B37" s="211"/>
+      <c r="B37" s="216"/>
       <c r="C37" s="31" t="s">
         <v>429</v>
       </c>
@@ -10158,7 +10160,7 @@
       </c>
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B38" s="211"/>
+      <c r="B38" s="216"/>
       <c r="C38" s="81" t="s">
         <v>430</v>
       </c>
@@ -10189,7 +10191,7 @@
       </c>
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B39" s="211"/>
+      <c r="B39" s="216"/>
       <c r="C39" s="31" t="s">
         <v>431</v>
       </c>
@@ -10217,7 +10219,7 @@
       </c>
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B40" s="211"/>
+      <c r="B40" s="216"/>
       <c r="C40" s="31" t="s">
         <v>433</v>
       </c>
@@ -10246,7 +10248,7 @@
       </c>
     </row>
     <row r="41" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="212"/>
+      <c r="B41" s="217"/>
       <c r="C41" s="35" t="s">
         <v>434</v>
       </c>
@@ -10277,7 +10279,7 @@
       </c>
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B42" s="210">
+      <c r="B42" s="215">
         <v>4</v>
       </c>
       <c r="C42" s="28" t="s">
@@ -10317,7 +10319,7 @@
       </c>
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B43" s="211"/>
+      <c r="B43" s="216"/>
       <c r="C43" s="31" t="s">
         <v>424</v>
       </c>
@@ -10361,7 +10363,7 @@
       </c>
     </row>
     <row r="44" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B44" s="211"/>
+      <c r="B44" s="216"/>
       <c r="C44" s="31" t="s">
         <v>425</v>
       </c>
@@ -10405,7 +10407,7 @@
       </c>
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B45" s="211"/>
+      <c r="B45" s="216"/>
       <c r="C45" s="31" t="s">
         <v>426</v>
       </c>
@@ -10436,7 +10438,7 @@
       </c>
     </row>
     <row r="46" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B46" s="211"/>
+      <c r="B46" s="216"/>
       <c r="C46" s="81" t="s">
         <v>427</v>
       </c>
@@ -10467,7 +10469,7 @@
       </c>
     </row>
     <row r="47" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B47" s="211"/>
+      <c r="B47" s="216"/>
       <c r="C47" s="31" t="s">
         <v>428</v>
       </c>
@@ -10498,7 +10500,7 @@
       </c>
     </row>
     <row r="48" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B48" s="211"/>
+      <c r="B48" s="216"/>
       <c r="C48" s="31" t="s">
         <v>429</v>
       </c>
@@ -10529,7 +10531,7 @@
       </c>
     </row>
     <row r="49" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B49" s="211"/>
+      <c r="B49" s="216"/>
       <c r="C49" s="81" t="s">
         <v>430</v>
       </c>
@@ -10560,7 +10562,7 @@
       </c>
     </row>
     <row r="50" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B50" s="211"/>
+      <c r="B50" s="216"/>
       <c r="C50" s="31" t="s">
         <v>431</v>
       </c>
@@ -10591,7 +10593,7 @@
       </c>
     </row>
     <row r="51" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B51" s="211"/>
+      <c r="B51" s="216"/>
       <c r="C51" s="31" t="s">
         <v>433</v>
       </c>
@@ -10620,7 +10622,7 @@
       </c>
     </row>
     <row r="52" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="212"/>
+      <c r="B52" s="217"/>
       <c r="C52" s="35" t="s">
         <v>434</v>
       </c>
@@ -10651,7 +10653,7 @@
       </c>
     </row>
     <row r="53" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B53" s="210">
+      <c r="B53" s="215">
         <v>5</v>
       </c>
       <c r="C53" s="28" t="s">
@@ -10694,7 +10696,7 @@
       </c>
     </row>
     <row r="54" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B54" s="211"/>
+      <c r="B54" s="216"/>
       <c r="C54" s="31" t="s">
         <v>424</v>
       </c>
@@ -10738,7 +10740,7 @@
       </c>
     </row>
     <row r="55" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B55" s="211"/>
+      <c r="B55" s="216"/>
       <c r="C55" s="31" t="s">
         <v>425</v>
       </c>
@@ -10782,7 +10784,7 @@
       </c>
     </row>
     <row r="56" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B56" s="211"/>
+      <c r="B56" s="216"/>
       <c r="C56" s="31" t="s">
         <v>426</v>
       </c>
@@ -10826,7 +10828,7 @@
       </c>
     </row>
     <row r="57" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B57" s="211"/>
+      <c r="B57" s="216"/>
       <c r="C57" s="81" t="s">
         <v>427</v>
       </c>
@@ -10867,7 +10869,7 @@
       </c>
     </row>
     <row r="58" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B58" s="211"/>
+      <c r="B58" s="216"/>
       <c r="C58" s="31" t="s">
         <v>428</v>
       </c>
@@ -10898,7 +10900,7 @@
       </c>
     </row>
     <row r="59" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B59" s="211"/>
+      <c r="B59" s="216"/>
       <c r="C59" s="31" t="s">
         <v>429</v>
       </c>
@@ -10929,7 +10931,7 @@
       </c>
     </row>
     <row r="60" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B60" s="211"/>
+      <c r="B60" s="216"/>
       <c r="C60" s="81" t="s">
         <v>430</v>
       </c>
@@ -10952,7 +10954,7 @@
       </c>
     </row>
     <row r="61" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B61" s="211"/>
+      <c r="B61" s="216"/>
       <c r="C61" s="31" t="s">
         <v>431</v>
       </c>
@@ -10975,7 +10977,7 @@
       </c>
     </row>
     <row r="62" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B62" s="211"/>
+      <c r="B62" s="216"/>
       <c r="C62" s="31" t="s">
         <v>433</v>
       </c>
@@ -10996,7 +10998,7 @@
       </c>
     </row>
     <row r="63" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="212"/>
+      <c r="B63" s="217"/>
       <c r="C63" s="35" t="s">
         <v>434</v>
       </c>
@@ -11020,11 +11022,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="B16:B19"/>
     <mergeCell ref="B31:B41"/>
     <mergeCell ref="B42:B52"/>
     <mergeCell ref="B53:B63"/>
@@ -11032,6 +11029,11 @@
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="L15:R15"/>
     <mergeCell ref="B20:B30"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="B16:B19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Contents!A1" display="Contents!A1"/>
@@ -11046,8 +11048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S57"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="P57" sqref="P57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12708,8 +12710,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/1-SystemDocs/System_spec_v4.xlsx
+++ b/1-SystemDocs/System_spec_v4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-120" windowWidth="12960" windowHeight="11760" firstSheet="10" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="-120" windowWidth="12960" windowHeight="11760" tabRatio="760" firstSheet="3" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="13" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1809" uniqueCount="778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="781">
   <si>
     <t>ETH*</t>
   </si>
@@ -2432,6 +2432,15 @@
   </si>
   <si>
     <t>Others&gt;</t>
+  </si>
+  <si>
+    <t>0x00</t>
+  </si>
+  <si>
+    <t>0x03</t>
+  </si>
+  <si>
+    <t>H2</t>
   </si>
 </sst>
 </file>
@@ -3908,11 +3917,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="385340288"/>
-        <c:axId val="385340680"/>
+        <c:axId val="204874312"/>
+        <c:axId val="204875096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="385340288"/>
+        <c:axId val="204874312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25"/>
@@ -3957,12 +3966,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="385340680"/>
+        <c:crossAx val="204875096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="385340680"/>
+        <c:axId val="204875096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1400"/>
@@ -4021,7 +4030,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="385340288"/>
+        <c:crossAx val="204874312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5681,7 +5690,7 @@
   <dimension ref="B1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8824,10 +8833,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:V63"/>
+  <dimension ref="B1:V74"/>
   <sheetViews>
-    <sheetView topLeftCell="C6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21:S26"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11020,8 +11029,270 @@
         <v>705</v>
       </c>
     </row>
+    <row r="64" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B64" s="215">
+        <v>6</v>
+      </c>
+      <c r="C64" s="28" t="s">
+        <v>650</v>
+      </c>
+      <c r="D64" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="E64" s="164" t="s">
+        <v>560</v>
+      </c>
+      <c r="F64" s="164" t="s">
+        <v>561</v>
+      </c>
+      <c r="G64" s="164" t="s">
+        <v>562</v>
+      </c>
+      <c r="H64" s="155" t="s">
+        <v>560</v>
+      </c>
+      <c r="I64" s="155" t="s">
+        <v>561</v>
+      </c>
+      <c r="J64" s="156" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B65" s="216"/>
+      <c r="C65" s="31" t="s">
+        <v>424</v>
+      </c>
+      <c r="D65" s="31" t="s">
+        <v>651</v>
+      </c>
+      <c r="E65" s="166" t="s">
+        <v>708</v>
+      </c>
+      <c r="F65" s="166" t="s">
+        <v>563</v>
+      </c>
+      <c r="G65" s="165" t="s">
+        <v>583</v>
+      </c>
+      <c r="H65" s="157" t="str">
+        <f>CONCATENATE("0x",BIN2HEX(RIGHT(E65,LEN(E65)-2),2))</f>
+        <v>0x18</v>
+      </c>
+      <c r="I65" s="157" t="str">
+        <f>CONCATENATE("0x",BIN2HEX(RIGHT(F65,LEN(F65)-2),2))</f>
+        <v>0x00</v>
+      </c>
+      <c r="J65" s="158" t="str">
+        <f>CONCATENATE("0x",BIN2HEX(RIGHT(G65,LEN(G65)-2),2))</f>
+        <v>0x03</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B66" s="216"/>
+      <c r="C66" s="31" t="s">
+        <v>425</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="E66" s="166" t="s">
+        <v>735</v>
+      </c>
+      <c r="F66" s="166" t="s">
+        <v>564</v>
+      </c>
+      <c r="G66" s="165" t="s">
+        <v>583</v>
+      </c>
+      <c r="H66" s="157" t="str">
+        <f t="shared" ref="H66" si="25">CONCATENATE("0x",BIN2HEX(RIGHT(E66,LEN(E66)-2),2))</f>
+        <v>0x0E</v>
+      </c>
+      <c r="I66" s="157" t="str">
+        <f t="shared" ref="I66" si="26">CONCATENATE("0x",BIN2HEX(RIGHT(F66,LEN(F66)-2),2))</f>
+        <v>0x40</v>
+      </c>
+      <c r="J66" s="158" t="str">
+        <f t="shared" ref="J66" si="27">CONCATENATE("0x",BIN2HEX(RIGHT(G66,LEN(G66)-2),2))</f>
+        <v>0x03</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B67" s="216"/>
+      <c r="C67" s="31" t="s">
+        <v>426</v>
+      </c>
+      <c r="D67" s="31" t="s">
+        <v>651</v>
+      </c>
+      <c r="E67" s="166" t="s">
+        <v>708</v>
+      </c>
+      <c r="F67" s="166" t="s">
+        <v>563</v>
+      </c>
+      <c r="G67" s="165" t="s">
+        <v>583</v>
+      </c>
+      <c r="H67" s="157" t="str">
+        <f>CONCATENATE("0x",BIN2HEX(RIGHT(E67,LEN(E67)-2),2))</f>
+        <v>0x18</v>
+      </c>
+      <c r="I67" s="157" t="str">
+        <f>CONCATENATE("0x",BIN2HEX(RIGHT(F67,LEN(F67)-2),2))</f>
+        <v>0x00</v>
+      </c>
+      <c r="J67" s="158" t="str">
+        <f>CONCATENATE("0x",BIN2HEX(RIGHT(G67,LEN(G67)-2),2))</f>
+        <v>0x03</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B68" s="216"/>
+      <c r="C68" s="81" t="s">
+        <v>427</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="E68" s="166" t="s">
+        <v>735</v>
+      </c>
+      <c r="F68" s="166" t="s">
+        <v>564</v>
+      </c>
+      <c r="G68" s="165" t="s">
+        <v>583</v>
+      </c>
+      <c r="H68" s="157" t="str">
+        <f t="shared" ref="H68" si="28">CONCATENATE("0x",BIN2HEX(RIGHT(E68,LEN(E68)-2),2))</f>
+        <v>0x0E</v>
+      </c>
+      <c r="I68" s="157" t="str">
+        <f t="shared" ref="I68" si="29">CONCATENATE("0x",BIN2HEX(RIGHT(F68,LEN(F68)-2),2))</f>
+        <v>0x40</v>
+      </c>
+      <c r="J68" s="158" t="str">
+        <f t="shared" ref="J68" si="30">CONCATENATE("0x",BIN2HEX(RIGHT(G68,LEN(G68)-2),2))</f>
+        <v>0x03</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B69" s="216"/>
+      <c r="C69" s="31" t="s">
+        <v>428</v>
+      </c>
+      <c r="D69" s="87" t="s">
+        <v>780</v>
+      </c>
+      <c r="E69" s="166" t="s">
+        <v>710</v>
+      </c>
+      <c r="F69" s="166" t="s">
+        <v>563</v>
+      </c>
+      <c r="G69" s="165" t="s">
+        <v>583</v>
+      </c>
+      <c r="H69" s="157" t="s">
+        <v>600</v>
+      </c>
+      <c r="I69" s="157" t="s">
+        <v>778</v>
+      </c>
+      <c r="J69" s="158" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B70" s="216"/>
+      <c r="C70" s="31" t="s">
+        <v>429</v>
+      </c>
+      <c r="D70" s="87" t="s">
+        <v>759</v>
+      </c>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="165" t="s">
+        <v>563</v>
+      </c>
+      <c r="H70" s="157"/>
+      <c r="I70" s="157"/>
+      <c r="J70" s="158"/>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B71" s="216"/>
+      <c r="C71" s="81" t="s">
+        <v>430</v>
+      </c>
+      <c r="D71" s="87" t="s">
+        <v>759</v>
+      </c>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="165" t="s">
+        <v>563</v>
+      </c>
+      <c r="H71" s="157"/>
+      <c r="I71" s="157"/>
+      <c r="J71" s="158"/>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B72" s="216"/>
+      <c r="C72" s="31" t="s">
+        <v>431</v>
+      </c>
+      <c r="D72" s="87" t="s">
+        <v>759</v>
+      </c>
+      <c r="E72" s="137"/>
+      <c r="F72" s="137"/>
+      <c r="G72" s="165" t="s">
+        <v>563</v>
+      </c>
+      <c r="H72" s="157"/>
+      <c r="I72" s="157"/>
+      <c r="J72" s="158"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B73" s="216"/>
+      <c r="C73" s="31" t="s">
+        <v>433</v>
+      </c>
+      <c r="D73" s="87" t="s">
+        <v>759</v>
+      </c>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="165" t="s">
+        <v>563</v>
+      </c>
+      <c r="H73" s="157"/>
+      <c r="I73" s="157"/>
+      <c r="J73" s="158"/>
+    </row>
+    <row r="74" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="217"/>
+      <c r="C74" s="35" t="s">
+        <v>434</v>
+      </c>
+      <c r="D74" s="35" t="s">
+        <v>759</v>
+      </c>
+      <c r="E74" s="193"/>
+      <c r="F74" s="193"/>
+      <c r="G74" s="194" t="s">
+        <v>563</v>
+      </c>
+      <c r="H74" s="162"/>
+      <c r="I74" s="162"/>
+      <c r="J74" s="163"/>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="B64:B74"/>
     <mergeCell ref="B31:B41"/>
     <mergeCell ref="B42:B52"/>
     <mergeCell ref="B53:B63"/>
@@ -11049,7 +11320,7 @@
   <dimension ref="A1:S57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12710,8 +12981,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/1-SystemDocs/System_spec_v4.xlsx
+++ b/1-SystemDocs/System_spec_v4.xlsx
@@ -3412,21 +3412,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3450,6 +3435,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3917,11 +3917,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="204874312"/>
-        <c:axId val="204875096"/>
+        <c:axId val="376538512"/>
+        <c:axId val="376538904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="204874312"/>
+        <c:axId val="376538512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25"/>
@@ -3966,12 +3966,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="204875096"/>
+        <c:crossAx val="376538904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="204875096"/>
+        <c:axId val="376538904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1400"/>
@@ -4030,7 +4030,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="204874312"/>
+        <c:crossAx val="376538512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4747,7 +4747,7 @@
         <xdr:cNvPr id="2" name="Obrázok 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8835,8 +8835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L74" sqref="L74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8863,19 +8863,19 @@
       </c>
     </row>
     <row r="3" spans="2:22" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="210" t="s">
+      <c r="B3" s="218" t="s">
         <v>537</v>
       </c>
-      <c r="C3" s="210"/>
-      <c r="D3" s="210"/>
-      <c r="E3" s="210"/>
-      <c r="F3" s="210"/>
-      <c r="G3" s="210"/>
-      <c r="H3" s="210"/>
-      <c r="I3" s="210"/>
-      <c r="J3" s="210"/>
-      <c r="K3" s="210"/>
-      <c r="L3" s="210"/>
+      <c r="C3" s="218"/>
+      <c r="D3" s="218"/>
+      <c r="E3" s="218"/>
+      <c r="F3" s="218"/>
+      <c r="G3" s="218"/>
+      <c r="H3" s="218"/>
+      <c r="I3" s="218"/>
+      <c r="J3" s="218"/>
+      <c r="K3" s="218"/>
+      <c r="L3" s="218"/>
       <c r="M3" s="129"/>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
@@ -9014,16 +9014,16 @@
       <c r="B10" s="151" t="s">
         <v>636</v>
       </c>
-      <c r="C10" s="211" t="s">
+      <c r="C10" s="219" t="s">
         <v>643</v>
       </c>
-      <c r="D10" s="211"/>
-      <c r="E10" s="211"/>
-      <c r="F10" s="211"/>
-      <c r="G10" s="211"/>
-      <c r="H10" s="211"/>
-      <c r="I10" s="211"/>
-      <c r="J10" s="212"/>
+      <c r="D10" s="219"/>
+      <c r="E10" s="219"/>
+      <c r="F10" s="219"/>
+      <c r="G10" s="219"/>
+      <c r="H10" s="219"/>
+      <c r="I10" s="219"/>
+      <c r="J10" s="220"/>
       <c r="T10" s="22">
         <v>9</v>
       </c>
@@ -9038,16 +9038,16 @@
       <c r="B11" s="151" t="s">
         <v>642</v>
       </c>
-      <c r="C11" s="211" t="s">
+      <c r="C11" s="219" t="s">
         <v>645</v>
       </c>
-      <c r="D11" s="211"/>
-      <c r="E11" s="211"/>
-      <c r="F11" s="211"/>
-      <c r="G11" s="211"/>
-      <c r="H11" s="211"/>
-      <c r="I11" s="211"/>
-      <c r="J11" s="212"/>
+      <c r="D11" s="219"/>
+      <c r="E11" s="219"/>
+      <c r="F11" s="219"/>
+      <c r="G11" s="219"/>
+      <c r="H11" s="219"/>
+      <c r="I11" s="219"/>
+      <c r="J11" s="220"/>
       <c r="T11" s="24" t="s">
         <v>102</v>
       </c>
@@ -9062,16 +9062,16 @@
       <c r="B12" s="144" t="s">
         <v>641</v>
       </c>
-      <c r="C12" s="213" t="s">
+      <c r="C12" s="221" t="s">
         <v>644</v>
       </c>
-      <c r="D12" s="213"/>
-      <c r="E12" s="213"/>
-      <c r="F12" s="213"/>
-      <c r="G12" s="213"/>
-      <c r="H12" s="213"/>
-      <c r="I12" s="213"/>
-      <c r="J12" s="214"/>
+      <c r="D12" s="221"/>
+      <c r="E12" s="221"/>
+      <c r="F12" s="221"/>
+      <c r="G12" s="221"/>
+      <c r="H12" s="221"/>
+      <c r="I12" s="221"/>
+      <c r="J12" s="222"/>
     </row>
     <row r="14" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
@@ -9084,26 +9084,26 @@
       </c>
       <c r="C15" s="159"/>
       <c r="D15" s="159"/>
-      <c r="E15" s="219" t="s">
+      <c r="E15" s="214" t="s">
         <v>681</v>
       </c>
-      <c r="F15" s="220"/>
-      <c r="G15" s="221"/>
+      <c r="F15" s="215"/>
+      <c r="G15" s="216"/>
       <c r="H15" s="159"/>
       <c r="I15" s="159"/>
       <c r="J15" s="160"/>
-      <c r="L15" s="222" t="s">
+      <c r="L15" s="217" t="s">
         <v>706</v>
       </c>
-      <c r="M15" s="222"/>
-      <c r="N15" s="222"/>
-      <c r="O15" s="222"/>
-      <c r="P15" s="222"/>
-      <c r="Q15" s="222"/>
-      <c r="R15" s="222"/>
+      <c r="M15" s="217"/>
+      <c r="N15" s="217"/>
+      <c r="O15" s="217"/>
+      <c r="P15" s="217"/>
+      <c r="Q15" s="217"/>
+      <c r="R15" s="217"/>
     </row>
     <row r="16" spans="2:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="215">
+      <c r="B16" s="210">
         <v>1</v>
       </c>
       <c r="C16" s="28" t="s">
@@ -9154,13 +9154,13 @@
       <c r="S16" s="182" t="s">
         <v>758</v>
       </c>
-      <c r="U16" s="218" t="s">
+      <c r="U16" s="213" t="s">
         <v>659</v>
       </c>
-      <c r="V16" s="218"/>
+      <c r="V16" s="213"/>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B17" s="216"/>
+      <c r="B17" s="211"/>
       <c r="C17" s="31" t="s">
         <v>428</v>
       </c>
@@ -9222,7 +9222,7 @@
       </c>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B18" s="216"/>
+      <c r="B18" s="211"/>
       <c r="C18" s="31" t="s">
         <v>433</v>
       </c>
@@ -9243,7 +9243,7 @@
       </c>
     </row>
     <row r="19" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="217"/>
+      <c r="B19" s="212"/>
       <c r="C19" s="35" t="s">
         <v>648</v>
       </c>
@@ -9262,7 +9262,7 @@
       </c>
     </row>
     <row r="20" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="215">
+      <c r="B20" s="210">
         <v>2</v>
       </c>
       <c r="C20" s="28" t="s">
@@ -9297,7 +9297,7 @@
       </c>
     </row>
     <row r="21" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="216"/>
+      <c r="B21" s="211"/>
       <c r="C21" s="31" t="s">
         <v>424</v>
       </c>
@@ -9367,7 +9367,7 @@
       </c>
     </row>
     <row r="22" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="216"/>
+      <c r="B22" s="211"/>
       <c r="C22" s="31" t="s">
         <v>425</v>
       </c>
@@ -9437,7 +9437,7 @@
       </c>
     </row>
     <row r="23" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="216"/>
+      <c r="B23" s="211"/>
       <c r="C23" s="31" t="s">
         <v>426</v>
       </c>
@@ -9507,7 +9507,7 @@
       </c>
     </row>
     <row r="24" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="216"/>
+      <c r="B24" s="211"/>
       <c r="C24" s="81" t="s">
         <v>427</v>
       </c>
@@ -9577,7 +9577,7 @@
       </c>
     </row>
     <row r="25" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="216"/>
+      <c r="B25" s="211"/>
       <c r="C25" s="31" t="s">
         <v>428</v>
       </c>
@@ -9647,7 +9647,7 @@
       </c>
     </row>
     <row r="26" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="216"/>
+      <c r="B26" s="211"/>
       <c r="C26" s="31" t="s">
         <v>429</v>
       </c>
@@ -9714,7 +9714,7 @@
       </c>
     </row>
     <row r="27" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="216"/>
+      <c r="B27" s="211"/>
       <c r="C27" s="81" t="s">
         <v>430</v>
       </c>
@@ -9781,7 +9781,7 @@
       </c>
     </row>
     <row r="28" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="216"/>
+      <c r="B28" s="211"/>
       <c r="C28" s="31" t="s">
         <v>431</v>
       </c>
@@ -9810,7 +9810,7 @@
       </c>
     </row>
     <row r="29" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="216"/>
+      <c r="B29" s="211"/>
       <c r="C29" s="31" t="s">
         <v>433</v>
       </c>
@@ -9839,7 +9839,7 @@
       </c>
     </row>
     <row r="30" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="217"/>
+      <c r="B30" s="212"/>
       <c r="C30" s="35" t="s">
         <v>434</v>
       </c>
@@ -9868,7 +9868,7 @@
       </c>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B31" s="215">
+      <c r="B31" s="210">
         <v>3</v>
       </c>
       <c r="C31" s="28" t="s">
@@ -9908,7 +9908,7 @@
       </c>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B32" s="216"/>
+      <c r="B32" s="211"/>
       <c r="C32" s="31" t="s">
         <v>424</v>
       </c>
@@ -9952,7 +9952,7 @@
       </c>
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B33" s="216"/>
+      <c r="B33" s="211"/>
       <c r="C33" s="31" t="s">
         <v>425</v>
       </c>
@@ -9996,7 +9996,7 @@
       </c>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B34" s="216"/>
+      <c r="B34" s="211"/>
       <c r="C34" s="31" t="s">
         <v>426</v>
       </c>
@@ -10037,7 +10037,7 @@
       </c>
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B35" s="216"/>
+      <c r="B35" s="211"/>
       <c r="C35" s="81" t="s">
         <v>427</v>
       </c>
@@ -10081,7 +10081,7 @@
       </c>
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B36" s="216"/>
+      <c r="B36" s="211"/>
       <c r="C36" s="31" t="s">
         <v>428</v>
       </c>
@@ -10125,7 +10125,7 @@
       </c>
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B37" s="216"/>
+      <c r="B37" s="211"/>
       <c r="C37" s="31" t="s">
         <v>429</v>
       </c>
@@ -10169,7 +10169,7 @@
       </c>
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B38" s="216"/>
+      <c r="B38" s="211"/>
       <c r="C38" s="81" t="s">
         <v>430</v>
       </c>
@@ -10200,7 +10200,7 @@
       </c>
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B39" s="216"/>
+      <c r="B39" s="211"/>
       <c r="C39" s="31" t="s">
         <v>431</v>
       </c>
@@ -10228,7 +10228,7 @@
       </c>
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B40" s="216"/>
+      <c r="B40" s="211"/>
       <c r="C40" s="31" t="s">
         <v>433</v>
       </c>
@@ -10257,7 +10257,7 @@
       </c>
     </row>
     <row r="41" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="217"/>
+      <c r="B41" s="212"/>
       <c r="C41" s="35" t="s">
         <v>434</v>
       </c>
@@ -10288,7 +10288,7 @@
       </c>
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B42" s="215">
+      <c r="B42" s="210">
         <v>4</v>
       </c>
       <c r="C42" s="28" t="s">
@@ -10328,7 +10328,7 @@
       </c>
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B43" s="216"/>
+      <c r="B43" s="211"/>
       <c r="C43" s="31" t="s">
         <v>424</v>
       </c>
@@ -10372,7 +10372,7 @@
       </c>
     </row>
     <row r="44" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B44" s="216"/>
+      <c r="B44" s="211"/>
       <c r="C44" s="31" t="s">
         <v>425</v>
       </c>
@@ -10416,7 +10416,7 @@
       </c>
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B45" s="216"/>
+      <c r="B45" s="211"/>
       <c r="C45" s="31" t="s">
         <v>426</v>
       </c>
@@ -10447,7 +10447,7 @@
       </c>
     </row>
     <row r="46" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B46" s="216"/>
+      <c r="B46" s="211"/>
       <c r="C46" s="81" t="s">
         <v>427</v>
       </c>
@@ -10478,7 +10478,7 @@
       </c>
     </row>
     <row r="47" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B47" s="216"/>
+      <c r="B47" s="211"/>
       <c r="C47" s="31" t="s">
         <v>428</v>
       </c>
@@ -10509,7 +10509,7 @@
       </c>
     </row>
     <row r="48" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B48" s="216"/>
+      <c r="B48" s="211"/>
       <c r="C48" s="31" t="s">
         <v>429</v>
       </c>
@@ -10540,7 +10540,7 @@
       </c>
     </row>
     <row r="49" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B49" s="216"/>
+      <c r="B49" s="211"/>
       <c r="C49" s="81" t="s">
         <v>430</v>
       </c>
@@ -10571,7 +10571,7 @@
       </c>
     </row>
     <row r="50" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B50" s="216"/>
+      <c r="B50" s="211"/>
       <c r="C50" s="31" t="s">
         <v>431</v>
       </c>
@@ -10602,7 +10602,7 @@
       </c>
     </row>
     <row r="51" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B51" s="216"/>
+      <c r="B51" s="211"/>
       <c r="C51" s="31" t="s">
         <v>433</v>
       </c>
@@ -10631,7 +10631,7 @@
       </c>
     </row>
     <row r="52" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="217"/>
+      <c r="B52" s="212"/>
       <c r="C52" s="35" t="s">
         <v>434</v>
       </c>
@@ -10662,7 +10662,7 @@
       </c>
     </row>
     <row r="53" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B53" s="215">
+      <c r="B53" s="210">
         <v>5</v>
       </c>
       <c r="C53" s="28" t="s">
@@ -10705,7 +10705,7 @@
       </c>
     </row>
     <row r="54" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B54" s="216"/>
+      <c r="B54" s="211"/>
       <c r="C54" s="31" t="s">
         <v>424</v>
       </c>
@@ -10749,7 +10749,7 @@
       </c>
     </row>
     <row r="55" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B55" s="216"/>
+      <c r="B55" s="211"/>
       <c r="C55" s="31" t="s">
         <v>425</v>
       </c>
@@ -10793,7 +10793,7 @@
       </c>
     </row>
     <row r="56" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B56" s="216"/>
+      <c r="B56" s="211"/>
       <c r="C56" s="31" t="s">
         <v>426</v>
       </c>
@@ -10837,7 +10837,7 @@
       </c>
     </row>
     <row r="57" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B57" s="216"/>
+      <c r="B57" s="211"/>
       <c r="C57" s="81" t="s">
         <v>427</v>
       </c>
@@ -10878,7 +10878,7 @@
       </c>
     </row>
     <row r="58" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B58" s="216"/>
+      <c r="B58" s="211"/>
       <c r="C58" s="31" t="s">
         <v>428</v>
       </c>
@@ -10909,7 +10909,7 @@
       </c>
     </row>
     <row r="59" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B59" s="216"/>
+      <c r="B59" s="211"/>
       <c r="C59" s="31" t="s">
         <v>429</v>
       </c>
@@ -10940,7 +10940,7 @@
       </c>
     </row>
     <row r="60" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B60" s="216"/>
+      <c r="B60" s="211"/>
       <c r="C60" s="81" t="s">
         <v>430</v>
       </c>
@@ -10963,7 +10963,7 @@
       </c>
     </row>
     <row r="61" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B61" s="216"/>
+      <c r="B61" s="211"/>
       <c r="C61" s="31" t="s">
         <v>431</v>
       </c>
@@ -10986,7 +10986,7 @@
       </c>
     </row>
     <row r="62" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B62" s="216"/>
+      <c r="B62" s="211"/>
       <c r="C62" s="31" t="s">
         <v>433</v>
       </c>
@@ -11007,7 +11007,7 @@
       </c>
     </row>
     <row r="63" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="217"/>
+      <c r="B63" s="212"/>
       <c r="C63" s="35" t="s">
         <v>434</v>
       </c>
@@ -11030,7 +11030,7 @@
       </c>
     </row>
     <row r="64" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B64" s="215">
+      <c r="B64" s="210">
         <v>6</v>
       </c>
       <c r="C64" s="28" t="s">
@@ -11059,7 +11059,7 @@
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B65" s="216"/>
+      <c r="B65" s="211"/>
       <c r="C65" s="31" t="s">
         <v>424</v>
       </c>
@@ -11089,7 +11089,7 @@
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B66" s="216"/>
+      <c r="B66" s="211"/>
       <c r="C66" s="31" t="s">
         <v>425</v>
       </c>
@@ -11119,7 +11119,7 @@
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B67" s="216"/>
+      <c r="B67" s="211"/>
       <c r="C67" s="31" t="s">
         <v>426</v>
       </c>
@@ -11149,7 +11149,7 @@
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B68" s="216"/>
+      <c r="B68" s="211"/>
       <c r="C68" s="81" t="s">
         <v>427</v>
       </c>
@@ -11179,7 +11179,7 @@
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B69" s="216"/>
+      <c r="B69" s="211"/>
       <c r="C69" s="31" t="s">
         <v>428</v>
       </c>
@@ -11206,7 +11206,7 @@
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B70" s="216"/>
+      <c r="B70" s="211"/>
       <c r="C70" s="31" t="s">
         <v>429</v>
       </c>
@@ -11223,7 +11223,7 @@
       <c r="J70" s="158"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B71" s="216"/>
+      <c r="B71" s="211"/>
       <c r="C71" s="81" t="s">
         <v>430</v>
       </c>
@@ -11240,7 +11240,7 @@
       <c r="J71" s="158"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B72" s="216"/>
+      <c r="B72" s="211"/>
       <c r="C72" s="31" t="s">
         <v>431</v>
       </c>
@@ -11257,7 +11257,7 @@
       <c r="J72" s="158"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B73" s="216"/>
+      <c r="B73" s="211"/>
       <c r="C73" s="31" t="s">
         <v>433</v>
       </c>
@@ -11274,7 +11274,7 @@
       <c r="J73" s="158"/>
     </row>
     <row r="74" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="217"/>
+      <c r="B74" s="212"/>
       <c r="C74" s="35" t="s">
         <v>434</v>
       </c>
@@ -11292,11 +11292,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B64:B74"/>
-    <mergeCell ref="B31:B41"/>
-    <mergeCell ref="B42:B52"/>
-    <mergeCell ref="B53:B63"/>
-    <mergeCell ref="U16:V16"/>
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="L15:R15"/>
     <mergeCell ref="B20:B30"/>
@@ -11305,6 +11300,11 @@
     <mergeCell ref="C11:J11"/>
     <mergeCell ref="C12:J12"/>
     <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B64:B74"/>
+    <mergeCell ref="B31:B41"/>
+    <mergeCell ref="B42:B52"/>
+    <mergeCell ref="B53:B63"/>
+    <mergeCell ref="U16:V16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Contents!A1" display="Contents!A1"/>

--- a/1-SystemDocs/System_spec_v4.xlsx
+++ b/1-SystemDocs/System_spec_v4.xlsx
@@ -3412,18 +3412,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3435,6 +3423,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3450,6 +3447,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3509,7 +3509,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3917,11 +3916,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="376538512"/>
-        <c:axId val="376538904"/>
+        <c:axId val="365119080"/>
+        <c:axId val="365117904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="376538512"/>
+        <c:axId val="365119080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25"/>
@@ -3966,12 +3965,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="376538904"/>
+        <c:crossAx val="365117904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="376538904"/>
+        <c:axId val="365117904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1400"/>
@@ -4030,7 +4029,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="376538512"/>
+        <c:crossAx val="365119080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4044,7 +4043,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4747,7 +4745,7 @@
         <xdr:cNvPr id="2" name="Obrázok 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8835,8 +8833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L74" sqref="L74"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J74" sqref="J74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8863,19 +8861,19 @@
       </c>
     </row>
     <row r="3" spans="2:22" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="218" t="s">
+      <c r="B3" s="217" t="s">
         <v>537</v>
       </c>
-      <c r="C3" s="218"/>
-      <c r="D3" s="218"/>
-      <c r="E3" s="218"/>
-      <c r="F3" s="218"/>
-      <c r="G3" s="218"/>
-      <c r="H3" s="218"/>
-      <c r="I3" s="218"/>
-      <c r="J3" s="218"/>
-      <c r="K3" s="218"/>
-      <c r="L3" s="218"/>
+      <c r="C3" s="217"/>
+      <c r="D3" s="217"/>
+      <c r="E3" s="217"/>
+      <c r="F3" s="217"/>
+      <c r="G3" s="217"/>
+      <c r="H3" s="217"/>
+      <c r="I3" s="217"/>
+      <c r="J3" s="217"/>
+      <c r="K3" s="217"/>
+      <c r="L3" s="217"/>
       <c r="M3" s="129"/>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
@@ -9014,16 +9012,16 @@
       <c r="B10" s="151" t="s">
         <v>636</v>
       </c>
-      <c r="C10" s="219" t="s">
+      <c r="C10" s="218" t="s">
         <v>643</v>
       </c>
-      <c r="D10" s="219"/>
-      <c r="E10" s="219"/>
-      <c r="F10" s="219"/>
-      <c r="G10" s="219"/>
-      <c r="H10" s="219"/>
-      <c r="I10" s="219"/>
-      <c r="J10" s="220"/>
+      <c r="D10" s="218"/>
+      <c r="E10" s="218"/>
+      <c r="F10" s="218"/>
+      <c r="G10" s="218"/>
+      <c r="H10" s="218"/>
+      <c r="I10" s="218"/>
+      <c r="J10" s="219"/>
       <c r="T10" s="22">
         <v>9</v>
       </c>
@@ -9038,16 +9036,16 @@
       <c r="B11" s="151" t="s">
         <v>642</v>
       </c>
-      <c r="C11" s="219" t="s">
+      <c r="C11" s="218" t="s">
         <v>645</v>
       </c>
-      <c r="D11" s="219"/>
-      <c r="E11" s="219"/>
-      <c r="F11" s="219"/>
-      <c r="G11" s="219"/>
-      <c r="H11" s="219"/>
-      <c r="I11" s="219"/>
-      <c r="J11" s="220"/>
+      <c r="D11" s="218"/>
+      <c r="E11" s="218"/>
+      <c r="F11" s="218"/>
+      <c r="G11" s="218"/>
+      <c r="H11" s="218"/>
+      <c r="I11" s="218"/>
+      <c r="J11" s="219"/>
       <c r="T11" s="24" t="s">
         <v>102</v>
       </c>
@@ -9062,16 +9060,16 @@
       <c r="B12" s="144" t="s">
         <v>641</v>
       </c>
-      <c r="C12" s="221" t="s">
+      <c r="C12" s="220" t="s">
         <v>644</v>
       </c>
-      <c r="D12" s="221"/>
-      <c r="E12" s="221"/>
-      <c r="F12" s="221"/>
-      <c r="G12" s="221"/>
-      <c r="H12" s="221"/>
-      <c r="I12" s="221"/>
-      <c r="J12" s="222"/>
+      <c r="D12" s="220"/>
+      <c r="E12" s="220"/>
+      <c r="F12" s="220"/>
+      <c r="G12" s="220"/>
+      <c r="H12" s="220"/>
+      <c r="I12" s="220"/>
+      <c r="J12" s="221"/>
     </row>
     <row r="14" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
@@ -9084,26 +9082,26 @@
       </c>
       <c r="C15" s="159"/>
       <c r="D15" s="159"/>
-      <c r="E15" s="214" t="s">
+      <c r="E15" s="210" t="s">
         <v>681</v>
       </c>
-      <c r="F15" s="215"/>
-      <c r="G15" s="216"/>
+      <c r="F15" s="211"/>
+      <c r="G15" s="212"/>
       <c r="H15" s="159"/>
       <c r="I15" s="159"/>
       <c r="J15" s="160"/>
-      <c r="L15" s="217" t="s">
+      <c r="L15" s="213" t="s">
         <v>706</v>
       </c>
-      <c r="M15" s="217"/>
-      <c r="N15" s="217"/>
-      <c r="O15" s="217"/>
-      <c r="P15" s="217"/>
-      <c r="Q15" s="217"/>
-      <c r="R15" s="217"/>
+      <c r="M15" s="213"/>
+      <c r="N15" s="213"/>
+      <c r="O15" s="213"/>
+      <c r="P15" s="213"/>
+      <c r="Q15" s="213"/>
+      <c r="R15" s="213"/>
     </row>
     <row r="16" spans="2:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="210">
+      <c r="B16" s="214">
         <v>1</v>
       </c>
       <c r="C16" s="28" t="s">
@@ -9154,13 +9152,13 @@
       <c r="S16" s="182" t="s">
         <v>758</v>
       </c>
-      <c r="U16" s="213" t="s">
+      <c r="U16" s="222" t="s">
         <v>659</v>
       </c>
-      <c r="V16" s="213"/>
+      <c r="V16" s="222"/>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B17" s="211"/>
+      <c r="B17" s="215"/>
       <c r="C17" s="31" t="s">
         <v>428</v>
       </c>
@@ -9222,7 +9220,7 @@
       </c>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B18" s="211"/>
+      <c r="B18" s="215"/>
       <c r="C18" s="31" t="s">
         <v>433</v>
       </c>
@@ -9243,7 +9241,7 @@
       </c>
     </row>
     <row r="19" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="212"/>
+      <c r="B19" s="216"/>
       <c r="C19" s="35" t="s">
         <v>648</v>
       </c>
@@ -9262,7 +9260,7 @@
       </c>
     </row>
     <row r="20" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="210">
+      <c r="B20" s="214">
         <v>2</v>
       </c>
       <c r="C20" s="28" t="s">
@@ -9297,7 +9295,7 @@
       </c>
     </row>
     <row r="21" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="211"/>
+      <c r="B21" s="215"/>
       <c r="C21" s="31" t="s">
         <v>424</v>
       </c>
@@ -9367,7 +9365,7 @@
       </c>
     </row>
     <row r="22" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="211"/>
+      <c r="B22" s="215"/>
       <c r="C22" s="31" t="s">
         <v>425</v>
       </c>
@@ -9437,7 +9435,7 @@
       </c>
     </row>
     <row r="23" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="211"/>
+      <c r="B23" s="215"/>
       <c r="C23" s="31" t="s">
         <v>426</v>
       </c>
@@ -9507,7 +9505,7 @@
       </c>
     </row>
     <row r="24" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="211"/>
+      <c r="B24" s="215"/>
       <c r="C24" s="81" t="s">
         <v>427</v>
       </c>
@@ -9577,7 +9575,7 @@
       </c>
     </row>
     <row r="25" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="211"/>
+      <c r="B25" s="215"/>
       <c r="C25" s="31" t="s">
         <v>428</v>
       </c>
@@ -9647,7 +9645,7 @@
       </c>
     </row>
     <row r="26" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="211"/>
+      <c r="B26" s="215"/>
       <c r="C26" s="31" t="s">
         <v>429</v>
       </c>
@@ -9714,7 +9712,7 @@
       </c>
     </row>
     <row r="27" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="211"/>
+      <c r="B27" s="215"/>
       <c r="C27" s="81" t="s">
         <v>430</v>
       </c>
@@ -9781,7 +9779,7 @@
       </c>
     </row>
     <row r="28" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="211"/>
+      <c r="B28" s="215"/>
       <c r="C28" s="31" t="s">
         <v>431</v>
       </c>
@@ -9810,7 +9808,7 @@
       </c>
     </row>
     <row r="29" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="211"/>
+      <c r="B29" s="215"/>
       <c r="C29" s="31" t="s">
         <v>433</v>
       </c>
@@ -9839,7 +9837,7 @@
       </c>
     </row>
     <row r="30" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="212"/>
+      <c r="B30" s="216"/>
       <c r="C30" s="35" t="s">
         <v>434</v>
       </c>
@@ -9868,7 +9866,7 @@
       </c>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B31" s="210">
+      <c r="B31" s="214">
         <v>3</v>
       </c>
       <c r="C31" s="28" t="s">
@@ -9908,7 +9906,7 @@
       </c>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B32" s="211"/>
+      <c r="B32" s="215"/>
       <c r="C32" s="31" t="s">
         <v>424</v>
       </c>
@@ -9952,7 +9950,7 @@
       </c>
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B33" s="211"/>
+      <c r="B33" s="215"/>
       <c r="C33" s="31" t="s">
         <v>425</v>
       </c>
@@ -9996,7 +9994,7 @@
       </c>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B34" s="211"/>
+      <c r="B34" s="215"/>
       <c r="C34" s="31" t="s">
         <v>426</v>
       </c>
@@ -10037,7 +10035,7 @@
       </c>
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B35" s="211"/>
+      <c r="B35" s="215"/>
       <c r="C35" s="81" t="s">
         <v>427</v>
       </c>
@@ -10081,7 +10079,7 @@
       </c>
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B36" s="211"/>
+      <c r="B36" s="215"/>
       <c r="C36" s="31" t="s">
         <v>428</v>
       </c>
@@ -10125,7 +10123,7 @@
       </c>
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B37" s="211"/>
+      <c r="B37" s="215"/>
       <c r="C37" s="31" t="s">
         <v>429</v>
       </c>
@@ -10169,7 +10167,7 @@
       </c>
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B38" s="211"/>
+      <c r="B38" s="215"/>
       <c r="C38" s="81" t="s">
         <v>430</v>
       </c>
@@ -10200,7 +10198,7 @@
       </c>
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B39" s="211"/>
+      <c r="B39" s="215"/>
       <c r="C39" s="31" t="s">
         <v>431</v>
       </c>
@@ -10228,7 +10226,7 @@
       </c>
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B40" s="211"/>
+      <c r="B40" s="215"/>
       <c r="C40" s="31" t="s">
         <v>433</v>
       </c>
@@ -10257,7 +10255,7 @@
       </c>
     </row>
     <row r="41" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="212"/>
+      <c r="B41" s="216"/>
       <c r="C41" s="35" t="s">
         <v>434</v>
       </c>
@@ -10288,7 +10286,7 @@
       </c>
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B42" s="210">
+      <c r="B42" s="214">
         <v>4</v>
       </c>
       <c r="C42" s="28" t="s">
@@ -10328,7 +10326,7 @@
       </c>
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B43" s="211"/>
+      <c r="B43" s="215"/>
       <c r="C43" s="31" t="s">
         <v>424</v>
       </c>
@@ -10372,7 +10370,7 @@
       </c>
     </row>
     <row r="44" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B44" s="211"/>
+      <c r="B44" s="215"/>
       <c r="C44" s="31" t="s">
         <v>425</v>
       </c>
@@ -10416,7 +10414,7 @@
       </c>
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B45" s="211"/>
+      <c r="B45" s="215"/>
       <c r="C45" s="31" t="s">
         <v>426</v>
       </c>
@@ -10447,7 +10445,7 @@
       </c>
     </row>
     <row r="46" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B46" s="211"/>
+      <c r="B46" s="215"/>
       <c r="C46" s="81" t="s">
         <v>427</v>
       </c>
@@ -10478,7 +10476,7 @@
       </c>
     </row>
     <row r="47" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B47" s="211"/>
+      <c r="B47" s="215"/>
       <c r="C47" s="31" t="s">
         <v>428</v>
       </c>
@@ -10509,7 +10507,7 @@
       </c>
     </row>
     <row r="48" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B48" s="211"/>
+      <c r="B48" s="215"/>
       <c r="C48" s="31" t="s">
         <v>429</v>
       </c>
@@ -10540,7 +10538,7 @@
       </c>
     </row>
     <row r="49" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B49" s="211"/>
+      <c r="B49" s="215"/>
       <c r="C49" s="81" t="s">
         <v>430</v>
       </c>
@@ -10571,7 +10569,7 @@
       </c>
     </row>
     <row r="50" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B50" s="211"/>
+      <c r="B50" s="215"/>
       <c r="C50" s="31" t="s">
         <v>431</v>
       </c>
@@ -10602,7 +10600,7 @@
       </c>
     </row>
     <row r="51" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B51" s="211"/>
+      <c r="B51" s="215"/>
       <c r="C51" s="31" t="s">
         <v>433</v>
       </c>
@@ -10631,7 +10629,7 @@
       </c>
     </row>
     <row r="52" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="212"/>
+      <c r="B52" s="216"/>
       <c r="C52" s="35" t="s">
         <v>434</v>
       </c>
@@ -10662,7 +10660,7 @@
       </c>
     </row>
     <row r="53" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B53" s="210">
+      <c r="B53" s="214">
         <v>5</v>
       </c>
       <c r="C53" s="28" t="s">
@@ -10705,7 +10703,7 @@
       </c>
     </row>
     <row r="54" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B54" s="211"/>
+      <c r="B54" s="215"/>
       <c r="C54" s="31" t="s">
         <v>424</v>
       </c>
@@ -10749,7 +10747,7 @@
       </c>
     </row>
     <row r="55" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B55" s="211"/>
+      <c r="B55" s="215"/>
       <c r="C55" s="31" t="s">
         <v>425</v>
       </c>
@@ -10793,7 +10791,7 @@
       </c>
     </row>
     <row r="56" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B56" s="211"/>
+      <c r="B56" s="215"/>
       <c r="C56" s="31" t="s">
         <v>426</v>
       </c>
@@ -10837,7 +10835,7 @@
       </c>
     </row>
     <row r="57" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B57" s="211"/>
+      <c r="B57" s="215"/>
       <c r="C57" s="81" t="s">
         <v>427</v>
       </c>
@@ -10878,7 +10876,7 @@
       </c>
     </row>
     <row r="58" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B58" s="211"/>
+      <c r="B58" s="215"/>
       <c r="C58" s="31" t="s">
         <v>428</v>
       </c>
@@ -10909,7 +10907,7 @@
       </c>
     </row>
     <row r="59" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B59" s="211"/>
+      <c r="B59" s="215"/>
       <c r="C59" s="31" t="s">
         <v>429</v>
       </c>
@@ -10940,7 +10938,7 @@
       </c>
     </row>
     <row r="60" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B60" s="211"/>
+      <c r="B60" s="215"/>
       <c r="C60" s="81" t="s">
         <v>430</v>
       </c>
@@ -10963,7 +10961,7 @@
       </c>
     </row>
     <row r="61" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B61" s="211"/>
+      <c r="B61" s="215"/>
       <c r="C61" s="31" t="s">
         <v>431</v>
       </c>
@@ -10986,7 +10984,7 @@
       </c>
     </row>
     <row r="62" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B62" s="211"/>
+      <c r="B62" s="215"/>
       <c r="C62" s="31" t="s">
         <v>433</v>
       </c>
@@ -11007,7 +11005,7 @@
       </c>
     </row>
     <row r="63" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="212"/>
+      <c r="B63" s="216"/>
       <c r="C63" s="35" t="s">
         <v>434</v>
       </c>
@@ -11030,7 +11028,7 @@
       </c>
     </row>
     <row r="64" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B64" s="210">
+      <c r="B64" s="214">
         <v>6</v>
       </c>
       <c r="C64" s="28" t="s">
@@ -11059,7 +11057,7 @@
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B65" s="211"/>
+      <c r="B65" s="215"/>
       <c r="C65" s="31" t="s">
         <v>424</v>
       </c>
@@ -11089,7 +11087,7 @@
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B66" s="211"/>
+      <c r="B66" s="215"/>
       <c r="C66" s="31" t="s">
         <v>425</v>
       </c>
@@ -11119,7 +11117,7 @@
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B67" s="211"/>
+      <c r="B67" s="215"/>
       <c r="C67" s="31" t="s">
         <v>426</v>
       </c>
@@ -11149,7 +11147,7 @@
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B68" s="211"/>
+      <c r="B68" s="215"/>
       <c r="C68" s="81" t="s">
         <v>427</v>
       </c>
@@ -11179,7 +11177,7 @@
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B69" s="211"/>
+      <c r="B69" s="215"/>
       <c r="C69" s="31" t="s">
         <v>428</v>
       </c>
@@ -11206,7 +11204,7 @@
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B70" s="211"/>
+      <c r="B70" s="215"/>
       <c r="C70" s="31" t="s">
         <v>429</v>
       </c>
@@ -11223,7 +11221,7 @@
       <c r="J70" s="158"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B71" s="211"/>
+      <c r="B71" s="215"/>
       <c r="C71" s="81" t="s">
         <v>430</v>
       </c>
@@ -11240,7 +11238,7 @@
       <c r="J71" s="158"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B72" s="211"/>
+      <c r="B72" s="215"/>
       <c r="C72" s="31" t="s">
         <v>431</v>
       </c>
@@ -11257,7 +11255,7 @@
       <c r="J72" s="158"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B73" s="211"/>
+      <c r="B73" s="215"/>
       <c r="C73" s="31" t="s">
         <v>433</v>
       </c>
@@ -11274,7 +11272,7 @@
       <c r="J73" s="158"/>
     </row>
     <row r="74" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="212"/>
+      <c r="B74" s="216"/>
       <c r="C74" s="35" t="s">
         <v>434</v>
       </c>
@@ -11292,6 +11290,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B64:B74"/>
+    <mergeCell ref="B31:B41"/>
+    <mergeCell ref="B42:B52"/>
+    <mergeCell ref="B53:B63"/>
+    <mergeCell ref="U16:V16"/>
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="L15:R15"/>
     <mergeCell ref="B20:B30"/>
@@ -11300,11 +11303,6 @@
     <mergeCell ref="C11:J11"/>
     <mergeCell ref="C12:J12"/>
     <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B64:B74"/>
-    <mergeCell ref="B31:B41"/>
-    <mergeCell ref="B42:B52"/>
-    <mergeCell ref="B53:B63"/>
-    <mergeCell ref="U16:V16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Contents!A1" display="Contents!A1"/>

--- a/1-SystemDocs/System_spec_v4.xlsx
+++ b/1-SystemDocs/System_spec_v4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-120" windowWidth="12960" windowHeight="11760" tabRatio="760" firstSheet="3" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="-120" windowWidth="12960" windowHeight="11760" tabRatio="760" firstSheet="12" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="13" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1876" uniqueCount="794">
   <si>
     <t>ETH*</t>
   </si>
@@ -1514,9 +1514,6 @@
     <t>Period [s]</t>
   </si>
   <si>
-    <t>Waiting for DHCP (max 60 seconds)</t>
-  </si>
-  <si>
     <t>Blinking</t>
   </si>
   <si>
@@ -1794,9 +1791,6 @@
   </si>
   <si>
     <t>Add sampling period to SD file or time</t>
-  </si>
-  <si>
-    <t>Button press registered, pressed 1 to 4s, measurement will start on button release</t>
   </si>
   <si>
     <t>Button press registered, pressed 4 - 15s, Unit will restart on release or after 15s from press</t>
@@ -2441,6 +2435,87 @@
   </si>
   <si>
     <t>H2</t>
+  </si>
+  <si>
+    <t>Button press registered, pressed 1 to 4s, measurement will start on button release, if measurement is currently active then it will stop</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Waiting for DHCP (max 60 seconds). If button is pressed for 1s in this period - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fallback IP settings are used</t>
+    </r>
+  </si>
+  <si>
+    <t>fallback IP settings</t>
+  </si>
+  <si>
+    <t>Device IP</t>
+  </si>
+  <si>
+    <t>Device gateway</t>
+  </si>
+  <si>
+    <t>Device mask:</t>
+  </si>
+  <si>
+    <t>255.255.255.0</t>
+  </si>
+  <si>
+    <t>For direct connection</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>Gateway</t>
+  </si>
+  <si>
+    <t>Mask:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Interconnect with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>crossed ETH</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> cable</t>
+    </r>
+  </si>
+  <si>
+    <t>configure computer to</t>
+  </si>
+  <si>
+    <t>192.168.5.200</t>
+  </si>
+  <si>
+    <t>192.168.5.1</t>
   </si>
 </sst>
 </file>
@@ -3027,7 +3102,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="223">
+  <cellXfs count="232">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3449,6 +3524,33 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3916,11 +4018,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="365119080"/>
-        <c:axId val="365117904"/>
+        <c:axId val="393241104"/>
+        <c:axId val="393241496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="365119080"/>
+        <c:axId val="393241104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25"/>
@@ -3965,12 +4067,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="365117904"/>
+        <c:crossAx val="393241496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="365117904"/>
+        <c:axId val="393241496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1400"/>
@@ -4029,7 +4131,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="365119080"/>
+        <c:crossAx val="393241104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5688,7 +5790,7 @@
   <dimension ref="B1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5748,13 +5850,13 @@
     </row>
     <row r="11" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B11" s="55" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C11" s="15"/>
     </row>
     <row r="12" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B12" s="55" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C12" s="15"/>
     </row>
@@ -5895,7 +5997,7 @@
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="L2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="M2" s="76"/>
     </row>
@@ -5904,13 +6006,13 @@
         <v>402</v>
       </c>
       <c r="D3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I3" s="136" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="M3" s="76"/>
     </row>
@@ -5925,7 +6027,7 @@
         <v>404</v>
       </c>
       <c r="E4" s="108" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="F4" s="108" t="s">
         <v>405</v>
@@ -5937,7 +6039,7 @@
         <v>243</v>
       </c>
       <c r="I4" s="133" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="L4" s="105" t="s">
         <v>422</v>
@@ -5968,7 +6070,7 @@
       </c>
       <c r="H5" s="67"/>
       <c r="I5" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="L5" s="101">
         <v>6</v>
@@ -5999,7 +6101,7 @@
       </c>
       <c r="H6" s="67"/>
       <c r="I6" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="L6" s="101">
         <f>L5+3</f>
@@ -6031,7 +6133,7 @@
       </c>
       <c r="H7" s="67"/>
       <c r="I7" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="L7" s="101">
         <f t="shared" ref="L7:L16" si="1">L6+3</f>
@@ -6063,7 +6165,7 @@
       </c>
       <c r="H8" s="67"/>
       <c r="I8" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="L8" s="101">
         <f t="shared" si="1"/>
@@ -6095,7 +6197,7 @@
       </c>
       <c r="H9" s="67"/>
       <c r="I9" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="L9" s="101">
         <f t="shared" si="1"/>
@@ -6127,7 +6229,7 @@
       </c>
       <c r="H10" s="67"/>
       <c r="I10" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="L10" s="101">
         <f t="shared" si="1"/>
@@ -6159,7 +6261,7 @@
       </c>
       <c r="H11" s="67"/>
       <c r="I11" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="L11" s="101">
         <f t="shared" si="1"/>
@@ -6191,7 +6293,7 @@
       </c>
       <c r="H12" s="69"/>
       <c r="I12" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="L12" s="101">
         <f t="shared" si="1"/>
@@ -6223,7 +6325,7 @@
       </c>
       <c r="H13" s="29"/>
       <c r="I13" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="L13" s="101">
         <f t="shared" si="1"/>
@@ -6255,7 +6357,7 @@
       </c>
       <c r="H14" s="32"/>
       <c r="I14" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="L14" s="101">
         <f t="shared" si="1"/>
@@ -6287,7 +6389,7 @@
       </c>
       <c r="H15" s="32"/>
       <c r="I15" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="L15" s="101">
         <f t="shared" si="1"/>
@@ -6319,7 +6421,7 @@
       </c>
       <c r="H16" s="32"/>
       <c r="I16" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="L16" s="103">
         <f t="shared" si="1"/>
@@ -6351,7 +6453,7 @@
       </c>
       <c r="H17" s="32"/>
       <c r="I17" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="M17" s="76"/>
     </row>
@@ -6377,7 +6479,7 @@
       </c>
       <c r="H18" s="32"/>
       <c r="I18" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="M18" s="76"/>
     </row>
@@ -6403,7 +6505,7 @@
       </c>
       <c r="H19" s="32"/>
       <c r="I19" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="L19" s="87"/>
     </row>
@@ -6429,13 +6531,13 @@
       </c>
       <c r="H20" s="36"/>
       <c r="I20" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="L20" s="113" t="s">
+        <v>494</v>
+      </c>
+      <c r="M20" s="29" t="s">
         <v>495</v>
-      </c>
-      <c r="M20" s="29" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
@@ -6460,7 +6562,7 @@
       </c>
       <c r="H21" s="29"/>
       <c r="I21" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="L21" s="30">
         <v>28000</v>
@@ -6492,10 +6594,10 @@
       </c>
       <c r="H22" s="32"/>
       <c r="I22" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="L22" s="114" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="M22" s="32"/>
     </row>
@@ -6521,7 +6623,7 @@
       </c>
       <c r="H23" s="32"/>
       <c r="I23" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="L23" s="34">
         <v>23000</v>
@@ -6553,7 +6655,7 @@
       </c>
       <c r="H24" s="32"/>
       <c r="I24" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="L24" s="76"/>
     </row>
@@ -6579,7 +6681,7 @@
       </c>
       <c r="H25" s="32"/>
       <c r="I25" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="L25" s="76"/>
     </row>
@@ -6605,7 +6707,7 @@
       </c>
       <c r="H26" s="32"/>
       <c r="I26" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="L26" s="76"/>
     </row>
@@ -6631,7 +6733,7 @@
       </c>
       <c r="H27" s="32"/>
       <c r="I27" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="28" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6656,7 +6758,7 @@
       </c>
       <c r="H28" s="36"/>
       <c r="I28" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
@@ -6681,7 +6783,7 @@
       </c>
       <c r="H29" s="29"/>
       <c r="I29" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="J29" s="112"/>
       <c r="K29" s="112"/>
@@ -6708,7 +6810,7 @@
       </c>
       <c r="H30" s="32"/>
       <c r="I30" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="J30" s="112"/>
       <c r="K30" s="112"/>
@@ -6735,7 +6837,7 @@
       </c>
       <c r="H31" s="32"/>
       <c r="I31" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="J31" s="112"/>
       <c r="K31" s="112"/>
@@ -6762,7 +6864,7 @@
       </c>
       <c r="H32" s="32"/>
       <c r="I32" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
@@ -6787,7 +6889,7 @@
       </c>
       <c r="H33" s="32"/>
       <c r="I33" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
@@ -6812,7 +6914,7 @@
       </c>
       <c r="H34" s="32"/>
       <c r="I34" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
@@ -6837,7 +6939,7 @@
       </c>
       <c r="H35" s="32"/>
       <c r="I35" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="36" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6862,7 +6964,7 @@
       </c>
       <c r="H36" s="32"/>
       <c r="I36" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
@@ -6887,7 +6989,7 @@
       </c>
       <c r="H37" s="124"/>
       <c r="I37" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
@@ -6912,7 +7014,7 @@
       </c>
       <c r="H38" s="67"/>
       <c r="I38" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
@@ -6937,7 +7039,7 @@
       </c>
       <c r="H39" s="67"/>
       <c r="I39" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
@@ -6962,7 +7064,7 @@
       </c>
       <c r="H40" s="67"/>
       <c r="I40" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
@@ -6987,7 +7089,7 @@
       </c>
       <c r="H41" s="67"/>
       <c r="I41" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
@@ -7012,7 +7114,7 @@
       </c>
       <c r="H42" s="67"/>
       <c r="I42" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
@@ -7037,7 +7139,7 @@
       </c>
       <c r="H43" s="67"/>
       <c r="I43" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="44" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7062,7 +7164,7 @@
       </c>
       <c r="H44" s="69"/>
       <c r="I44" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
@@ -7087,7 +7189,7 @@
       </c>
       <c r="H45" s="32"/>
       <c r="I45" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
@@ -7112,7 +7214,7 @@
       </c>
       <c r="H46" s="32"/>
       <c r="I46" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
@@ -7137,7 +7239,7 @@
       </c>
       <c r="H47" s="32"/>
       <c r="I47" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
@@ -7162,7 +7264,7 @@
       </c>
       <c r="H48" s="32"/>
       <c r="I48" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
@@ -7187,7 +7289,7 @@
       </c>
       <c r="H49" s="32"/>
       <c r="I49" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
@@ -7212,7 +7314,7 @@
       </c>
       <c r="H50" s="32"/>
       <c r="I50" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
@@ -7237,7 +7339,7 @@
       </c>
       <c r="H51" s="32"/>
       <c r="I51" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="52" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7262,7 +7364,7 @@
       </c>
       <c r="H52" s="36"/>
       <c r="I52" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
@@ -7287,7 +7389,7 @@
       </c>
       <c r="H53" s="29"/>
       <c r="I53" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
@@ -7312,7 +7414,7 @@
       </c>
       <c r="H54" s="32"/>
       <c r="I54" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
@@ -7337,7 +7439,7 @@
       </c>
       <c r="H55" s="32"/>
       <c r="I55" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
@@ -7362,7 +7464,7 @@
       </c>
       <c r="H56" s="32"/>
       <c r="I56" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
@@ -7387,7 +7489,7 @@
       </c>
       <c r="H57" s="32"/>
       <c r="I57" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
@@ -7412,7 +7514,7 @@
       </c>
       <c r="H58" s="32"/>
       <c r="I58" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
@@ -7437,7 +7539,7 @@
       </c>
       <c r="H59" s="32"/>
       <c r="I59" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="60" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7462,7 +7564,7 @@
       </c>
       <c r="H60" s="36"/>
       <c r="I60" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
@@ -7487,7 +7589,7 @@
       </c>
       <c r="H61" s="29"/>
       <c r="I61" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
@@ -7512,7 +7614,7 @@
       </c>
       <c r="H62" s="32"/>
       <c r="I62" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
@@ -7537,7 +7639,7 @@
       </c>
       <c r="H63" s="32"/>
       <c r="I63" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
@@ -7562,7 +7664,7 @@
       </c>
       <c r="H64" s="32"/>
       <c r="I64" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
@@ -7587,7 +7689,7 @@
       </c>
       <c r="H65" s="32"/>
       <c r="I65" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
@@ -7612,7 +7714,7 @@
       </c>
       <c r="H66" s="32"/>
       <c r="I66" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
@@ -7637,7 +7739,7 @@
       </c>
       <c r="H67" s="32"/>
       <c r="I67" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="68" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7662,7 +7764,7 @@
       </c>
       <c r="H68" s="36"/>
       <c r="I68" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
@@ -7687,7 +7789,7 @@
       </c>
       <c r="H69" s="124"/>
       <c r="I69" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
@@ -7712,7 +7814,7 @@
       </c>
       <c r="H70" s="67"/>
       <c r="I70" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
@@ -7737,7 +7839,7 @@
       </c>
       <c r="H71" s="67"/>
       <c r="I71" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
@@ -7762,7 +7864,7 @@
       </c>
       <c r="H72" s="67"/>
       <c r="I72" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
@@ -7787,7 +7889,7 @@
       </c>
       <c r="H73" s="67"/>
       <c r="I73" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
@@ -7812,7 +7914,7 @@
       </c>
       <c r="H74" s="67"/>
       <c r="I74" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
@@ -7837,7 +7939,7 @@
       </c>
       <c r="H75" s="67"/>
       <c r="I75" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="76" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7862,7 +7964,7 @@
       </c>
       <c r="H76" s="69"/>
       <c r="I76" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
@@ -7887,7 +7989,7 @@
       </c>
       <c r="H77" s="32"/>
       <c r="I77" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
@@ -7912,7 +8014,7 @@
       </c>
       <c r="H78" s="32"/>
       <c r="I78" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
@@ -7937,7 +8039,7 @@
       </c>
       <c r="H79" s="32"/>
       <c r="I79" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
@@ -7962,7 +8064,7 @@
       </c>
       <c r="H80" s="32"/>
       <c r="I80" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
@@ -7987,7 +8089,7 @@
       </c>
       <c r="H81" s="32"/>
       <c r="I81" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
@@ -8012,7 +8114,7 @@
       </c>
       <c r="H82" s="32"/>
       <c r="I82" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
@@ -8037,7 +8139,7 @@
       </c>
       <c r="H83" s="32"/>
       <c r="I83" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="84" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8062,12 +8164,12 @@
       </c>
       <c r="H84" s="36"/>
       <c r="I84" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="118" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C85" s="119">
         <f t="shared" si="4"/>
@@ -8087,12 +8189,12 @@
       </c>
       <c r="H85" s="29"/>
       <c r="I85" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" s="115" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C86" s="10">
         <f t="shared" si="4"/>
@@ -8112,12 +8214,12 @@
       </c>
       <c r="H86" s="32"/>
       <c r="I86" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" s="115" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C87" s="10">
         <f t="shared" si="4"/>
@@ -8137,12 +8239,12 @@
       </c>
       <c r="H87" s="32"/>
       <c r="I87" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" s="115" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C88" s="10">
         <f t="shared" si="4"/>
@@ -8162,12 +8264,12 @@
       </c>
       <c r="H88" s="32"/>
       <c r="I88" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" s="115" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C89" s="10">
         <f t="shared" si="4"/>
@@ -8187,12 +8289,12 @@
       </c>
       <c r="H89" s="32"/>
       <c r="I89" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90" s="115" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C90" s="10">
         <f t="shared" si="4"/>
@@ -8212,12 +8314,12 @@
       </c>
       <c r="H90" s="32"/>
       <c r="I90" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" s="115" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C91" s="10">
         <f t="shared" si="4"/>
@@ -8237,12 +8339,12 @@
       </c>
       <c r="H91" s="32"/>
       <c r="I91" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="92" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B92" s="121" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C92" s="122">
         <f t="shared" si="4"/>
@@ -8262,12 +8364,12 @@
       </c>
       <c r="H92" s="36"/>
       <c r="I92" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B93" s="118" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C93" s="119">
         <f t="shared" si="4"/>
@@ -8287,12 +8389,12 @@
       </c>
       <c r="H93" s="29"/>
       <c r="I93" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94" s="115" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C94" s="10">
         <f t="shared" si="4"/>
@@ -8312,12 +8414,12 @@
       </c>
       <c r="H94" s="32"/>
       <c r="I94" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B95" s="115" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C95" s="10">
         <f t="shared" si="4"/>
@@ -8337,12 +8439,12 @@
       </c>
       <c r="H95" s="32"/>
       <c r="I95" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B96" s="115" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C96" s="10">
         <f t="shared" si="4"/>
@@ -8362,12 +8464,12 @@
       </c>
       <c r="H96" s="32"/>
       <c r="I96" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B97" s="115" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C97" s="10">
         <f t="shared" si="4"/>
@@ -8387,12 +8489,12 @@
       </c>
       <c r="H97" s="32"/>
       <c r="I97" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B98" s="115" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C98" s="10">
         <f t="shared" si="4"/>
@@ -8412,12 +8514,12 @@
       </c>
       <c r="H98" s="32"/>
       <c r="I98" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B99" s="115" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C99" s="10">
         <f t="shared" si="4"/>
@@ -8437,12 +8539,12 @@
       </c>
       <c r="H99" s="32"/>
       <c r="I99" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="100" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B100" s="121" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C100" s="122">
         <f t="shared" si="4"/>
@@ -8462,7 +8564,7 @@
       </c>
       <c r="H100" s="36"/>
       <c r="I100" s="134" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="101" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8485,158 +8587,158 @@
         <v>129</v>
       </c>
       <c r="H101" s="29" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I101" s="134"/>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B102" s="123" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C102" s="28">
         <f t="shared" ref="C102:C108" si="5">HEX2DEC(B102)</f>
         <v>240</v>
       </c>
       <c r="D102" s="125" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E102" s="125"/>
       <c r="F102" s="119" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G102" s="119" t="s">
+        <v>488</v>
+      </c>
+      <c r="H102" s="29" t="s">
         <v>489</v>
       </c>
-      <c r="H102" s="29" t="s">
-        <v>490</v>
-      </c>
       <c r="I102" s="135" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103" s="110" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C103" s="31">
         <f t="shared" si="5"/>
         <v>241</v>
       </c>
       <c r="D103" s="87" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E103" s="87"/>
       <c r="F103" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G103" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="H103" s="32" t="s">
         <v>489</v>
       </c>
-      <c r="H103" s="32" t="s">
-        <v>490</v>
-      </c>
       <c r="I103" s="135" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B104" s="110" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C104" s="31">
         <f t="shared" si="5"/>
         <v>242</v>
       </c>
       <c r="D104" s="87" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E104" s="87"/>
       <c r="F104" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G104" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="H104" s="32" t="s">
         <v>489</v>
       </c>
-      <c r="H104" s="32" t="s">
-        <v>490</v>
-      </c>
       <c r="I104" s="135" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="105" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B105" s="116" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C105" s="35">
         <f t="shared" si="5"/>
         <v>243</v>
       </c>
       <c r="D105" s="126" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E105" s="126"/>
       <c r="F105" s="122" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G105" s="122" t="s">
+        <v>488</v>
+      </c>
+      <c r="H105" s="36" t="s">
         <v>489</v>
       </c>
-      <c r="H105" s="36" t="s">
-        <v>490</v>
-      </c>
       <c r="I105" s="135" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B106" s="123" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C106" s="28">
         <f t="shared" si="5"/>
         <v>253</v>
       </c>
       <c r="D106" s="125" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E106" s="125"/>
       <c r="F106" s="119" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G106" s="119" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H106" s="29" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I106" s="135" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="107" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B107" s="116" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C107" s="122">
         <f t="shared" si="5"/>
         <v>254</v>
       </c>
       <c r="D107" s="126" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E107" s="126"/>
       <c r="F107" s="122" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G107" s="122" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H107" s="36" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I107" s="135" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="108" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8693,16 +8795,16 @@
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="130" t="s">
+        <v>548</v>
+      </c>
+      <c r="C3" s="131" t="s">
         <v>549</v>
       </c>
-      <c r="C3" s="131" t="s">
+      <c r="D3" s="131" t="s">
         <v>550</v>
       </c>
-      <c r="D3" s="131" t="s">
+      <c r="E3" s="132" t="s">
         <v>551</v>
-      </c>
-      <c r="E3" s="132" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -8815,10 +8917,10 @@
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="D10" s="75" t="s">
+        <v>552</v>
+      </c>
+      <c r="E10" s="75" t="s">
         <v>553</v>
-      </c>
-      <c r="E10" s="75" t="s">
-        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -8833,7 +8935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J74" sqref="J74"/>
     </sheetView>
   </sheetViews>
@@ -8862,7 +8964,7 @@
     </row>
     <row r="3" spans="2:22" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="217" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C3" s="217"/>
       <c r="D3" s="217"/>
@@ -8906,7 +9008,7 @@
     </row>
     <row r="6" spans="2:22" s="75" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="75" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="P6" s="142"/>
       <c r="Q6" s="142"/>
@@ -8923,7 +9025,7 @@
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B7" s="145" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C7" s="146">
         <v>7</v>
@@ -8956,36 +9058,36 @@
         <v>283</v>
       </c>
       <c r="V7" s="127" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="8" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="148" t="s">
+        <v>633</v>
+      </c>
+      <c r="C8" s="149" t="s">
+        <v>639</v>
+      </c>
+      <c r="D8" s="149" t="s">
+        <v>639</v>
+      </c>
+      <c r="E8" s="149" t="s">
+        <v>639</v>
+      </c>
+      <c r="F8" s="149" t="s">
+        <v>638</v>
+      </c>
+      <c r="G8" s="149" t="s">
+        <v>637</v>
+      </c>
+      <c r="H8" s="149" t="s">
+        <v>636</v>
+      </c>
+      <c r="I8" s="149" t="s">
         <v>635</v>
       </c>
-      <c r="C8" s="149" t="s">
-        <v>641</v>
-      </c>
-      <c r="D8" s="149" t="s">
-        <v>641</v>
-      </c>
-      <c r="E8" s="149" t="s">
-        <v>641</v>
-      </c>
-      <c r="F8" s="149" t="s">
-        <v>640</v>
-      </c>
-      <c r="G8" s="149" t="s">
-        <v>639</v>
-      </c>
-      <c r="H8" s="149" t="s">
-        <v>638</v>
-      </c>
-      <c r="I8" s="149" t="s">
-        <v>637</v>
-      </c>
       <c r="J8" s="150" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="T8" s="22">
         <v>7</v>
@@ -8994,7 +9096,7 @@
         <v>283</v>
       </c>
       <c r="V8" s="23" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="9" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9005,15 +9107,15 @@
         <v>283</v>
       </c>
       <c r="V9" s="23" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="10" spans="2:22" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="151" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C10" s="218" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D10" s="218"/>
       <c r="E10" s="218"/>
@@ -9029,15 +9131,15 @@
         <v>283</v>
       </c>
       <c r="V10" s="23" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="11" spans="2:22" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="151" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C11" s="218" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D11" s="218"/>
       <c r="E11" s="218"/>
@@ -9058,10 +9160,10 @@
     </row>
     <row r="12" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="144" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C12" s="220" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D12" s="220"/>
       <c r="E12" s="220"/>
@@ -9073,17 +9175,17 @@
     </row>
     <row r="14" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="15" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="152" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C15" s="159"/>
       <c r="D15" s="159"/>
       <c r="E15" s="210" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F15" s="211"/>
       <c r="G15" s="212"/>
@@ -9091,7 +9193,7 @@
       <c r="I15" s="159"/>
       <c r="J15" s="160"/>
       <c r="L15" s="213" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="M15" s="213"/>
       <c r="N15" s="213"/>
@@ -9105,55 +9207,55 @@
         <v>1</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D16" s="28" t="s">
         <v>243</v>
       </c>
       <c r="E16" s="164" t="s">
+        <v>559</v>
+      </c>
+      <c r="F16" s="164" t="s">
         <v>560</v>
       </c>
-      <c r="F16" s="164" t="s">
+      <c r="G16" s="164" t="s">
         <v>561</v>
       </c>
-      <c r="G16" s="164" t="s">
-        <v>562</v>
-      </c>
       <c r="H16" s="155" t="s">
+        <v>559</v>
+      </c>
+      <c r="I16" s="155" t="s">
         <v>560</v>
       </c>
-      <c r="I16" s="155" t="s">
+      <c r="J16" s="156" t="s">
         <v>561</v>
       </c>
-      <c r="J16" s="156" t="s">
-        <v>562</v>
-      </c>
       <c r="L16" s="11" t="s">
+        <v>650</v>
+      </c>
+      <c r="M16" s="11" t="s">
+        <v>651</v>
+      </c>
+      <c r="N16" s="11" t="s">
         <v>652</v>
       </c>
-      <c r="M16" s="11" t="s">
+      <c r="O16" s="11" t="s">
         <v>653</v>
       </c>
-      <c r="N16" s="11" t="s">
+      <c r="P16" s="11" t="s">
         <v>654</v>
       </c>
-      <c r="O16" s="11" t="s">
+      <c r="Q16" s="11" t="s">
         <v>655</v>
       </c>
-      <c r="P16" s="11" t="s">
+      <c r="R16" s="11" t="s">
         <v>656</v>
       </c>
-      <c r="Q16" s="11" t="s">
+      <c r="S16" s="182" t="s">
+        <v>756</v>
+      </c>
+      <c r="U16" s="222" t="s">
         <v>657</v>
-      </c>
-      <c r="R16" s="11" t="s">
-        <v>658</v>
-      </c>
-      <c r="S16" s="182" t="s">
-        <v>758</v>
-      </c>
-      <c r="U16" s="222" t="s">
-        <v>659</v>
       </c>
       <c r="V16" s="222"/>
     </row>
@@ -9164,13 +9266,13 @@
       </c>
       <c r="D17" s="31"/>
       <c r="E17" s="165" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F17" s="165" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G17" s="165" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="H17" s="157" t="str">
         <f>CONCATENATE("0x",BIN2HEX(RIGHT(E17,LEN(E17)-2),2))</f>
@@ -9185,7 +9287,7 @@
         <v>0x03</v>
       </c>
       <c r="K17" s="161" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="L17" s="11" t="str">
         <f>INDEX($V$18:$V$25,MATCH(LEFT(RIGHT(E17,LEN(E17)-2-3),3),$U$18:$U$25,0))</f>
@@ -9216,7 +9318,7 @@
         <v>3-lead amperometric</v>
       </c>
       <c r="U17" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.25">
@@ -9225,7 +9327,7 @@
         <v>433</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E18" s="166"/>
       <c r="F18" s="166"/>
@@ -9234,16 +9336,16 @@
       <c r="I18" s="31"/>
       <c r="J18" s="32"/>
       <c r="U18" s="153" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="V18" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="19" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="216"/>
       <c r="C19" s="35" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D19" s="35"/>
       <c r="E19" s="167"/>
@@ -9253,10 +9355,10 @@
       <c r="I19" s="35"/>
       <c r="J19" s="36"/>
       <c r="U19" s="153" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="V19" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="20" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9264,34 +9366,34 @@
         <v>2</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D20" s="28" t="s">
         <v>243</v>
       </c>
       <c r="E20" s="164" t="s">
+        <v>559</v>
+      </c>
+      <c r="F20" s="164" t="s">
         <v>560</v>
       </c>
-      <c r="F20" s="164" t="s">
+      <c r="G20" s="164" t="s">
         <v>561</v>
       </c>
-      <c r="G20" s="164" t="s">
-        <v>562</v>
-      </c>
       <c r="H20" s="155" t="s">
+        <v>559</v>
+      </c>
+      <c r="I20" s="155" t="s">
         <v>560</v>
       </c>
-      <c r="I20" s="155" t="s">
+      <c r="J20" s="156" t="s">
         <v>561</v>
       </c>
-      <c r="J20" s="156" t="s">
-        <v>562</v>
-      </c>
       <c r="U20" s="153" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="V20" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="21" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9300,16 +9402,16 @@
         <v>424</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E21" s="166" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="F21" s="166" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G21" s="165" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="H21" s="157" t="str">
         <f>CONCATENATE("0x",BIN2HEX(RIGHT(E21,LEN(E21)-2),2))</f>
@@ -9324,7 +9426,7 @@
         <v>0x03</v>
       </c>
       <c r="K21" s="161" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="L21" s="11" t="str">
         <f>INDEX($V$18:$V$25,MATCH(LEFT(RIGHT(E21,LEN(E21)-2-3),3),$U$18:$U$25,0))</f>
@@ -9355,13 +9457,13 @@
         <v>3-lead amperometric</v>
       </c>
       <c r="S21" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="U21" s="153" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="V21" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="22" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9373,13 +9475,13 @@
         <v>223</v>
       </c>
       <c r="E22" s="166" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F22" s="166" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G22" s="165" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="H22" s="157" t="str">
         <f t="shared" ref="H22:H26" si="0">CONCATENATE("0x",BIN2HEX(RIGHT(E22,LEN(E22)-2),2))</f>
@@ -9394,7 +9496,7 @@
         <v>0x03</v>
       </c>
       <c r="K22" s="161" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="L22" s="11" t="str">
         <f t="shared" ref="L22:L27" si="3">INDEX($V$18:$V$25,MATCH(LEFT(RIGHT(E22,LEN(E22)-2-3),3),$U$18:$U$25,0))</f>
@@ -9425,13 +9527,13 @@
         <v>3-lead amperometric</v>
       </c>
       <c r="S22" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="U22" s="153" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="V22" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="23" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9440,16 +9542,16 @@
         <v>426</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E23" s="166" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="F23" s="166" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G23" s="165" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="H23" s="157" t="str">
         <f t="shared" si="0"/>
@@ -9464,7 +9566,7 @@
         <v>0x03</v>
       </c>
       <c r="K23" s="161" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="L23" s="11" t="str">
         <f t="shared" si="3"/>
@@ -9495,13 +9597,13 @@
         <v>3-lead amperometric</v>
       </c>
       <c r="S23" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="U23" s="153" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="V23" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="24" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9510,16 +9612,16 @@
         <v>427</v>
       </c>
       <c r="D24" s="87" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E24" s="168" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F24" s="168" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G24" s="176" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="H24" s="177" t="str">
         <f t="shared" si="0"/>
@@ -9534,7 +9636,7 @@
         <v>0x03</v>
       </c>
       <c r="K24" s="179" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="L24" s="180" t="str">
         <f t="shared" si="3"/>
@@ -9565,13 +9667,13 @@
         <v>3-lead amperometric</v>
       </c>
       <c r="S24" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="U24" s="153" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="V24" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="25" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9580,16 +9682,16 @@
         <v>428</v>
       </c>
       <c r="D25" s="87" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E25" s="166" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="F25" s="166" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G25" s="165" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="H25" s="157" t="str">
         <f t="shared" si="0"/>
@@ -9604,7 +9706,7 @@
         <v>0x03</v>
       </c>
       <c r="K25" s="161" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="L25" s="11" t="str">
         <f t="shared" si="3"/>
@@ -9635,13 +9737,13 @@
         <v>3-lead amperometric</v>
       </c>
       <c r="S25" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="U25" s="153" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="V25" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="26" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9650,16 +9752,16 @@
         <v>429</v>
       </c>
       <c r="D26" s="87" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E26" s="166" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="F26" s="166" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G26" s="165" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="H26" s="157" t="str">
         <f t="shared" si="0"/>
@@ -9674,7 +9776,7 @@
         <v>0x03</v>
       </c>
       <c r="K26" s="161" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="L26" s="11" t="str">
         <f t="shared" si="3"/>
@@ -9705,10 +9807,10 @@
         <v>3-lead amperometric</v>
       </c>
       <c r="S26" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="U26" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="27" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9717,16 +9819,16 @@
         <v>430</v>
       </c>
       <c r="D27" s="87" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E27" s="166" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F27" s="166" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G27" s="165" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="H27" s="157" t="str">
         <f t="shared" ref="H27" si="10">CONCATENATE("0x",BIN2HEX(RIGHT(E27,LEN(E27)-2),2))</f>
@@ -9741,7 +9843,7 @@
         <v>0x03</v>
       </c>
       <c r="K27" s="161" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="L27" s="11" t="str">
         <f t="shared" si="3"/>
@@ -9772,10 +9874,10 @@
         <v>3-lead amperometric</v>
       </c>
       <c r="U27" s="153" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="V27" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="28" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9784,7 +9886,7 @@
         <v>431</v>
       </c>
       <c r="D28" s="87" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E28" s="157"/>
       <c r="F28" s="157"/>
@@ -9801,10 +9903,10 @@
       <c r="Q28" s="154"/>
       <c r="R28" s="11"/>
       <c r="U28" s="153" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="V28" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="29" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9813,7 +9915,7 @@
         <v>433</v>
       </c>
       <c r="D29" s="166" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E29" s="166"/>
       <c r="F29" s="166"/>
@@ -9830,10 +9932,10 @@
       <c r="Q29" s="154"/>
       <c r="R29" s="11"/>
       <c r="U29" s="153" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="V29" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="30" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -9842,7 +9944,7 @@
         <v>434</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E30" s="162"/>
       <c r="F30" s="162"/>
@@ -9859,10 +9961,10 @@
       <c r="Q30" s="154"/>
       <c r="R30" s="11"/>
       <c r="U30" s="153" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="V30" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.25">
@@ -9870,28 +9972,28 @@
         <v>3</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D31" s="28" t="s">
         <v>243</v>
       </c>
       <c r="E31" s="164" t="s">
+        <v>559</v>
+      </c>
+      <c r="F31" s="164" t="s">
         <v>560</v>
       </c>
-      <c r="F31" s="164" t="s">
+      <c r="G31" s="164" t="s">
         <v>561</v>
       </c>
-      <c r="G31" s="164" t="s">
-        <v>562</v>
-      </c>
       <c r="H31" s="155" t="s">
+        <v>559</v>
+      </c>
+      <c r="I31" s="155" t="s">
         <v>560</v>
       </c>
-      <c r="I31" s="155" t="s">
+      <c r="J31" s="156" t="s">
         <v>561</v>
-      </c>
-      <c r="J31" s="156" t="s">
-        <v>562</v>
       </c>
       <c r="K31" s="10"/>
       <c r="L31" s="137"/>
@@ -9902,7 +10004,7 @@
       <c r="Q31" s="191"/>
       <c r="R31" s="137"/>
       <c r="U31" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.25">
@@ -9911,16 +10013,16 @@
         <v>424</v>
       </c>
       <c r="D32" s="81" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E32" s="166" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="F32" s="166" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G32" s="165" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="H32" s="157" t="str">
         <f>CONCATENATE("0x",BIN2HEX(RIGHT(E32,LEN(E32)-2),2))</f>
@@ -9943,10 +10045,10 @@
       <c r="Q32" s="191"/>
       <c r="R32" s="137"/>
       <c r="U32" s="153" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="V32" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.25">
@@ -9958,13 +10060,13 @@
         <v>223</v>
       </c>
       <c r="E33" s="166" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F33" s="166" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G33" s="165" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="H33" s="157" t="str">
         <f t="shared" ref="H33:H37" si="13">CONCATENATE("0x",BIN2HEX(RIGHT(E33,LEN(E33)-2),2))</f>
@@ -9987,10 +10089,10 @@
       <c r="Q33" s="191"/>
       <c r="R33" s="137"/>
       <c r="U33" s="153" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="V33" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.25">
@@ -9999,16 +10101,16 @@
         <v>426</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E34" s="166" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="F34" s="166" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G34" s="165" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="H34" s="157" t="str">
         <f t="shared" si="13"/>
@@ -10031,7 +10133,7 @@
       <c r="Q34" s="191"/>
       <c r="R34" s="137"/>
       <c r="U34" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.25">
@@ -10040,16 +10142,16 @@
         <v>427</v>
       </c>
       <c r="D35" s="87" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E35" s="168" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F35" s="168" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G35" s="176" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="H35" s="177" t="str">
         <f t="shared" si="13"/>
@@ -10072,10 +10174,10 @@
       <c r="Q35" s="10"/>
       <c r="R35" s="10"/>
       <c r="U35" s="153" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="V35" s="141" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.25">
@@ -10084,16 +10186,16 @@
         <v>428</v>
       </c>
       <c r="D36" s="87" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E36" s="166" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="F36" s="166" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G36" s="165" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="H36" s="157" t="str">
         <f t="shared" si="13"/>
@@ -10116,10 +10218,10 @@
       <c r="Q36" s="10"/>
       <c r="R36" s="10"/>
       <c r="U36" s="153" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="V36" s="141" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.25">
@@ -10128,16 +10230,16 @@
         <v>429</v>
       </c>
       <c r="D37" s="87" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E37" s="166" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="F37" s="166" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G37" s="165" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="H37" s="157" t="str">
         <f t="shared" si="13"/>
@@ -10160,10 +10262,10 @@
       <c r="Q37" s="10"/>
       <c r="R37" s="10"/>
       <c r="U37" s="153" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="V37" s="141" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.25">
@@ -10172,12 +10274,12 @@
         <v>430</v>
       </c>
       <c r="D38" s="87" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
       <c r="G38" s="165" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H38" s="157"/>
       <c r="I38" s="157"/>
@@ -10191,10 +10293,10 @@
       <c r="Q38" s="10"/>
       <c r="R38" s="10"/>
       <c r="U38" s="153" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="V38" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.25">
@@ -10203,12 +10305,12 @@
         <v>431</v>
       </c>
       <c r="D39" s="87" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E39" s="137"/>
       <c r="F39" s="137"/>
       <c r="G39" s="165" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H39" s="157"/>
       <c r="I39" s="157"/>
@@ -10222,7 +10324,7 @@
       <c r="Q39" s="10"/>
       <c r="R39" s="10"/>
       <c r="U39" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.25">
@@ -10231,7 +10333,7 @@
         <v>433</v>
       </c>
       <c r="D40" s="166" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E40" s="166"/>
       <c r="F40" s="166"/>
@@ -10248,10 +10350,10 @@
       <c r="Q40" s="10"/>
       <c r="R40" s="10"/>
       <c r="U40" s="153" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="V40" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="41" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10260,12 +10362,12 @@
         <v>434</v>
       </c>
       <c r="D41" s="35" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E41" s="193"/>
       <c r="F41" s="193"/>
       <c r="G41" s="165" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H41" s="162"/>
       <c r="I41" s="162"/>
@@ -10279,10 +10381,10 @@
       <c r="Q41" s="10"/>
       <c r="R41" s="10"/>
       <c r="U41" s="153" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="V41" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.25">
@@ -10290,28 +10392,28 @@
         <v>4</v>
       </c>
       <c r="C42" s="28" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D42" s="28" t="s">
         <v>243</v>
       </c>
       <c r="E42" s="164" t="s">
+        <v>559</v>
+      </c>
+      <c r="F42" s="164" t="s">
         <v>560</v>
       </c>
-      <c r="F42" s="164" t="s">
+      <c r="G42" s="164" t="s">
         <v>561</v>
       </c>
-      <c r="G42" s="164" t="s">
-        <v>562</v>
-      </c>
       <c r="H42" s="155" t="s">
+        <v>559</v>
+      </c>
+      <c r="I42" s="155" t="s">
         <v>560</v>
       </c>
-      <c r="I42" s="155" t="s">
+      <c r="J42" s="156" t="s">
         <v>561</v>
-      </c>
-      <c r="J42" s="156" t="s">
-        <v>562</v>
       </c>
       <c r="K42" s="10"/>
       <c r="L42" s="190"/>
@@ -10322,7 +10424,7 @@
       <c r="Q42" s="10"/>
       <c r="R42" s="10"/>
       <c r="U42" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.25">
@@ -10331,16 +10433,16 @@
         <v>424</v>
       </c>
       <c r="D43" s="31" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E43" s="166" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="F43" s="166" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G43" s="165" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="H43" s="157" t="str">
         <f>CONCATENATE("0x",BIN2HEX(RIGHT(E43,LEN(E43)-2),2))</f>
@@ -10363,7 +10465,7 @@
       <c r="Q43" s="183"/>
       <c r="R43" s="183"/>
       <c r="U43" s="153" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="V43" s="141">
         <v>0</v>
@@ -10378,13 +10480,13 @@
         <v>223</v>
       </c>
       <c r="E44" s="166" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F44" s="166" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G44" s="165" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="H44" s="157" t="str">
         <f t="shared" ref="H44" si="16">CONCATENATE("0x",BIN2HEX(RIGHT(E44,LEN(E44)-2),2))</f>
@@ -10407,7 +10509,7 @@
       <c r="Q44" s="183"/>
       <c r="R44" s="183"/>
       <c r="U44" s="153" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="V44" s="141">
         <v>0.01</v>
@@ -10419,12 +10521,12 @@
         <v>426</v>
       </c>
       <c r="D45" s="87" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
       <c r="G45" s="165" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H45" s="157"/>
       <c r="I45" s="157"/>
@@ -10438,7 +10540,7 @@
       <c r="Q45" s="183"/>
       <c r="R45" s="183"/>
       <c r="U45" s="153" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="V45" s="141">
         <v>0.02</v>
@@ -10450,12 +10552,12 @@
         <v>427</v>
       </c>
       <c r="D46" s="87" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E46" s="87"/>
       <c r="F46" s="87"/>
       <c r="G46" s="165" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H46" s="177"/>
       <c r="I46" s="177"/>
@@ -10469,7 +10571,7 @@
       <c r="Q46" s="183"/>
       <c r="R46" s="183"/>
       <c r="U46" s="153" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="V46" s="141">
         <v>0.04</v>
@@ -10481,12 +10583,12 @@
         <v>428</v>
       </c>
       <c r="D47" s="87" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
       <c r="G47" s="165" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H47" s="157"/>
       <c r="I47" s="157"/>
@@ -10500,7 +10602,7 @@
       <c r="Q47" s="183"/>
       <c r="R47" s="183"/>
       <c r="U47" s="153" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="V47" s="141">
         <v>0.06</v>
@@ -10512,12 +10614,12 @@
         <v>429</v>
       </c>
       <c r="D48" s="87" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
       <c r="G48" s="165" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H48" s="157"/>
       <c r="I48" s="157"/>
@@ -10531,7 +10633,7 @@
       <c r="Q48" s="183"/>
       <c r="R48" s="183"/>
       <c r="U48" s="153" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="V48" s="141">
         <v>0.08</v>
@@ -10543,12 +10645,12 @@
         <v>430</v>
       </c>
       <c r="D49" s="87" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
       <c r="G49" s="165" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H49" s="157"/>
       <c r="I49" s="157"/>
@@ -10562,7 +10664,7 @@
       <c r="Q49" s="183"/>
       <c r="R49" s="183"/>
       <c r="U49" s="153" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="V49" s="141">
         <v>0.1</v>
@@ -10574,12 +10676,12 @@
         <v>431</v>
       </c>
       <c r="D50" s="87" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E50" s="137"/>
       <c r="F50" s="137"/>
       <c r="G50" s="165" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H50" s="157"/>
       <c r="I50" s="157"/>
@@ -10593,7 +10695,7 @@
       <c r="Q50" s="183"/>
       <c r="R50" s="183"/>
       <c r="U50" s="153" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="V50" s="141">
         <v>0.12</v>
@@ -10605,7 +10707,7 @@
         <v>433</v>
       </c>
       <c r="D51" s="166" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E51" s="166"/>
       <c r="F51" s="166"/>
@@ -10622,7 +10724,7 @@
       <c r="Q51" s="183"/>
       <c r="R51" s="183"/>
       <c r="U51" s="153" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="V51" s="141">
         <v>0.14000000000000001</v>
@@ -10634,12 +10736,12 @@
         <v>434</v>
       </c>
       <c r="D52" s="35" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E52" s="193"/>
       <c r="F52" s="193"/>
       <c r="G52" s="165" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H52" s="162"/>
       <c r="I52" s="162"/>
@@ -10653,7 +10755,7 @@
       <c r="Q52" s="183"/>
       <c r="R52" s="183"/>
       <c r="U52" s="153" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="V52" s="141">
         <v>0.16</v>
@@ -10664,28 +10766,28 @@
         <v>5</v>
       </c>
       <c r="C53" s="28" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D53" s="28" t="s">
         <v>243</v>
       </c>
       <c r="E53" s="164" t="s">
+        <v>559</v>
+      </c>
+      <c r="F53" s="164" t="s">
         <v>560</v>
       </c>
-      <c r="F53" s="164" t="s">
+      <c r="G53" s="164" t="s">
         <v>561</v>
       </c>
-      <c r="G53" s="164" t="s">
-        <v>562</v>
-      </c>
       <c r="H53" s="155" t="s">
+        <v>559</v>
+      </c>
+      <c r="I53" s="155" t="s">
         <v>560</v>
       </c>
-      <c r="I53" s="155" t="s">
+      <c r="J53" s="156" t="s">
         <v>561</v>
-      </c>
-      <c r="J53" s="156" t="s">
-        <v>562</v>
       </c>
       <c r="K53" s="183"/>
       <c r="L53" s="183"/>
@@ -10696,7 +10798,7 @@
       <c r="Q53" s="183"/>
       <c r="R53" s="183"/>
       <c r="U53" s="153" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="V53" s="141">
         <v>0.18</v>
@@ -10708,16 +10810,16 @@
         <v>424</v>
       </c>
       <c r="D54" s="31" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E54" s="166" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="F54" s="166" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G54" s="165" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="H54" s="157" t="str">
         <f>CONCATENATE("0x",BIN2HEX(RIGHT(E54,LEN(E54)-2),2))</f>
@@ -10740,7 +10842,7 @@
       <c r="Q54" s="183"/>
       <c r="R54" s="183"/>
       <c r="U54" s="153" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="V54" s="141">
         <v>0.2</v>
@@ -10755,13 +10857,13 @@
         <v>223</v>
       </c>
       <c r="E55" s="166" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F55" s="166" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G55" s="165" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="H55" s="157" t="str">
         <f t="shared" ref="H55" si="19">CONCATENATE("0x",BIN2HEX(RIGHT(E55,LEN(E55)-2),2))</f>
@@ -10784,7 +10886,7 @@
       <c r="Q55" s="183"/>
       <c r="R55" s="183"/>
       <c r="U55" s="153" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="V55" s="141">
         <v>0.22</v>
@@ -10796,16 +10898,16 @@
         <v>426</v>
       </c>
       <c r="D56" s="31" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E56" s="166" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="F56" s="166" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G56" s="165" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="H56" s="157" t="str">
         <f>CONCATENATE("0x",BIN2HEX(RIGHT(E56,LEN(E56)-2),2))</f>
@@ -10828,7 +10930,7 @@
       <c r="Q56" s="183"/>
       <c r="R56" s="183"/>
       <c r="U56" s="153" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="V56" s="141">
         <v>0.24</v>
@@ -10843,13 +10945,13 @@
         <v>223</v>
       </c>
       <c r="E57" s="166" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F57" s="166" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G57" s="165" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="H57" s="157" t="str">
         <f t="shared" ref="H57" si="22">CONCATENATE("0x",BIN2HEX(RIGHT(E57,LEN(E57)-2),2))</f>
@@ -10872,7 +10974,7 @@
       <c r="Q57" s="183"/>
       <c r="R57" s="183"/>
       <c r="U57" s="153" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="58" spans="2:22" x14ac:dyDescent="0.25">
@@ -10881,12 +10983,12 @@
         <v>428</v>
       </c>
       <c r="D58" s="87" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E58" s="10"/>
       <c r="F58" s="10"/>
       <c r="G58" s="165" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H58" s="157"/>
       <c r="I58" s="157"/>
@@ -10900,10 +11002,10 @@
       <c r="Q58" s="183"/>
       <c r="R58" s="183"/>
       <c r="U58" s="153" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="V58" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="59" spans="2:22" x14ac:dyDescent="0.25">
@@ -10912,12 +11014,12 @@
         <v>429</v>
       </c>
       <c r="D59" s="87" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
       <c r="G59" s="165" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H59" s="157"/>
       <c r="I59" s="157"/>
@@ -10931,10 +11033,10 @@
       <c r="Q59" s="183"/>
       <c r="R59" s="183"/>
       <c r="U59" s="153" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="V59" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="60" spans="2:22" x14ac:dyDescent="0.25">
@@ -10943,21 +11045,21 @@
         <v>430</v>
       </c>
       <c r="D60" s="87" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
       <c r="G60" s="165" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H60" s="157"/>
       <c r="I60" s="157"/>
       <c r="J60" s="158"/>
       <c r="U60" s="153" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="V60" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="61" spans="2:22" x14ac:dyDescent="0.25">
@@ -10966,21 +11068,21 @@
         <v>431</v>
       </c>
       <c r="D61" s="87" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E61" s="137"/>
       <c r="F61" s="137"/>
       <c r="G61" s="165" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H61" s="157"/>
       <c r="I61" s="157"/>
       <c r="J61" s="158"/>
       <c r="U61" s="153" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="V61" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="62" spans="2:22" x14ac:dyDescent="0.25">
@@ -10989,7 +11091,7 @@
         <v>433</v>
       </c>
       <c r="D62" s="166" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E62" s="166"/>
       <c r="F62" s="166"/>
@@ -10998,10 +11100,10 @@
       <c r="I62" s="157"/>
       <c r="J62" s="158"/>
       <c r="U62" s="153" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="V62" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="63" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11010,21 +11112,21 @@
         <v>434</v>
       </c>
       <c r="D63" s="35" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E63" s="193"/>
       <c r="F63" s="193"/>
       <c r="G63" s="194" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H63" s="162"/>
       <c r="I63" s="162"/>
       <c r="J63" s="163"/>
       <c r="U63" s="153" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="V63" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="64" spans="2:22" x14ac:dyDescent="0.25">
@@ -11032,28 +11134,28 @@
         <v>6</v>
       </c>
       <c r="C64" s="28" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="D64" s="28" t="s">
         <v>243</v>
       </c>
       <c r="E64" s="164" t="s">
+        <v>559</v>
+      </c>
+      <c r="F64" s="164" t="s">
         <v>560</v>
       </c>
-      <c r="F64" s="164" t="s">
+      <c r="G64" s="164" t="s">
         <v>561</v>
       </c>
-      <c r="G64" s="164" t="s">
-        <v>562</v>
-      </c>
       <c r="H64" s="155" t="s">
+        <v>559</v>
+      </c>
+      <c r="I64" s="155" t="s">
         <v>560</v>
       </c>
-      <c r="I64" s="155" t="s">
+      <c r="J64" s="156" t="s">
         <v>561</v>
-      </c>
-      <c r="J64" s="156" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
@@ -11062,16 +11164,16 @@
         <v>424</v>
       </c>
       <c r="D65" s="31" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E65" s="166" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="F65" s="166" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G65" s="165" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="H65" s="157" t="str">
         <f>CONCATENATE("0x",BIN2HEX(RIGHT(E65,LEN(E65)-2),2))</f>
@@ -11095,13 +11197,13 @@
         <v>223</v>
       </c>
       <c r="E66" s="166" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F66" s="166" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G66" s="165" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="H66" s="157" t="str">
         <f t="shared" ref="H66" si="25">CONCATENATE("0x",BIN2HEX(RIGHT(E66,LEN(E66)-2),2))</f>
@@ -11122,16 +11224,16 @@
         <v>426</v>
       </c>
       <c r="D67" s="31" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E67" s="166" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="F67" s="166" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G67" s="165" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="H67" s="157" t="str">
         <f>CONCATENATE("0x",BIN2HEX(RIGHT(E67,LEN(E67)-2),2))</f>
@@ -11155,13 +11257,13 @@
         <v>223</v>
       </c>
       <c r="E68" s="166" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F68" s="166" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G68" s="165" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="H68" s="157" t="str">
         <f t="shared" ref="H68" si="28">CONCATENATE("0x",BIN2HEX(RIGHT(E68,LEN(E68)-2),2))</f>
@@ -11182,25 +11284,25 @@
         <v>428</v>
       </c>
       <c r="D69" s="87" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E69" s="166" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="F69" s="166" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G69" s="165" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="H69" s="157" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="I69" s="157" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="J69" s="158" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.25">
@@ -11209,12 +11311,12 @@
         <v>429</v>
       </c>
       <c r="D70" s="87" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E70" s="10"/>
       <c r="F70" s="10"/>
       <c r="G70" s="165" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H70" s="157"/>
       <c r="I70" s="157"/>
@@ -11226,12 +11328,12 @@
         <v>430</v>
       </c>
       <c r="D71" s="87" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E71" s="10"/>
       <c r="F71" s="10"/>
       <c r="G71" s="165" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H71" s="157"/>
       <c r="I71" s="157"/>
@@ -11243,12 +11345,12 @@
         <v>431</v>
       </c>
       <c r="D72" s="87" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E72" s="137"/>
       <c r="F72" s="137"/>
       <c r="G72" s="165" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H72" s="157"/>
       <c r="I72" s="157"/>
@@ -11260,12 +11362,12 @@
         <v>433</v>
       </c>
       <c r="D73" s="87" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E73" s="10"/>
       <c r="F73" s="10"/>
       <c r="G73" s="165" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H73" s="157"/>
       <c r="I73" s="157"/>
@@ -11277,12 +11379,12 @@
         <v>434</v>
       </c>
       <c r="D74" s="35" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="E74" s="193"/>
       <c r="F74" s="193"/>
       <c r="G74" s="194" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H74" s="162"/>
       <c r="I74" s="162"/>
@@ -11340,46 +11442,46 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="P3" s="56" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C5" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D5" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C7" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -11400,24 +11502,24 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B11" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C11" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D11" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E11" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -11431,7 +11533,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -11445,10 +11547,10 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B14" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C14">
         <v>12</v>
@@ -11462,10 +11564,10 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B15" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -11479,10 +11581,10 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B16" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C16">
         <v>16</v>
@@ -11496,10 +11598,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B17" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C17">
         <v>18</v>
@@ -11513,10 +11615,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B18" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C18">
         <v>20</v>
@@ -11530,10 +11632,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B19" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C19">
         <v>24</v>
@@ -11547,7 +11649,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C21">
         <f>C18-C14</f>
@@ -11562,7 +11664,7 @@
         <v>1.7125000000000057</v>
       </c>
       <c r="F21" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -11580,15 +11682,15 @@
       <c r="B27" s="28"/>
       <c r="C27" s="28"/>
       <c r="D27" s="28" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="30" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B28" s="31"/>
       <c r="C28" s="31">
@@ -11603,7 +11705,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="30" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B29" s="31"/>
       <c r="C29" s="31">
@@ -11618,7 +11720,7 @@
     </row>
     <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="34" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B30" s="35"/>
       <c r="C30" s="35">
@@ -11634,7 +11736,7 @@
     <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="27" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B32" s="138">
         <v>0.67</v>
@@ -11645,10 +11747,10 @@
     </row>
     <row r="33" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="30" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C33" s="31"/>
       <c r="D33" s="31"/>
@@ -11661,13 +11763,13 @@
       <c r="D34" s="31"/>
       <c r="E34" s="32"/>
       <c r="F34" s="27" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G34" s="28">
         <v>5</v>
       </c>
       <c r="H34" s="29" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="35" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11677,14 +11779,14 @@
       <c r="D35" s="31"/>
       <c r="E35" s="32"/>
       <c r="F35" s="30" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="G35" s="31">
         <f>0.67*G34</f>
         <v>3.35</v>
       </c>
       <c r="H35" s="32" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
@@ -11694,23 +11796,23 @@
       <c r="D36" s="31"/>
       <c r="E36" s="32"/>
       <c r="F36" s="30" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="G36" s="31">
         <f>0.2*G34</f>
         <v>1</v>
       </c>
       <c r="H36" s="32" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="J36" s="27" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K36" s="28">
         <v>5</v>
       </c>
       <c r="L36" s="29" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
@@ -11720,23 +11822,23 @@
       <c r="D37" s="31"/>
       <c r="E37" s="32"/>
       <c r="F37" s="30" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="G37" s="139">
         <v>1000000</v>
       </c>
       <c r="H37" s="32" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="J37" s="30" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="K37" s="31">
         <f>0.2*K36</f>
         <v>1</v>
       </c>
       <c r="L37" s="32" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
@@ -11746,24 +11848,24 @@
       <c r="D38" s="31"/>
       <c r="E38" s="32"/>
       <c r="F38" s="30" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G38" s="139">
         <f>(G36)/G37</f>
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="H38" s="32" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="J38" s="30" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="K38" s="31">
         <f>0.2*K36</f>
         <v>1</v>
       </c>
       <c r="L38" s="32" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
@@ -11778,16 +11880,16 @@
         <v>1</v>
       </c>
       <c r="H39" s="32" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="J39" s="30" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="K39" s="139">
         <v>1000000</v>
       </c>
       <c r="L39" s="32" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
@@ -11797,21 +11899,21 @@
       <c r="D40" s="31"/>
       <c r="E40" s="32"/>
       <c r="F40" s="30" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="G40" s="31">
         <v>35000</v>
       </c>
       <c r="H40" s="32"/>
       <c r="J40" s="30" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="K40" s="139">
         <f>(K38)/K39</f>
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="L40" s="32" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
@@ -11821,14 +11923,14 @@
       <c r="D41" s="31"/>
       <c r="E41" s="32"/>
       <c r="F41" s="30" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="G41" s="139">
         <f>G35+G40*G38</f>
         <v>3.3850000000000002</v>
       </c>
       <c r="H41" s="32" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="J41" s="30"/>
       <c r="K41" s="139">
@@ -11836,15 +11938,15 @@
         <v>1</v>
       </c>
       <c r="L41" s="32" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="42" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="34" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B42" s="35" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C42" s="35">
         <v>20</v>
@@ -11864,7 +11966,7 @@
         <v>410</v>
       </c>
       <c r="J42" s="30" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="K42" s="31">
         <v>350000</v>
@@ -11873,14 +11975,14 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="J43" s="30" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="K43" s="139">
         <f>K37+K42*K40</f>
         <v>1.35</v>
       </c>
       <c r="L43" s="32" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="44" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11896,7 +11998,7 @@
     <row r="47" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="27" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B48" s="28"/>
       <c r="C48" s="28"/>
@@ -11923,22 +12025,22 @@
       <c r="C49" s="31"/>
       <c r="D49" s="31"/>
       <c r="E49" s="164" t="s">
+        <v>559</v>
+      </c>
+      <c r="F49" s="164" t="s">
         <v>560</v>
       </c>
-      <c r="F49" s="164" t="s">
+      <c r="G49" s="164" t="s">
         <v>561</v>
       </c>
-      <c r="G49" s="164" t="s">
-        <v>562</v>
-      </c>
       <c r="H49" s="155" t="s">
+        <v>559</v>
+      </c>
+      <c r="I49" s="155" t="s">
         <v>560</v>
       </c>
-      <c r="I49" s="155" t="s">
+      <c r="J49" s="156" t="s">
         <v>561</v>
-      </c>
-      <c r="J49" s="156" t="s">
-        <v>562</v>
       </c>
       <c r="K49" s="31"/>
       <c r="L49" s="31"/>
@@ -11956,13 +12058,13 @@
       <c r="C50" s="31"/>
       <c r="D50" s="31"/>
       <c r="E50" s="166" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="F50" s="166" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="G50" s="165" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="H50" s="157" t="str">
         <f t="shared" ref="H50:J50" si="0">CONCATENATE("0x",BIN2HEX(RIGHT(E50,LEN(E50)-2),2))</f>
@@ -11978,25 +12080,25 @@
       </c>
       <c r="K50" s="31"/>
       <c r="L50" s="157" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="M50" s="157" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="N50" s="157" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="O50" s="157" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="P50" s="157" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="Q50" s="171">
         <v>0.12</v>
       </c>
       <c r="R50" s="157" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="S50" s="32"/>
     </row>
@@ -12005,16 +12107,16 @@
       <c r="B51" s="31"/>
       <c r="C51" s="31"/>
       <c r="D51" s="27" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="E51" s="28" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="F51" s="28" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="G51" s="28" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="H51" s="28"/>
       <c r="I51" s="28"/>
@@ -12034,34 +12136,34 @@
       <c r="B52" s="31"/>
       <c r="C52" s="31"/>
       <c r="D52" s="27" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="E52" s="169" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="F52" s="169" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="G52" s="169" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="H52" s="169" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="I52" s="169" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J52" s="169" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="K52" s="170" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="L52" s="174" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="M52" s="169" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="N52" s="31"/>
       <c r="O52" s="31"/>
@@ -12075,34 +12177,34 @@
       <c r="B53" s="31"/>
       <c r="C53" s="31"/>
       <c r="D53" s="30" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E53" s="157" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F53" s="157" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="G53" s="31" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="H53" s="31" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="I53" s="31" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="J53" s="31" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="K53" s="32" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="L53" s="135" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="M53" s="10" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="N53" s="31"/>
       <c r="O53" s="31"/>
@@ -12116,7 +12218,7 @@
       <c r="B54" s="31"/>
       <c r="C54" s="31"/>
       <c r="D54" s="30" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="E54" s="171">
         <v>-0.12</v>
@@ -12157,7 +12259,7 @@
       <c r="B55" s="31"/>
       <c r="C55" s="31"/>
       <c r="D55" s="30" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="E55" s="157">
         <v>-1.002</v>
@@ -12198,7 +12300,7 @@
       <c r="B56" s="31"/>
       <c r="C56" s="31"/>
       <c r="D56" s="185" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E56" s="186"/>
       <c r="F56" s="186"/>
@@ -12545,7 +12647,7 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -12553,7 +12655,7 @@
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -12561,7 +12663,7 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -12569,7 +12671,7 @@
         <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -12577,7 +12679,7 @@
         <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -12585,10 +12687,10 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C23" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -12596,7 +12698,7 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -12604,7 +12706,7 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -12612,7 +12714,7 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -12620,7 +12722,7 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -12628,7 +12730,7 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -12636,7 +12738,7 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -12644,7 +12746,7 @@
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -12652,7 +12754,7 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -12660,7 +12762,7 @@
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -12668,7 +12770,7 @@
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -12676,7 +12778,7 @@
         <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -12684,7 +12786,7 @@
         <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -12692,7 +12794,7 @@
         <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -12700,7 +12802,7 @@
         <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -12708,7 +12810,7 @@
         <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -12716,7 +12818,7 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -12724,7 +12826,7 @@
         <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -12732,7 +12834,7 @@
         <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -12740,7 +12842,7 @@
         <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -12748,7 +12850,7 @@
         <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -12756,7 +12858,7 @@
         <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -12764,7 +12866,7 @@
         <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -12772,7 +12874,7 @@
         <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
   </sheetData>
@@ -12980,7 +13082,7 @@
   <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12996,10 +13098,10 @@
     </row>
     <row r="2" spans="1:2" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A2" s="58" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B2" s="58" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
@@ -13231,7 +13333,7 @@
         <v>259</v>
       </c>
       <c r="B31" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -13327,7 +13429,7 @@
     </row>
     <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B43" t="s">
         <v>320</v>
@@ -13335,7 +13437,7 @@
     </row>
     <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B44" t="s">
         <v>320</v>
@@ -13343,7 +13445,7 @@
     </row>
     <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B45" t="s">
         <v>320</v>
@@ -13351,7 +13453,7 @@
     </row>
     <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B46" t="s">
         <v>320</v>
@@ -13359,7 +13461,7 @@
     </row>
     <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B47" t="s">
         <v>320</v>
@@ -13367,7 +13469,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -13382,7 +13484,7 @@
     </row>
     <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B51" t="s">
         <v>320</v>
@@ -13390,7 +13492,7 @@
     </row>
     <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B52" t="s">
         <v>320</v>
@@ -13398,12 +13500,12 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B54" t="s">
         <v>369</v>
@@ -13411,39 +13513,39 @@
     </row>
     <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B55" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B56" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B57" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>619</v>
+      </c>
+      <c r="B58" t="s">
         <v>621</v>
-      </c>
-      <c r="B58" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B59" t="s">
         <v>320</v>
@@ -13451,7 +13553,7 @@
     </row>
     <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B60" t="s">
         <v>320</v>
@@ -13459,15 +13561,15 @@
     </row>
     <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="86" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B61" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B62" t="s">
         <v>320</v>
@@ -13475,27 +13577,27 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B67" t="s">
         <v>320</v>
@@ -13503,7 +13605,7 @@
     </row>
     <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="B68" t="s">
         <v>320</v>
@@ -14389,7 +14491,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14431,26 +14533,30 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="75.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="122.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="57" t="s">
         <v>181</v>
       </c>
       <c r="B1" s="57"/>
       <c r="C1" s="57"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>475</v>
       </c>
@@ -14460,26 +14566,45 @@
       <c r="C3" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3" s="223" t="s">
+        <v>781</v>
+      </c>
+      <c r="G3" s="224"/>
+      <c r="H3" s="225"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>473</v>
       </c>
       <c r="D4" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4" s="30" t="s">
+        <v>782</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>792</v>
+      </c>
+      <c r="H4" s="32"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>473</v>
       </c>
       <c r="D5" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F5" s="30" t="s">
+        <v>783</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>793</v>
+      </c>
+      <c r="H5" s="32"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -14488,12 +14613,19 @@
         <v>20</v>
       </c>
       <c r="D6" t="s">
+        <v>780</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>784</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>785</v>
+      </c>
+      <c r="H6" s="36"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>479</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>480</v>
       </c>
       <c r="B7">
         <v>1.5</v>
@@ -14502,12 +14634,12 @@
         <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B8">
         <v>0.2</v>
@@ -14516,28 +14648,79 @@
         <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>572</v>
+      </c>
+      <c r="F8" s="223" t="s">
+        <v>786</v>
+      </c>
+      <c r="G8" s="224"/>
+      <c r="H8" s="225"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>480</v>
+      </c>
+      <c r="B9" t="s">
         <v>481</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>482</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>483</v>
       </c>
-      <c r="D9" t="s">
-        <v>484</v>
-      </c>
+      <c r="F9" s="226" t="s">
+        <v>791</v>
+      </c>
+      <c r="G9" s="227"/>
+      <c r="H9" s="228"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F10" s="30" t="s">
+        <v>787</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>793</v>
+      </c>
+      <c r="H10" s="32"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F11" s="30" t="s">
+        <v>788</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>792</v>
+      </c>
+      <c r="H11" s="32"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" s="30" t="s">
+        <v>789</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>785</v>
+      </c>
+      <c r="H12" s="32"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F13" s="229" t="s">
+        <v>790</v>
+      </c>
+      <c r="G13" s="230"/>
+      <c r="H13" s="231"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F13:H13"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Contents!A1" display="Contents!A1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15421,8 +15604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L101"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35:J42"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="I45" sqref="H45:I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15751,7 +15934,7 @@
         <v>283</v>
       </c>
       <c r="J38" s="127" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="39" spans="4:10" x14ac:dyDescent="0.25">
@@ -15762,7 +15945,7 @@
         <v>283</v>
       </c>
       <c r="J39" s="23" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="40" spans="4:10" x14ac:dyDescent="0.25">
@@ -15773,7 +15956,7 @@
         <v>283</v>
       </c>
       <c r="J40" s="23" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="41" spans="4:10" x14ac:dyDescent="0.25">
@@ -15784,7 +15967,7 @@
         <v>283</v>
       </c>
       <c r="J41" s="23" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="42" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16508,14 +16691,14 @@
         <v>390</v>
       </c>
       <c r="J9" s="207" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="K9" s="208"/>
       <c r="L9" s="94" t="s">
         <v>398</v>
       </c>
       <c r="M9" s="207" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="N9" s="208"/>
       <c r="O9" s="91" t="s">

--- a/1-SystemDocs/System_spec_v4.xlsx
+++ b/1-SystemDocs/System_spec_v4.xlsx
@@ -2483,6 +2483,15 @@
     <t>Mask:</t>
   </si>
   <si>
+    <t>configure computer to</t>
+  </si>
+  <si>
+    <t>192.168.5.200</t>
+  </si>
+  <si>
+    <t>192.168.5.1</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Interconnect with </t>
     </r>
@@ -2495,7 +2504,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>crossed ETH</t>
+      <t>crossover ETH</t>
     </r>
     <r>
       <rPr>
@@ -2507,15 +2516,6 @@
       </rPr>
       <t xml:space="preserve"> cable</t>
     </r>
-  </si>
-  <si>
-    <t>configure computer to</t>
-  </si>
-  <si>
-    <t>192.168.5.200</t>
-  </si>
-  <si>
-    <t>192.168.5.1</t>
   </si>
 </sst>
 </file>
@@ -14536,7 +14536,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14583,7 +14583,7 @@
         <v>782</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H4" s="32"/>
     </row>
@@ -14598,7 +14598,7 @@
         <v>783</v>
       </c>
       <c r="G5" s="31" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H5" s="32"/>
     </row>
@@ -14670,7 +14670,7 @@
         <v>483</v>
       </c>
       <c r="F9" s="226" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G9" s="227"/>
       <c r="H9" s="228"/>
@@ -14680,7 +14680,7 @@
         <v>787</v>
       </c>
       <c r="G10" s="31" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H10" s="32"/>
     </row>
@@ -14689,7 +14689,7 @@
         <v>788</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H11" s="32"/>
     </row>
@@ -14704,7 +14704,7 @@
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F13" s="229" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="G13" s="230"/>
       <c r="H13" s="231"/>

--- a/1-SystemDocs/System_spec_v4.xlsx
+++ b/1-SystemDocs/System_spec_v4.xlsx
@@ -3487,6 +3487,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3498,15 +3510,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3522,9 +3525,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4018,11 +4018,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="393241104"/>
-        <c:axId val="393241496"/>
+        <c:axId val="195568368"/>
+        <c:axId val="411017000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="393241104"/>
+        <c:axId val="195568368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25"/>
@@ -4067,12 +4067,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393241496"/>
+        <c:crossAx val="411017000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="393241496"/>
+        <c:axId val="411017000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1400"/>
@@ -4131,7 +4131,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="393241104"/>
+        <c:crossAx val="195568368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4847,7 +4847,7 @@
         <xdr:cNvPr id="2" name="Obrázok 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8963,19 +8963,19 @@
       </c>
     </row>
     <row r="3" spans="2:22" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="217" t="s">
+      <c r="B3" s="218" t="s">
         <v>536</v>
       </c>
-      <c r="C3" s="217"/>
-      <c r="D3" s="217"/>
-      <c r="E3" s="217"/>
-      <c r="F3" s="217"/>
-      <c r="G3" s="217"/>
-      <c r="H3" s="217"/>
-      <c r="I3" s="217"/>
-      <c r="J3" s="217"/>
-      <c r="K3" s="217"/>
-      <c r="L3" s="217"/>
+      <c r="C3" s="218"/>
+      <c r="D3" s="218"/>
+      <c r="E3" s="218"/>
+      <c r="F3" s="218"/>
+      <c r="G3" s="218"/>
+      <c r="H3" s="218"/>
+      <c r="I3" s="218"/>
+      <c r="J3" s="218"/>
+      <c r="K3" s="218"/>
+      <c r="L3" s="218"/>
       <c r="M3" s="129"/>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
@@ -9114,16 +9114,16 @@
       <c r="B10" s="151" t="s">
         <v>634</v>
       </c>
-      <c r="C10" s="218" t="s">
+      <c r="C10" s="219" t="s">
         <v>641</v>
       </c>
-      <c r="D10" s="218"/>
-      <c r="E10" s="218"/>
-      <c r="F10" s="218"/>
-      <c r="G10" s="218"/>
-      <c r="H10" s="218"/>
-      <c r="I10" s="218"/>
-      <c r="J10" s="219"/>
+      <c r="D10" s="219"/>
+      <c r="E10" s="219"/>
+      <c r="F10" s="219"/>
+      <c r="G10" s="219"/>
+      <c r="H10" s="219"/>
+      <c r="I10" s="219"/>
+      <c r="J10" s="220"/>
       <c r="T10" s="22">
         <v>9</v>
       </c>
@@ -9138,16 +9138,16 @@
       <c r="B11" s="151" t="s">
         <v>640</v>
       </c>
-      <c r="C11" s="218" t="s">
+      <c r="C11" s="219" t="s">
         <v>643</v>
       </c>
-      <c r="D11" s="218"/>
-      <c r="E11" s="218"/>
-      <c r="F11" s="218"/>
-      <c r="G11" s="218"/>
-      <c r="H11" s="218"/>
-      <c r="I11" s="218"/>
-      <c r="J11" s="219"/>
+      <c r="D11" s="219"/>
+      <c r="E11" s="219"/>
+      <c r="F11" s="219"/>
+      <c r="G11" s="219"/>
+      <c r="H11" s="219"/>
+      <c r="I11" s="219"/>
+      <c r="J11" s="220"/>
       <c r="T11" s="24" t="s">
         <v>102</v>
       </c>
@@ -9162,16 +9162,16 @@
       <c r="B12" s="144" t="s">
         <v>639</v>
       </c>
-      <c r="C12" s="220" t="s">
+      <c r="C12" s="221" t="s">
         <v>642</v>
       </c>
-      <c r="D12" s="220"/>
-      <c r="E12" s="220"/>
-      <c r="F12" s="220"/>
-      <c r="G12" s="220"/>
-      <c r="H12" s="220"/>
-      <c r="I12" s="220"/>
-      <c r="J12" s="221"/>
+      <c r="D12" s="221"/>
+      <c r="E12" s="221"/>
+      <c r="F12" s="221"/>
+      <c r="G12" s="221"/>
+      <c r="H12" s="221"/>
+      <c r="I12" s="221"/>
+      <c r="J12" s="222"/>
     </row>
     <row r="14" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
@@ -9184,26 +9184,26 @@
       </c>
       <c r="C15" s="159"/>
       <c r="D15" s="159"/>
-      <c r="E15" s="210" t="s">
+      <c r="E15" s="214" t="s">
         <v>679</v>
       </c>
-      <c r="F15" s="211"/>
-      <c r="G15" s="212"/>
+      <c r="F15" s="215"/>
+      <c r="G15" s="216"/>
       <c r="H15" s="159"/>
       <c r="I15" s="159"/>
       <c r="J15" s="160"/>
-      <c r="L15" s="213" t="s">
+      <c r="L15" s="217" t="s">
         <v>704</v>
       </c>
-      <c r="M15" s="213"/>
-      <c r="N15" s="213"/>
-      <c r="O15" s="213"/>
-      <c r="P15" s="213"/>
-      <c r="Q15" s="213"/>
-      <c r="R15" s="213"/>
+      <c r="M15" s="217"/>
+      <c r="N15" s="217"/>
+      <c r="O15" s="217"/>
+      <c r="P15" s="217"/>
+      <c r="Q15" s="217"/>
+      <c r="R15" s="217"/>
     </row>
     <row r="16" spans="2:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="214">
+      <c r="B16" s="210">
         <v>1</v>
       </c>
       <c r="C16" s="28" t="s">
@@ -9254,13 +9254,13 @@
       <c r="S16" s="182" t="s">
         <v>756</v>
       </c>
-      <c r="U16" s="222" t="s">
+      <c r="U16" s="213" t="s">
         <v>657</v>
       </c>
-      <c r="V16" s="222"/>
+      <c r="V16" s="213"/>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B17" s="215"/>
+      <c r="B17" s="211"/>
       <c r="C17" s="31" t="s">
         <v>428</v>
       </c>
@@ -9322,7 +9322,7 @@
       </c>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B18" s="215"/>
+      <c r="B18" s="211"/>
       <c r="C18" s="31" t="s">
         <v>433</v>
       </c>
@@ -9343,7 +9343,7 @@
       </c>
     </row>
     <row r="19" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="216"/>
+      <c r="B19" s="212"/>
       <c r="C19" s="35" t="s">
         <v>646</v>
       </c>
@@ -9362,7 +9362,7 @@
       </c>
     </row>
     <row r="20" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="214">
+      <c r="B20" s="210">
         <v>2</v>
       </c>
       <c r="C20" s="28" t="s">
@@ -9397,7 +9397,7 @@
       </c>
     </row>
     <row r="21" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="215"/>
+      <c r="B21" s="211"/>
       <c r="C21" s="31" t="s">
         <v>424</v>
       </c>
@@ -9467,7 +9467,7 @@
       </c>
     </row>
     <row r="22" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="215"/>
+      <c r="B22" s="211"/>
       <c r="C22" s="31" t="s">
         <v>425</v>
       </c>
@@ -9537,7 +9537,7 @@
       </c>
     </row>
     <row r="23" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="215"/>
+      <c r="B23" s="211"/>
       <c r="C23" s="31" t="s">
         <v>426</v>
       </c>
@@ -9607,7 +9607,7 @@
       </c>
     </row>
     <row r="24" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="215"/>
+      <c r="B24" s="211"/>
       <c r="C24" s="81" t="s">
         <v>427</v>
       </c>
@@ -9677,7 +9677,7 @@
       </c>
     </row>
     <row r="25" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="215"/>
+      <c r="B25" s="211"/>
       <c r="C25" s="31" t="s">
         <v>428</v>
       </c>
@@ -9747,7 +9747,7 @@
       </c>
     </row>
     <row r="26" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="215"/>
+      <c r="B26" s="211"/>
       <c r="C26" s="31" t="s">
         <v>429</v>
       </c>
@@ -9814,7 +9814,7 @@
       </c>
     </row>
     <row r="27" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="215"/>
+      <c r="B27" s="211"/>
       <c r="C27" s="81" t="s">
         <v>430</v>
       </c>
@@ -9881,7 +9881,7 @@
       </c>
     </row>
     <row r="28" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="215"/>
+      <c r="B28" s="211"/>
       <c r="C28" s="31" t="s">
         <v>431</v>
       </c>
@@ -9910,7 +9910,7 @@
       </c>
     </row>
     <row r="29" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="215"/>
+      <c r="B29" s="211"/>
       <c r="C29" s="31" t="s">
         <v>433</v>
       </c>
@@ -9939,7 +9939,7 @@
       </c>
     </row>
     <row r="30" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="216"/>
+      <c r="B30" s="212"/>
       <c r="C30" s="35" t="s">
         <v>434</v>
       </c>
@@ -9968,7 +9968,7 @@
       </c>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B31" s="214">
+      <c r="B31" s="210">
         <v>3</v>
       </c>
       <c r="C31" s="28" t="s">
@@ -10008,7 +10008,7 @@
       </c>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B32" s="215"/>
+      <c r="B32" s="211"/>
       <c r="C32" s="31" t="s">
         <v>424</v>
       </c>
@@ -10052,7 +10052,7 @@
       </c>
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B33" s="215"/>
+      <c r="B33" s="211"/>
       <c r="C33" s="31" t="s">
         <v>425</v>
       </c>
@@ -10096,7 +10096,7 @@
       </c>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B34" s="215"/>
+      <c r="B34" s="211"/>
       <c r="C34" s="31" t="s">
         <v>426</v>
       </c>
@@ -10137,7 +10137,7 @@
       </c>
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B35" s="215"/>
+      <c r="B35" s="211"/>
       <c r="C35" s="81" t="s">
         <v>427</v>
       </c>
@@ -10181,7 +10181,7 @@
       </c>
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B36" s="215"/>
+      <c r="B36" s="211"/>
       <c r="C36" s="31" t="s">
         <v>428</v>
       </c>
@@ -10225,7 +10225,7 @@
       </c>
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B37" s="215"/>
+      <c r="B37" s="211"/>
       <c r="C37" s="31" t="s">
         <v>429</v>
       </c>
@@ -10269,7 +10269,7 @@
       </c>
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B38" s="215"/>
+      <c r="B38" s="211"/>
       <c r="C38" s="81" t="s">
         <v>430</v>
       </c>
@@ -10300,7 +10300,7 @@
       </c>
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B39" s="215"/>
+      <c r="B39" s="211"/>
       <c r="C39" s="31" t="s">
         <v>431</v>
       </c>
@@ -10328,7 +10328,7 @@
       </c>
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B40" s="215"/>
+      <c r="B40" s="211"/>
       <c r="C40" s="31" t="s">
         <v>433</v>
       </c>
@@ -10357,7 +10357,7 @@
       </c>
     </row>
     <row r="41" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="216"/>
+      <c r="B41" s="212"/>
       <c r="C41" s="35" t="s">
         <v>434</v>
       </c>
@@ -10388,7 +10388,7 @@
       </c>
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B42" s="214">
+      <c r="B42" s="210">
         <v>4</v>
       </c>
       <c r="C42" s="28" t="s">
@@ -10428,7 +10428,7 @@
       </c>
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B43" s="215"/>
+      <c r="B43" s="211"/>
       <c r="C43" s="31" t="s">
         <v>424</v>
       </c>
@@ -10472,7 +10472,7 @@
       </c>
     </row>
     <row r="44" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B44" s="215"/>
+      <c r="B44" s="211"/>
       <c r="C44" s="31" t="s">
         <v>425</v>
       </c>
@@ -10516,7 +10516,7 @@
       </c>
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B45" s="215"/>
+      <c r="B45" s="211"/>
       <c r="C45" s="31" t="s">
         <v>426</v>
       </c>
@@ -10547,7 +10547,7 @@
       </c>
     </row>
     <row r="46" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B46" s="215"/>
+      <c r="B46" s="211"/>
       <c r="C46" s="81" t="s">
         <v>427</v>
       </c>
@@ -10578,7 +10578,7 @@
       </c>
     </row>
     <row r="47" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B47" s="215"/>
+      <c r="B47" s="211"/>
       <c r="C47" s="31" t="s">
         <v>428</v>
       </c>
@@ -10609,7 +10609,7 @@
       </c>
     </row>
     <row r="48" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B48" s="215"/>
+      <c r="B48" s="211"/>
       <c r="C48" s="31" t="s">
         <v>429</v>
       </c>
@@ -10640,7 +10640,7 @@
       </c>
     </row>
     <row r="49" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B49" s="215"/>
+      <c r="B49" s="211"/>
       <c r="C49" s="81" t="s">
         <v>430</v>
       </c>
@@ -10671,7 +10671,7 @@
       </c>
     </row>
     <row r="50" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B50" s="215"/>
+      <c r="B50" s="211"/>
       <c r="C50" s="31" t="s">
         <v>431</v>
       </c>
@@ -10702,7 +10702,7 @@
       </c>
     </row>
     <row r="51" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B51" s="215"/>
+      <c r="B51" s="211"/>
       <c r="C51" s="31" t="s">
         <v>433</v>
       </c>
@@ -10731,7 +10731,7 @@
       </c>
     </row>
     <row r="52" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="216"/>
+      <c r="B52" s="212"/>
       <c r="C52" s="35" t="s">
         <v>434</v>
       </c>
@@ -10762,7 +10762,7 @@
       </c>
     </row>
     <row r="53" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B53" s="214">
+      <c r="B53" s="210">
         <v>5</v>
       </c>
       <c r="C53" s="28" t="s">
@@ -10805,7 +10805,7 @@
       </c>
     </row>
     <row r="54" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B54" s="215"/>
+      <c r="B54" s="211"/>
       <c r="C54" s="31" t="s">
         <v>424</v>
       </c>
@@ -10849,7 +10849,7 @@
       </c>
     </row>
     <row r="55" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B55" s="215"/>
+      <c r="B55" s="211"/>
       <c r="C55" s="31" t="s">
         <v>425</v>
       </c>
@@ -10893,7 +10893,7 @@
       </c>
     </row>
     <row r="56" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B56" s="215"/>
+      <c r="B56" s="211"/>
       <c r="C56" s="31" t="s">
         <v>426</v>
       </c>
@@ -10937,7 +10937,7 @@
       </c>
     </row>
     <row r="57" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B57" s="215"/>
+      <c r="B57" s="211"/>
       <c r="C57" s="81" t="s">
         <v>427</v>
       </c>
@@ -10978,7 +10978,7 @@
       </c>
     </row>
     <row r="58" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B58" s="215"/>
+      <c r="B58" s="211"/>
       <c r="C58" s="31" t="s">
         <v>428</v>
       </c>
@@ -11009,7 +11009,7 @@
       </c>
     </row>
     <row r="59" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B59" s="215"/>
+      <c r="B59" s="211"/>
       <c r="C59" s="31" t="s">
         <v>429</v>
       </c>
@@ -11040,7 +11040,7 @@
       </c>
     </row>
     <row r="60" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B60" s="215"/>
+      <c r="B60" s="211"/>
       <c r="C60" s="81" t="s">
         <v>430</v>
       </c>
@@ -11063,7 +11063,7 @@
       </c>
     </row>
     <row r="61" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B61" s="215"/>
+      <c r="B61" s="211"/>
       <c r="C61" s="31" t="s">
         <v>431</v>
       </c>
@@ -11086,7 +11086,7 @@
       </c>
     </row>
     <row r="62" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B62" s="215"/>
+      <c r="B62" s="211"/>
       <c r="C62" s="31" t="s">
         <v>433</v>
       </c>
@@ -11107,7 +11107,7 @@
       </c>
     </row>
     <row r="63" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="216"/>
+      <c r="B63" s="212"/>
       <c r="C63" s="35" t="s">
         <v>434</v>
       </c>
@@ -11130,7 +11130,7 @@
       </c>
     </row>
     <row r="64" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B64" s="214">
+      <c r="B64" s="210">
         <v>6</v>
       </c>
       <c r="C64" s="28" t="s">
@@ -11159,7 +11159,7 @@
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B65" s="215"/>
+      <c r="B65" s="211"/>
       <c r="C65" s="31" t="s">
         <v>424</v>
       </c>
@@ -11189,7 +11189,7 @@
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B66" s="215"/>
+      <c r="B66" s="211"/>
       <c r="C66" s="31" t="s">
         <v>425</v>
       </c>
@@ -11219,7 +11219,7 @@
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B67" s="215"/>
+      <c r="B67" s="211"/>
       <c r="C67" s="31" t="s">
         <v>426</v>
       </c>
@@ -11249,7 +11249,7 @@
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B68" s="215"/>
+      <c r="B68" s="211"/>
       <c r="C68" s="81" t="s">
         <v>427</v>
       </c>
@@ -11279,7 +11279,7 @@
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B69" s="215"/>
+      <c r="B69" s="211"/>
       <c r="C69" s="31" t="s">
         <v>428</v>
       </c>
@@ -11306,7 +11306,7 @@
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B70" s="215"/>
+      <c r="B70" s="211"/>
       <c r="C70" s="31" t="s">
         <v>429</v>
       </c>
@@ -11323,7 +11323,7 @@
       <c r="J70" s="158"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B71" s="215"/>
+      <c r="B71" s="211"/>
       <c r="C71" s="81" t="s">
         <v>430</v>
       </c>
@@ -11340,7 +11340,7 @@
       <c r="J71" s="158"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B72" s="215"/>
+      <c r="B72" s="211"/>
       <c r="C72" s="31" t="s">
         <v>431</v>
       </c>
@@ -11357,7 +11357,7 @@
       <c r="J72" s="158"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B73" s="215"/>
+      <c r="B73" s="211"/>
       <c r="C73" s="31" t="s">
         <v>433</v>
       </c>
@@ -11374,7 +11374,7 @@
       <c r="J73" s="158"/>
     </row>
     <row r="74" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="216"/>
+      <c r="B74" s="212"/>
       <c r="C74" s="35" t="s">
         <v>434</v>
       </c>
@@ -11392,11 +11392,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B64:B74"/>
-    <mergeCell ref="B31:B41"/>
-    <mergeCell ref="B42:B52"/>
-    <mergeCell ref="B53:B63"/>
-    <mergeCell ref="U16:V16"/>
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="L15:R15"/>
     <mergeCell ref="B20:B30"/>
@@ -11405,6 +11400,11 @@
     <mergeCell ref="C11:J11"/>
     <mergeCell ref="C12:J12"/>
     <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B64:B74"/>
+    <mergeCell ref="B31:B41"/>
+    <mergeCell ref="B42:B52"/>
+    <mergeCell ref="B53:B63"/>
+    <mergeCell ref="U16:V16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Contents!A1" display="Contents!A1"/>
@@ -14536,7 +14536,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/1-SystemDocs/System_spec_v4.xlsx
+++ b/1-SystemDocs/System_spec_v4.xlsx
@@ -3487,18 +3487,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3510,6 +3498,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3525,6 +3522,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4018,11 +4018,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="195568368"/>
-        <c:axId val="411017000"/>
+        <c:axId val="398040296"/>
+        <c:axId val="398041472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="195568368"/>
+        <c:axId val="398040296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25"/>
@@ -4067,12 +4067,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="411017000"/>
+        <c:crossAx val="398041472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="411017000"/>
+        <c:axId val="398041472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1400"/>
@@ -4131,7 +4131,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195568368"/>
+        <c:crossAx val="398040296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4847,7 +4847,7 @@
         <xdr:cNvPr id="2" name="Obrázok 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8963,19 +8963,19 @@
       </c>
     </row>
     <row r="3" spans="2:22" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="218" t="s">
+      <c r="B3" s="217" t="s">
         <v>536</v>
       </c>
-      <c r="C3" s="218"/>
-      <c r="D3" s="218"/>
-      <c r="E3" s="218"/>
-      <c r="F3" s="218"/>
-      <c r="G3" s="218"/>
-      <c r="H3" s="218"/>
-      <c r="I3" s="218"/>
-      <c r="J3" s="218"/>
-      <c r="K3" s="218"/>
-      <c r="L3" s="218"/>
+      <c r="C3" s="217"/>
+      <c r="D3" s="217"/>
+      <c r="E3" s="217"/>
+      <c r="F3" s="217"/>
+      <c r="G3" s="217"/>
+      <c r="H3" s="217"/>
+      <c r="I3" s="217"/>
+      <c r="J3" s="217"/>
+      <c r="K3" s="217"/>
+      <c r="L3" s="217"/>
       <c r="M3" s="129"/>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
@@ -9114,16 +9114,16 @@
       <c r="B10" s="151" t="s">
         <v>634</v>
       </c>
-      <c r="C10" s="219" t="s">
+      <c r="C10" s="218" t="s">
         <v>641</v>
       </c>
-      <c r="D10" s="219"/>
-      <c r="E10" s="219"/>
-      <c r="F10" s="219"/>
-      <c r="G10" s="219"/>
-      <c r="H10" s="219"/>
-      <c r="I10" s="219"/>
-      <c r="J10" s="220"/>
+      <c r="D10" s="218"/>
+      <c r="E10" s="218"/>
+      <c r="F10" s="218"/>
+      <c r="G10" s="218"/>
+      <c r="H10" s="218"/>
+      <c r="I10" s="218"/>
+      <c r="J10" s="219"/>
       <c r="T10" s="22">
         <v>9</v>
       </c>
@@ -9138,16 +9138,16 @@
       <c r="B11" s="151" t="s">
         <v>640</v>
       </c>
-      <c r="C11" s="219" t="s">
+      <c r="C11" s="218" t="s">
         <v>643</v>
       </c>
-      <c r="D11" s="219"/>
-      <c r="E11" s="219"/>
-      <c r="F11" s="219"/>
-      <c r="G11" s="219"/>
-      <c r="H11" s="219"/>
-      <c r="I11" s="219"/>
-      <c r="J11" s="220"/>
+      <c r="D11" s="218"/>
+      <c r="E11" s="218"/>
+      <c r="F11" s="218"/>
+      <c r="G11" s="218"/>
+      <c r="H11" s="218"/>
+      <c r="I11" s="218"/>
+      <c r="J11" s="219"/>
       <c r="T11" s="24" t="s">
         <v>102</v>
       </c>
@@ -9162,16 +9162,16 @@
       <c r="B12" s="144" t="s">
         <v>639</v>
       </c>
-      <c r="C12" s="221" t="s">
+      <c r="C12" s="220" t="s">
         <v>642</v>
       </c>
-      <c r="D12" s="221"/>
-      <c r="E12" s="221"/>
-      <c r="F12" s="221"/>
-      <c r="G12" s="221"/>
-      <c r="H12" s="221"/>
-      <c r="I12" s="221"/>
-      <c r="J12" s="222"/>
+      <c r="D12" s="220"/>
+      <c r="E12" s="220"/>
+      <c r="F12" s="220"/>
+      <c r="G12" s="220"/>
+      <c r="H12" s="220"/>
+      <c r="I12" s="220"/>
+      <c r="J12" s="221"/>
     </row>
     <row r="14" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
@@ -9184,26 +9184,26 @@
       </c>
       <c r="C15" s="159"/>
       <c r="D15" s="159"/>
-      <c r="E15" s="214" t="s">
+      <c r="E15" s="210" t="s">
         <v>679</v>
       </c>
-      <c r="F15" s="215"/>
-      <c r="G15" s="216"/>
+      <c r="F15" s="211"/>
+      <c r="G15" s="212"/>
       <c r="H15" s="159"/>
       <c r="I15" s="159"/>
       <c r="J15" s="160"/>
-      <c r="L15" s="217" t="s">
+      <c r="L15" s="213" t="s">
         <v>704</v>
       </c>
-      <c r="M15" s="217"/>
-      <c r="N15" s="217"/>
-      <c r="O15" s="217"/>
-      <c r="P15" s="217"/>
-      <c r="Q15" s="217"/>
-      <c r="R15" s="217"/>
+      <c r="M15" s="213"/>
+      <c r="N15" s="213"/>
+      <c r="O15" s="213"/>
+      <c r="P15" s="213"/>
+      <c r="Q15" s="213"/>
+      <c r="R15" s="213"/>
     </row>
     <row r="16" spans="2:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="210">
+      <c r="B16" s="214">
         <v>1</v>
       </c>
       <c r="C16" s="28" t="s">
@@ -9254,13 +9254,13 @@
       <c r="S16" s="182" t="s">
         <v>756</v>
       </c>
-      <c r="U16" s="213" t="s">
+      <c r="U16" s="222" t="s">
         <v>657</v>
       </c>
-      <c r="V16" s="213"/>
+      <c r="V16" s="222"/>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B17" s="211"/>
+      <c r="B17" s="215"/>
       <c r="C17" s="31" t="s">
         <v>428</v>
       </c>
@@ -9322,7 +9322,7 @@
       </c>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B18" s="211"/>
+      <c r="B18" s="215"/>
       <c r="C18" s="31" t="s">
         <v>433</v>
       </c>
@@ -9343,7 +9343,7 @@
       </c>
     </row>
     <row r="19" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="212"/>
+      <c r="B19" s="216"/>
       <c r="C19" s="35" t="s">
         <v>646</v>
       </c>
@@ -9362,7 +9362,7 @@
       </c>
     </row>
     <row r="20" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="210">
+      <c r="B20" s="214">
         <v>2</v>
       </c>
       <c r="C20" s="28" t="s">
@@ -9397,7 +9397,7 @@
       </c>
     </row>
     <row r="21" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="211"/>
+      <c r="B21" s="215"/>
       <c r="C21" s="31" t="s">
         <v>424</v>
       </c>
@@ -9467,7 +9467,7 @@
       </c>
     </row>
     <row r="22" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="211"/>
+      <c r="B22" s="215"/>
       <c r="C22" s="31" t="s">
         <v>425</v>
       </c>
@@ -9537,7 +9537,7 @@
       </c>
     </row>
     <row r="23" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="211"/>
+      <c r="B23" s="215"/>
       <c r="C23" s="31" t="s">
         <v>426</v>
       </c>
@@ -9607,7 +9607,7 @@
       </c>
     </row>
     <row r="24" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="211"/>
+      <c r="B24" s="215"/>
       <c r="C24" s="81" t="s">
         <v>427</v>
       </c>
@@ -9677,7 +9677,7 @@
       </c>
     </row>
     <row r="25" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="211"/>
+      <c r="B25" s="215"/>
       <c r="C25" s="31" t="s">
         <v>428</v>
       </c>
@@ -9747,7 +9747,7 @@
       </c>
     </row>
     <row r="26" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="211"/>
+      <c r="B26" s="215"/>
       <c r="C26" s="31" t="s">
         <v>429</v>
       </c>
@@ -9814,7 +9814,7 @@
       </c>
     </row>
     <row r="27" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="211"/>
+      <c r="B27" s="215"/>
       <c r="C27" s="81" t="s">
         <v>430</v>
       </c>
@@ -9881,7 +9881,7 @@
       </c>
     </row>
     <row r="28" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="211"/>
+      <c r="B28" s="215"/>
       <c r="C28" s="31" t="s">
         <v>431</v>
       </c>
@@ -9910,7 +9910,7 @@
       </c>
     </row>
     <row r="29" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="211"/>
+      <c r="B29" s="215"/>
       <c r="C29" s="31" t="s">
         <v>433</v>
       </c>
@@ -9939,7 +9939,7 @@
       </c>
     </row>
     <row r="30" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="212"/>
+      <c r="B30" s="216"/>
       <c r="C30" s="35" t="s">
         <v>434</v>
       </c>
@@ -9968,7 +9968,7 @@
       </c>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B31" s="210">
+      <c r="B31" s="214">
         <v>3</v>
       </c>
       <c r="C31" s="28" t="s">
@@ -10008,7 +10008,7 @@
       </c>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B32" s="211"/>
+      <c r="B32" s="215"/>
       <c r="C32" s="31" t="s">
         <v>424</v>
       </c>
@@ -10052,7 +10052,7 @@
       </c>
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B33" s="211"/>
+      <c r="B33" s="215"/>
       <c r="C33" s="31" t="s">
         <v>425</v>
       </c>
@@ -10096,7 +10096,7 @@
       </c>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B34" s="211"/>
+      <c r="B34" s="215"/>
       <c r="C34" s="31" t="s">
         <v>426</v>
       </c>
@@ -10137,7 +10137,7 @@
       </c>
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B35" s="211"/>
+      <c r="B35" s="215"/>
       <c r="C35" s="81" t="s">
         <v>427</v>
       </c>
@@ -10181,7 +10181,7 @@
       </c>
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B36" s="211"/>
+      <c r="B36" s="215"/>
       <c r="C36" s="31" t="s">
         <v>428</v>
       </c>
@@ -10225,7 +10225,7 @@
       </c>
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B37" s="211"/>
+      <c r="B37" s="215"/>
       <c r="C37" s="31" t="s">
         <v>429</v>
       </c>
@@ -10269,7 +10269,7 @@
       </c>
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B38" s="211"/>
+      <c r="B38" s="215"/>
       <c r="C38" s="81" t="s">
         <v>430</v>
       </c>
@@ -10300,7 +10300,7 @@
       </c>
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B39" s="211"/>
+      <c r="B39" s="215"/>
       <c r="C39" s="31" t="s">
         <v>431</v>
       </c>
@@ -10328,7 +10328,7 @@
       </c>
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B40" s="211"/>
+      <c r="B40" s="215"/>
       <c r="C40" s="31" t="s">
         <v>433</v>
       </c>
@@ -10357,7 +10357,7 @@
       </c>
     </row>
     <row r="41" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="212"/>
+      <c r="B41" s="216"/>
       <c r="C41" s="35" t="s">
         <v>434</v>
       </c>
@@ -10388,7 +10388,7 @@
       </c>
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B42" s="210">
+      <c r="B42" s="214">
         <v>4</v>
       </c>
       <c r="C42" s="28" t="s">
@@ -10428,7 +10428,7 @@
       </c>
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B43" s="211"/>
+      <c r="B43" s="215"/>
       <c r="C43" s="31" t="s">
         <v>424</v>
       </c>
@@ -10472,7 +10472,7 @@
       </c>
     </row>
     <row r="44" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B44" s="211"/>
+      <c r="B44" s="215"/>
       <c r="C44" s="31" t="s">
         <v>425</v>
       </c>
@@ -10516,7 +10516,7 @@
       </c>
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B45" s="211"/>
+      <c r="B45" s="215"/>
       <c r="C45" s="31" t="s">
         <v>426</v>
       </c>
@@ -10547,7 +10547,7 @@
       </c>
     </row>
     <row r="46" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B46" s="211"/>
+      <c r="B46" s="215"/>
       <c r="C46" s="81" t="s">
         <v>427</v>
       </c>
@@ -10578,7 +10578,7 @@
       </c>
     </row>
     <row r="47" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B47" s="211"/>
+      <c r="B47" s="215"/>
       <c r="C47" s="31" t="s">
         <v>428</v>
       </c>
@@ -10609,7 +10609,7 @@
       </c>
     </row>
     <row r="48" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B48" s="211"/>
+      <c r="B48" s="215"/>
       <c r="C48" s="31" t="s">
         <v>429</v>
       </c>
@@ -10640,7 +10640,7 @@
       </c>
     </row>
     <row r="49" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B49" s="211"/>
+      <c r="B49" s="215"/>
       <c r="C49" s="81" t="s">
         <v>430</v>
       </c>
@@ -10671,7 +10671,7 @@
       </c>
     </row>
     <row r="50" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B50" s="211"/>
+      <c r="B50" s="215"/>
       <c r="C50" s="31" t="s">
         <v>431</v>
       </c>
@@ -10702,7 +10702,7 @@
       </c>
     </row>
     <row r="51" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B51" s="211"/>
+      <c r="B51" s="215"/>
       <c r="C51" s="31" t="s">
         <v>433</v>
       </c>
@@ -10731,7 +10731,7 @@
       </c>
     </row>
     <row r="52" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="212"/>
+      <c r="B52" s="216"/>
       <c r="C52" s="35" t="s">
         <v>434</v>
       </c>
@@ -10762,7 +10762,7 @@
       </c>
     </row>
     <row r="53" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B53" s="210">
+      <c r="B53" s="214">
         <v>5</v>
       </c>
       <c r="C53" s="28" t="s">
@@ -10805,7 +10805,7 @@
       </c>
     </row>
     <row r="54" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B54" s="211"/>
+      <c r="B54" s="215"/>
       <c r="C54" s="31" t="s">
         <v>424</v>
       </c>
@@ -10849,7 +10849,7 @@
       </c>
     </row>
     <row r="55" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B55" s="211"/>
+      <c r="B55" s="215"/>
       <c r="C55" s="31" t="s">
         <v>425</v>
       </c>
@@ -10893,7 +10893,7 @@
       </c>
     </row>
     <row r="56" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B56" s="211"/>
+      <c r="B56" s="215"/>
       <c r="C56" s="31" t="s">
         <v>426</v>
       </c>
@@ -10937,7 +10937,7 @@
       </c>
     </row>
     <row r="57" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B57" s="211"/>
+      <c r="B57" s="215"/>
       <c r="C57" s="81" t="s">
         <v>427</v>
       </c>
@@ -10978,7 +10978,7 @@
       </c>
     </row>
     <row r="58" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B58" s="211"/>
+      <c r="B58" s="215"/>
       <c r="C58" s="31" t="s">
         <v>428</v>
       </c>
@@ -11009,7 +11009,7 @@
       </c>
     </row>
     <row r="59" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B59" s="211"/>
+      <c r="B59" s="215"/>
       <c r="C59" s="31" t="s">
         <v>429</v>
       </c>
@@ -11040,7 +11040,7 @@
       </c>
     </row>
     <row r="60" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B60" s="211"/>
+      <c r="B60" s="215"/>
       <c r="C60" s="81" t="s">
         <v>430</v>
       </c>
@@ -11063,7 +11063,7 @@
       </c>
     </row>
     <row r="61" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B61" s="211"/>
+      <c r="B61" s="215"/>
       <c r="C61" s="31" t="s">
         <v>431</v>
       </c>
@@ -11086,7 +11086,7 @@
       </c>
     </row>
     <row r="62" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B62" s="211"/>
+      <c r="B62" s="215"/>
       <c r="C62" s="31" t="s">
         <v>433</v>
       </c>
@@ -11107,7 +11107,7 @@
       </c>
     </row>
     <row r="63" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="212"/>
+      <c r="B63" s="216"/>
       <c r="C63" s="35" t="s">
         <v>434</v>
       </c>
@@ -11130,7 +11130,7 @@
       </c>
     </row>
     <row r="64" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B64" s="210">
+      <c r="B64" s="214">
         <v>6</v>
       </c>
       <c r="C64" s="28" t="s">
@@ -11159,7 +11159,7 @@
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B65" s="211"/>
+      <c r="B65" s="215"/>
       <c r="C65" s="31" t="s">
         <v>424</v>
       </c>
@@ -11189,7 +11189,7 @@
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B66" s="211"/>
+      <c r="B66" s="215"/>
       <c r="C66" s="31" t="s">
         <v>425</v>
       </c>
@@ -11219,7 +11219,7 @@
       </c>
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B67" s="211"/>
+      <c r="B67" s="215"/>
       <c r="C67" s="31" t="s">
         <v>426</v>
       </c>
@@ -11249,7 +11249,7 @@
       </c>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B68" s="211"/>
+      <c r="B68" s="215"/>
       <c r="C68" s="81" t="s">
         <v>427</v>
       </c>
@@ -11279,7 +11279,7 @@
       </c>
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B69" s="211"/>
+      <c r="B69" s="215"/>
       <c r="C69" s="31" t="s">
         <v>428</v>
       </c>
@@ -11306,7 +11306,7 @@
       </c>
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B70" s="211"/>
+      <c r="B70" s="215"/>
       <c r="C70" s="31" t="s">
         <v>429</v>
       </c>
@@ -11323,7 +11323,7 @@
       <c r="J70" s="158"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B71" s="211"/>
+      <c r="B71" s="215"/>
       <c r="C71" s="81" t="s">
         <v>430</v>
       </c>
@@ -11340,7 +11340,7 @@
       <c r="J71" s="158"/>
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B72" s="211"/>
+      <c r="B72" s="215"/>
       <c r="C72" s="31" t="s">
         <v>431</v>
       </c>
@@ -11357,7 +11357,7 @@
       <c r="J72" s="158"/>
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B73" s="211"/>
+      <c r="B73" s="215"/>
       <c r="C73" s="31" t="s">
         <v>433</v>
       </c>
@@ -11374,7 +11374,7 @@
       <c r="J73" s="158"/>
     </row>
     <row r="74" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="212"/>
+      <c r="B74" s="216"/>
       <c r="C74" s="35" t="s">
         <v>434</v>
       </c>
@@ -11392,6 +11392,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B64:B74"/>
+    <mergeCell ref="B31:B41"/>
+    <mergeCell ref="B42:B52"/>
+    <mergeCell ref="B53:B63"/>
+    <mergeCell ref="U16:V16"/>
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="L15:R15"/>
     <mergeCell ref="B20:B30"/>
@@ -11400,11 +11405,6 @@
     <mergeCell ref="C11:J11"/>
     <mergeCell ref="C12:J12"/>
     <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B64:B74"/>
-    <mergeCell ref="B31:B41"/>
-    <mergeCell ref="B42:B52"/>
-    <mergeCell ref="B53:B63"/>
-    <mergeCell ref="U16:V16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Contents!A1" display="Contents!A1"/>

--- a/1-SystemDocs/System_spec_v4.xlsx
+++ b/1-SystemDocs/System_spec_v4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-120" windowWidth="12960" windowHeight="11760" tabRatio="760" firstSheet="12" activeTab="21"/>
+    <workbookView xWindow="0" yWindow="-120" windowWidth="12960" windowHeight="11760" tabRatio="760" firstSheet="10" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="13" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1876" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1928" uniqueCount="795">
   <si>
     <t>ETH*</t>
   </si>
@@ -2516,6 +2516,9 @@
       </rPr>
       <t xml:space="preserve"> cable</t>
     </r>
+  </si>
+  <si>
+    <t>0b11111111</t>
   </si>
 </sst>
 </file>
@@ -3487,6 +3490,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3498,15 +3513,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3522,9 +3528,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4018,11 +4021,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="398040296"/>
-        <c:axId val="398041472"/>
+        <c:axId val="364100120"/>
+        <c:axId val="364094632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="398040296"/>
+        <c:axId val="364100120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="25"/>
@@ -4067,12 +4070,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="398041472"/>
+        <c:crossAx val="364094632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="398041472"/>
+        <c:axId val="364094632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1400"/>
@@ -4131,7 +4134,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="398040296"/>
+        <c:crossAx val="364100120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4847,7 +4850,7 @@
         <xdr:cNvPr id="2" name="Obrázok 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8933,10 +8936,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:V74"/>
+  <dimension ref="B1:V85"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J74" sqref="J74"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L82" sqref="L82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8963,19 +8966,19 @@
       </c>
     </row>
     <row r="3" spans="2:22" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="217" t="s">
+      <c r="B3" s="218" t="s">
         <v>536</v>
       </c>
-      <c r="C3" s="217"/>
-      <c r="D3" s="217"/>
-      <c r="E3" s="217"/>
-      <c r="F3" s="217"/>
-      <c r="G3" s="217"/>
-      <c r="H3" s="217"/>
-      <c r="I3" s="217"/>
-      <c r="J3" s="217"/>
-      <c r="K3" s="217"/>
-      <c r="L3" s="217"/>
+      <c r="C3" s="218"/>
+      <c r="D3" s="218"/>
+      <c r="E3" s="218"/>
+      <c r="F3" s="218"/>
+      <c r="G3" s="218"/>
+      <c r="H3" s="218"/>
+      <c r="I3" s="218"/>
+      <c r="J3" s="218"/>
+      <c r="K3" s="218"/>
+      <c r="L3" s="218"/>
       <c r="M3" s="129"/>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
@@ -9114,16 +9117,16 @@
       <c r="B10" s="151" t="s">
         <v>634</v>
       </c>
-      <c r="C10" s="218" t="s">
+      <c r="C10" s="219" t="s">
         <v>641</v>
       </c>
-      <c r="D10" s="218"/>
-      <c r="E10" s="218"/>
-      <c r="F10" s="218"/>
-      <c r="G10" s="218"/>
-      <c r="H10" s="218"/>
-      <c r="I10" s="218"/>
-      <c r="J10" s="219"/>
+      <c r="D10" s="219"/>
+      <c r="E10" s="219"/>
+      <c r="F10" s="219"/>
+      <c r="G10" s="219"/>
+      <c r="H10" s="219"/>
+      <c r="I10" s="219"/>
+      <c r="J10" s="220"/>
       <c r="T10" s="22">
         <v>9</v>
       </c>
@@ -9138,16 +9141,16 @@
       <c r="B11" s="151" t="s">
         <v>640</v>
       </c>
-      <c r="C11" s="218" t="s">
+      <c r="C11" s="219" t="s">
         <v>643</v>
       </c>
-      <c r="D11" s="218"/>
-      <c r="E11" s="218"/>
-      <c r="F11" s="218"/>
-      <c r="G11" s="218"/>
-      <c r="H11" s="218"/>
-      <c r="I11" s="218"/>
-      <c r="J11" s="219"/>
+      <c r="D11" s="219"/>
+      <c r="E11" s="219"/>
+      <c r="F11" s="219"/>
+      <c r="G11" s="219"/>
+      <c r="H11" s="219"/>
+      <c r="I11" s="219"/>
+      <c r="J11" s="220"/>
       <c r="T11" s="24" t="s">
         <v>102</v>
       </c>
@@ -9162,16 +9165,16 @@
       <c r="B12" s="144" t="s">
         <v>639</v>
       </c>
-      <c r="C12" s="220" t="s">
+      <c r="C12" s="221" t="s">
         <v>642</v>
       </c>
-      <c r="D12" s="220"/>
-      <c r="E12" s="220"/>
-      <c r="F12" s="220"/>
-      <c r="G12" s="220"/>
-      <c r="H12" s="220"/>
-      <c r="I12" s="220"/>
-      <c r="J12" s="221"/>
+      <c r="D12" s="221"/>
+      <c r="E12" s="221"/>
+      <c r="F12" s="221"/>
+      <c r="G12" s="221"/>
+      <c r="H12" s="221"/>
+      <c r="I12" s="221"/>
+      <c r="J12" s="222"/>
     </row>
     <row r="14" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
@@ -9184,26 +9187,26 @@
       </c>
       <c r="C15" s="159"/>
       <c r="D15" s="159"/>
-      <c r="E15" s="210" t="s">
+      <c r="E15" s="214" t="s">
         <v>679</v>
       </c>
-      <c r="F15" s="211"/>
-      <c r="G15" s="212"/>
+      <c r="F15" s="215"/>
+      <c r="G15" s="216"/>
       <c r="H15" s="159"/>
       <c r="I15" s="159"/>
       <c r="J15" s="160"/>
-      <c r="L15" s="213" t="s">
+      <c r="L15" s="217" t="s">
         <v>704</v>
       </c>
-      <c r="M15" s="213"/>
-      <c r="N15" s="213"/>
-      <c r="O15" s="213"/>
-      <c r="P15" s="213"/>
-      <c r="Q15" s="213"/>
-      <c r="R15" s="213"/>
+      <c r="M15" s="217"/>
+      <c r="N15" s="217"/>
+      <c r="O15" s="217"/>
+      <c r="P15" s="217"/>
+      <c r="Q15" s="217"/>
+      <c r="R15" s="217"/>
     </row>
     <row r="16" spans="2:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="214">
+      <c r="B16" s="210">
         <v>1</v>
       </c>
       <c r="C16" s="28" t="s">
@@ -9254,13 +9257,13 @@
       <c r="S16" s="182" t="s">
         <v>756</v>
       </c>
-      <c r="U16" s="222" t="s">
+      <c r="U16" s="213" t="s">
         <v>657</v>
       </c>
-      <c r="V16" s="222"/>
+      <c r="V16" s="213"/>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B17" s="215"/>
+      <c r="B17" s="211"/>
       <c r="C17" s="31" t="s">
         <v>428</v>
       </c>
@@ -9322,7 +9325,7 @@
       </c>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B18" s="215"/>
+      <c r="B18" s="211"/>
       <c r="C18" s="31" t="s">
         <v>433</v>
       </c>
@@ -9343,7 +9346,7 @@
       </c>
     </row>
     <row r="19" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="216"/>
+      <c r="B19" s="212"/>
       <c r="C19" s="35" t="s">
         <v>646</v>
       </c>
@@ -9362,7 +9365,7 @@
       </c>
     </row>
     <row r="20" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="214">
+      <c r="B20" s="210">
         <v>2</v>
       </c>
       <c r="C20" s="28" t="s">
@@ -9397,7 +9400,7 @@
       </c>
     </row>
     <row r="21" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="215"/>
+      <c r="B21" s="211"/>
       <c r="C21" s="31" t="s">
         <v>424</v>
       </c>
@@ -9467,7 +9470,7 @@
       </c>
     </row>
     <row r="22" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="215"/>
+      <c r="B22" s="211"/>
       <c r="C22" s="31" t="s">
         <v>425</v>
       </c>
@@ -9537,7 +9540,7 @@
       </c>
     </row>
     <row r="23" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="215"/>
+      <c r="B23" s="211"/>
       <c r="C23" s="31" t="s">
         <v>426</v>
       </c>
@@ -9607,7 +9610,7 @@
       </c>
     </row>
     <row r="24" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="215"/>
+      <c r="B24" s="211"/>
       <c r="C24" s="81" t="s">
         <v>427</v>
       </c>
@@ -9677,7 +9680,7 @@
       </c>
     </row>
     <row r="25" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="215"/>
+      <c r="B25" s="211"/>
       <c r="C25" s="31" t="s">
         <v>428</v>
       </c>
@@ -9747,7 +9750,7 @@
       </c>
     </row>
     <row r="26" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="215"/>
+      <c r="B26" s="211"/>
       <c r="C26" s="31" t="s">
         <v>429</v>
       </c>
@@ -9814,7 +9817,7 @@
       </c>
     </row>
     <row r="27" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="215"/>
+      <c r="B27" s="211"/>
       <c r="C27" s="81" t="s">
         <v>430</v>
       </c>
@@ -9881,7 +9884,7 @@
       </c>
     </row>
     <row r="28" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="215"/>
+      <c r="B28" s="211"/>
       <c r="C28" s="31" t="s">
         <v>431</v>
       </c>
@@ -9910,7 +9913,7 @@
       </c>
     </row>
     <row r="29" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="215"/>
+      <c r="B29" s="211"/>
       <c r="C29" s="31" t="s">
         <v>433</v>
       </c>
@@ -9919,7 +9922,9 @@
       </c>
       <c r="E29" s="166"/>
       <c r="F29" s="166"/>
-      <c r="G29" s="166"/>
+      <c r="G29" s="165" t="s">
+        <v>794</v>
+      </c>
       <c r="H29" s="157"/>
       <c r="I29" s="157"/>
       <c r="J29" s="158"/>
@@ -9939,7 +9944,7 @@
       </c>
     </row>
     <row r="30" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="216"/>
+      <c r="B30" s="212"/>
       <c r="C30" s="35" t="s">
         <v>434</v>
       </c>
@@ -9968,7 +9973,7 @@
       </c>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B31" s="214">
+      <c r="B31" s="210">
         <v>3</v>
       </c>
       <c r="C31" s="28" t="s">
@@ -10008,7 +10013,7 @@
       </c>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B32" s="215"/>
+      <c r="B32" s="211"/>
       <c r="C32" s="31" t="s">
         <v>424</v>
       </c>
@@ -10052,7 +10057,7 @@
       </c>
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B33" s="215"/>
+      <c r="B33" s="211"/>
       <c r="C33" s="31" t="s">
         <v>425</v>
       </c>
@@ -10096,7 +10101,7 @@
       </c>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B34" s="215"/>
+      <c r="B34" s="211"/>
       <c r="C34" s="31" t="s">
         <v>426</v>
       </c>
@@ -10137,7 +10142,7 @@
       </c>
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B35" s="215"/>
+      <c r="B35" s="211"/>
       <c r="C35" s="81" t="s">
         <v>427</v>
       </c>
@@ -10181,7 +10186,7 @@
       </c>
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B36" s="215"/>
+      <c r="B36" s="211"/>
       <c r="C36" s="31" t="s">
         <v>428</v>
       </c>
@@ -10225,7 +10230,7 @@
       </c>
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B37" s="215"/>
+      <c r="B37" s="211"/>
       <c r="C37" s="31" t="s">
         <v>429</v>
       </c>
@@ -10269,7 +10274,7 @@
       </c>
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B38" s="215"/>
+      <c r="B38" s="211"/>
       <c r="C38" s="81" t="s">
         <v>430</v>
       </c>
@@ -10300,7 +10305,7 @@
       </c>
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B39" s="215"/>
+      <c r="B39" s="211"/>
       <c r="C39" s="31" t="s">
         <v>431</v>
       </c>
@@ -10328,7 +10333,7 @@
       </c>
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B40" s="215"/>
+      <c r="B40" s="211"/>
       <c r="C40" s="31" t="s">
         <v>433</v>
       </c>
@@ -10337,7 +10342,9 @@
       </c>
       <c r="E40" s="166"/>
       <c r="F40" s="166"/>
-      <c r="G40" s="166"/>
+      <c r="G40" s="165" t="s">
+        <v>794</v>
+      </c>
       <c r="H40" s="157"/>
       <c r="I40" s="157"/>
       <c r="J40" s="158"/>
@@ -10357,7 +10364,7 @@
       </c>
     </row>
     <row r="41" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="216"/>
+      <c r="B41" s="212"/>
       <c r="C41" s="35" t="s">
         <v>434</v>
       </c>
@@ -10388,7 +10395,7 @@
       </c>
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B42" s="214">
+      <c r="B42" s="210">
         <v>4</v>
       </c>
       <c r="C42" s="28" t="s">
@@ -10428,7 +10435,7 @@
       </c>
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B43" s="215"/>
+      <c r="B43" s="211"/>
       <c r="C43" s="31" t="s">
         <v>424</v>
       </c>
@@ -10472,7 +10479,7 @@
       </c>
     </row>
     <row r="44" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B44" s="215"/>
+      <c r="B44" s="211"/>
       <c r="C44" s="31" t="s">
         <v>425</v>
       </c>
@@ -10516,7 +10523,7 @@
       </c>
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B45" s="215"/>
+      <c r="B45" s="211"/>
       <c r="C45" s="31" t="s">
         <v>426</v>
       </c>
@@ -10547,7 +10554,7 @@
       </c>
     </row>
     <row r="46" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B46" s="215"/>
+      <c r="B46" s="211"/>
       <c r="C46" s="81" t="s">
         <v>427</v>
       </c>
@@ -10578,7 +10585,7 @@
       </c>
     </row>
     <row r="47" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B47" s="215"/>
+      <c r="B47" s="211"/>
       <c r="C47" s="31" t="s">
         <v>428</v>
       </c>
@@ -10609,7 +10616,7 @@
       </c>
     </row>
     <row r="48" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B48" s="215"/>
+      <c r="B48" s="211"/>
       <c r="C48" s="31" t="s">
         <v>429</v>
       </c>
@@ -10640,7 +10647,7 @@
       </c>
     </row>
     <row r="49" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B49" s="215"/>
+      <c r="B49" s="211"/>
       <c r="C49" s="81" t="s">
         <v>430</v>
       </c>
@@ -10671,7 +10678,7 @@
       </c>
     </row>
     <row r="50" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B50" s="215"/>
+      <c r="B50" s="211"/>
       <c r="C50" s="31" t="s">
         <v>431</v>
       </c>
@@ -10702,7 +10709,7 @@
       </c>
     </row>
     <row r="51" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B51" s="215"/>
+      <c r="B51" s="211"/>
       <c r="C51" s="31" t="s">
         <v>433</v>
       </c>
@@ -10711,7 +10718,9 @@
       </c>
       <c r="E51" s="166"/>
       <c r="F51" s="166"/>
-      <c r="G51" s="166"/>
+      <c r="G51" s="165" t="s">
+        <v>794</v>
+      </c>
       <c r="H51" s="157"/>
       <c r="I51" s="157"/>
       <c r="J51" s="158"/>
@@ -10731,7 +10740,7 @@
       </c>
     </row>
     <row r="52" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="216"/>
+      <c r="B52" s="212"/>
       <c r="C52" s="35" t="s">
         <v>434</v>
       </c>
@@ -10762,7 +10771,7 @@
       </c>
     </row>
     <row r="53" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B53" s="214">
+      <c r="B53" s="210">
         <v>5</v>
       </c>
       <c r="C53" s="28" t="s">
@@ -10805,7 +10814,7 @@
       </c>
     </row>
     <row r="54" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B54" s="215"/>
+      <c r="B54" s="211"/>
       <c r="C54" s="31" t="s">
         <v>424</v>
       </c>
@@ -10849,7 +10858,7 @@
       </c>
     </row>
     <row r="55" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B55" s="215"/>
+      <c r="B55" s="211"/>
       <c r="C55" s="31" t="s">
         <v>425</v>
       </c>
@@ -10893,7 +10902,7 @@
       </c>
     </row>
     <row r="56" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B56" s="215"/>
+      <c r="B56" s="211"/>
       <c r="C56" s="31" t="s">
         <v>426</v>
       </c>
@@ -10937,7 +10946,7 @@
       </c>
     </row>
     <row r="57" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B57" s="215"/>
+      <c r="B57" s="211"/>
       <c r="C57" s="81" t="s">
         <v>427</v>
       </c>
@@ -10962,7 +10971,7 @@
         <v>0x40</v>
       </c>
       <c r="J57" s="158" t="str">
-        <f t="shared" ref="J57" si="24">CONCATENATE("0x",BIN2HEX(RIGHT(G57,LEN(G57)-2),2))</f>
+        <f t="shared" ref="J57:J63" si="24">CONCATENATE("0x",BIN2HEX(RIGHT(G57,LEN(G57)-2),2))</f>
         <v>0x03</v>
       </c>
       <c r="K57" s="183"/>
@@ -10978,7 +10987,7 @@
       </c>
     </row>
     <row r="58" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B58" s="215"/>
+      <c r="B58" s="211"/>
       <c r="C58" s="31" t="s">
         <v>428</v>
       </c>
@@ -10992,7 +11001,10 @@
       </c>
       <c r="H58" s="157"/>
       <c r="I58" s="157"/>
-      <c r="J58" s="158"/>
+      <c r="J58" s="158" t="str">
+        <f t="shared" si="24"/>
+        <v>0x00</v>
+      </c>
       <c r="K58" s="183"/>
       <c r="L58" s="183"/>
       <c r="M58" s="183"/>
@@ -11009,7 +11021,7 @@
       </c>
     </row>
     <row r="59" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B59" s="215"/>
+      <c r="B59" s="211"/>
       <c r="C59" s="31" t="s">
         <v>429</v>
       </c>
@@ -11023,7 +11035,10 @@
       </c>
       <c r="H59" s="157"/>
       <c r="I59" s="157"/>
-      <c r="J59" s="158"/>
+      <c r="J59" s="158" t="str">
+        <f t="shared" si="24"/>
+        <v>0x00</v>
+      </c>
       <c r="K59" s="183"/>
       <c r="L59" s="183"/>
       <c r="M59" s="183"/>
@@ -11040,7 +11055,7 @@
       </c>
     </row>
     <row r="60" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B60" s="215"/>
+      <c r="B60" s="211"/>
       <c r="C60" s="81" t="s">
         <v>430</v>
       </c>
@@ -11054,7 +11069,10 @@
       </c>
       <c r="H60" s="157"/>
       <c r="I60" s="157"/>
-      <c r="J60" s="158"/>
+      <c r="J60" s="158" t="str">
+        <f t="shared" si="24"/>
+        <v>0x00</v>
+      </c>
       <c r="U60" s="153" t="s">
         <v>661</v>
       </c>
@@ -11063,7 +11081,7 @@
       </c>
     </row>
     <row r="61" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B61" s="215"/>
+      <c r="B61" s="211"/>
       <c r="C61" s="31" t="s">
         <v>431</v>
       </c>
@@ -11077,7 +11095,10 @@
       </c>
       <c r="H61" s="157"/>
       <c r="I61" s="157"/>
-      <c r="J61" s="158"/>
+      <c r="J61" s="158" t="str">
+        <f t="shared" si="24"/>
+        <v>0x00</v>
+      </c>
       <c r="U61" s="153" t="s">
         <v>664</v>
       </c>
@@ -11086,7 +11107,7 @@
       </c>
     </row>
     <row r="62" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B62" s="215"/>
+      <c r="B62" s="211"/>
       <c r="C62" s="31" t="s">
         <v>433</v>
       </c>
@@ -11095,10 +11116,15 @@
       </c>
       <c r="E62" s="166"/>
       <c r="F62" s="166"/>
-      <c r="G62" s="166"/>
+      <c r="G62" s="165" t="s">
+        <v>794</v>
+      </c>
       <c r="H62" s="157"/>
       <c r="I62" s="157"/>
-      <c r="J62" s="158"/>
+      <c r="J62" s="158" t="str">
+        <f t="shared" si="24"/>
+        <v>0xFF</v>
+      </c>
       <c r="U62" s="153" t="s">
         <v>668</v>
       </c>
@@ -11107,7 +11133,7 @@
       </c>
     </row>
     <row r="63" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="216"/>
+      <c r="B63" s="212"/>
       <c r="C63" s="35" t="s">
         <v>434</v>
       </c>
@@ -11121,7 +11147,10 @@
       </c>
       <c r="H63" s="162"/>
       <c r="I63" s="162"/>
-      <c r="J63" s="163"/>
+      <c r="J63" s="163" t="str">
+        <f t="shared" si="24"/>
+        <v>0x00</v>
+      </c>
       <c r="U63" s="153" t="s">
         <v>665</v>
       </c>
@@ -11130,7 +11159,7 @@
       </c>
     </row>
     <row r="64" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B64" s="214">
+      <c r="B64" s="210">
         <v>6</v>
       </c>
       <c r="C64" s="28" t="s">
@@ -11158,8 +11187,8 @@
         <v>561</v>
       </c>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B65" s="215"/>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B65" s="211"/>
       <c r="C65" s="31" t="s">
         <v>424</v>
       </c>
@@ -11188,8 +11217,8 @@
         <v>0x03</v>
       </c>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B66" s="215"/>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B66" s="211"/>
       <c r="C66" s="31" t="s">
         <v>425</v>
       </c>
@@ -11218,8 +11247,8 @@
         <v>0x03</v>
       </c>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B67" s="215"/>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B67" s="211"/>
       <c r="C67" s="31" t="s">
         <v>426</v>
       </c>
@@ -11248,8 +11277,8 @@
         <v>0x03</v>
       </c>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B68" s="215"/>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B68" s="211"/>
       <c r="C68" s="81" t="s">
         <v>427</v>
       </c>
@@ -11278,8 +11307,8 @@
         <v>0x03</v>
       </c>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B69" s="215"/>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B69" s="211"/>
       <c r="C69" s="31" t="s">
         <v>428</v>
       </c>
@@ -11305,8 +11334,8 @@
         <v>777</v>
       </c>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B70" s="215"/>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B70" s="211"/>
       <c r="C70" s="31" t="s">
         <v>429</v>
       </c>
@@ -11322,8 +11351,8 @@
       <c r="I70" s="157"/>
       <c r="J70" s="158"/>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B71" s="215"/>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B71" s="211"/>
       <c r="C71" s="81" t="s">
         <v>430</v>
       </c>
@@ -11339,8 +11368,8 @@
       <c r="I71" s="157"/>
       <c r="J71" s="158"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B72" s="215"/>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B72" s="211"/>
       <c r="C72" s="31" t="s">
         <v>431</v>
       </c>
@@ -11356,8 +11385,8 @@
       <c r="I72" s="157"/>
       <c r="J72" s="158"/>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B73" s="215"/>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B73" s="211"/>
       <c r="C73" s="31" t="s">
         <v>433</v>
       </c>
@@ -11373,8 +11402,8 @@
       <c r="I73" s="157"/>
       <c r="J73" s="158"/>
     </row>
-    <row r="74" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="216"/>
+    <row r="74" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="212"/>
       <c r="C74" s="35" t="s">
         <v>434</v>
       </c>
@@ -11390,13 +11419,294 @@
       <c r="I74" s="162"/>
       <c r="J74" s="163"/>
     </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B75" s="210">
+        <v>7</v>
+      </c>
+      <c r="C75" s="28" t="s">
+        <v>648</v>
+      </c>
+      <c r="D75" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="E75" s="164" t="s">
+        <v>559</v>
+      </c>
+      <c r="F75" s="164" t="s">
+        <v>560</v>
+      </c>
+      <c r="G75" s="164" t="s">
+        <v>561</v>
+      </c>
+      <c r="H75" s="155" t="s">
+        <v>559</v>
+      </c>
+      <c r="I75" s="155" t="s">
+        <v>560</v>
+      </c>
+      <c r="J75" s="156" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B76" s="211"/>
+      <c r="C76" s="31" t="s">
+        <v>424</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="E76" s="166" t="s">
+        <v>733</v>
+      </c>
+      <c r="F76" s="166" t="s">
+        <v>563</v>
+      </c>
+      <c r="G76" s="165" t="s">
+        <v>581</v>
+      </c>
+      <c r="H76" s="157" t="str">
+        <f t="shared" ref="H76:H79" si="31">CONCATENATE("0x",BIN2HEX(RIGHT(E76,LEN(E76)-2),2))</f>
+        <v>0x0E</v>
+      </c>
+      <c r="I76" s="157" t="str">
+        <f t="shared" ref="I76:I79" si="32">CONCATENATE("0x",BIN2HEX(RIGHT(F76,LEN(F76)-2),2))</f>
+        <v>0x40</v>
+      </c>
+      <c r="J76" s="158" t="str">
+        <f t="shared" ref="J76:J79" si="33">CONCATENATE("0x",BIN2HEX(RIGHT(G76,LEN(G76)-2),2))</f>
+        <v>0x03</v>
+      </c>
+      <c r="K76" s="161" t="s">
+        <v>705</v>
+      </c>
+      <c r="L76" s="11" t="str">
+        <f t="shared" ref="L76" si="34">INDEX($V$18:$V$25,MATCH(LEFT(RIGHT(E76,LEN(E76)-2-3),3),$U$18:$U$25,0))</f>
+        <v>7k</v>
+      </c>
+      <c r="M76" s="11" t="str">
+        <f t="shared" ref="M76" si="35">INDEX($V$27:$V$30,MATCH(LEFT(RIGHT(E76,LEN(E76)-2-6),2),$U$27:$U$30,0))</f>
+        <v>50R</v>
+      </c>
+      <c r="N76" s="11" t="str">
+        <f t="shared" ref="N76" si="36">INDEX($V$32:$V$33,MATCH(LEFT(RIGHT(F76,LEN(F76)-2),1),$U$32:$U$33,0))</f>
+        <v>VDD</v>
+      </c>
+      <c r="O76" s="11" t="str">
+        <f t="shared" ref="O76" si="37">INDEX($V$35:$V$38,MATCH(LEFT(RIGHT(F76,LEN(F76)-2-1),2),$U$35:$U$38,0))</f>
+        <v>67%</v>
+      </c>
+      <c r="P76" s="11" t="str">
+        <f t="shared" ref="P76" si="38">INDEX($V$40:$V$41,MATCH(LEFT(RIGHT(F76,LEN(F76)-2-3),1),$U$40:$U$41,0))</f>
+        <v>NEG</v>
+      </c>
+      <c r="Q76" s="154">
+        <f t="shared" ref="Q76" si="39">INDEX($V$43:$V$56,MATCH(LEFT(RIGHT(F76,LEN(F76)-2-4),4),$U$43:$U$56,0))</f>
+        <v>0</v>
+      </c>
+      <c r="R76" s="11" t="str">
+        <f t="shared" ref="R76" si="40">INDEX($V$58:$V$63,MATCH(LEFT(RIGHT(G76,LEN(G76)-2-5),3),$U$58:$U$63,0))</f>
+        <v>3-lead amperometric</v>
+      </c>
+      <c r="S76" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B77" s="211"/>
+      <c r="C77" s="31" t="s">
+        <v>425</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="E77" s="166" t="s">
+        <v>733</v>
+      </c>
+      <c r="F77" s="166" t="s">
+        <v>563</v>
+      </c>
+      <c r="G77" s="165" t="s">
+        <v>581</v>
+      </c>
+      <c r="H77" s="157" t="str">
+        <f t="shared" si="31"/>
+        <v>0x0E</v>
+      </c>
+      <c r="I77" s="157" t="str">
+        <f t="shared" si="32"/>
+        <v>0x40</v>
+      </c>
+      <c r="J77" s="158" t="str">
+        <f t="shared" si="33"/>
+        <v>0x03</v>
+      </c>
+    </row>
+    <row r="78" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B78" s="211"/>
+      <c r="C78" s="31" t="s">
+        <v>426</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="E78" s="166" t="s">
+        <v>733</v>
+      </c>
+      <c r="F78" s="166" t="s">
+        <v>563</v>
+      </c>
+      <c r="G78" s="165" t="s">
+        <v>581</v>
+      </c>
+      <c r="H78" s="157" t="str">
+        <f t="shared" si="31"/>
+        <v>0x0E</v>
+      </c>
+      <c r="I78" s="157" t="str">
+        <f t="shared" si="32"/>
+        <v>0x40</v>
+      </c>
+      <c r="J78" s="158" t="str">
+        <f t="shared" si="33"/>
+        <v>0x03</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B79" s="211"/>
+      <c r="C79" s="81" t="s">
+        <v>427</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="E79" s="166" t="s">
+        <v>733</v>
+      </c>
+      <c r="F79" s="166" t="s">
+        <v>563</v>
+      </c>
+      <c r="G79" s="165" t="s">
+        <v>581</v>
+      </c>
+      <c r="H79" s="157" t="str">
+        <f t="shared" si="31"/>
+        <v>0x0E</v>
+      </c>
+      <c r="I79" s="157" t="str">
+        <f t="shared" si="32"/>
+        <v>0x40</v>
+      </c>
+      <c r="J79" s="158" t="str">
+        <f t="shared" si="33"/>
+        <v>0x03</v>
+      </c>
+    </row>
+    <row r="80" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B80" s="211"/>
+      <c r="C80" s="31" t="s">
+        <v>428</v>
+      </c>
+      <c r="D80" s="87" t="s">
+        <v>757</v>
+      </c>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="165" t="s">
+        <v>562</v>
+      </c>
+      <c r="H80" s="157"/>
+      <c r="I80" s="157"/>
+      <c r="J80" s="158"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B81" s="211"/>
+      <c r="C81" s="31" t="s">
+        <v>429</v>
+      </c>
+      <c r="D81" s="87" t="s">
+        <v>757</v>
+      </c>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="165" t="s">
+        <v>562</v>
+      </c>
+      <c r="H81" s="157"/>
+      <c r="I81" s="157"/>
+      <c r="J81" s="158"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B82" s="211"/>
+      <c r="C82" s="81" t="s">
+        <v>430</v>
+      </c>
+      <c r="D82" s="87" t="s">
+        <v>757</v>
+      </c>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="165" t="s">
+        <v>562</v>
+      </c>
+      <c r="H82" s="157"/>
+      <c r="I82" s="157"/>
+      <c r="J82" s="158"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B83" s="211"/>
+      <c r="C83" s="31" t="s">
+        <v>431</v>
+      </c>
+      <c r="D83" s="87" t="s">
+        <v>757</v>
+      </c>
+      <c r="E83" s="137"/>
+      <c r="F83" s="137"/>
+      <c r="G83" s="165" t="s">
+        <v>562</v>
+      </c>
+      <c r="H83" s="157"/>
+      <c r="I83" s="157"/>
+      <c r="J83" s="158"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B84" s="211"/>
+      <c r="C84" s="31" t="s">
+        <v>433</v>
+      </c>
+      <c r="D84" s="87" t="s">
+        <v>757</v>
+      </c>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="165" t="s">
+        <v>562</v>
+      </c>
+      <c r="H84" s="157"/>
+      <c r="I84" s="157"/>
+      <c r="J84" s="158"/>
+    </row>
+    <row r="85" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="212"/>
+      <c r="C85" s="35" t="s">
+        <v>434</v>
+      </c>
+      <c r="D85" s="35" t="s">
+        <v>757</v>
+      </c>
+      <c r="E85" s="193"/>
+      <c r="F85" s="193"/>
+      <c r="G85" s="194" t="s">
+        <v>562</v>
+      </c>
+      <c r="H85" s="162"/>
+      <c r="I85" s="162"/>
+      <c r="J85" s="163"/>
+    </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B64:B74"/>
-    <mergeCell ref="B31:B41"/>
-    <mergeCell ref="B42:B52"/>
-    <mergeCell ref="B53:B63"/>
-    <mergeCell ref="U16:V16"/>
+  <mergeCells count="14">
+    <mergeCell ref="B75:B85"/>
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="L15:R15"/>
     <mergeCell ref="B20:B30"/>
@@ -11405,6 +11715,11 @@
     <mergeCell ref="C11:J11"/>
     <mergeCell ref="C12:J12"/>
     <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B64:B74"/>
+    <mergeCell ref="B31:B41"/>
+    <mergeCell ref="B42:B52"/>
+    <mergeCell ref="B53:B63"/>
+    <mergeCell ref="U16:V16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Contents!A1" display="Contents!A1"/>
@@ -14535,7 +14850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>

--- a/1-SystemDocs/System_spec_v4.xlsx
+++ b/1-SystemDocs/System_spec_v4.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\01_GIT_REPOS\FRA_Sensor_platform\1-SystemDocs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CLOUD\GitHub\FRA_Sensor_platform\1-SystemDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70639EC-E2CA-44FE-A763-6168F8D11332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-120" windowWidth="12960" windowHeight="11760" tabRatio="760" firstSheet="10" activeTab="11"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="760" firstSheet="10" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="13" r:id="rId1"/>
@@ -39,18 +40,27 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">'TO DO'!$A$2:$B$68</definedName>
     <definedName name="error_codes" localSheetId="14">'Error Codes'!$A$4:$C$46</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="error_codes" type="6" refreshedVersion="5" background="1" refreshOnLoad="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="error_codes" type="6" refreshedVersion="5" background="1" refreshOnLoad="1" saveData="1">
     <textPr codePage="850" sourceFile="D:\PROJECTS\01_GIT_REPOS\FRA_Sensor_platform\3-FW_SW\2-SW_log_PC\1-LabVIEW_app\error_codes.csv" comma="1">
       <textFields count="2">
         <textField/>
@@ -62,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1928" uniqueCount="795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2016" uniqueCount="795">
   <si>
     <t>ETH*</t>
   </si>
@@ -2524,8 +2534,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2669,6 +2679,12 @@
       <color rgb="FF1D1C1D"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="17">
@@ -3105,7 +3121,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="232">
+  <cellXfs count="233">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3499,9 +3515,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3528,6 +3541,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3556,10 +3572,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hypertextové prepojenie" xfId="1" builtinId="8"/>
-    <cellStyle name="Normálne" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3575,9 +3594,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="sk-SK"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3754,6 +3773,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5ED9-4420-AFCF-D842DE31E4EB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3860,6 +3884,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5ED9-4420-AFCF-D842DE31E4EB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3936,6 +3965,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5ED9-4420-AFCF-D842DE31E4EB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -4012,6 +4046,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5ED9-4420-AFCF-D842DE31E4EB}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4787,7 +4826,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Obrázok 1" descr="VÃ½sledok vyhÄ¾adÃ¡vania obrÃ¡zkov pre dopyt devkit esp32 c pinout"/>
+        <xdr:cNvPr id="2" name="Obrázok 1" descr="VÃ½sledok vyhÄ¾adÃ¡vania obrÃ¡zkov pre dopyt devkit esp32 c pinout">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4850,7 +4895,7 @@
         <xdr:cNvPr id="2" name="Obrázok 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4896,7 +4941,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Rovná spojovacia šípka 2"/>
+        <xdr:cNvPr id="3" name="Rovná spojovacia šípka 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4946,7 +4997,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Rovná spojovacia šípka 3"/>
+        <xdr:cNvPr id="4" name="Rovná spojovacia šípka 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4996,7 +5053,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Rovná spojovacia šípka 7"/>
+        <xdr:cNvPr id="8" name="Rovná spojovacia šípka 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5046,7 +5109,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Rovná spojovacia šípka 8"/>
+        <xdr:cNvPr id="9" name="Rovná spojovacia šípka 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5096,7 +5165,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Rovná spojovacia šípka 9"/>
+        <xdr:cNvPr id="10" name="Rovná spojovacia šípka 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5146,7 +5221,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Rovná spojovacia šípka 6"/>
+        <xdr:cNvPr id="7" name="Rovná spojovacia šípka 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5196,7 +5277,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Rovná spojovacia šípka 10"/>
+        <xdr:cNvPr id="11" name="Rovná spojovacia šípka 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5246,7 +5333,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="Rovná spojovacia šípka 11"/>
+        <xdr:cNvPr id="12" name="Rovná spojovacia šípka 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5301,7 +5394,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Obrázok 1"/>
+        <xdr:cNvPr id="2" name="Obrázok 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5339,7 +5438,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Graf 2"/>
+        <xdr:cNvPr id="3" name="Graf 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5369,7 +5474,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Obrázok 3"/>
+        <xdr:cNvPr id="4" name="Obrázok 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5407,7 +5518,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Obrázok 4"/>
+        <xdr:cNvPr id="5" name="Obrázok 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5445,7 +5562,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Rovná spojovacia šípka 9"/>
+        <xdr:cNvPr id="10" name="Rovná spojovacia šípka 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5497,7 +5620,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Obrázok 1"/>
+        <xdr:cNvPr id="2" name="Obrázok 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5524,7 +5653,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="error_codes" refreshOnLoad="1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="error_codes" refreshOnLoad="1" connectionId="1" xr16:uid="{00000000-0016-0000-0E00-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5789,7 +5918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5944,26 +6073,26 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" location="'SPI ETH ESP32'!A1" display="'SPI ETH ESP32'!A1"/>
-    <hyperlink ref="B3" location="'Pinout ETH DEEK'!A1" display="'Pinout ETH DEEK'!A1"/>
-    <hyperlink ref="B4" location="'JTAG conn'!A1" display="'JTAG conn'!A1"/>
-    <hyperlink ref="B5" location="'SD usage'!A1" display="'SD usage'!A1"/>
-    <hyperlink ref="B6" location="'UDP packets'!A1" display="'UDP packets'!A1"/>
-    <hyperlink ref="B7" location="'UDP datagram definition'!A1" display="'UDP datagram definition'!A1"/>
-    <hyperlink ref="B8" location="'Message Types'!A1" display="'Message Types'!A1"/>
-    <hyperlink ref="B15" location="'ADC selection'!A1" display="'ADC selection'!A1"/>
-    <hyperlink ref="B16" location="'Time budget'!A1" display="'Time budget'!A1"/>
-    <hyperlink ref="B17" location="'TO DO'!A1" display="'TO DO'!A1"/>
-    <hyperlink ref="B18" location="'System setup'!A1" display="'System setup'!A1"/>
-    <hyperlink ref="B19" location="'Sensors Example datasheet val.'!A1" display="'Sensors Example datasheet val.'!A1"/>
-    <hyperlink ref="B20" location="IssueTracking!A1" display="IssueTracking!A1"/>
-    <hyperlink ref="B14" location="'Error Codes'!A1" display="'Error Codes'!A1"/>
-    <hyperlink ref="B9" location="Meas_sample!A1" display="Meas_sample!A1"/>
-    <hyperlink ref="B13" location="'LabVIEW data log'!A1" display="'LabVIEW data log'!A1"/>
-    <hyperlink ref="B10" location="'Sensor Type table'!A1" display="'Sensor Type table'!A1"/>
-    <hyperlink ref="B21" location="'Button and LED UI table'!A1" display="'Button and LED UI table'!A1"/>
-    <hyperlink ref="B12" location="'Sensor configuration set'!A1" display="'Sensor configuration set'!A1"/>
-    <hyperlink ref="B11" location="'ADC autorange'!A1" display="'ADC autorange'!A1"/>
+    <hyperlink ref="B2" location="'SPI ETH ESP32'!A1" display="'SPI ETH ESP32'!A1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" location="'Pinout ETH DEEK'!A1" display="'Pinout ETH DEEK'!A1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" location="'JTAG conn'!A1" display="'JTAG conn'!A1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B5" location="'SD usage'!A1" display="'SD usage'!A1" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B6" location="'UDP packets'!A1" display="'UDP packets'!A1" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B7" location="'UDP datagram definition'!A1" display="'UDP datagram definition'!A1" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B8" location="'Message Types'!A1" display="'Message Types'!A1" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B15" location="'ADC selection'!A1" display="'ADC selection'!A1" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B16" location="'Time budget'!A1" display="'Time budget'!A1" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B17" location="'TO DO'!A1" display="'TO DO'!A1" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B18" location="'System setup'!A1" display="'System setup'!A1" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B19" location="'Sensors Example datasheet val.'!A1" display="'Sensors Example datasheet val.'!A1" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B20" location="IssueTracking!A1" display="IssueTracking!A1" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B14" location="'Error Codes'!A1" display="'Error Codes'!A1" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B9" location="Meas_sample!A1" display="Meas_sample!A1" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B13" location="'LabVIEW data log'!A1" display="'LabVIEW data log'!A1" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B10" location="'Sensor Type table'!A1" display="'Sensor Type table'!A1" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B21" location="'Button and LED UI table'!A1" display="'Button and LED UI table'!A1" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B12" location="'Sensor configuration set'!A1" display="'Sensor configuration set'!A1" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B11" location="'ADC autorange'!A1" display="'ADC autorange'!A1" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="360" r:id="rId1"/>
@@ -5971,7 +6100,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B1:M112"/>
   <sheetViews>
     <sheetView topLeftCell="A70" workbookViewId="0">
@@ -8769,7 +8898,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="Contents!A1" display="Contents!A1"/>
+    <hyperlink ref="B1" location="Contents!A1" display="Contents!A1" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="360" r:id="rId1"/>
@@ -8777,7 +8906,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8928,18 +9057,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="Contents!A1" display="Contents!A1"/>
+    <hyperlink ref="B1" location="Contents!A1" display="Contents!A1" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:V85"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="B1:V96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L82" sqref="L82"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I95" sqref="I95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8966,19 +9095,19 @@
       </c>
     </row>
     <row r="3" spans="2:22" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="218" t="s">
+      <c r="B3" s="217" t="s">
         <v>536</v>
       </c>
-      <c r="C3" s="218"/>
-      <c r="D3" s="218"/>
-      <c r="E3" s="218"/>
-      <c r="F3" s="218"/>
-      <c r="G3" s="218"/>
-      <c r="H3" s="218"/>
-      <c r="I3" s="218"/>
-      <c r="J3" s="218"/>
-      <c r="K3" s="218"/>
-      <c r="L3" s="218"/>
+      <c r="C3" s="217"/>
+      <c r="D3" s="217"/>
+      <c r="E3" s="217"/>
+      <c r="F3" s="217"/>
+      <c r="G3" s="217"/>
+      <c r="H3" s="217"/>
+      <c r="I3" s="217"/>
+      <c r="J3" s="217"/>
+      <c r="K3" s="217"/>
+      <c r="L3" s="217"/>
       <c r="M3" s="129"/>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
@@ -9117,16 +9246,16 @@
       <c r="B10" s="151" t="s">
         <v>634</v>
       </c>
-      <c r="C10" s="219" t="s">
+      <c r="C10" s="218" t="s">
         <v>641</v>
       </c>
-      <c r="D10" s="219"/>
-      <c r="E10" s="219"/>
-      <c r="F10" s="219"/>
-      <c r="G10" s="219"/>
-      <c r="H10" s="219"/>
-      <c r="I10" s="219"/>
-      <c r="J10" s="220"/>
+      <c r="D10" s="218"/>
+      <c r="E10" s="218"/>
+      <c r="F10" s="218"/>
+      <c r="G10" s="218"/>
+      <c r="H10" s="218"/>
+      <c r="I10" s="218"/>
+      <c r="J10" s="219"/>
       <c r="T10" s="22">
         <v>9</v>
       </c>
@@ -9141,16 +9270,16 @@
       <c r="B11" s="151" t="s">
         <v>640</v>
       </c>
-      <c r="C11" s="219" t="s">
+      <c r="C11" s="218" t="s">
         <v>643</v>
       </c>
-      <c r="D11" s="219"/>
-      <c r="E11" s="219"/>
-      <c r="F11" s="219"/>
-      <c r="G11" s="219"/>
-      <c r="H11" s="219"/>
-      <c r="I11" s="219"/>
-      <c r="J11" s="220"/>
+      <c r="D11" s="218"/>
+      <c r="E11" s="218"/>
+      <c r="F11" s="218"/>
+      <c r="G11" s="218"/>
+      <c r="H11" s="218"/>
+      <c r="I11" s="218"/>
+      <c r="J11" s="219"/>
       <c r="T11" s="24" t="s">
         <v>102</v>
       </c>
@@ -9165,16 +9294,16 @@
       <c r="B12" s="144" t="s">
         <v>639</v>
       </c>
-      <c r="C12" s="221" t="s">
+      <c r="C12" s="220" t="s">
         <v>642</v>
       </c>
-      <c r="D12" s="221"/>
-      <c r="E12" s="221"/>
-      <c r="F12" s="221"/>
-      <c r="G12" s="221"/>
-      <c r="H12" s="221"/>
-      <c r="I12" s="221"/>
-      <c r="J12" s="222"/>
+      <c r="D12" s="220"/>
+      <c r="E12" s="220"/>
+      <c r="F12" s="220"/>
+      <c r="G12" s="220"/>
+      <c r="H12" s="220"/>
+      <c r="I12" s="220"/>
+      <c r="J12" s="221"/>
     </row>
     <row r="14" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
@@ -9187,23 +9316,23 @@
       </c>
       <c r="C15" s="159"/>
       <c r="D15" s="159"/>
-      <c r="E15" s="214" t="s">
+      <c r="E15" s="213" t="s">
         <v>679</v>
       </c>
-      <c r="F15" s="215"/>
-      <c r="G15" s="216"/>
+      <c r="F15" s="214"/>
+      <c r="G15" s="215"/>
       <c r="H15" s="159"/>
       <c r="I15" s="159"/>
       <c r="J15" s="160"/>
-      <c r="L15" s="217" t="s">
+      <c r="L15" s="216" t="s">
         <v>704</v>
       </c>
-      <c r="M15" s="217"/>
-      <c r="N15" s="217"/>
-      <c r="O15" s="217"/>
-      <c r="P15" s="217"/>
-      <c r="Q15" s="217"/>
-      <c r="R15" s="217"/>
+      <c r="M15" s="216"/>
+      <c r="N15" s="216"/>
+      <c r="O15" s="216"/>
+      <c r="P15" s="216"/>
+      <c r="Q15" s="216"/>
+      <c r="R15" s="216"/>
     </row>
     <row r="16" spans="2:22" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="210">
@@ -9257,10 +9386,10 @@
       <c r="S16" s="182" t="s">
         <v>756</v>
       </c>
-      <c r="U16" s="213" t="s">
+      <c r="U16" s="222" t="s">
         <v>657</v>
       </c>
-      <c r="V16" s="213"/>
+      <c r="V16" s="222"/>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="211"/>
@@ -11704,8 +11833,309 @@
       <c r="I85" s="162"/>
       <c r="J85" s="163"/>
     </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B86" s="210">
+        <v>8</v>
+      </c>
+      <c r="C86" s="28" t="s">
+        <v>648</v>
+      </c>
+      <c r="D86" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="E86" s="164" t="s">
+        <v>559</v>
+      </c>
+      <c r="F86" s="164" t="s">
+        <v>560</v>
+      </c>
+      <c r="G86" s="164" t="s">
+        <v>561</v>
+      </c>
+      <c r="H86" s="155" t="s">
+        <v>559</v>
+      </c>
+      <c r="I86" s="155" t="s">
+        <v>560</v>
+      </c>
+      <c r="J86" s="156" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B87" s="211"/>
+      <c r="C87" s="31" t="s">
+        <v>424</v>
+      </c>
+      <c r="D87" s="87" t="s">
+        <v>778</v>
+      </c>
+      <c r="E87" s="166" t="s">
+        <v>708</v>
+      </c>
+      <c r="F87" s="166" t="s">
+        <v>562</v>
+      </c>
+      <c r="G87" s="165" t="s">
+        <v>581</v>
+      </c>
+      <c r="H87" s="157" t="s">
+        <v>598</v>
+      </c>
+      <c r="I87" s="157" t="s">
+        <v>776</v>
+      </c>
+      <c r="J87" s="158" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B88" s="211"/>
+      <c r="C88" s="31" t="s">
+        <v>425</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>778</v>
+      </c>
+      <c r="E88" s="166" t="s">
+        <v>708</v>
+      </c>
+      <c r="F88" s="166" t="s">
+        <v>562</v>
+      </c>
+      <c r="G88" s="165" t="s">
+        <v>581</v>
+      </c>
+      <c r="H88" s="157" t="s">
+        <v>598</v>
+      </c>
+      <c r="I88" s="157" t="s">
+        <v>776</v>
+      </c>
+      <c r="J88" s="158" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B89" s="211"/>
+      <c r="C89" s="31" t="s">
+        <v>426</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>778</v>
+      </c>
+      <c r="E89" s="166" t="s">
+        <v>708</v>
+      </c>
+      <c r="F89" s="166" t="s">
+        <v>562</v>
+      </c>
+      <c r="G89" s="165" t="s">
+        <v>581</v>
+      </c>
+      <c r="H89" s="157" t="s">
+        <v>598</v>
+      </c>
+      <c r="I89" s="157" t="s">
+        <v>776</v>
+      </c>
+      <c r="J89" s="158" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B90" s="211"/>
+      <c r="C90" s="81" t="s">
+        <v>427</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>778</v>
+      </c>
+      <c r="E90" s="166" t="s">
+        <v>708</v>
+      </c>
+      <c r="F90" s="166" t="s">
+        <v>562</v>
+      </c>
+      <c r="G90" s="165" t="s">
+        <v>581</v>
+      </c>
+      <c r="H90" s="157" t="s">
+        <v>598</v>
+      </c>
+      <c r="I90" s="157" t="s">
+        <v>776</v>
+      </c>
+      <c r="J90" s="158" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B91" s="211"/>
+      <c r="C91" s="31" t="s">
+        <v>428</v>
+      </c>
+      <c r="D91" s="87" t="s">
+        <v>778</v>
+      </c>
+      <c r="E91" s="166" t="s">
+        <v>708</v>
+      </c>
+      <c r="F91" s="166" t="s">
+        <v>562</v>
+      </c>
+      <c r="G91" s="165" t="s">
+        <v>581</v>
+      </c>
+      <c r="H91" s="157" t="s">
+        <v>598</v>
+      </c>
+      <c r="I91" s="157" t="s">
+        <v>776</v>
+      </c>
+      <c r="J91" s="158" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B92" s="211"/>
+      <c r="C92" s="31" t="s">
+        <v>429</v>
+      </c>
+      <c r="D92" s="87" t="s">
+        <v>778</v>
+      </c>
+      <c r="E92" s="166" t="s">
+        <v>708</v>
+      </c>
+      <c r="F92" s="166" t="s">
+        <v>562</v>
+      </c>
+      <c r="G92" s="165" t="s">
+        <v>581</v>
+      </c>
+      <c r="H92" s="157" t="s">
+        <v>598</v>
+      </c>
+      <c r="I92" s="157" t="s">
+        <v>776</v>
+      </c>
+      <c r="J92" s="158" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B93" s="211"/>
+      <c r="C93" s="81" t="s">
+        <v>430</v>
+      </c>
+      <c r="D93" s="87" t="s">
+        <v>778</v>
+      </c>
+      <c r="E93" s="166" t="s">
+        <v>708</v>
+      </c>
+      <c r="F93" s="166" t="s">
+        <v>562</v>
+      </c>
+      <c r="G93" s="165" t="s">
+        <v>581</v>
+      </c>
+      <c r="H93" s="157" t="s">
+        <v>598</v>
+      </c>
+      <c r="I93" s="157" t="s">
+        <v>776</v>
+      </c>
+      <c r="J93" s="158" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B94" s="211"/>
+      <c r="C94" s="31" t="s">
+        <v>431</v>
+      </c>
+      <c r="D94" s="87" t="s">
+        <v>778</v>
+      </c>
+      <c r="E94" s="166" t="s">
+        <v>708</v>
+      </c>
+      <c r="F94" s="166" t="s">
+        <v>562</v>
+      </c>
+      <c r="G94" s="165" t="s">
+        <v>581</v>
+      </c>
+      <c r="H94" s="157" t="s">
+        <v>598</v>
+      </c>
+      <c r="I94" s="157" t="s">
+        <v>776</v>
+      </c>
+      <c r="J94" s="158" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B95" s="211"/>
+      <c r="C95" s="31" t="s">
+        <v>433</v>
+      </c>
+      <c r="D95" s="87" t="s">
+        <v>778</v>
+      </c>
+      <c r="E95" s="166" t="s">
+        <v>708</v>
+      </c>
+      <c r="F95" s="166" t="s">
+        <v>562</v>
+      </c>
+      <c r="G95" s="165" t="s">
+        <v>581</v>
+      </c>
+      <c r="H95" s="157" t="s">
+        <v>598</v>
+      </c>
+      <c r="I95" s="157" t="s">
+        <v>776</v>
+      </c>
+      <c r="J95" s="158" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="212"/>
+      <c r="C96" s="35" t="s">
+        <v>434</v>
+      </c>
+      <c r="D96" s="35" t="s">
+        <v>778</v>
+      </c>
+      <c r="E96" s="232" t="s">
+        <v>708</v>
+      </c>
+      <c r="F96" s="232" t="s">
+        <v>562</v>
+      </c>
+      <c r="G96" s="194" t="s">
+        <v>581</v>
+      </c>
+      <c r="H96" s="162" t="s">
+        <v>598</v>
+      </c>
+      <c r="I96" s="162" t="s">
+        <v>776</v>
+      </c>
+      <c r="J96" s="163" t="s">
+        <v>777</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="B86:B96"/>
     <mergeCell ref="B75:B85"/>
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="L15:R15"/>
@@ -11719,11 +12149,11 @@
     <mergeCell ref="B31:B41"/>
     <mergeCell ref="B42:B52"/>
     <mergeCell ref="B53:B63"/>
-    <mergeCell ref="U16:V16"/>
   </mergeCells>
+  <phoneticPr fontId="20" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B1" location="Contents!A1" display="Contents!A1"/>
-    <hyperlink ref="V7" location="'Sensor configuration set'!A1" display="Sensor configuration set"/>
+    <hyperlink ref="B1" location="Contents!A1" display="Contents!A1" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
+    <hyperlink ref="V7" location="'Sensor configuration set'!A1" display="Sensor configuration set" xr:uid="{00000000-0004-0000-0B00-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11731,7 +12161,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:S57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12668,8 +13098,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="P3" r:id="rId1"/>
-    <hyperlink ref="B1" location="Contents!A1" display="Contents!A1"/>
+    <hyperlink ref="P3" r:id="rId1" xr:uid="{00000000-0004-0000-0C00-000000000000}"/>
+    <hyperlink ref="B1" location="Contents!A1" display="Contents!A1" xr:uid="{00000000-0004-0000-0C00-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -12677,7 +13107,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12776,14 +13206,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="Contents!A1" display="Contents!A1"/>
+    <hyperlink ref="B1" location="Contents!A1" display="Contents!A1" xr:uid="{00000000-0004-0000-0D00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13194,8 +13624,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="Contents!A1" display="Contents!A1"/>
-    <hyperlink ref="G4" location="'Error Codes'!A1" display="ERROR CODE"/>
+    <hyperlink ref="B1" location="Contents!A1" display="Contents!A1" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
+    <hyperlink ref="G4" location="'Error Codes'!A1" display="ERROR CODE" xr:uid="{00000000-0004-0000-0E00-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13203,7 +13633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13256,7 +13686,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="Contents!A1" display="Contents!A1"/>
+    <hyperlink ref="B1" location="Contents!A1" display="Contents!A1" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13264,7 +13694,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13384,7 +13814,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="Contents!A1" display="Contents!A1"/>
+    <hyperlink ref="B1" location="Contents!A1" display="Contents!A1" xr:uid="{00000000-0004-0000-1000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13392,7 +13822,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:C68"/>
   <sheetViews>
@@ -13927,14 +14357,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:B68">
+  <autoFilter ref="A2:B68" xr:uid="{00000000-0009-0000-0000-000011000000}">
     <filterColumn colId="1">
       <filters blank="1"/>
     </filterColumn>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="A1" location="Contents!A1" display="Contents!A1"/>
-    <hyperlink ref="C25" r:id="rId1"/>
+    <hyperlink ref="A1" location="Contents!A1" display="Contents!A1" xr:uid="{00000000-0004-0000-1100-000000000000}"/>
+    <hyperlink ref="C25" r:id="rId1" xr:uid="{00000000-0004-0000-1100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -13942,7 +14372,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14060,14 +14490,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="Contents!A1" display="Contents!A1"/>
+    <hyperlink ref="A1" location="Contents!A1" display="Contents!A1" xr:uid="{00000000-0004-0000-1200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -14417,7 +14847,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="Contents!A1" display="Contents!A1"/>
+    <hyperlink ref="B1" location="Contents!A1" display="Contents!A1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="360" r:id="rId1"/>
@@ -14426,7 +14856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14794,15 +15224,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="Contents!A1" display="Contents!A1"/>
-    <hyperlink ref="M5" r:id="rId1"/>
+    <hyperlink ref="A1" location="Contents!A1" display="Contents!A1" xr:uid="{00000000-0004-0000-1300-000000000000}"/>
+    <hyperlink ref="M5" r:id="rId1" xr:uid="{00000000-0004-0000-1300-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14839,15 +15269,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="Contents!A1" display="Contents!A1"/>
-    <hyperlink ref="A7" location="'TO DO'!A1" display="'TO DO'!A1"/>
+    <hyperlink ref="A1" location="Contents!A1" display="Contents!A1" xr:uid="{00000000-0004-0000-1400-000000000000}"/>
+    <hyperlink ref="A7" location="'TO DO'!A1" display="'TO DO'!A1" xr:uid="{00000000-0004-0000-1400-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15032,7 +15462,7 @@
     <mergeCell ref="F13:H13"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="Contents!A1" display="Contents!A1"/>
+    <hyperlink ref="A1" location="Contents!A1" display="Contents!A1" xr:uid="{00000000-0004-0000-1500-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15040,7 +15470,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -15124,14 +15554,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="Contents!A1" display="Contents!A1"/>
+    <hyperlink ref="B1" location="Contents!A1" display="Contents!A1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:L12"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -15442,7 +15872,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="Contents!A1" display="Contents!A1"/>
+    <hyperlink ref="B1" location="Contents!A1" display="Contents!A1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="360" r:id="rId1"/>
@@ -15451,7 +15881,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15568,7 +15998,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="Contents!A1" display="Contents!A1"/>
+    <hyperlink ref="B1" location="Contents!A1" display="Contents!A1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15576,7 +16006,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15649,7 +16079,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="Contents!A1" display="Contents!A1"/>
+    <hyperlink ref="B1" location="Contents!A1" display="Contents!A1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="360" r:id="rId1"/>
@@ -15657,7 +16087,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15909,14 +16339,14 @@
     <mergeCell ref="E4:G4"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B1" location="Contents!A1" display="Contents!A1"/>
+    <hyperlink ref="B1" location="Contents!A1" display="Contents!A1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:L101"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">
@@ -16808,10 +17238,10 @@
     <mergeCell ref="H22:J23"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D16" location="'Error Codes'!A1" display="ERROR CODE"/>
-    <hyperlink ref="B1" location="Contents!A1" display="Contents!A1"/>
-    <hyperlink ref="D58" location="Meas_sample!A1" display="MEASUREMENT SAMPLE"/>
-    <hyperlink ref="J38" location="'Sensor configuration set'!A1" display="Sensor configuration set"/>
+    <hyperlink ref="D16" location="'Error Codes'!A1" display="ERROR CODE" xr:uid="{00000000-0004-0000-0700-000000000000}"/>
+    <hyperlink ref="B1" location="Contents!A1" display="Contents!A1" xr:uid="{00000000-0004-0000-0700-000001000000}"/>
+    <hyperlink ref="D58" location="Meas_sample!A1" display="MEASUREMENT SAMPLE" xr:uid="{00000000-0004-0000-0700-000002000000}"/>
+    <hyperlink ref="J38" location="'Sensor configuration set'!A1" display="Sensor configuration set" xr:uid="{00000000-0004-0000-0700-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16820,7 +17250,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17034,8 +17464,8 @@
     <mergeCell ref="J9:K9"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B1" location="Contents!A1" display="Contents!A1"/>
-    <hyperlink ref="I8" location="'Sensor Type table'!B12" display="see table sensor type. "/>
+    <hyperlink ref="B1" location="Contents!A1" display="Contents!A1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="I8" location="'Sensor Type table'!B12" display="see table sensor type. " xr:uid="{00000000-0004-0000-0800-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/1-SystemDocs/System_spec_v4.xlsx
+++ b/1-SystemDocs/System_spec_v4.xlsx
@@ -1,44 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CLOUD\GitHub\FRA_Sensor_platform\1-SystemDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBF43454-8224-4EA0-A6FB-95EA59C1F76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4832D624-42B4-4598-AA6F-7B1E254483A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="18600" tabRatio="760" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" tabRatio="760" firstSheet="6" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="13" r:id="rId1"/>
-    <sheet name="SPI ETH ESP32" sheetId="1" r:id="rId2"/>
-    <sheet name="Pinout ETH DEEK" sheetId="2" r:id="rId3"/>
-    <sheet name="JTAG conn" sheetId="3" r:id="rId4"/>
-    <sheet name="SD usage" sheetId="4" r:id="rId5"/>
-    <sheet name="UDP packets" sheetId="5" r:id="rId6"/>
-    <sheet name="UDP datagram definition" sheetId="6" r:id="rId7"/>
-    <sheet name="Message Types" sheetId="7" r:id="rId8"/>
-    <sheet name="Meas_sample" sheetId="18" r:id="rId9"/>
-    <sheet name="Sensor Type table" sheetId="19" r:id="rId10"/>
-    <sheet name="ADC autorange" sheetId="23" r:id="rId11"/>
-    <sheet name="Sensor configuration set" sheetId="22" r:id="rId12"/>
-    <sheet name="El-chem debugging" sheetId="24" r:id="rId13"/>
-    <sheet name="LabVIEW data log" sheetId="20" r:id="rId14"/>
-    <sheet name="Error Codes" sheetId="16" r:id="rId15"/>
-    <sheet name="LW Error Codes" sheetId="17" r:id="rId16"/>
-    <sheet name="Time budget" sheetId="11" r:id="rId17"/>
-    <sheet name="TO DO" sheetId="8" r:id="rId18"/>
-    <sheet name="System setup" sheetId="12" r:id="rId19"/>
-    <sheet name="Sensors Example datasheet val." sheetId="14" r:id="rId20"/>
-    <sheet name="IssueTracking" sheetId="15" r:id="rId21"/>
-    <sheet name="Button and LED UI table" sheetId="21" r:id="rId22"/>
+    <sheet name="I2C addr" sheetId="25" r:id="rId2"/>
+    <sheet name="SPI ETH ESP32" sheetId="1" state="hidden" r:id="rId3"/>
+    <sheet name="Pinout ETH DEEK" sheetId="2" state="hidden" r:id="rId4"/>
+    <sheet name="JTAG conn" sheetId="3" r:id="rId5"/>
+    <sheet name="SD usage" sheetId="4" r:id="rId6"/>
+    <sheet name="UDP packets" sheetId="5" r:id="rId7"/>
+    <sheet name="UDP datagram definition" sheetId="6" r:id="rId8"/>
+    <sheet name="Message Types" sheetId="7" r:id="rId9"/>
+    <sheet name="Meas_sample" sheetId="18" r:id="rId10"/>
+    <sheet name="Sensor Type table" sheetId="19" r:id="rId11"/>
+    <sheet name="ADC autorange" sheetId="23" r:id="rId12"/>
+    <sheet name="Sensor configuration set" sheetId="22" r:id="rId13"/>
+    <sheet name="El-chem debugging" sheetId="24" r:id="rId14"/>
+    <sheet name="LabVIEW data log" sheetId="20" r:id="rId15"/>
+    <sheet name="Error Codes" sheetId="16" r:id="rId16"/>
+    <sheet name="LW Error Codes" sheetId="17" r:id="rId17"/>
+    <sheet name="Time budget" sheetId="11" r:id="rId18"/>
+    <sheet name="TO DO" sheetId="8" r:id="rId19"/>
+    <sheet name="System setup" sheetId="12" r:id="rId20"/>
+    <sheet name="Sensors Example datasheet val." sheetId="14" r:id="rId21"/>
+    <sheet name="IssueTracking" sheetId="15" r:id="rId22"/>
+    <sheet name="Button and LED UI table" sheetId="21" r:id="rId23"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">'TO DO'!$A$2:$B$68</definedName>
-    <definedName name="error_codes" localSheetId="14">'Error Codes'!$A$4:$C$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">'TO DO'!$A$2:$B$68</definedName>
+    <definedName name="error_codes" localSheetId="15">'Error Codes'!$A$4:$B$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,8 +61,8 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="error_codes" type="6" refreshedVersion="5" background="1" refreshOnLoad="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\PROJECTS\01_GIT_REPOS\FRA_Sensor_platform\3-FW_SW\2-SW_log_PC\1-LabVIEW_app\error_codes.csv" comma="1">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="error_codes" type="6" refreshedVersion="8" background="1" refreshOnLoad="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\CLOUD\GitHub\FRA_Sensor_platform\3-FW_SW\2-SW_log_PC\1-LabVIEW_app\error_codes.csv" comma="1">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -72,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2114" uniqueCount="843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2138" uniqueCount="867">
   <si>
     <t>ETH*</t>
   </si>
@@ -2227,12 +2228,6 @@
   </si>
   <si>
     <t>VEML7700 light sensor not found - continue without</t>
-  </si>
-  <si>
-    <t>Unknows state machine state</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> restart the device!</t>
   </si>
   <si>
     <t>Si7021 RH T sensor not found at initalization - continue without</t>
@@ -2965,6 +2960,84 @@
     <t>10
 empty
 template</t>
+  </si>
+  <si>
+    <t>I2C addresses</t>
+  </si>
+  <si>
+    <t>Addresses I2C used in the system</t>
+  </si>
+  <si>
+    <t>0x20</t>
+  </si>
+  <si>
+    <t>IO expander</t>
+  </si>
+  <si>
+    <t>0x40</t>
+  </si>
+  <si>
+    <t>Si7021 T+RH sensor</t>
+  </si>
+  <si>
+    <t>0x48</t>
+  </si>
+  <si>
+    <t>LMP91000</t>
+  </si>
+  <si>
+    <t>0x49</t>
+  </si>
+  <si>
+    <t>0x4A</t>
+  </si>
+  <si>
+    <t>0x4B</t>
+  </si>
+  <si>
+    <t>hidden, not important</t>
+  </si>
+  <si>
+    <t>Unknows state machine state - restart the device!</t>
+  </si>
+  <si>
+    <t>NDIR module not found - continue without</t>
+  </si>
+  <si>
+    <t>NDIR module data not valid (all 0xFFFF)</t>
+  </si>
+  <si>
+    <t>NDIR module error - common voltage off</t>
+  </si>
+  <si>
+    <t>NDIR module error - ACT or REF clipping</t>
+  </si>
+  <si>
+    <t>NDIR module error - sensor not detected (temperature &lt;-25 degC)</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>NDIR module ACT/REF gas reading</t>
+  </si>
+  <si>
+    <t>NDIR module temperature reading</t>
+  </si>
+  <si>
+    <t>no unit</t>
+  </si>
+  <si>
+    <t>ACT Vpp/ REF Vpp</t>
+  </si>
+  <si>
+    <t>(X/10)-200</t>
+  </si>
+  <si>
+    <t>X/10000</t>
   </si>
 </sst>
 </file>
@@ -3686,7 +3759,7 @@
     <xf numFmtId="0" fontId="21" fillId="17" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="18" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="200">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3944,8 +4017,12 @@
     <xf numFmtId="0" fontId="22" fillId="18" borderId="30" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="6" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -4081,15 +4158,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -6440,7 +6508,7 @@
   <dimension ref="B1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6451,14 +6519,9 @@
     <row r="1" spans="2:3" ht="21" x14ac:dyDescent="0.4">
       <c r="B1" s="14"/>
     </row>
-    <row r="2" spans="2:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="B2" s="45" t="s">
-        <v>169</v>
-      </c>
-    </row>
     <row r="3" spans="2:3" ht="21" x14ac:dyDescent="0.4">
       <c r="B3" s="45" t="s">
-        <v>170</v>
+        <v>841</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="21" x14ac:dyDescent="0.4">
@@ -6556,23 +6619,23 @@
         <v>472</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="21" x14ac:dyDescent="0.4">
-      <c r="B22" s="45"/>
-    </row>
     <row r="23" spans="2:2" ht="21" x14ac:dyDescent="0.4">
       <c r="B23" s="45"/>
     </row>
-    <row r="24" spans="2:2" ht="21" x14ac:dyDescent="0.4">
-      <c r="B24" s="45"/>
-    </row>
-    <row r="25" spans="2:2" ht="21" x14ac:dyDescent="0.4">
-      <c r="B25" s="45"/>
-    </row>
-    <row r="26" spans="2:2" ht="21" x14ac:dyDescent="0.4">
-      <c r="B26" s="45"/>
-    </row>
-    <row r="27" spans="2:2" ht="21" x14ac:dyDescent="0.4">
-      <c r="B27" s="45"/>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="65" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="65" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="28" spans="2:2" ht="21" x14ac:dyDescent="0.4">
       <c r="B28" s="45"/>
@@ -6591,8 +6654,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" location="'SPI ETH ESP32'!A1" display="'SPI ETH ESP32'!A1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B3" location="'Pinout ETH DEEK'!A1" display="'Pinout ETH DEEK'!A1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B25" location="'SPI ETH ESP32'!A1" display="'SPI ETH ESP32'!A1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B26" location="'Pinout ETH DEEK'!A1" display="'Pinout ETH DEEK'!A1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="B4" location="'JTAG conn'!A1" display="'JTAG conn'!A1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="B5" location="'SD usage'!A1" display="'SD usage'!A1" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="B6" location="'UDP packets'!A1" display="'UDP packets'!A1" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
@@ -6611,6 +6674,7 @@
     <hyperlink ref="B21" location="'Button and LED UI table'!A1" display="'Button and LED UI table'!A1" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
     <hyperlink ref="B12" location="'Sensor configuration set'!A1" display="'Sensor configuration set'!A1" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
     <hyperlink ref="B11" location="'ADC autorange'!A1" display="'ADC autorange'!A1" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B3" location="'I2C addr'!A1" display="I2C addresses" xr:uid="{EB62126A-855B-4936-B9E7-B740ABE9049B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="360" r:id="rId1"/>
@@ -6618,11 +6682,233 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="B1:P9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="20.109375" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="B1" s="47" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="66" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>383</v>
+      </c>
+      <c r="I4" s="158" t="s">
+        <v>394</v>
+      </c>
+      <c r="J4" s="159"/>
+      <c r="K4" s="160"/>
+    </row>
+    <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="25">
+        <v>0</v>
+      </c>
+      <c r="D6" s="26">
+        <v>1</v>
+      </c>
+      <c r="E6" s="26">
+        <v>2</v>
+      </c>
+      <c r="F6" s="27">
+        <v>3</v>
+      </c>
+      <c r="G6" s="68">
+        <v>4</v>
+      </c>
+      <c r="H6" s="68">
+        <v>5</v>
+      </c>
+      <c r="I6" s="68">
+        <v>6</v>
+      </c>
+      <c r="J6" s="25">
+        <v>7</v>
+      </c>
+      <c r="K6" s="27">
+        <v>8</v>
+      </c>
+      <c r="L6" s="68">
+        <v>9</v>
+      </c>
+      <c r="M6" s="25">
+        <v>10</v>
+      </c>
+      <c r="N6" s="27">
+        <v>11</v>
+      </c>
+      <c r="O6" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="P6" s="68" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>385</v>
+      </c>
+      <c r="C7" s="31">
+        <v>0</v>
+      </c>
+      <c r="D7" s="32">
+        <v>0</v>
+      </c>
+      <c r="E7" s="32">
+        <v>0</v>
+      </c>
+      <c r="F7" s="33">
+        <v>5</v>
+      </c>
+      <c r="G7" s="69">
+        <v>2</v>
+      </c>
+      <c r="H7" s="69">
+        <v>13</v>
+      </c>
+      <c r="I7" s="69">
+        <v>0</v>
+      </c>
+      <c r="J7" s="31" t="s">
+        <v>395</v>
+      </c>
+      <c r="K7" s="33" t="s">
+        <v>396</v>
+      </c>
+      <c r="L7" s="69">
+        <v>0</v>
+      </c>
+      <c r="M7" s="31" t="s">
+        <v>395</v>
+      </c>
+      <c r="N7" s="33" t="s">
+        <v>399</v>
+      </c>
+      <c r="O7" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="P7" s="69" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" s="63" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="63" t="s">
+        <v>384</v>
+      </c>
+      <c r="C8" s="163" t="s">
+        <v>387</v>
+      </c>
+      <c r="D8" s="165"/>
+      <c r="E8" s="165"/>
+      <c r="F8" s="164"/>
+      <c r="G8" s="70" t="s">
+        <v>388</v>
+      </c>
+      <c r="H8" s="70" t="s">
+        <v>391</v>
+      </c>
+      <c r="I8" s="73" t="s">
+        <v>403</v>
+      </c>
+      <c r="J8" s="161" t="s">
+        <v>397</v>
+      </c>
+      <c r="K8" s="162"/>
+      <c r="L8" s="70" t="s">
+        <v>389</v>
+      </c>
+      <c r="M8" s="161" t="s">
+        <v>397</v>
+      </c>
+      <c r="N8" s="162"/>
+      <c r="O8" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="P8" s="71" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" s="63" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="63" t="s">
+        <v>386</v>
+      </c>
+      <c r="C9" s="163" t="s">
+        <v>387</v>
+      </c>
+      <c r="D9" s="165"/>
+      <c r="E9" s="165"/>
+      <c r="F9" s="164"/>
+      <c r="G9" s="70" t="s">
+        <v>393</v>
+      </c>
+      <c r="H9" s="70" t="s">
+        <v>392</v>
+      </c>
+      <c r="I9" s="70" t="s">
+        <v>390</v>
+      </c>
+      <c r="J9" s="163" t="s">
+        <v>564</v>
+      </c>
+      <c r="K9" s="164"/>
+      <c r="L9" s="70" t="s">
+        <v>398</v>
+      </c>
+      <c r="M9" s="163" t="s">
+        <v>565</v>
+      </c>
+      <c r="N9" s="164"/>
+      <c r="O9" s="67" t="s">
+        <v>129</v>
+      </c>
+      <c r="P9" s="72" t="s">
+        <v>401</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" location="Contents!A1" display="Contents!A1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="I8" location="'Sensor Type table'!B12" display="see table sensor type. " xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="B1:M112"/>
+  <dimension ref="B1:M114"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+    <sheetView topLeftCell="A72" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F107" sqref="F107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9217,25 +9503,25 @@
       </c>
     </row>
     <row r="101" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B101" s="25" t="s">
+      <c r="B101" s="114" t="s">
         <v>129</v>
       </c>
-      <c r="C101" s="26" t="s">
+      <c r="C101" s="120" t="s">
         <v>129</v>
       </c>
-      <c r="D101" s="26" t="s">
+      <c r="D101" s="120" t="s">
         <v>129</v>
       </c>
-      <c r="E101" s="26" t="s">
+      <c r="E101" s="120" t="s">
         <v>129</v>
       </c>
-      <c r="F101" s="26" t="s">
+      <c r="F101" s="120" t="s">
         <v>129</v>
       </c>
-      <c r="G101" s="26" t="s">
+      <c r="G101" s="120" t="s">
         <v>129</v>
       </c>
-      <c r="H101" s="27" t="s">
+      <c r="H101" s="121" t="s">
         <v>532</v>
       </c>
       <c r="I101" s="100"/>
@@ -9245,7 +9531,7 @@
         <v>508</v>
       </c>
       <c r="C102" s="26">
-        <f t="shared" ref="C102:C108" si="5">HEX2DEC(B102)</f>
+        <f t="shared" ref="C102:C107" si="5">HEX2DEC(B102)</f>
         <v>240</v>
       </c>
       <c r="D102" s="26" t="s">
@@ -9339,77 +9625,122 @@
       </c>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B106" s="90" t="s">
-        <v>507</v>
-      </c>
-      <c r="C106" s="26">
+      <c r="B106" s="83" t="s">
+        <v>859</v>
+      </c>
+      <c r="C106">
         <f t="shared" si="5"/>
-        <v>253</v>
-      </c>
-      <c r="D106" s="26" t="s">
-        <v>497</v>
-      </c>
-      <c r="E106" s="26"/>
-      <c r="F106" s="26" t="s">
-        <v>503</v>
-      </c>
-      <c r="G106" s="26" t="s">
-        <v>500</v>
-      </c>
-      <c r="H106" s="27" t="s">
-        <v>499</v>
+        <v>244</v>
+      </c>
+      <c r="D106" t="s">
+        <v>861</v>
+      </c>
+      <c r="F106" t="s">
+        <v>866</v>
+      </c>
+      <c r="G106" t="s">
+        <v>863</v>
+      </c>
+      <c r="H106" t="s">
+        <v>864</v>
       </c>
       <c r="I106" s="100" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="107" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B107" s="88" t="s">
-        <v>506</v>
-      </c>
-      <c r="C107" s="32">
+      <c r="B107" s="83" t="s">
+        <v>860</v>
+      </c>
+      <c r="C107">
         <f t="shared" si="5"/>
-        <v>254</v>
-      </c>
-      <c r="D107" s="32" t="s">
-        <v>498</v>
-      </c>
-      <c r="E107" s="32"/>
-      <c r="F107" s="32" t="s">
-        <v>502</v>
-      </c>
-      <c r="G107" s="32" t="s">
-        <v>501</v>
-      </c>
-      <c r="H107" s="33" t="s">
-        <v>499</v>
+        <v>245</v>
+      </c>
+      <c r="D107" t="s">
+        <v>862</v>
+      </c>
+      <c r="F107" t="s">
+        <v>865</v>
+      </c>
+      <c r="G107" t="s">
+        <v>500</v>
       </c>
       <c r="I107" s="100" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="108" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B108" s="88" t="s">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B108" s="90" t="s">
+        <v>507</v>
+      </c>
+      <c r="C108" s="26">
+        <f t="shared" ref="C108:C110" si="6">HEX2DEC(B108)</f>
+        <v>253</v>
+      </c>
+      <c r="D108" s="26" t="s">
+        <v>497</v>
+      </c>
+      <c r="E108" s="26"/>
+      <c r="F108" s="26" t="s">
+        <v>503</v>
+      </c>
+      <c r="G108" s="26" t="s">
+        <v>500</v>
+      </c>
+      <c r="H108" s="27" t="s">
+        <v>499</v>
+      </c>
+      <c r="I108" s="100" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B109" s="88" t="s">
+        <v>506</v>
+      </c>
+      <c r="C109" s="32">
+        <f t="shared" si="6"/>
+        <v>254</v>
+      </c>
+      <c r="D109" s="32" t="s">
+        <v>498</v>
+      </c>
+      <c r="E109" s="32"/>
+      <c r="F109" s="32" t="s">
+        <v>502</v>
+      </c>
+      <c r="G109" s="32" t="s">
+        <v>501</v>
+      </c>
+      <c r="H109" s="33" t="s">
+        <v>499</v>
+      </c>
+      <c r="I109" s="100" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B110" s="88" t="s">
         <v>436</v>
       </c>
-      <c r="C108" s="32">
-        <f t="shared" si="5"/>
+      <c r="C110" s="32">
+        <f t="shared" si="6"/>
         <v>255</v>
       </c>
-      <c r="D108" s="32" t="s">
+      <c r="D110" s="32" t="s">
         <v>437</v>
       </c>
-      <c r="E108" s="32"/>
-      <c r="F108" s="32"/>
-      <c r="G108" s="32"/>
-      <c r="H108" s="33"/>
-      <c r="I108" s="69"/>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B111" s="10"/>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B112" s="10"/>
+      <c r="E110" s="32"/>
+      <c r="F110" s="32"/>
+      <c r="G110" s="32"/>
+      <c r="H110" s="33"/>
+      <c r="I110" s="69"/>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B113" s="10"/>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B114" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -9420,7 +9751,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -9578,12 +9909,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="B1:Z124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L115" sqref="L115"/>
+    <sheetView topLeftCell="A89" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E112" sqref="E112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9611,19 +9942,19 @@
       </c>
     </row>
     <row r="3" spans="2:22" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="175" t="s">
+      <c r="B3" s="177" t="s">
         <v>536</v>
       </c>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="175"/>
-      <c r="I3" s="175"/>
-      <c r="J3" s="175"/>
-      <c r="K3" s="175"/>
-      <c r="L3" s="175"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="177"/>
+      <c r="F3" s="177"/>
+      <c r="G3" s="177"/>
+      <c r="H3" s="177"/>
+      <c r="I3" s="177"/>
+      <c r="J3" s="177"/>
+      <c r="K3" s="177"/>
+      <c r="L3" s="177"/>
       <c r="M3" s="95"/>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.3">
@@ -9762,16 +10093,16 @@
       <c r="B10" s="113" t="s">
         <v>634</v>
       </c>
-      <c r="C10" s="176" t="s">
-        <v>794</v>
-      </c>
-      <c r="D10" s="176"/>
-      <c r="E10" s="176"/>
-      <c r="F10" s="176"/>
-      <c r="G10" s="176"/>
-      <c r="H10" s="176"/>
-      <c r="I10" s="176"/>
-      <c r="J10" s="177"/>
+      <c r="C10" s="178" t="s">
+        <v>792</v>
+      </c>
+      <c r="D10" s="178"/>
+      <c r="E10" s="178"/>
+      <c r="F10" s="178"/>
+      <c r="G10" s="178"/>
+      <c r="H10" s="178"/>
+      <c r="I10" s="178"/>
+      <c r="J10" s="179"/>
       <c r="T10" s="20">
         <v>9</v>
       </c>
@@ -9786,16 +10117,16 @@
       <c r="B11" s="113" t="s">
         <v>640</v>
       </c>
-      <c r="C11" s="176" t="s">
+      <c r="C11" s="178" t="s">
         <v>642</v>
       </c>
-      <c r="D11" s="176"/>
-      <c r="E11" s="176"/>
-      <c r="F11" s="176"/>
-      <c r="G11" s="176"/>
-      <c r="H11" s="176"/>
-      <c r="I11" s="176"/>
-      <c r="J11" s="177"/>
+      <c r="D11" s="178"/>
+      <c r="E11" s="178"/>
+      <c r="F11" s="178"/>
+      <c r="G11" s="178"/>
+      <c r="H11" s="178"/>
+      <c r="I11" s="178"/>
+      <c r="J11" s="179"/>
       <c r="T11" s="22" t="s">
         <v>102</v>
       </c>
@@ -9810,16 +10141,16 @@
       <c r="B12" s="106" t="s">
         <v>639</v>
       </c>
-      <c r="C12" s="178" t="s">
+      <c r="C12" s="180" t="s">
         <v>641</v>
       </c>
-      <c r="D12" s="178"/>
-      <c r="E12" s="178"/>
-      <c r="F12" s="178"/>
-      <c r="G12" s="178"/>
-      <c r="H12" s="178"/>
-      <c r="I12" s="178"/>
-      <c r="J12" s="179"/>
+      <c r="D12" s="180"/>
+      <c r="E12" s="180"/>
+      <c r="F12" s="180"/>
+      <c r="G12" s="180"/>
+      <c r="H12" s="180"/>
+      <c r="I12" s="180"/>
+      <c r="J12" s="181"/>
     </row>
     <row r="14" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
@@ -9832,26 +10163,26 @@
       </c>
       <c r="C15" s="120"/>
       <c r="D15" s="120"/>
-      <c r="E15" s="168" t="s">
+      <c r="E15" s="170" t="s">
         <v>677</v>
       </c>
-      <c r="F15" s="169"/>
-      <c r="G15" s="170"/>
+      <c r="F15" s="171"/>
+      <c r="G15" s="172"/>
       <c r="H15" s="120"/>
       <c r="I15" s="120"/>
       <c r="J15" s="121"/>
-      <c r="L15" s="171" t="s">
+      <c r="L15" s="173" t="s">
         <v>702</v>
       </c>
-      <c r="M15" s="171"/>
-      <c r="N15" s="171"/>
-      <c r="O15" s="171"/>
-      <c r="P15" s="171"/>
-      <c r="Q15" s="171"/>
-      <c r="R15" s="171"/>
+      <c r="M15" s="173"/>
+      <c r="N15" s="173"/>
+      <c r="O15" s="173"/>
+      <c r="P15" s="173"/>
+      <c r="Q15" s="173"/>
+      <c r="R15" s="173"/>
     </row>
     <row r="16" spans="2:22" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B16" s="165">
+      <c r="B16" s="167">
         <v>1</v>
       </c>
       <c r="C16" s="26" t="s">
@@ -9900,15 +10231,15 @@
         <v>655</v>
       </c>
       <c r="S16" s="134" t="s">
-        <v>754</v>
-      </c>
-      <c r="U16" s="164" t="s">
+        <v>752</v>
+      </c>
+      <c r="U16" s="166" t="s">
         <v>656</v>
       </c>
-      <c r="V16" s="164"/>
+      <c r="V16" s="166"/>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B17" s="166"/>
+      <c r="B17" s="168"/>
       <c r="C17" t="s">
         <v>428</v>
       </c>
@@ -9965,11 +10296,11 @@
         <v>3-lead amperometric</v>
       </c>
       <c r="U17" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B18" s="166"/>
+      <c r="B18" s="168"/>
       <c r="C18" t="s">
         <v>433</v>
       </c>
@@ -9988,7 +10319,7 @@
       </c>
     </row>
     <row r="19" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="167"/>
+      <c r="B19" s="169"/>
       <c r="C19" s="32" t="s">
         <v>645</v>
       </c>
@@ -10007,7 +10338,7 @@
       </c>
     </row>
     <row r="20" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="165">
+      <c r="B20" s="167">
         <v>2</v>
       </c>
       <c r="C20" s="26" t="s">
@@ -10042,7 +10373,7 @@
       </c>
     </row>
     <row r="21" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="166"/>
+      <c r="B21" s="168"/>
       <c r="C21" t="s">
         <v>424</v>
       </c>
@@ -10102,7 +10433,7 @@
         <v>3-lead amperometric</v>
       </c>
       <c r="S21" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="U21" s="115" t="s">
         <v>662</v>
@@ -10112,7 +10443,7 @@
       </c>
     </row>
     <row r="22" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="166"/>
+      <c r="B22" s="168"/>
       <c r="C22" t="s">
         <v>425</v>
       </c>
@@ -10120,7 +10451,7 @@
         <v>223</v>
       </c>
       <c r="E22" s="127" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F22" s="127" t="s">
         <v>563</v>
@@ -10172,7 +10503,7 @@
         <v>3-lead amperometric</v>
       </c>
       <c r="S22" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="U22" s="115" t="s">
         <v>664</v>
@@ -10182,7 +10513,7 @@
       </c>
     </row>
     <row r="23" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="166"/>
+      <c r="B23" s="168"/>
       <c r="C23" t="s">
         <v>426</v>
       </c>
@@ -10242,7 +10573,7 @@
         <v>3-lead amperometric</v>
       </c>
       <c r="S23" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="U23" s="115" t="s">
         <v>665</v>
@@ -10252,7 +10583,7 @@
       </c>
     </row>
     <row r="24" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="166"/>
+      <c r="B24" s="168"/>
       <c r="C24" t="s">
         <v>427</v>
       </c>
@@ -10260,7 +10591,7 @@
         <v>541</v>
       </c>
       <c r="E24" s="127" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="F24" s="127" t="s">
         <v>706</v>
@@ -10312,7 +10643,7 @@
         <v>3-lead amperometric</v>
       </c>
       <c r="S24" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="U24" s="115" t="s">
         <v>666</v>
@@ -10322,7 +10653,7 @@
       </c>
     </row>
     <row r="25" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="166"/>
+      <c r="B25" s="168"/>
       <c r="C25" t="s">
         <v>428</v>
       </c>
@@ -10330,7 +10661,7 @@
         <v>547</v>
       </c>
       <c r="E25" s="127" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="F25" s="127" t="s">
         <v>562</v>
@@ -10382,7 +10713,7 @@
         <v>3-lead amperometric</v>
       </c>
       <c r="S25" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="U25" s="115" t="s">
         <v>663</v>
@@ -10392,7 +10723,7 @@
       </c>
     </row>
     <row r="26" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="166"/>
+      <c r="B26" s="168"/>
       <c r="C26" t="s">
         <v>429</v>
       </c>
@@ -10400,7 +10731,7 @@
         <v>546</v>
       </c>
       <c r="E26" s="127" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="F26" s="127" t="s">
         <v>562</v>
@@ -10452,22 +10783,22 @@
         <v>3-lead amperometric</v>
       </c>
       <c r="S26" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="U26" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="27" spans="2:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="166"/>
+      <c r="B27" s="168"/>
       <c r="C27" t="s">
         <v>430</v>
       </c>
       <c r="D27" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="E27" s="127" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="F27" s="127" t="s">
         <v>562</v>
@@ -10526,12 +10857,12 @@
       </c>
     </row>
     <row r="28" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="166"/>
+      <c r="B28" s="168"/>
       <c r="C28" t="s">
         <v>431</v>
       </c>
       <c r="D28" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
@@ -10555,7 +10886,7 @@
       </c>
     </row>
     <row r="29" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="166"/>
+      <c r="B29" s="168"/>
       <c r="C29" t="s">
         <v>433</v>
       </c>
@@ -10565,7 +10896,7 @@
       <c r="E29" s="127"/>
       <c r="F29" s="127"/>
       <c r="G29" s="126" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
@@ -10586,12 +10917,12 @@
       </c>
     </row>
     <row r="30" spans="2:22" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="167"/>
+      <c r="B30" s="169"/>
       <c r="C30" s="32" t="s">
         <v>434</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E30" s="123"/>
       <c r="F30" s="123"/>
@@ -10615,7 +10946,7 @@
       </c>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B31" s="165">
+      <c r="B31" s="167">
         <v>3</v>
       </c>
       <c r="C31" s="26" t="s">
@@ -10650,11 +10981,11 @@
       <c r="Q31" s="116"/>
       <c r="R31" s="10"/>
       <c r="U31" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B32" s="166"/>
+      <c r="B32" s="168"/>
       <c r="C32" t="s">
         <v>424</v>
       </c>
@@ -10697,7 +11028,7 @@
       </c>
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B33" s="166"/>
+      <c r="B33" s="168"/>
       <c r="C33" t="s">
         <v>425</v>
       </c>
@@ -10705,7 +11036,7 @@
         <v>223</v>
       </c>
       <c r="E33" s="127" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F33" s="127" t="s">
         <v>563</v>
@@ -10740,7 +11071,7 @@
       </c>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B34" s="166"/>
+      <c r="B34" s="168"/>
       <c r="C34" t="s">
         <v>426</v>
       </c>
@@ -10776,11 +11107,11 @@
       <c r="Q34" s="116"/>
       <c r="R34" s="10"/>
       <c r="U34" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B35" s="166"/>
+      <c r="B35" s="168"/>
       <c r="C35" t="s">
         <v>427</v>
       </c>
@@ -10788,7 +11119,7 @@
         <v>541</v>
       </c>
       <c r="E35" s="127" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="F35" s="127" t="s">
         <v>706</v>
@@ -10819,7 +11150,7 @@
       </c>
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B36" s="166"/>
+      <c r="B36" s="168"/>
       <c r="C36" t="s">
         <v>428</v>
       </c>
@@ -10827,7 +11158,7 @@
         <v>547</v>
       </c>
       <c r="E36" s="127" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="F36" s="127" t="s">
         <v>562</v>
@@ -10855,7 +11186,7 @@
       </c>
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B37" s="166"/>
+      <c r="B37" s="168"/>
       <c r="C37" t="s">
         <v>429</v>
       </c>
@@ -10863,7 +11194,7 @@
         <v>546</v>
       </c>
       <c r="E37" s="127" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="F37" s="127" t="s">
         <v>562</v>
@@ -10892,12 +11223,12 @@
       </c>
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B38" s="166"/>
+      <c r="B38" s="168"/>
       <c r="C38" t="s">
         <v>430</v>
       </c>
       <c r="D38" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="G38" s="126" t="s">
         <v>562</v>
@@ -10913,12 +11244,12 @@
       </c>
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B39" s="166"/>
+      <c r="B39" s="168"/>
       <c r="C39" t="s">
         <v>431</v>
       </c>
       <c r="D39" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -10930,11 +11261,11 @@
       <c r="J39" s="119"/>
       <c r="L39" s="94"/>
       <c r="U39" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B40" s="166"/>
+      <c r="B40" s="168"/>
       <c r="C40" t="s">
         <v>433</v>
       </c>
@@ -10944,7 +11275,7 @@
       <c r="E40" s="127"/>
       <c r="F40" s="127"/>
       <c r="G40" s="126" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
@@ -10958,12 +11289,12 @@
       </c>
     </row>
     <row r="41" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="167"/>
+      <c r="B41" s="169"/>
       <c r="C41" s="32" t="s">
         <v>434</v>
       </c>
       <c r="D41" s="32" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E41" s="123"/>
       <c r="F41" s="123"/>
@@ -10983,7 +11314,7 @@
       </c>
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B42" s="165">
+      <c r="B42" s="167">
         <v>4</v>
       </c>
       <c r="C42" s="26" t="s">
@@ -11012,11 +11343,11 @@
       </c>
       <c r="L42" s="94"/>
       <c r="U42" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B43" s="166"/>
+      <c r="B43" s="168"/>
       <c r="C43" t="s">
         <v>424</v>
       </c>
@@ -11052,7 +11383,7 @@
       </c>
     </row>
     <row r="44" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B44" s="166"/>
+      <c r="B44" s="168"/>
       <c r="C44" t="s">
         <v>425</v>
       </c>
@@ -11060,7 +11391,7 @@
         <v>223</v>
       </c>
       <c r="E44" s="127" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F44" s="127" t="s">
         <v>563</v>
@@ -11088,12 +11419,12 @@
       </c>
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B45" s="166"/>
+      <c r="B45" s="168"/>
       <c r="C45" t="s">
         <v>426</v>
       </c>
       <c r="D45" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="G45" s="126" t="s">
         <v>562</v>
@@ -11109,12 +11440,12 @@
       </c>
     </row>
     <row r="46" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B46" s="166"/>
+      <c r="B46" s="168"/>
       <c r="C46" t="s">
         <v>427</v>
       </c>
       <c r="D46" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="G46" s="126" t="s">
         <v>562</v>
@@ -11130,12 +11461,12 @@
       </c>
     </row>
     <row r="47" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B47" s="166"/>
+      <c r="B47" s="168"/>
       <c r="C47" t="s">
         <v>428</v>
       </c>
       <c r="D47" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="G47" s="126" t="s">
         <v>562</v>
@@ -11151,12 +11482,12 @@
       </c>
     </row>
     <row r="48" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B48" s="166"/>
+      <c r="B48" s="168"/>
       <c r="C48" t="s">
         <v>429</v>
       </c>
       <c r="D48" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="G48" s="126" t="s">
         <v>562</v>
@@ -11177,12 +11508,12 @@
       </c>
     </row>
     <row r="49" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B49" s="166"/>
+      <c r="B49" s="168"/>
       <c r="C49" t="s">
         <v>430</v>
       </c>
       <c r="D49" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="G49" s="126" t="s">
         <v>562</v>
@@ -11198,12 +11529,12 @@
       </c>
     </row>
     <row r="50" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B50" s="166"/>
+      <c r="B50" s="168"/>
       <c r="C50" t="s">
         <v>431</v>
       </c>
       <c r="D50" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -11221,7 +11552,7 @@
       </c>
     </row>
     <row r="51" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B51" s="166"/>
+      <c r="B51" s="168"/>
       <c r="C51" t="s">
         <v>433</v>
       </c>
@@ -11231,7 +11562,7 @@
       <c r="E51" s="127"/>
       <c r="F51" s="127"/>
       <c r="G51" s="126" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
@@ -11244,12 +11575,12 @@
       </c>
     </row>
     <row r="52" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="167"/>
+      <c r="B52" s="169"/>
       <c r="C52" s="32" t="s">
         <v>434</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E52" s="123"/>
       <c r="F52" s="123"/>
@@ -11267,7 +11598,7 @@
       </c>
     </row>
     <row r="53" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B53" s="165">
+      <c r="B53" s="167">
         <v>5</v>
       </c>
       <c r="C53" s="26" t="s">
@@ -11302,7 +11633,7 @@
       </c>
     </row>
     <row r="54" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B54" s="166"/>
+      <c r="B54" s="168"/>
       <c r="C54" t="s">
         <v>424</v>
       </c>
@@ -11338,7 +11669,7 @@
       </c>
     </row>
     <row r="55" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B55" s="166"/>
+      <c r="B55" s="168"/>
       <c r="C55" t="s">
         <v>425</v>
       </c>
@@ -11346,7 +11677,7 @@
         <v>223</v>
       </c>
       <c r="E55" s="127" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F55" s="127" t="s">
         <v>563</v>
@@ -11374,7 +11705,7 @@
       </c>
     </row>
     <row r="56" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B56" s="166"/>
+      <c r="B56" s="168"/>
       <c r="C56" t="s">
         <v>426</v>
       </c>
@@ -11410,7 +11741,7 @@
       </c>
     </row>
     <row r="57" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B57" s="166"/>
+      <c r="B57" s="168"/>
       <c r="C57" t="s">
         <v>427</v>
       </c>
@@ -11418,7 +11749,7 @@
         <v>223</v>
       </c>
       <c r="E57" s="127" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F57" s="127" t="s">
         <v>563</v>
@@ -11439,16 +11770,16 @@
         <v>0x03</v>
       </c>
       <c r="U57" s="115" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="58" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B58" s="166"/>
+      <c r="B58" s="168"/>
       <c r="C58" t="s">
         <v>428</v>
       </c>
       <c r="D58" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="G58" s="126" t="s">
         <v>562</v>
@@ -11467,12 +11798,12 @@
       </c>
     </row>
     <row r="59" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B59" s="166"/>
+      <c r="B59" s="168"/>
       <c r="C59" t="s">
         <v>429</v>
       </c>
       <c r="D59" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="G59" s="126" t="s">
         <v>562</v>
@@ -11491,12 +11822,12 @@
       </c>
     </row>
     <row r="60" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B60" s="166"/>
+      <c r="B60" s="168"/>
       <c r="C60" t="s">
         <v>430</v>
       </c>
       <c r="D60" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="G60" s="126" t="s">
         <v>562</v>
@@ -11515,12 +11846,12 @@
       </c>
     </row>
     <row r="61" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B61" s="166"/>
+      <c r="B61" s="168"/>
       <c r="C61" t="s">
         <v>431</v>
       </c>
       <c r="D61" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E61" s="10"/>
       <c r="F61" s="10"/>
@@ -11541,7 +11872,7 @@
       </c>
     </row>
     <row r="62" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B62" s="166"/>
+      <c r="B62" s="168"/>
       <c r="C62" t="s">
         <v>433</v>
       </c>
@@ -11551,7 +11882,7 @@
       <c r="E62" s="127"/>
       <c r="F62" s="127"/>
       <c r="G62" s="126" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="H62" s="10"/>
       <c r="I62" s="10"/>
@@ -11567,12 +11898,12 @@
       </c>
     </row>
     <row r="63" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="167"/>
+      <c r="B63" s="169"/>
       <c r="C63" s="32" t="s">
         <v>434</v>
       </c>
       <c r="D63" s="32" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E63" s="123"/>
       <c r="F63" s="123"/>
@@ -11593,7 +11924,7 @@
       </c>
     </row>
     <row r="64" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B64" s="165">
+      <c r="B64" s="167">
         <v>6</v>
       </c>
       <c r="C64" s="26" t="s">
@@ -11622,7 +11953,7 @@
       </c>
     </row>
     <row r="65" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B65" s="166"/>
+      <c r="B65" s="168"/>
       <c r="C65" t="s">
         <v>424</v>
       </c>
@@ -11652,7 +11983,7 @@
       </c>
     </row>
     <row r="66" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B66" s="166"/>
+      <c r="B66" s="168"/>
       <c r="C66" t="s">
         <v>425</v>
       </c>
@@ -11660,7 +11991,7 @@
         <v>223</v>
       </c>
       <c r="E66" s="127" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F66" s="127" t="s">
         <v>563</v>
@@ -11681,11 +12012,11 @@
         <v>0x03</v>
       </c>
       <c r="U66" s="11" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="67" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="166"/>
+      <c r="B67" s="168"/>
       <c r="C67" t="s">
         <v>426</v>
       </c>
@@ -11714,11 +12045,11 @@
         <v>0x03</v>
       </c>
       <c r="V67" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="68" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B68" s="166"/>
+      <c r="B68" s="168"/>
       <c r="C68" t="s">
         <v>427</v>
       </c>
@@ -11726,7 +12057,7 @@
         <v>223</v>
       </c>
       <c r="E68" s="127" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F68" s="127" t="s">
         <v>563</v>
@@ -11753,18 +12084,18 @@
         <v>2.5</v>
       </c>
       <c r="X68" s="26" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="Y68" s="26"/>
       <c r="Z68" s="27"/>
     </row>
     <row r="69" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B69" s="166"/>
+      <c r="B69" s="168"/>
       <c r="C69" t="s">
         <v>428</v>
       </c>
       <c r="D69" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E69" s="127" t="s">
         <v>706</v>
@@ -11779,13 +12110,13 @@
         <v>598</v>
       </c>
       <c r="I69" s="10" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="J69" s="119" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="V69" s="28" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="W69" s="145">
         <v>100</v>
@@ -11793,12 +12124,12 @@
       <c r="Z69" s="29"/>
     </row>
     <row r="70" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="166"/>
+      <c r="B70" s="168"/>
       <c r="C70" t="s">
         <v>429</v>
       </c>
       <c r="D70" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="G70" s="126" t="s">
         <v>562</v>
@@ -11807,7 +12138,7 @@
       <c r="I70" s="10"/>
       <c r="J70" s="119"/>
       <c r="V70" s="31" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="W70" s="146">
         <f>W68*W69/100</f>
@@ -11818,12 +12149,12 @@
       <c r="Z70" s="33"/>
     </row>
     <row r="71" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B71" s="166"/>
+      <c r="B71" s="168"/>
       <c r="C71" t="s">
         <v>430</v>
       </c>
       <c r="D71" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="G71" s="126" t="s">
         <v>562</v>
@@ -11833,12 +12164,12 @@
       <c r="J71" s="119"/>
     </row>
     <row r="72" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="166"/>
+      <c r="B72" s="168"/>
       <c r="C72" t="s">
         <v>431</v>
       </c>
       <c r="D72" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E72" s="10"/>
       <c r="F72" s="10"/>
@@ -11849,16 +12180,16 @@
       <c r="I72" s="10"/>
       <c r="J72" s="119"/>
       <c r="V72" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="73" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B73" s="166"/>
+      <c r="B73" s="168"/>
       <c r="C73" t="s">
         <v>433</v>
       </c>
       <c r="D73" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="G73" s="126" t="s">
         <v>562</v>
@@ -11867,7 +12198,7 @@
       <c r="I73" s="10"/>
       <c r="J73" s="119"/>
       <c r="V73" s="25" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="W73" s="144">
         <v>0</v>
@@ -11877,12 +12208,12 @@
       <c r="Z73" s="27"/>
     </row>
     <row r="74" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="167"/>
+      <c r="B74" s="169"/>
       <c r="C74" s="32" t="s">
         <v>434</v>
       </c>
       <c r="D74" s="32" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E74" s="123"/>
       <c r="F74" s="123"/>
@@ -11893,7 +12224,7 @@
       <c r="I74" s="123"/>
       <c r="J74" s="124"/>
       <c r="V74" s="28" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="W74" s="145">
         <v>14000</v>
@@ -11901,7 +12232,7 @@
       <c r="Z74" s="29"/>
     </row>
     <row r="75" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B75" s="165">
+      <c r="B75" s="167">
         <v>7</v>
       </c>
       <c r="C75" s="26" t="s">
@@ -11929,7 +12260,7 @@
         <v>561</v>
       </c>
       <c r="V75" s="28" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="W75">
         <f>W74*W73*0.000001</f>
@@ -11938,7 +12269,7 @@
       <c r="Z75" s="29"/>
     </row>
     <row r="76" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B76" s="166"/>
+      <c r="B76" s="168"/>
       <c r="C76" t="s">
         <v>424</v>
       </c>
@@ -11946,7 +12277,7 @@
         <v>223</v>
       </c>
       <c r="E76" s="127" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F76" s="127" t="s">
         <v>563</v>
@@ -11998,10 +12329,10 @@
         <v>3-lead amperometric</v>
       </c>
       <c r="S76" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="V76" s="28" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="W76" s="145">
         <f>W70</f>
@@ -12010,7 +12341,7 @@
       <c r="Z76" s="29"/>
     </row>
     <row r="77" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="166"/>
+      <c r="B77" s="168"/>
       <c r="C77" t="s">
         <v>425</v>
       </c>
@@ -12018,7 +12349,7 @@
         <v>223</v>
       </c>
       <c r="E77" s="127" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F77" s="127" t="s">
         <v>563</v>
@@ -12039,7 +12370,7 @@
         <v>0x03</v>
       </c>
       <c r="V77" s="31" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="W77" s="146">
         <f>W76+W75</f>
@@ -12050,7 +12381,7 @@
       <c r="Z77" s="33"/>
     </row>
     <row r="78" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B78" s="166"/>
+      <c r="B78" s="168"/>
       <c r="C78" t="s">
         <v>426</v>
       </c>
@@ -12058,7 +12389,7 @@
         <v>223</v>
       </c>
       <c r="E78" s="127" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F78" s="127" t="s">
         <v>563</v>
@@ -12080,7 +12411,7 @@
       </c>
     </row>
     <row r="79" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="166"/>
+      <c r="B79" s="168"/>
       <c r="C79" t="s">
         <v>427</v>
       </c>
@@ -12088,7 +12419,7 @@
         <v>223</v>
       </c>
       <c r="E79" s="127" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F79" s="127" t="s">
         <v>563</v>
@@ -12109,16 +12440,16 @@
         <v>0x03</v>
       </c>
       <c r="V79" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="80" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B80" s="166"/>
+      <c r="B80" s="168"/>
       <c r="C80" t="s">
         <v>428</v>
       </c>
       <c r="D80" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="G80" s="126" t="s">
         <v>562</v>
@@ -12127,7 +12458,7 @@
       <c r="I80" s="10"/>
       <c r="J80" s="119"/>
       <c r="V80" s="25" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="W80" s="148">
         <v>-1</v>
@@ -12137,12 +12468,12 @@
       <c r="Z80" s="27"/>
     </row>
     <row r="81" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B81" s="166"/>
+      <c r="B81" s="168"/>
       <c r="C81" t="s">
         <v>429</v>
       </c>
       <c r="D81" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="G81" s="126" t="s">
         <v>562</v>
@@ -12151,7 +12482,7 @@
       <c r="I81" s="10"/>
       <c r="J81" s="119"/>
       <c r="V81" s="28" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="W81" s="147">
         <v>0</v>
@@ -12159,12 +12490,12 @@
       <c r="Z81" s="29"/>
     </row>
     <row r="82" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B82" s="166"/>
+      <c r="B82" s="168"/>
       <c r="C82" t="s">
         <v>430</v>
       </c>
       <c r="D82" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="G82" s="126" t="s">
         <v>562</v>
@@ -12173,7 +12504,7 @@
       <c r="I82" s="10"/>
       <c r="J82" s="119"/>
       <c r="V82" s="28" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="W82" s="145">
         <f>W68</f>
@@ -12182,12 +12513,12 @@
       <c r="Z82" s="29"/>
     </row>
     <row r="83" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="166"/>
+      <c r="B83" s="168"/>
       <c r="C83" t="s">
         <v>431</v>
       </c>
       <c r="D83" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E83" s="10"/>
       <c r="F83" s="10"/>
@@ -12198,7 +12529,7 @@
       <c r="I83" s="10"/>
       <c r="J83" s="119"/>
       <c r="V83" s="31" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="W83" s="146">
         <f>W80*W82*W81/100</f>
@@ -12209,12 +12540,12 @@
       <c r="Z83" s="33"/>
     </row>
     <row r="84" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B84" s="166"/>
+      <c r="B84" s="168"/>
       <c r="C84" t="s">
         <v>433</v>
       </c>
       <c r="D84" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="G84" s="126" t="s">
         <v>562</v>
@@ -12224,12 +12555,12 @@
       <c r="J84" s="119"/>
     </row>
     <row r="85" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="167"/>
+      <c r="B85" s="169"/>
       <c r="C85" s="32" t="s">
         <v>434</v>
       </c>
       <c r="D85" s="32" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E85" s="123"/>
       <c r="F85" s="123"/>
@@ -12241,7 +12572,7 @@
       <c r="J85" s="124"/>
     </row>
     <row r="86" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B86" s="165">
+      <c r="B86" s="167">
         <v>8</v>
       </c>
       <c r="C86" s="26" t="s">
@@ -12270,12 +12601,12 @@
       </c>
     </row>
     <row r="87" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B87" s="166"/>
+      <c r="B87" s="168"/>
       <c r="C87" t="s">
         <v>424</v>
       </c>
       <c r="D87" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E87" s="127" t="s">
         <v>706</v>
@@ -12287,7 +12618,7 @@
         <v>581</v>
       </c>
       <c r="H87" s="10" t="str">
-        <f t="shared" ref="H87:H98" si="41">CONCATENATE("0x",BIN2HEX(RIGHT(E87,LEN(E87)-2),2))</f>
+        <f t="shared" ref="H87" si="41">CONCATENATE("0x",BIN2HEX(RIGHT(E87,LEN(E87)-2),2))</f>
         <v>0x14</v>
       </c>
       <c r="I87" s="10" t="str">
@@ -12300,12 +12631,12 @@
       </c>
     </row>
     <row r="88" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B88" s="166"/>
+      <c r="B88" s="168"/>
       <c r="C88" t="s">
         <v>425</v>
       </c>
       <c r="D88" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E88" s="127" t="s">
         <v>706</v>
@@ -12330,12 +12661,12 @@
       </c>
     </row>
     <row r="89" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B89" s="166"/>
+      <c r="B89" s="168"/>
       <c r="C89" t="s">
         <v>426</v>
       </c>
       <c r="D89" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E89" s="127" t="s">
         <v>706</v>
@@ -12360,12 +12691,12 @@
       </c>
     </row>
     <row r="90" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B90" s="166"/>
+      <c r="B90" s="168"/>
       <c r="C90" t="s">
         <v>427</v>
       </c>
       <c r="D90" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E90" s="127" t="s">
         <v>706</v>
@@ -12390,12 +12721,12 @@
       </c>
     </row>
     <row r="91" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B91" s="166"/>
+      <c r="B91" s="168"/>
       <c r="C91" t="s">
         <v>428</v>
       </c>
       <c r="D91" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E91" s="127" t="s">
         <v>706</v>
@@ -12420,12 +12751,12 @@
       </c>
     </row>
     <row r="92" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B92" s="166"/>
+      <c r="B92" s="168"/>
       <c r="C92" t="s">
         <v>429</v>
       </c>
       <c r="D92" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E92" s="127" t="s">
         <v>706</v>
@@ -12450,12 +12781,12 @@
       </c>
     </row>
     <row r="93" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B93" s="166"/>
+      <c r="B93" s="168"/>
       <c r="C93" t="s">
         <v>430</v>
       </c>
       <c r="D93" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E93" s="127" t="s">
         <v>706</v>
@@ -12480,12 +12811,12 @@
       </c>
     </row>
     <row r="94" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B94" s="166"/>
+      <c r="B94" s="168"/>
       <c r="C94" t="s">
         <v>431</v>
       </c>
       <c r="D94" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E94" s="127" t="s">
         <v>706</v>
@@ -12510,12 +12841,12 @@
       </c>
     </row>
     <row r="95" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B95" s="166"/>
+      <c r="B95" s="168"/>
       <c r="C95" t="s">
         <v>433</v>
       </c>
       <c r="D95" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E95" s="127" t="s">
         <v>706</v>
@@ -12540,12 +12871,12 @@
       </c>
     </row>
     <row r="96" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B96" s="167"/>
+      <c r="B96" s="169"/>
       <c r="C96" s="32" t="s">
         <v>434</v>
       </c>
       <c r="D96" s="32" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="E96" s="141" t="s">
         <v>706</v>
@@ -12570,8 +12901,8 @@
       </c>
     </row>
     <row r="97" spans="2:20" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B97" s="172" t="s">
-        <v>841</v>
+      <c r="B97" s="174" t="s">
+        <v>839</v>
       </c>
       <c r="C97" s="26" t="s">
         <v>647</v>
@@ -12598,7 +12929,7 @@
         <v>561</v>
       </c>
       <c r="L97" s="134" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="M97" s="10" t="s">
         <v>650</v>
@@ -12619,23 +12950,23 @@
         <v>655</v>
       </c>
       <c r="S97" s="134" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="T97" s="134"/>
     </row>
     <row r="98" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B98" s="173"/>
+      <c r="B98" s="175"/>
       <c r="C98" t="s">
         <v>424</v>
       </c>
       <c r="D98" t="s">
+        <v>793</v>
+      </c>
+      <c r="E98" s="127" t="s">
         <v>795</v>
       </c>
-      <c r="E98" s="127" t="s">
-        <v>797</v>
-      </c>
       <c r="F98" s="127" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="G98" s="126" t="s">
         <v>581</v>
@@ -12685,18 +13016,18 @@
       </c>
     </row>
     <row r="99" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B99" s="173"/>
+      <c r="B99" s="175"/>
       <c r="C99" t="s">
         <v>425</v>
       </c>
       <c r="D99" t="s">
+        <v>793</v>
+      </c>
+      <c r="E99" s="127" t="s">
         <v>795</v>
       </c>
-      <c r="E99" s="127" t="s">
-        <v>797</v>
-      </c>
       <c r="F99" s="127" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="G99" s="126" t="s">
         <v>581</v>
@@ -12723,7 +13054,7 @@
       <c r="R99" s="10"/>
     </row>
     <row r="100" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B100" s="173"/>
+      <c r="B100" s="175"/>
       <c r="C100" t="s">
         <v>426</v>
       </c>
@@ -12731,7 +13062,7 @@
         <v>223</v>
       </c>
       <c r="E100" s="127" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="F100" s="127" t="s">
         <v>563</v>
@@ -12784,18 +13115,18 @@
       </c>
     </row>
     <row r="101" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B101" s="173"/>
+      <c r="B101" s="175"/>
       <c r="C101" t="s">
         <v>427</v>
       </c>
       <c r="D101" t="s">
+        <v>793</v>
+      </c>
+      <c r="E101" s="127" t="s">
         <v>795</v>
       </c>
-      <c r="E101" s="127" t="s">
-        <v>797</v>
-      </c>
       <c r="F101" s="127" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="G101" s="126" t="s">
         <v>581</v>
@@ -12814,12 +13145,12 @@
       </c>
     </row>
     <row r="102" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B102" s="173"/>
+      <c r="B102" s="175"/>
       <c r="C102" t="s">
         <v>428</v>
       </c>
       <c r="D102" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E102" s="126" t="s">
         <v>562</v>
@@ -12844,12 +13175,12 @@
       </c>
     </row>
     <row r="103" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B103" s="173"/>
+      <c r="B103" s="175"/>
       <c r="C103" t="s">
         <v>429</v>
       </c>
       <c r="D103" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E103" s="126" t="s">
         <v>562</v>
@@ -12875,18 +13206,18 @@
       <c r="O103" s="11"/>
     </row>
     <row r="104" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B104" s="173"/>
+      <c r="B104" s="175"/>
       <c r="C104" t="s">
         <v>430</v>
       </c>
       <c r="D104" t="s">
+        <v>793</v>
+      </c>
+      <c r="E104" s="127" t="s">
         <v>795</v>
       </c>
-      <c r="E104" s="127" t="s">
-        <v>797</v>
-      </c>
       <c r="F104" s="127" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="G104" s="126" t="s">
         <v>581</v>
@@ -12905,18 +13236,18 @@
       </c>
     </row>
     <row r="105" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B105" s="173"/>
+      <c r="B105" s="175"/>
       <c r="C105" t="s">
         <v>431</v>
       </c>
       <c r="D105" t="s">
+        <v>793</v>
+      </c>
+      <c r="E105" s="127" t="s">
         <v>795</v>
       </c>
-      <c r="E105" s="127" t="s">
-        <v>797</v>
-      </c>
       <c r="F105" s="127" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="G105" s="126" t="s">
         <v>581</v>
@@ -12935,7 +13266,7 @@
       </c>
     </row>
     <row r="106" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B106" s="173"/>
+      <c r="B106" s="175"/>
       <c r="C106" t="s">
         <v>433</v>
       </c>
@@ -12949,7 +13280,7 @@
         <v>562</v>
       </c>
       <c r="G106" s="126" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="H106" s="10" t="str">
         <f t="shared" si="50"/>
@@ -12965,12 +13296,12 @@
       </c>
     </row>
     <row r="107" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B107" s="174"/>
+      <c r="B107" s="176"/>
       <c r="C107" s="32" t="s">
         <v>434</v>
       </c>
       <c r="D107" s="32" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E107" s="140" t="s">
         <v>562</v>
@@ -12996,7 +13327,7 @@
     </row>
     <row r="108" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B108" s="142" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C108" s="143"/>
       <c r="D108" s="142" t="str">
@@ -13012,7 +13343,7 @@
     </row>
     <row r="109" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B109" s="142" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C109" s="143"/>
       <c r="D109" s="142" t="str">
@@ -13022,15 +13353,15 @@
       <c r="E109" s="143"/>
       <c r="F109" s="143"/>
       <c r="G109" s="143"/>
-      <c r="H109" s="195" t="s">
-        <v>840</v>
+      <c r="H109" s="149" t="s">
+        <v>838</v>
       </c>
       <c r="I109" s="143"/>
       <c r="J109" s="143"/>
     </row>
     <row r="110" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B110" s="142" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C110" s="143"/>
       <c r="D110" s="142" t="str">
@@ -13045,8 +13376,8 @@
       <c r="J110" s="143"/>
     </row>
     <row r="111" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B111" s="172" t="s">
-        <v>842</v>
+      <c r="B111" s="174" t="s">
+        <v>840</v>
       </c>
       <c r="C111" s="26" t="s">
         <v>647</v>
@@ -13074,14 +13405,11 @@
       </c>
     </row>
     <row r="112" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B112" s="173"/>
+      <c r="B112" s="175"/>
       <c r="C112" t="s">
         <v>424</v>
       </c>
-      <c r="D112" s="196"/>
-      <c r="E112" s="196"/>
-      <c r="F112" s="196"/>
-      <c r="G112" s="197"/>
+      <c r="G112" s="10"/>
       <c r="H112" s="10" t="e">
         <f t="shared" ref="H112:H121" si="60">CONCATENATE("0x",BIN2HEX(RIGHT(E112,LEN(E112)-2),2))</f>
         <v>#VALUE!</v>
@@ -13096,14 +13424,11 @@
       </c>
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B113" s="173"/>
+      <c r="B113" s="175"/>
       <c r="C113" t="s">
         <v>425</v>
       </c>
-      <c r="D113" s="196"/>
-      <c r="E113" s="196"/>
-      <c r="F113" s="196"/>
-      <c r="G113" s="197"/>
+      <c r="G113" s="10"/>
       <c r="H113" s="10" t="e">
         <f t="shared" si="60"/>
         <v>#VALUE!</v>
@@ -13118,14 +13443,11 @@
       </c>
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B114" s="173"/>
+      <c r="B114" s="175"/>
       <c r="C114" t="s">
         <v>426</v>
       </c>
-      <c r="D114" s="196"/>
-      <c r="E114" s="196"/>
-      <c r="F114" s="196"/>
-      <c r="G114" s="197"/>
+      <c r="G114" s="10"/>
       <c r="H114" s="10" t="e">
         <f t="shared" si="60"/>
         <v>#VALUE!</v>
@@ -13140,14 +13462,11 @@
       </c>
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B115" s="173"/>
+      <c r="B115" s="175"/>
       <c r="C115" t="s">
         <v>427</v>
       </c>
-      <c r="D115" s="196"/>
-      <c r="E115" s="196"/>
-      <c r="F115" s="196"/>
-      <c r="G115" s="197"/>
+      <c r="G115" s="10"/>
       <c r="H115" s="10" t="e">
         <f t="shared" si="60"/>
         <v>#VALUE!</v>
@@ -13162,14 +13481,13 @@
       </c>
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B116" s="173"/>
+      <c r="B116" s="175"/>
       <c r="C116" t="s">
         <v>428</v>
       </c>
-      <c r="D116" s="196"/>
-      <c r="E116" s="197"/>
-      <c r="F116" s="197"/>
-      <c r="G116" s="197"/>
+      <c r="E116" s="10"/>
+      <c r="F116" s="10"/>
+      <c r="G116" s="10"/>
       <c r="H116" s="10" t="e">
         <f t="shared" si="60"/>
         <v>#VALUE!</v>
@@ -13184,14 +13502,13 @@
       </c>
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B117" s="173"/>
+      <c r="B117" s="175"/>
       <c r="C117" t="s">
         <v>429</v>
       </c>
-      <c r="D117" s="196"/>
-      <c r="E117" s="197"/>
-      <c r="F117" s="197"/>
-      <c r="G117" s="197"/>
+      <c r="E117" s="10"/>
+      <c r="F117" s="10"/>
+      <c r="G117" s="10"/>
       <c r="H117" s="10" t="e">
         <f t="shared" si="60"/>
         <v>#VALUE!</v>
@@ -13206,14 +13523,11 @@
       </c>
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B118" s="173"/>
+      <c r="B118" s="175"/>
       <c r="C118" t="s">
         <v>430</v>
       </c>
-      <c r="D118" s="196"/>
-      <c r="E118" s="196"/>
-      <c r="F118" s="196"/>
-      <c r="G118" s="197"/>
+      <c r="G118" s="10"/>
       <c r="H118" s="10" t="e">
         <f t="shared" si="60"/>
         <v>#VALUE!</v>
@@ -13228,14 +13542,11 @@
       </c>
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B119" s="173"/>
+      <c r="B119" s="175"/>
       <c r="C119" t="s">
         <v>431</v>
       </c>
-      <c r="D119" s="196"/>
-      <c r="E119" s="196"/>
-      <c r="F119" s="196"/>
-      <c r="G119" s="197"/>
+      <c r="G119" s="10"/>
       <c r="H119" s="10" t="e">
         <f t="shared" si="60"/>
         <v>#VALUE!</v>
@@ -13250,14 +13561,13 @@
       </c>
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B120" s="173"/>
+      <c r="B120" s="175"/>
       <c r="C120" t="s">
         <v>433</v>
       </c>
-      <c r="D120" s="196"/>
-      <c r="E120" s="197"/>
-      <c r="F120" s="197"/>
-      <c r="G120" s="197"/>
+      <c r="E120" s="10"/>
+      <c r="F120" s="10"/>
+      <c r="G120" s="10"/>
       <c r="H120" s="10" t="e">
         <f t="shared" si="60"/>
         <v>#VALUE!</v>
@@ -13272,14 +13582,14 @@
       </c>
     </row>
     <row r="121" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B121" s="174"/>
+      <c r="B121" s="176"/>
       <c r="C121" s="32" t="s">
         <v>434</v>
       </c>
-      <c r="D121" s="198"/>
-      <c r="E121" s="199"/>
-      <c r="F121" s="199"/>
-      <c r="G121" s="199"/>
+      <c r="D121" s="32"/>
+      <c r="E121" s="123"/>
+      <c r="F121" s="123"/>
+      <c r="G121" s="123"/>
       <c r="H121" s="123" t="e">
         <f t="shared" si="60"/>
         <v>#VALUE!</v>
@@ -13295,7 +13605,7 @@
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B122" s="142" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C122" s="143"/>
       <c r="D122" s="142" t="e">
@@ -13311,7 +13621,7 @@
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B123" s="142" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C123" s="143"/>
       <c r="D123" s="142" t="e">
@@ -13321,15 +13631,15 @@
       <c r="E123" s="143"/>
       <c r="F123" s="143"/>
       <c r="G123" s="143"/>
-      <c r="H123" s="195" t="s">
-        <v>840</v>
+      <c r="H123" s="149" t="s">
+        <v>838</v>
       </c>
       <c r="I123" s="143"/>
       <c r="J123" s="143"/>
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B124" s="142" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C124" s="143"/>
       <c r="D124" s="142" t="e">
@@ -13373,7 +13683,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:S57"/>
   <sheetViews>
@@ -13668,22 +13978,22 @@
     </row>
     <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="180" t="s">
-        <v>823</v>
-      </c>
-      <c r="B24" s="181"/>
-      <c r="C24" s="181"/>
-      <c r="D24" s="181"/>
-      <c r="E24" s="181"/>
-      <c r="F24" s="182"/>
+      <c r="A24" s="182" t="s">
+        <v>821</v>
+      </c>
+      <c r="B24" s="183"/>
+      <c r="C24" s="183"/>
+      <c r="D24" s="183"/>
+      <c r="E24" s="183"/>
+      <c r="F24" s="184"/>
     </row>
     <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="183"/>
-      <c r="B25" s="184"/>
-      <c r="C25" s="184"/>
-      <c r="D25" s="184"/>
-      <c r="E25" s="184"/>
-      <c r="F25" s="185"/>
+      <c r="A25" s="185"/>
+      <c r="B25" s="186"/>
+      <c r="C25" s="186"/>
+      <c r="D25" s="186"/>
+      <c r="E25" s="186"/>
+      <c r="F25" s="187"/>
     </row>
     <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -13778,7 +14088,7 @@
       <c r="A35" s="28"/>
       <c r="E35" s="29"/>
       <c r="F35" s="28" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G35">
         <f>0.67*G34</f>
@@ -13824,7 +14134,7 @@
         <v>604</v>
       </c>
       <c r="J37" s="28" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="K37">
         <f>0.2*K36</f>
@@ -13979,7 +14289,7 @@
     <row r="47" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="48" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="25" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B48" s="26"/>
       <c r="C48" s="26"/>
@@ -14028,7 +14338,7 @@
         <v>705</v>
       </c>
       <c r="F50" s="127" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G50" s="126" t="s">
         <v>581</v>
@@ -14071,13 +14381,13 @@
     <row r="51" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="28"/>
       <c r="D51" s="25" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E51" s="26" t="s">
         <v>705</v>
       </c>
       <c r="F51" s="26" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="G51" s="26" t="s">
         <v>581</v>
@@ -14091,31 +14401,31 @@
     <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" s="28"/>
       <c r="D52" s="25" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="E52" s="129" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="F52" s="129" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="G52" s="129" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="H52" s="129" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I52" s="129" t="s">
         <v>558</v>
       </c>
       <c r="J52" s="129" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="K52" s="130" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="L52" s="132" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="M52" s="129" t="s">
         <v>558</v>
@@ -14125,41 +14435,41 @@
     <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" s="28"/>
       <c r="D53" s="28" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="G53" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="H53" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I53" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="J53" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="K53" s="29" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="L53" s="100" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="M53" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="S53" s="29"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" s="28"/>
       <c r="D54" s="28" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="E54" s="116">
         <v>-0.12</v>
@@ -14193,7 +14503,7 @@
     <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" s="28"/>
       <c r="D55" s="28" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E55" s="10">
         <v>-1.002</v>
@@ -14227,7 +14537,7 @@
     <row r="56" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="28"/>
       <c r="D56" s="135" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="E56" s="136"/>
       <c r="F56" s="136"/>
@@ -14286,7 +14596,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:U7"/>
   <sheetViews>
@@ -14392,19 +14702,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="66.109375" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="2" max="2" width="60.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -14428,7 +14738,7 @@
         <v>262</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="E3" s="28">
         <v>4</v>
@@ -14469,7 +14779,7 @@
         <v>264</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" ref="D5:D46" si="0">DEC2HEX(A5)</f>
+        <f t="shared" ref="D5:D52" si="0">DEC2HEX(A5)</f>
         <v>1</v>
       </c>
       <c r="E5" s="31"/>
@@ -14691,10 +15001,7 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>714</v>
-      </c>
-      <c r="C23" t="s">
-        <v>715</v>
+        <v>853</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
@@ -14706,7 +15013,7 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
@@ -14718,7 +15025,7 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
@@ -14730,7 +15037,7 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
@@ -14742,10 +15049,10 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="D27" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2HEX(A27)</f>
         <v>17</v>
       </c>
     </row>
@@ -14754,7 +15061,7 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="0"/>
@@ -14766,7 +15073,7 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="0"/>
@@ -14778,7 +15085,7 @@
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
@@ -14790,7 +15097,7 @@
         <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="0"/>
@@ -14802,7 +15109,7 @@
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="0"/>
@@ -14814,7 +15121,7 @@
         <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="0"/>
@@ -14826,7 +15133,7 @@
         <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="0"/>
@@ -14838,7 +15145,7 @@
         <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="0"/>
@@ -14850,7 +15157,7 @@
         <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="0"/>
@@ -14862,7 +15169,7 @@
         <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="0"/>
@@ -14874,7 +15181,7 @@
         <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="0"/>
@@ -14886,7 +15193,7 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="0"/>
@@ -14898,7 +15205,7 @@
         <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="0"/>
@@ -14910,7 +15217,7 @@
         <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="0"/>
@@ -14922,7 +15229,7 @@
         <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="0"/>
@@ -14934,7 +15241,7 @@
         <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="0"/>
@@ -14946,7 +15253,7 @@
         <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="0"/>
@@ -14958,7 +15265,7 @@
         <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="0"/>
@@ -14970,11 +15277,77 @@
         <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="0"/>
         <v>2A</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>43</v>
+      </c>
+      <c r="B47" t="s">
+        <v>854</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="0"/>
+        <v>2B</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>44</v>
+      </c>
+      <c r="B48" t="s">
+        <v>855</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="0"/>
+        <v>2C</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>45</v>
+      </c>
+      <c r="B49" t="s">
+        <v>856</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="0"/>
+        <v>2D</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>46</v>
+      </c>
+      <c r="B50" t="s">
+        <v>857</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="0"/>
+        <v>2E</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>47</v>
+      </c>
+      <c r="B51" t="s">
+        <v>858</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="0"/>
+        <v>2F</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D52" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -14987,12 +15360,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15046,12 +15419,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15174,13 +15547,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15659,15 +16032,15 @@
     </row>
     <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B61" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B62" t="s">
         <v>320</v>
@@ -15675,27 +16048,27 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="11" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B67" t="s">
         <v>320</v>
@@ -15703,7 +16076,7 @@
     </row>
     <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B68" t="s">
         <v>320</v>
@@ -15724,7 +16097,76 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97024003-1246-4C4C-9936-1C0305717267}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="30.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>843</v>
+      </c>
+      <c r="B3" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>845</v>
+      </c>
+      <c r="B4" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>847</v>
+      </c>
+      <c r="B5" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>849</v>
+      </c>
+      <c r="B6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>850</v>
+      </c>
+      <c r="B7" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>851</v>
+      </c>
+      <c r="B8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
@@ -15849,366 +16291,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L18"/>
-  <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="3.109375" customWidth="1"/>
-    <col min="2" max="5" width="10.88671875" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="B1" s="47" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="L2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="1">
-        <v>29</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="5">
-        <v>13</v>
-      </c>
-      <c r="J4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="1">
-        <v>37</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="5">
-        <v>10</v>
-      </c>
-      <c r="J5" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="L5" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="1">
-        <v>31</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="5">
-        <v>12</v>
-      </c>
-      <c r="J6" t="s">
-        <v>139</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="L6" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="1">
-        <v>30</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="5">
-        <v>11</v>
-      </c>
-      <c r="J7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L8" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="J10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="L10" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B1" location="Contents!A1" display="Contents!A1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="360" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:M17"/>
   <sheetViews>
@@ -16584,7 +16667,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -16629,12 +16712,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16664,11 +16747,11 @@
       <c r="C3" t="s">
         <v>477</v>
       </c>
-      <c r="F3" s="186" t="s">
-        <v>779</v>
-      </c>
-      <c r="G3" s="187"/>
-      <c r="H3" s="188"/>
+      <c r="F3" s="188" t="s">
+        <v>777</v>
+      </c>
+      <c r="G3" s="189"/>
+      <c r="H3" s="190"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -16678,10 +16761,10 @@
         <v>474</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="G4" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="H4" s="29"/>
     </row>
@@ -16693,10 +16776,10 @@
         <v>476</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="G5" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="H5" s="29"/>
     </row>
@@ -16711,13 +16794,13 @@
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="F6" s="31" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="H6" s="33"/>
     </row>
@@ -16732,7 +16815,7 @@
         <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -16748,11 +16831,11 @@
       <c r="D8" t="s">
         <v>572</v>
       </c>
-      <c r="F8" s="186" t="s">
-        <v>784</v>
-      </c>
-      <c r="G8" s="187"/>
-      <c r="H8" s="188"/>
+      <c r="F8" s="188" t="s">
+        <v>782</v>
+      </c>
+      <c r="G8" s="189"/>
+      <c r="H8" s="190"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -16767,45 +16850,45 @@
       <c r="D9" t="s">
         <v>483</v>
       </c>
-      <c r="F9" s="189" t="s">
-        <v>788</v>
-      </c>
-      <c r="G9" s="190"/>
-      <c r="H9" s="191"/>
+      <c r="F9" s="191" t="s">
+        <v>786</v>
+      </c>
+      <c r="G9" s="192"/>
+      <c r="H9" s="193"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F10" s="28" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="G10" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="H10" s="29"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F11" s="28" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="G11" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="H11" s="29"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F12" s="28" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G12" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="H12" s="29"/>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F13" s="192" t="s">
-        <v>791</v>
-      </c>
-      <c r="G13" s="193"/>
-      <c r="H13" s="194"/>
+      <c r="F13" s="194" t="s">
+        <v>789</v>
+      </c>
+      <c r="G13" s="195"/>
+      <c r="H13" s="196"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -16823,6 +16906,365 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L18"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.109375" customWidth="1"/>
+    <col min="2" max="5" width="10.88671875" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="B1" s="47" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
+        <v>29</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="5">
+        <v>13</v>
+      </c>
+      <c r="J4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <v>37</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="5">
+        <v>10</v>
+      </c>
+      <c r="J5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="L5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>31</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="5">
+        <v>12</v>
+      </c>
+      <c r="J6" t="s">
+        <v>139</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="L6" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="5">
+        <v>11</v>
+      </c>
+      <c r="J7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="J10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="L10" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" location="Contents!A1" display="Contents!A1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
@@ -16913,12 +17355,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:L12"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17233,12 +17675,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17358,12 +17800,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C5" sqref="A5:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17439,12 +17881,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="A2" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17469,16 +17911,16 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A4" s="149" t="s">
+      <c r="A4" s="150" t="s">
         <v>280</v>
       </c>
-      <c r="B4" s="149"/>
-      <c r="C4" s="149"/>
-      <c r="E4" s="149" t="s">
+      <c r="B4" s="150"/>
+      <c r="C4" s="150"/>
+      <c r="E4" s="150" t="s">
         <v>281</v>
       </c>
-      <c r="F4" s="149"/>
-      <c r="G4" s="149"/>
+      <c r="F4" s="150"/>
+      <c r="G4" s="150"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -17507,7 +17949,7 @@
       <c r="B6" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="151" t="s">
         <v>103</v>
       </c>
       <c r="E6" s="15">
@@ -17516,7 +17958,7 @@
       <c r="F6" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="151" t="s">
         <v>103</v>
       </c>
     </row>
@@ -17527,18 +17969,14 @@
       <c r="B7" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>103</v>
-      </c>
+      <c r="C7" s="151"/>
       <c r="E7" s="15">
         <v>1</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="G7" s="15" t="s">
-        <v>103</v>
-      </c>
+      <c r="G7" s="151"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="15">
@@ -17547,18 +17985,14 @@
       <c r="B8" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>103</v>
-      </c>
+      <c r="C8" s="151"/>
       <c r="E8" s="15">
         <v>2</v>
       </c>
       <c r="F8" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="G8" s="15" t="s">
-        <v>103</v>
-      </c>
+      <c r="G8" s="151"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
@@ -17567,18 +18001,14 @@
       <c r="B9" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>103</v>
-      </c>
+      <c r="C9" s="151"/>
       <c r="E9" s="15">
         <v>3</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="G9" s="15" t="s">
-        <v>103</v>
-      </c>
+      <c r="G9" s="151"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
@@ -17687,9 +18117,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="E4:G4"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="G6:G9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="Contents!A1" display="Contents!A1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
@@ -17698,7 +18130,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:L108"/>
   <sheetViews>
@@ -17723,24 +18155,24 @@
     <row r="2" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="H3" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C4" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -17748,13 +18180,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="H5">
         <v>5</v>
       </c>
       <c r="I5" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -17762,13 +18194,13 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -17776,13 +18208,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="H7">
         <v>3</v>
       </c>
       <c r="I7" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
@@ -17790,26 +18222,26 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="H8">
         <v>4</v>
       </c>
       <c r="I8" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B10" s="149" t="s">
+      <c r="B10" s="150" t="s">
         <v>292</v>
       </c>
-      <c r="C10" s="149"/>
-      <c r="D10" s="149"/>
-      <c r="H10" s="149" t="s">
+      <c r="C10" s="150"/>
+      <c r="D10" s="150"/>
+      <c r="H10" s="150" t="s">
         <v>293</v>
       </c>
-      <c r="I10" s="149"/>
-      <c r="J10" s="149"/>
+      <c r="I10" s="150"/>
+      <c r="J10" s="150"/>
     </row>
     <row r="11" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
@@ -17973,11 +18405,11 @@
       </c>
     </row>
     <row r="29" spans="2:10" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H29" s="150" t="s">
+      <c r="H29" s="152" t="s">
         <v>307</v>
       </c>
-      <c r="I29" s="151"/>
-      <c r="J29" s="152"/>
+      <c r="I29" s="153"/>
+      <c r="J29" s="154"/>
     </row>
     <row r="30" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="25" t="s">
@@ -17987,9 +18419,9 @@
         <v>106</v>
       </c>
       <c r="D30" s="27"/>
-      <c r="H30" s="153"/>
-      <c r="I30" s="154"/>
-      <c r="J30" s="155"/>
+      <c r="H30" s="155"/>
+      <c r="I30" s="156"/>
+      <c r="J30" s="157"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="28">
@@ -18663,226 +19095,4 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="B1:P9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="20.109375" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:16" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="B1" s="47" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="3" spans="2:16" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="66" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>383</v>
-      </c>
-      <c r="I4" s="156" t="s">
-        <v>394</v>
-      </c>
-      <c r="J4" s="157"/>
-      <c r="K4" s="158"/>
-    </row>
-    <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C6" s="25">
-        <v>0</v>
-      </c>
-      <c r="D6" s="26">
-        <v>1</v>
-      </c>
-      <c r="E6" s="26">
-        <v>2</v>
-      </c>
-      <c r="F6" s="27">
-        <v>3</v>
-      </c>
-      <c r="G6" s="68">
-        <v>4</v>
-      </c>
-      <c r="H6" s="68">
-        <v>5</v>
-      </c>
-      <c r="I6" s="68">
-        <v>6</v>
-      </c>
-      <c r="J6" s="25">
-        <v>7</v>
-      </c>
-      <c r="K6" s="27">
-        <v>8</v>
-      </c>
-      <c r="L6" s="68">
-        <v>9</v>
-      </c>
-      <c r="M6" s="25">
-        <v>10</v>
-      </c>
-      <c r="N6" s="27">
-        <v>11</v>
-      </c>
-      <c r="O6" s="67" t="s">
-        <v>129</v>
-      </c>
-      <c r="P6" s="68" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
-        <v>385</v>
-      </c>
-      <c r="C7" s="31">
-        <v>0</v>
-      </c>
-      <c r="D7" s="32">
-        <v>0</v>
-      </c>
-      <c r="E7" s="32">
-        <v>0</v>
-      </c>
-      <c r="F7" s="33">
-        <v>5</v>
-      </c>
-      <c r="G7" s="69">
-        <v>2</v>
-      </c>
-      <c r="H7" s="69">
-        <v>13</v>
-      </c>
-      <c r="I7" s="69">
-        <v>0</v>
-      </c>
-      <c r="J7" s="31" t="s">
-        <v>395</v>
-      </c>
-      <c r="K7" s="33" t="s">
-        <v>396</v>
-      </c>
-      <c r="L7" s="69">
-        <v>0</v>
-      </c>
-      <c r="M7" s="31" t="s">
-        <v>395</v>
-      </c>
-      <c r="N7" s="33" t="s">
-        <v>399</v>
-      </c>
-      <c r="O7" s="67" t="s">
-        <v>129</v>
-      </c>
-      <c r="P7" s="69" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" s="63" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="63" t="s">
-        <v>384</v>
-      </c>
-      <c r="C8" s="161" t="s">
-        <v>387</v>
-      </c>
-      <c r="D8" s="163"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="162"/>
-      <c r="G8" s="70" t="s">
-        <v>388</v>
-      </c>
-      <c r="H8" s="70" t="s">
-        <v>391</v>
-      </c>
-      <c r="I8" s="73" t="s">
-        <v>403</v>
-      </c>
-      <c r="J8" s="159" t="s">
-        <v>397</v>
-      </c>
-      <c r="K8" s="160"/>
-      <c r="L8" s="70" t="s">
-        <v>389</v>
-      </c>
-      <c r="M8" s="159" t="s">
-        <v>397</v>
-      </c>
-      <c r="N8" s="160"/>
-      <c r="O8" s="67" t="s">
-        <v>129</v>
-      </c>
-      <c r="P8" s="71" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" s="63" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="63" t="s">
-        <v>386</v>
-      </c>
-      <c r="C9" s="161" t="s">
-        <v>387</v>
-      </c>
-      <c r="D9" s="163"/>
-      <c r="E9" s="163"/>
-      <c r="F9" s="162"/>
-      <c r="G9" s="70" t="s">
-        <v>393</v>
-      </c>
-      <c r="H9" s="70" t="s">
-        <v>392</v>
-      </c>
-      <c r="I9" s="70" t="s">
-        <v>390</v>
-      </c>
-      <c r="J9" s="161" t="s">
-        <v>564</v>
-      </c>
-      <c r="K9" s="162"/>
-      <c r="L9" s="70" t="s">
-        <v>398</v>
-      </c>
-      <c r="M9" s="161" t="s">
-        <v>565</v>
-      </c>
-      <c r="N9" s="162"/>
-      <c r="O9" s="67" t="s">
-        <v>129</v>
-      </c>
-      <c r="P9" s="72" t="s">
-        <v>401</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B1" location="Contents!A1" display="Contents!A1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
-    <hyperlink ref="I8" location="'Sensor Type table'!B12" display="see table sensor type. " xr:uid="{00000000-0004-0000-0800-000001000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>